--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V14"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -515,30 +515,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>trailing_ratio</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>profit</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>buy_order_id</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>limit_if_touched_order_id</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>stop_order_id</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>trailing_LIT_order_id</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>trailing_stop_limit_order_id</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>timezone</t>
         </is>
@@ -598,29 +608,37 @@
         <v>1.007</v>
       </c>
       <c r="Q2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R2" t="n">
         <v>1.73</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>FA1956DF73E03B2000</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>FA1956E75EBF44A000</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>FA1956E877FC84A000</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>FA1956EEE2AC3B2000</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -680,25 +698,33 @@
         <v>1.005</v>
       </c>
       <c r="Q3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.180000000000027</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>FA1951CACA1BBB2000</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>FA1958EED98D44A000</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>FA1951CB1F203B2000</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -758,25 +784,33 @@
         <v>1.005</v>
       </c>
       <c r="Q4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.09</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>FA1951E1BCC384A000</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>FA1951E253C07B2000</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>FA1951E5847EC4A000</t>
         </is>
       </c>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr">
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -834,21 +868,29 @@
         <v>1.007</v>
       </c>
       <c r="Q5" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R5" t="n">
         <v>3</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>FA195825A91F04A000</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>FA19582868EDBB2000</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -908,25 +950,33 @@
         <v>1.007</v>
       </c>
       <c r="Q6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R6" t="n">
         <v>3.05</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>FA19582A946244A000</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>FA1956E75EBF44A000</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>FA19582C2F87C4A000</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr">
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -986,25 +1036,33 @@
         <v>1.007</v>
       </c>
       <c r="Q7" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R7" t="n">
         <v>3.706299999999888</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>FA195832F268FB2000</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>FA1958EE17A944A000</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>FA19583383217B2000</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr">
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -1064,25 +1122,33 @@
         <v>1.007</v>
       </c>
       <c r="Q8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R8" t="n">
         <v>3.460000000000023</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>FA19583495733B2000</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>FA1958EED5DB3B2000</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>FA195834E6D27B2000</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -1093,7 +1159,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1142,25 +1208,33 @@
         <v>1.006640023500978</v>
       </c>
       <c r="Q9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R9" t="n">
         <v>7.330000000000246</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>FA195ABB6245FB2000</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>FA195ABBA93BC4A000</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>FA195ABBA9777B2000</t>
         </is>
       </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -1171,7 +1245,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1218,25 +1292,37 @@
         <v>1.007</v>
       </c>
       <c r="Q10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>FA195AC7644AFB2000</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>FA195ADCDD993B2000</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>FA195ADCDE0A04A000</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr">
+        <is>
+          <t>FA195D1252483B2000</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -1247,7 +1333,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1294,25 +1380,37 @@
         <v>1.007</v>
       </c>
       <c r="Q11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R11" t="n">
         <v>0</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>FA195AC992643B2000</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>FA195ADCDEA384A000</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>FA195ADCDFD9FB2000</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
+        <is>
+          <t>FA195D120DDD84A000</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -1323,7 +1421,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1370,25 +1468,37 @@
         <v>1.007</v>
       </c>
       <c r="Q12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>FA195AE1D1EF04A000</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>FA195AE220BF3B2000</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>FA195AE22108FB2000</t>
         </is>
       </c>
-      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
+        <is>
+          <t>FA195D12895904A000</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -1399,7 +1509,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1448,25 +1558,33 @@
         <v>1.007</v>
       </c>
       <c r="Q13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R13" t="n">
         <v>3.780000000000023</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>FA195AF8385384A000</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>FA195AFE0795BB2000</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>FA195AFE07D3FB2000</t>
         </is>
       </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>FAXXXX</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -1477,7 +1595,7 @@
         <v>34</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1524,25 +1642,33 @@
         <v>1.007</v>
       </c>
       <c r="Q14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R14" t="n">
         <v>0</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>FA195B109E9C7B2000</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>FA195B1180D144A000</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>FA195B11811144A000</t>
         </is>
       </c>
-      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
+        <is>
+          <t>FA195D120A9BBB2000</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -1286,7 +1286,7 @@
         <v>1.005</v>
       </c>
       <c r="O10" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="P10" t="n">
         <v>1.007</v>
@@ -1374,7 +1374,7 @@
         <v>1.005</v>
       </c>
       <c r="O11" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="P11" t="n">
         <v>1.007</v>
@@ -1462,7 +1462,7 @@
         <v>1.005</v>
       </c>
       <c r="O12" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="P12" t="n">
         <v>1.007</v>
@@ -1636,7 +1636,7 @@
         <v>1.005</v>
       </c>
       <c r="O14" t="n">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="P14" t="n">
         <v>1.007</v>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45526.05625</v>
+        <v>45526.05630086805</v>
       </c>
       <c r="I2" t="n">
         <v>375.94</v>
@@ -602,7 +602,7 @@
         <v>1.005</v>
       </c>
       <c r="O2" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P2" t="n">
         <v>1.007</v>
@@ -611,7 +611,7 @@
         <v>0.15</v>
       </c>
       <c r="R2" t="n">
-        <v>1.73</v>
+        <v>1.729999999999991</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>1.005</v>
       </c>
       <c r="O3" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P3" t="n">
         <v>1.005</v>
@@ -755,13 +755,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45524.27847222222</v>
+        <v>45521.1478715625</v>
       </c>
       <c r="I4" t="n">
-        <v>208.9</v>
+        <v>207.64</v>
       </c>
       <c r="J4" t="n">
-        <v>626.7</v>
+        <v>622.92</v>
       </c>
       <c r="K4" t="n">
         <v>1.03</v>
@@ -778,7 +778,7 @@
         <v>1.005</v>
       </c>
       <c r="O4" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P4" t="n">
         <v>1.005</v>
@@ -787,7 +787,7 @@
         <v>0.15</v>
       </c>
       <c r="R4" t="n">
-        <v>1.09</v>
+        <v>-2.690000000000082</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -841,14 +841,16 @@
         <v>1.02</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45526.05625</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>45526.03125480324</v>
+      </c>
+      <c r="I5" t="n">
+        <v>92.61</v>
+      </c>
       <c r="J5" t="n">
         <v>926.1</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="L5" t="n">
         <v>10</v>
@@ -862,7 +864,7 @@
         <v>1.005</v>
       </c>
       <c r="O5" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P5" t="n">
         <v>1.007</v>
@@ -871,7 +873,7 @@
         <v>0.15</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>2.620000000000045</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -921,16 +923,16 @@
         <v>1.04</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45526.05625</v>
+        <v>45526.05752585648</v>
       </c>
       <c r="I6" t="n">
-        <v>375.94</v>
+        <v>56.51</v>
       </c>
       <c r="J6" t="n">
         <v>960.67</v>
       </c>
       <c r="K6" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="L6" t="n">
         <v>17</v>
@@ -944,7 +946,7 @@
         <v>1.005</v>
       </c>
       <c r="O6" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P6" t="n">
         <v>1.007</v>
@@ -953,7 +955,7 @@
         <v>0.15</v>
       </c>
       <c r="R6" t="n">
-        <v>3.05</v>
+        <v>3.002099999999932</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -1030,7 +1032,7 @@
         <v>1.005</v>
       </c>
       <c r="O7" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P7" t="n">
         <v>1.007</v>
@@ -1116,7 +1118,7 @@
         <v>1.005</v>
       </c>
       <c r="O8" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P8" t="n">
         <v>1.007</v>
@@ -1188,7 +1190,7 @@
         <v>1409.3</v>
       </c>
       <c r="K9" t="n">
-        <v>0.09999999999999989</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L9" t="n">
         <v>17</v>
@@ -1202,7 +1204,7 @@
         <v>1.005</v>
       </c>
       <c r="O9" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P9" t="n">
         <v>1.006640023500978</v>
@@ -1265,37 +1267,39 @@
         <v>0.02</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>45532.18769878472</v>
+      </c>
+      <c r="I10" t="n">
+        <v>253.46</v>
+      </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1267.3</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N10" t="n">
         <v>1.005</v>
       </c>
       <c r="O10" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="P10" t="n">
-        <v>1.007</v>
+        <v>1.005</v>
       </c>
       <c r="Q10" t="n">
         <v>0.15</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4.795499999999866</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1309,12 +1313,12 @@
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>FA195ADCDE0A04A000</t>
+          <t>FA195EA9F212FB2000</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>FA195D1252483B2000</t>
+          <t>FA195EA9F212FB2000</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
@@ -1353,37 +1357,39 @@
         <v>0.02</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>45531.01981105324</v>
+      </c>
+      <c r="I11" t="n">
+        <v>156.6</v>
+      </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1096.2</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L11" t="n">
         <v>7</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N11" t="n">
         <v>1.005</v>
       </c>
       <c r="O11" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="P11" t="n">
-        <v>1.007</v>
+        <v>1.013549948403156</v>
       </c>
       <c r="Q11" t="n">
         <v>0.15</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>8.530000000000127</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1402,7 +1408,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>FA195D120DDD84A000</t>
+          <t>FA195ADCDFD9FB2000</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -1441,37 +1447,39 @@
         <v>0.05</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>45531.01995215278</v>
+      </c>
+      <c r="I12" t="n">
+        <v>54.12</v>
+      </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>974.16</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L12" t="n">
         <v>18</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N12" t="n">
         <v>1.005</v>
       </c>
       <c r="O12" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="P12" t="n">
-        <v>1.007</v>
+        <v>1.013327680836198</v>
       </c>
       <c r="Q12" t="n">
         <v>0.15</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.708999999999933</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1490,7 +1498,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>FA195D12895904A000</t>
+          <t>FA195AE22108FB2000</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
@@ -1506,7 +1514,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B13" t="n">
         <v>11</v>
@@ -1552,7 +1560,7 @@
         <v>1.005</v>
       </c>
       <c r="O13" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P13" t="n">
         <v>1.007</v>
@@ -1592,7 +1600,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B14" t="n">
         <v>12</v>
@@ -1615,28 +1623,30 @@
         <v>0.02</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>45530.89049074074</v>
+      </c>
+      <c r="I14" t="n">
+        <v>166.95</v>
+      </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>834.75</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L14" t="n">
         <v>5</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N14" t="n">
         <v>1.005</v>
       </c>
       <c r="O14" t="n">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="P14" t="n">
         <v>1.007</v>
@@ -1645,7 +1655,7 @@
         <v>0.15</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.93400000000002</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1664,11 +1674,1101 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>FA195D120A9BBB2000</t>
+          <t>FA195E5F46693B2000</t>
         </is>
       </c>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>45530.97930672453</v>
+      </c>
+      <c r="E15" t="n">
+        <v>79.02</v>
+      </c>
+      <c r="F15" t="n">
+        <v>790.1999999999999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45531.03027651621</v>
+      </c>
+      <c r="I15" t="n">
+        <v>79.41</v>
+      </c>
+      <c r="J15" t="n">
+        <v>794.0999999999999</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L15" t="n">
+        <v>10</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3.809999999999977</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>FA195E950EC684A000</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>FA195E95F6D67B2000</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>FA195E95F6D67B2000</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>FA195E96E5E044A000</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>PYPL</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45530.98132490741</v>
+      </c>
+      <c r="E16" t="n">
+        <v>71.70959999999999</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1434.192</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45531.02524922453</v>
+      </c>
+      <c r="I16" t="n">
+        <v>72.2608</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1445.216</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L16" t="n">
+        <v>20</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.008279092339101</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R16" t="n">
+        <v>10.85400000000011</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>FA195E95B90EBB2000</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>FA195E9670D744A000</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>FA195E9670D744A000</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>FA195E96E53F84A000</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>INTU</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>45530.98640965277</v>
+      </c>
+      <c r="E17" t="n">
+        <v>620.21</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2474.36</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45532.15297071759</v>
+      </c>
+      <c r="I17" t="n">
+        <v>621.8200000000001</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2487.28</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R17" t="n">
+        <v>11.71900000000007</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>FA195E976617C4A000</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>FA195EA9F51404A000</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>FA1960089A40BB2000</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>30</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>45530.99175415509</v>
+      </c>
+      <c r="E18" t="n">
+        <v>487.87</v>
+      </c>
+      <c r="F18" t="n">
+        <v>975.74</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45531.04146706018</v>
+      </c>
+      <c r="I18" t="n">
+        <v>489.53</v>
+      </c>
+      <c r="J18" t="n">
+        <v>979.0599999999999</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3.259999999999937</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>FA195E992905BB2000</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>FA195E9A2240BB2000</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>FA195E9A279E7B2000</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>FA195E9B8DAC84A000</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>35</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45532.11452482639</v>
+      </c>
+      <c r="E19" t="n">
+        <v>159.64</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1436.76</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45532.15930564815</v>
+      </c>
+      <c r="I19" t="n">
+        <v>160.5009</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1444.5081</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L19" t="n">
+        <v>9</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7.638100000000022</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>FA19600B36CFFB2000</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>FA19600C095384A000</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>FA19600C095384A000</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>FA19600C7A8FC4A000</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>54</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>45532.12140657407</v>
+      </c>
+      <c r="E20" t="n">
+        <v>218.22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1309.32</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>45532.22512471065</v>
+      </c>
+      <c r="I20" t="n">
+        <v>219.0016</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1314.0096</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.06999999999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4.599599999999928</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>FA19600D7B73FB2000</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>FA19600F6A8344A000</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>FA19600F6AF17B2000</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>115</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45532.14689203704</v>
+      </c>
+      <c r="E21" t="n">
+        <v>149.8292</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1348.4628</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45532.31330984954</v>
+      </c>
+      <c r="I21" t="n">
+        <v>150.2605</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1352.3445</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L21" t="n">
+        <v>9</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3.771700000000137</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>FA196015E1C77B2000</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>FA196016F6A2FB2000</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>FA196016F716C4A000</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>FA1960381EC3BB2000</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>218</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>45532.1707453125</v>
+      </c>
+      <c r="E22" t="n">
+        <v>482.72</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1448.16</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45533.02499002315</v>
+      </c>
+      <c r="I22" t="n">
+        <v>484.08</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1452.24</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.968999999999927</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>FA19601DBE643B2000</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>FA1960388FBF44A000</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>FA196038902FC4A000</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>FA19612852A8FB2000</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>227</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45532.17232325231</v>
+      </c>
+      <c r="E23" t="n">
+        <v>345.42</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1381.68</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45533.01956805556</v>
+      </c>
+      <c r="I23" t="n">
+        <v>345.81</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1383.24</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.489999999999945</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>FA19601E4388C4A000</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>FA19603890CAC4A000</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>FA196038914404A000</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>FA19612855533B2000</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n">
+        <v>236</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="n">
+        <v>45532.98230893518</v>
+      </c>
+      <c r="E24" t="n">
+        <v>344.96</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1379.84</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>FA1961293A04C4A000</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>FA19612A070244A000</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>FA19612A0765BB2000</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B25" t="n">
+        <v>240</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SHW</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="n">
+        <v>45532.98296216435</v>
+      </c>
+      <c r="E25" t="n">
+        <v>360.13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1440.52</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45533.03831487268</v>
+      </c>
+      <c r="I25" t="n">
+        <v>362.21</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1448.84</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R25" t="n">
+        <v>8.249999999999936</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>FA196129712444A000</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>FA19612B11D2FB2000</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>FA19612B121FC4A000</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>FA19612CA0AEBB2000</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B26" t="n">
+        <v>243</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45532.98513773148</v>
+      </c>
+      <c r="E26" t="n">
+        <v>296.17</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1184.68</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>FA19612A28B3BB2000</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>FA19612ACBAA7B2000</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>FA19612ACBF83B2000</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B27" t="n">
+        <v>342</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>45533.02051811342</v>
+      </c>
+      <c r="E27" t="n">
+        <v>63.81</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1403.82</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>22</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>FA196135D1E5C4A000</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>FA19613654C2BB2000</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>FA1961365517BB2000</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X27"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B24" t="n">
         <v>236</v>
@@ -2473,21 +2473,23 @@
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>45534.02122061342</v>
+      </c>
+      <c r="I24" t="n">
+        <v>347.38</v>
+      </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1389.52</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -2502,9 +2504,7 @@
       <c r="Q24" t="n">
         <v>0.15</v>
       </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>FA1961293A04C4A000</t>
@@ -2530,7 +2530,7 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B25" t="n">
         <v>240</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B26" t="n">
         <v>243</v>
@@ -2639,21 +2639,23 @@
         <v>0.01</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>45534.02268935185</v>
+      </c>
+      <c r="I26" t="n">
+        <v>298.25</v>
+      </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="L26" t="n">
         <v>4</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2669,7 +2671,7 @@
         <v>0.15</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>8.259999999999936</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2696,7 +2698,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>136</v>
+        <v>25</v>
       </c>
       <c r="B27" t="n">
         <v>342</v>
@@ -2719,21 +2721,23 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>45533.97786638889</v>
+      </c>
+      <c r="I27" t="n">
+        <v>64.31</v>
+      </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1414.82</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L27" t="n">
         <v>22</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2749,7 +2753,7 @@
         <v>0.15</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.81000000000023</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2769,6 +2773,930 @@
       </c>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B28" t="n">
+        <v>372</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>TJX</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>45533.9811034838</v>
+      </c>
+      <c r="E28" t="n">
+        <v>119.2222</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1430.6664</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>12</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>FA1962726B6904A000</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>FA1962735654C4A000</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>FA19627356B3FB2000</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B29" t="n">
+        <v>374</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>PCAR</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="n">
+        <v>45533.98124372685</v>
+      </c>
+      <c r="E29" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1413</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>45534.05191921297</v>
+      </c>
+      <c r="I29" t="n">
+        <v>94.78</v>
+      </c>
+      <c r="J29" t="n">
+        <v>1421.7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="L29" t="n">
+        <v>15</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R29" t="n">
+        <v>8.550000000000045</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>FA196272773EBB2000</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>FA196273ED083B2000</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>FA196273ED63BB2000</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>FA196279BFE6FB2000</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B30" t="n">
+        <v>405</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>EQIX</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="n">
+        <v>45533.98494625</v>
+      </c>
+      <c r="E30" t="n">
+        <v>811.1799999999999</v>
+      </c>
+      <c r="F30" t="n">
+        <v>811.1799999999999</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>45534.0353987963</v>
+      </c>
+      <c r="I30" t="n">
+        <v>816.86</v>
+      </c>
+      <c r="J30" t="n">
+        <v>816.86</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5.650000000000063</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>FA196273AFA404A000</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>FA19627448E0FB2000</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>FA196274492F44A000</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>FA19627655BCFB2000</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B31" t="n">
+        <v>410</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>JCI</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="n">
+        <v>45533.99690636574</v>
+      </c>
+      <c r="E31" t="n">
+        <v>70.68000000000001</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1413.6</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>20</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>FA196277A0C3FB2000</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>FA19627904BABB2000</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>FA1962790509BB2000</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B32" t="n">
+        <v>436</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>45534.01343319444</v>
+      </c>
+      <c r="E32" t="n">
+        <v>260.36</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1301.8</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>5</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>FA19627D1328C4A000</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B33" t="n">
+        <v>437</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>45534.0135247338</v>
+      </c>
+      <c r="E33" t="n">
+        <v>245.69</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1228.45</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>5</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>FA19627D1AE63B2000</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B34" t="n">
+        <v>440</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>45534.01367716435</v>
+      </c>
+      <c r="E34" t="n">
+        <v>812.33</v>
+      </c>
+      <c r="F34" t="n">
+        <v>812.33</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>FA19627D27CB44A000</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B35" t="n">
+        <v>447</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45534.01436896991</v>
+      </c>
+      <c r="E35" t="n">
+        <v>11</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1441</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>131</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>FA19627D622984A000</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B36" t="n">
+        <v>451</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>45534.01461895833</v>
+      </c>
+      <c r="E36" t="n">
+        <v>292.8</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1171.2</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>FA19627D774604A000</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B37" t="n">
+        <v>453</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="n">
+        <v>45534.01472469907</v>
+      </c>
+      <c r="E37" t="n">
+        <v>498.82</v>
+      </c>
+      <c r="F37" t="n">
+        <v>997.64</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>2</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>FA19627D802E7B2000</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B38" t="n">
+        <v>574</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>45534.18879386574</v>
+      </c>
+      <c r="E38" t="n">
+        <v>112.6881</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1352.2572</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>12</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P38" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>FA1962B6DF2BFB2000</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>FA1962BC16BEFB2000</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>FA1962BC1750FB2000</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B39" t="n">
+        <v>601</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45534.22930445602</v>
+      </c>
+      <c r="E39" t="n">
+        <v>125.17</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1376.87</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>11</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="P39" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>FA1962C4396DBB2000</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>FA1962C7BC9B3B2000</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>FA1962C7BD1D04A000</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -2780,7 +2780,7 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="B28" t="n">
         <v>372</v>
@@ -2803,21 +2803,23 @@
         <v>0.04</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>45535.04839572917</v>
+      </c>
+      <c r="I28" t="n">
+        <v>116.9734</v>
+      </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1403.6808</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L28" t="n">
         <v>12</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2833,7 +2835,7 @@
         <v>0.15</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-27.11559999999998</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -2851,7 +2853,11 @@
           <t>FA19627356B3FB2000</t>
         </is>
       </c>
-      <c r="W28" t="inlineStr"/>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>FA1963C27933FB2000</t>
+        </is>
+      </c>
       <c r="X28" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
@@ -2860,7 +2866,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="B29" t="n">
         <v>374</v>
@@ -2946,7 +2952,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B30" t="n">
         <v>405</v>
@@ -3032,7 +3038,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="B31" t="n">
         <v>410</v>
@@ -3112,44 +3118,46 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>436</v>
+        <v>574</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45534.01343319444</v>
+        <v>45534.18879386574</v>
       </c>
       <c r="E32" t="n">
-        <v>260.36</v>
+        <v>112.6881</v>
       </c>
       <c r="F32" t="n">
-        <v>1301.8</v>
+        <v>1352.2572</v>
       </c>
       <c r="G32" t="n">
-        <v>1.111</v>
+        <v>0.04</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>45535.02311471065</v>
+      </c>
+      <c r="I32" t="n">
+        <v>113.0516</v>
+      </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1356.6192</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L32" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -3165,17 +3173,29 @@
         <v>0.15</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.231999999999853</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>FA19627D1328C4A000</t>
+          <t>FA1962B6DF2BFB2000</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>FA1962BC16BEFB2000</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>FA1962BC1750FB2000</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>FA1963BC8A57BB2000</t>
+        </is>
+      </c>
       <c r="X32" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
@@ -3184,44 +3204,46 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>437</v>
+        <v>601</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NXPI</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45534.0135247338</v>
+        <v>45534.22930445602</v>
       </c>
       <c r="E33" t="n">
-        <v>245.69</v>
+        <v>125.17</v>
       </c>
       <c r="F33" t="n">
-        <v>1228.45</v>
+        <v>1376.87</v>
       </c>
       <c r="G33" t="n">
-        <v>1.111</v>
+        <v>0.03</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>45535.01815166666</v>
+      </c>
+      <c r="I33" t="n">
+        <v>126.05</v>
+      </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1386.55</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="L33" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -3237,16 +3259,24 @@
         <v>0.15</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.570000000000064</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>FA19627D1AE63B2000</t>
+          <t>FA1962C4396DBB2000</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>FA1962C7BC9B3B2000</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>FA1962C7BD1D04A000</t>
+        </is>
+      </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr">
         <is>
@@ -3256,44 +3286,46 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45534.01367716435</v>
+        <v>45534.97959670139</v>
       </c>
       <c r="E34" t="n">
-        <v>812.33</v>
+        <v>256.96</v>
       </c>
       <c r="F34" t="n">
-        <v>812.33</v>
+        <v>1284.8</v>
       </c>
       <c r="G34" t="n">
-        <v>1.111</v>
+        <v>0.01</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>45535.04014502315</v>
+      </c>
+      <c r="I34" t="n">
+        <v>255.9104</v>
+      </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1279.552</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -3309,17 +3341,29 @@
         <v>0.15</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-5.32799999999982</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>FA19627D27CB44A000</t>
+          <t>FA1963BB835284A000</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>FA1963BC88F33B2000</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>FA1963BC8947FB2000</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>FA1963C27D0404A000</t>
+        </is>
+      </c>
       <c r="X34" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
@@ -3328,44 +3372,46 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>130</v>
+        <v>48</v>
       </c>
       <c r="B35" t="n">
-        <v>447</v>
+        <v>10</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45534.01436896991</v>
+        <v>45534.98202662037</v>
       </c>
       <c r="E35" t="n">
-        <v>11</v>
+        <v>88.03740000000001</v>
       </c>
       <c r="F35" t="n">
-        <v>1441</v>
+        <v>1408.5984</v>
       </c>
       <c r="G35" t="n">
-        <v>1.111</v>
+        <v>0.05</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>45535.04592032408</v>
+      </c>
+      <c r="I35" t="n">
+        <v>88.3708</v>
+      </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1413.9328</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.09999999999999999</v>
       </c>
       <c r="L35" t="n">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -3381,17 +3427,29 @@
         <v>0.15</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>5.18439999999996</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>FA19627D622984A000</t>
+          <t>FA1963BC50597B2000</t>
         </is>
       </c>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>FA1963C0DA8F7B2000</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>FA1963C0DAE0C4A000</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>FA1963C27C4BBB2000</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
@@ -3400,44 +3458,46 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>134</v>
+        <v>61</v>
       </c>
       <c r="B36" t="n">
-        <v>451</v>
+        <v>23</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ETN</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45534.01461895833</v>
+        <v>45534.98836896991</v>
       </c>
       <c r="E36" t="n">
-        <v>292.8</v>
+        <v>112.71</v>
       </c>
       <c r="F36" t="n">
-        <v>1171.2</v>
+        <v>1352.52</v>
       </c>
       <c r="G36" t="n">
-        <v>1.111</v>
+        <v>0.04</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>45535.04332973379</v>
+      </c>
+      <c r="I36" t="n">
+        <v>112.81</v>
+      </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1353.72</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -3453,17 +3513,29 @@
         <v>0.15</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.070000000000045</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>FA19627D774604A000</t>
+          <t>FA1963BE6784BB2000</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>FA1963C0DBF43B2000</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>FA1963C0DC46BB2000</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>FA1963C27DDB3B2000</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
@@ -3472,44 +3544,46 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B37" t="n">
-        <v>453</v>
+        <v>13</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45534.01472469907</v>
+        <v>45535.00843277778</v>
       </c>
       <c r="E37" t="n">
-        <v>498.82</v>
+        <v>112.71</v>
       </c>
       <c r="F37" t="n">
-        <v>997.64</v>
+        <v>1352.52</v>
       </c>
       <c r="G37" t="n">
-        <v>1.111</v>
+        <v>0.04</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>45535.28376490741</v>
+      </c>
+      <c r="I37" t="n">
+        <v>113.0801</v>
+      </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1356.9612</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -3525,17 +3599,29 @@
         <v>0.15</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.311199999999981</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>FA19627D802E7B2000</t>
+          <t>FA1963C5046284A000</t>
         </is>
       </c>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>FA1963C628D204A000</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>FA1963C6292644A000</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>FA1964127CB63B2000</t>
+        </is>
+      </c>
       <c r="X37" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
@@ -3544,51 +3630,53 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>715</v>
+        <v>110</v>
       </c>
       <c r="B38" t="n">
-        <v>574</v>
+        <v>4</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>ZTS</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45534.18879386574</v>
+        <v>45535.01617104167</v>
       </c>
       <c r="E38" t="n">
-        <v>112.6881</v>
+        <v>182.32</v>
       </c>
       <c r="F38" t="n">
-        <v>1352.2572</v>
+        <v>1276.24</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>45535.28975931713</v>
+      </c>
+      <c r="I38" t="n">
+        <v>182.71</v>
+      </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1278.97</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>0.06999999999999999</v>
       </c>
       <c r="L38" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N38" t="n">
         <v>1.005</v>
       </c>
       <c r="O38" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P38" t="n">
         <v>1.007</v>
@@ -3597,25 +3685,29 @@
         <v>0.15</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>2.640000000000018</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>FA1962B6DF2BFB2000</t>
+          <t>FA1963C7914AC4A000</t>
         </is>
       </c>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>FA1962BC16BEFB2000</t>
+          <t>FA1963CB303EFB2000</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>FA1962BC1750FB2000</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr"/>
+          <t>FA1963D01F977B2000</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>FA1964148BC1BB2000</t>
+        </is>
+      </c>
       <c r="X38" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
@@ -3624,51 +3716,53 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>742</v>
+        <v>333</v>
       </c>
       <c r="B39" t="n">
-        <v>601</v>
+        <v>185</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>SNPS</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45534.22930445602</v>
+        <v>45535.22942416667</v>
       </c>
       <c r="E39" t="n">
-        <v>125.17</v>
+        <v>515.45</v>
       </c>
       <c r="F39" t="n">
-        <v>1376.87</v>
+        <v>2061.8</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>45535.28520369213</v>
+      </c>
+      <c r="I39" t="n">
+        <v>519.0599999999999</v>
+      </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>2076.24</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>0.07999999999999999</v>
       </c>
       <c r="L39" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N39" t="n">
         <v>1.005</v>
       </c>
       <c r="O39" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="P39" t="n">
         <v>1.007</v>
@@ -3677,25 +3771,21 @@
         <v>0.15</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>14.3499999999996</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>FA1962C4396DBB2000</t>
+          <t>FA19640DDA66FB2000</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>FA1962C7BC9B3B2000</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>FA1962C7BD1D04A000</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>FA1964135F1BC4A000</t>
+        </is>
+      </c>
       <c r="X39" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:Y39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -550,6 +550,11 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
+          <t>buy_condition_type</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>timezone</t>
         </is>
       </c>
@@ -640,6 +645,11 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -726,6 +736,11 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -812,6 +827,11 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -894,6 +914,11 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -980,6 +1005,11 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1066,6 +1096,11 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1152,6 +1187,11 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1238,6 +1278,11 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1328,6 +1373,11 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1418,6 +1468,11 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1508,6 +1563,11 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1594,6 +1654,11 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1680,6 +1745,11 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1766,6 +1836,11 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1852,6 +1927,11 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -1934,6 +2014,11 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2020,6 +2105,11 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2106,6 +2196,11 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2188,6 +2283,11 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2274,6 +2374,11 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2360,6 +2465,11 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2446,6 +2556,11 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2524,6 +2639,11 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2610,6 +2730,11 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2692,6 +2817,11 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2774,6 +2904,11 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2860,6 +2995,11 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -2946,6 +3086,11 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -3032,6 +3177,11 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
@@ -3112,13 +3262,18 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr">
         <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
           <t>E. Australia Standard Time</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B32" t="n">
         <v>574</v>
@@ -3197,6 +3352,11 @@
         </is>
       </c>
       <c r="X32" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -3204,7 +3364,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B33" t="n">
         <v>601</v>
@@ -3279,6 +3439,11 @@
       </c>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -3286,7 +3451,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -3365,6 +3530,11 @@
         </is>
       </c>
       <c r="X34" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -3372,7 +3542,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B35" t="n">
         <v>10</v>
@@ -3451,6 +3621,11 @@
         </is>
       </c>
       <c r="X35" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -3458,7 +3633,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="B36" t="n">
         <v>23</v>
@@ -3537,6 +3712,11 @@
         </is>
       </c>
       <c r="X36" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -3544,7 +3724,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="B37" t="n">
         <v>13</v>
@@ -3623,6 +3803,11 @@
         </is>
       </c>
       <c r="X37" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -3630,7 +3815,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="B38" t="n">
         <v>4</v>
@@ -3709,6 +3894,11 @@
         </is>
       </c>
       <c r="X38" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>
@@ -3716,7 +3906,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>333</v>
+        <v>37</v>
       </c>
       <c r="B39" t="n">
         <v>185</v>
@@ -3787,6 +3977,11 @@
         </is>
       </c>
       <c r="X39" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z236"/>
+  <dimension ref="A1:Z273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8505,21 +8505,23 @@
         <v>0.05</v>
       </c>
       <c r="H91" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>45547.03294523148</v>
+      </c>
+      <c r="I91" t="n">
+        <v>124.88</v>
+      </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2122.96</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="L91" t="n">
         <v>17</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -8535,7 +8537,7 @@
         <v>0.15</v>
       </c>
       <c r="R91" t="n">
-        <v>0</v>
+        <v>-66.47000000000018</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -20508,6 +20510,3158 @@
         </is>
       </c>
     </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>45547.08367391204</v>
+      </c>
+      <c r="E237" t="n">
+        <v>197.47</v>
+      </c>
+      <c r="F237" t="n">
+        <v>2172.17</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H237" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>11</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P237" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>FA197350E4B644A000</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>mv :-35.69, mv_2m:0.21,mv_5m : -0.46, mv_30m : 0.20, mv_60m: 0.24</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>45547.08385324074</v>
+      </c>
+      <c r="E238" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2122.5</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H238" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>15</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P238" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>FA197350F3D904A000</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>mv :-35.57, mv_2m:0.33,mv_5m : -0.78, mv_30m : -0.23, mv_60m: 3.42</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>45547.08439479167</v>
+      </c>
+      <c r="E239" t="n">
+        <v>666.9299999999999</v>
+      </c>
+      <c r="F239" t="n">
+        <v>2000.79</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H239" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>3</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P239" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>FA197351218944A000</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr"/>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>mv :-34.84, mv_2m:1.06,mv_5m : -0.15, mv_30m : -1.86, mv_60m: 13.98</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>3</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>45547.08613949074</v>
+      </c>
+      <c r="E240" t="n">
+        <v>273.26</v>
+      </c>
+      <c r="F240" t="n">
+        <v>2186.08</v>
+      </c>
+      <c r="G240" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H240" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>8</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P240" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>FA197351B4D67B2000</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr"/>
+      <c r="V240" t="inlineStr"/>
+      <c r="W240" t="inlineStr"/>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>mv :-33.01, mv_2m:0.29,mv_5m : 1.37, mv_30m : 0.12, mv_60m: 3.59</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>4</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>45547.08733256944</v>
+      </c>
+      <c r="E241" t="n">
+        <v>353.75</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2122.5</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H241" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>6</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P241" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>FA197352196F44A000</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr"/>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>mv :-28.78, mv_2m:0.80,mv_5m : 1.54, mv_30m : 1.18, mv_60m: 2.83</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>5</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>45547.09504805555</v>
+      </c>
+      <c r="E242" t="n">
+        <v>459.27</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1837.08</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H242" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>4</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P242" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>FA197354A476BB2000</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr"/>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>mv :-26.39, mv_2m:-0.40,mv_5m : -1.42, mv_30m : -2.83, mv_60m: 5.26</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>6</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>45547.09928424768</v>
+      </c>
+      <c r="E243" t="n">
+        <v>80.94</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2185.38</v>
+      </c>
+      <c r="G243" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H243" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>27</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P243" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>FA19735609E544A000</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr"/>
+      <c r="V243" t="inlineStr"/>
+      <c r="W243" t="inlineStr"/>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>mv :-29.23, mv_2m:0.68,mv_5m : 2.14, mv_30m : 2.79, mv_60m: 10.09</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>7</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>MMC</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>45547.10231391204</v>
+      </c>
+      <c r="E244" t="n">
+        <v>226.18</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2035.62</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H244" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>9</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P244" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>FA1973570989C4A000</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>mv :-28.61, mv_2m:0.77,mv_5m : 0.53, mv_30m : 5.98, mv_60m: 6.01</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>8</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>WM</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>45547.10339381945</v>
+      </c>
+      <c r="E245" t="n">
+        <v>205.84</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2058.4</v>
+      </c>
+      <c r="G245" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H245" s="2" t="n">
+        <v>45547.17478290509</v>
+      </c>
+      <c r="I245" t="n">
+        <v>206.4775</v>
+      </c>
+      <c r="J245" t="n">
+        <v>2064.775</v>
+      </c>
+      <c r="K245" t="n">
+        <v>0.09999999999999999</v>
+      </c>
+      <c r="L245" t="n">
+        <v>10</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P245" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R245" t="n">
+        <v>6.245</v>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>FA19735764A844A000</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>FA1973580A7744A000</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr">
+        <is>
+          <t>FA1973580AD7BB2000</t>
+        </is>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>FA19735DBBC97B2000</t>
+        </is>
+      </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>mv :-28.75, mv_2m:0.75,mv_5m : 1.97, mv_30m : 4.55, mv_60m: 4.52</t>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>9</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>45547.10599409722</v>
+      </c>
+      <c r="E246" t="n">
+        <v>136.82</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2189.12</v>
+      </c>
+      <c r="G246" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H246" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>16</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P246" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>FA197358400FBB2000</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>mv :-29.80, mv_2m:-0.96,mv_5m : 0.36, mv_30m : 9.75, mv_60m: 8.96</t>
+        </is>
+      </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>45547.12014251157</v>
+      </c>
+      <c r="E247" t="n">
+        <v>198.17</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2179.87</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H247" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>11</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P247" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>FA19735CE9DC3B2000</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>mv :-1.52, mv_2m:-0.03,mv_5m : 0.36, mv_30m : 0.94, mv_60m: 0.97</t>
+        </is>
+      </c>
+      <c r="Z247" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="n">
+        <v>45547.12036359953</v>
+      </c>
+      <c r="E248" t="n">
+        <v>134.985</v>
+      </c>
+      <c r="F248" t="n">
+        <v>2159.76</v>
+      </c>
+      <c r="G248" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H248" s="2" t="n">
+        <v>45547.18128449074</v>
+      </c>
+      <c r="I248" t="n">
+        <v>135.2813</v>
+      </c>
+      <c r="J248" t="n">
+        <v>2164.5008</v>
+      </c>
+      <c r="K248" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L248" t="n">
+        <v>16</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P248" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q248" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R248" t="n">
+        <v>4.570799999999581</v>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>FA19735CFC8244A000</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr"/>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>FA19735D46D67B2000</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr">
+        <is>
+          <t>FA19735D4740C4A000</t>
+        </is>
+      </c>
+      <c r="W248" t="inlineStr">
+        <is>
+          <t>FA19736242B084A000</t>
+        </is>
+      </c>
+      <c r="X248" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>mv :-1.32, mv_2m:0.17,mv_5m : 1.00, mv_30m : 2.03, mv_60m: 3.57</t>
+        </is>
+      </c>
+      <c r="Z248" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="n">
+        <v>45547.12753828704</v>
+      </c>
+      <c r="E249" t="n">
+        <v>158.28</v>
+      </c>
+      <c r="F249" t="n">
+        <v>2057.64</v>
+      </c>
+      <c r="G249" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H249" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>13</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P249" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q249" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>FA19735F59E444A000</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr"/>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>mv :0.39, mv_2m:1.18,mv_5m : 3.84, mv_30m : 5.12, mv_60m: 16.79</t>
+        </is>
+      </c>
+      <c r="Z249" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="n">
+        <v>45547.14371075232</v>
+      </c>
+      <c r="E250" t="n">
+        <v>367.04</v>
+      </c>
+      <c r="F250" t="n">
+        <v>1835.2</v>
+      </c>
+      <c r="G250" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H250" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>5</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P250" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q250" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>FA197364AE7104A000</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr"/>
+      <c r="V250" t="inlineStr"/>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>mv :-1.55, mv_2m:0.59,mv_5m : -0.20, mv_30m : 0.32, mv_60m: 1.60</t>
+        </is>
+      </c>
+      <c r="Z250" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="D251" s="2" t="n">
+        <v>45547.14394722222</v>
+      </c>
+      <c r="E251" t="n">
+        <v>327.32</v>
+      </c>
+      <c r="F251" t="n">
+        <v>1963.92</v>
+      </c>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" s="2" t="n">
+        <v>45547.22995640046</v>
+      </c>
+      <c r="I251" t="n">
+        <v>328.94</v>
+      </c>
+      <c r="J251" t="n">
+        <v>1973.64</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L251" t="n">
+        <v>6</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O251" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P251" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="Q251" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R251" t="inlineStr"/>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>FA197364C265C4A000</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr"/>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>FA197366022E7B2000</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr">
+        <is>
+          <t>FA197366029244A000</t>
+        </is>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>FA197373F6EAC4A000</t>
+        </is>
+      </c>
+      <c r="X251" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>mv :-0.62, mv_2m:1.52,mv_5m : 0.34, mv_30m : 4.07, mv_60m: 5.60</t>
+        </is>
+      </c>
+      <c r="Z251" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="n">
+        <v>45547.14402833334</v>
+      </c>
+      <c r="E252" t="n">
+        <v>476.85</v>
+      </c>
+      <c r="F252" t="n">
+        <v>1907.4</v>
+      </c>
+      <c r="G252" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H252" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>4</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P252" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q252" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>FA197364C93CC4A000</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr"/>
+      <c r="U252" t="inlineStr"/>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>mv :-0.55, mv_2m:1.59,mv_5m : 0.28, mv_30m : 4.42, mv_60m: 5.83</t>
+        </is>
+      </c>
+      <c r="Z252" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>MDLZ</t>
+        </is>
+      </c>
+      <c r="D253" s="2" t="n">
+        <v>45547.14412609953</v>
+      </c>
+      <c r="E253" t="n">
+        <v>74</v>
+      </c>
+      <c r="F253" t="n">
+        <v>2146</v>
+      </c>
+      <c r="G253" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H253" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>29</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O253" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P253" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q253" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R253" t="n">
+        <v>0</v>
+      </c>
+      <c r="S253" t="inlineStr">
+        <is>
+          <t>FA197364D18004A000</t>
+        </is>
+      </c>
+      <c r="T253" t="inlineStr"/>
+      <c r="U253" t="inlineStr"/>
+      <c r="V253" t="inlineStr"/>
+      <c r="W253" t="inlineStr"/>
+      <c r="X253" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y253" t="inlineStr">
+        <is>
+          <t>mv :-0.57, mv_2m:1.57,mv_5m : 0.07, mv_30m : 4.01, mv_60m: 5.59</t>
+        </is>
+      </c>
+      <c r="Z253" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>4</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="n">
+        <v>45547.1445118287</v>
+      </c>
+      <c r="E254" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="F254" t="n">
+        <v>2164.96</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H254" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
+        <v>56</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O254" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P254" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q254" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R254" t="n">
+        <v>0</v>
+      </c>
+      <c r="S254" t="inlineStr">
+        <is>
+          <t>FA197364F2093B2000</t>
+        </is>
+      </c>
+      <c r="T254" t="inlineStr"/>
+      <c r="U254" t="inlineStr"/>
+      <c r="V254" t="inlineStr"/>
+      <c r="W254" t="inlineStr"/>
+      <c r="X254" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y254" t="inlineStr">
+        <is>
+          <t>mv :-1.28, mv_2m:0.86,mv_5m : 0.75, mv_30m : 8.14, mv_60m: 11.05</t>
+        </is>
+      </c>
+      <c r="Z254" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>5</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="n">
+        <v>45547.1465209375</v>
+      </c>
+      <c r="E255" t="n">
+        <v>232.76</v>
+      </c>
+      <c r="F255" t="n">
+        <v>2094.84</v>
+      </c>
+      <c r="G255" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H255" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>0</v>
+      </c>
+      <c r="L255" t="n">
+        <v>9</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O255" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P255" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q255" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R255" t="n">
+        <v>0</v>
+      </c>
+      <c r="S255" t="inlineStr">
+        <is>
+          <t>FA1973659B8EC4A000</t>
+        </is>
+      </c>
+      <c r="T255" t="inlineStr"/>
+      <c r="U255" t="inlineStr"/>
+      <c r="V255" t="inlineStr"/>
+      <c r="W255" t="inlineStr"/>
+      <c r="X255" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y255" t="inlineStr">
+        <is>
+          <t>mv :-0.43, mv_2m:-0.04,mv_5m : 1.53, mv_30m : 3.73, mv_60m: 5.15</t>
+        </is>
+      </c>
+      <c r="Z255" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>6</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="n">
+        <v>45547.14668074074</v>
+      </c>
+      <c r="E256" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="F256" t="n">
+        <v>2177.12</v>
+      </c>
+      <c r="G256" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H256" s="2" t="n">
+        <v>45547.22886506945</v>
+      </c>
+      <c r="I256" t="n">
+        <v>49.5501</v>
+      </c>
+      <c r="J256" t="n">
+        <v>2180.2044</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L256" t="n">
+        <v>44</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="O256" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P256" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q256" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R256" t="n">
+        <v>1.853400000000187</v>
+      </c>
+      <c r="S256" t="inlineStr">
+        <is>
+          <t>FA197365A90844A000</t>
+        </is>
+      </c>
+      <c r="T256" t="inlineStr"/>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>FA1973660132C4A000</t>
+        </is>
+      </c>
+      <c r="V256" t="inlineStr">
+        <is>
+          <t>FA197366019744A000</t>
+        </is>
+      </c>
+      <c r="W256" t="inlineStr">
+        <is>
+          <t>FA197372AE6344A000</t>
+        </is>
+      </c>
+      <c r="X256" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y256" t="inlineStr">
+        <is>
+          <t>mv :-0.50, mv_2m:-0.11,mv_5m : 1.85, mv_30m : 4.00, mv_60m: 5.40</t>
+        </is>
+      </c>
+      <c r="Z256" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>7</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
+      </c>
+      <c r="D257" s="2" t="n">
+        <v>45547.14698760417</v>
+      </c>
+      <c r="E257" t="n">
+        <v>50.47</v>
+      </c>
+      <c r="F257" t="n">
+        <v>2170.21</v>
+      </c>
+      <c r="G257" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H257" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>43</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O257" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P257" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q257" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R257" t="n">
+        <v>0</v>
+      </c>
+      <c r="S257" t="inlineStr">
+        <is>
+          <t>FA197365C2EE44A000</t>
+        </is>
+      </c>
+      <c r="T257" t="inlineStr"/>
+      <c r="U257" t="inlineStr"/>
+      <c r="V257" t="inlineStr"/>
+      <c r="W257" t="inlineStr"/>
+      <c r="X257" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y257" t="inlineStr">
+        <is>
+          <t>mv :-0.38, mv_2m:0.02,mv_5m : 2.55, mv_30m : 7.20, mv_60m: 9.28</t>
+        </is>
+      </c>
+      <c r="Z257" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>8</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="n">
+        <v>45547.14916412037</v>
+      </c>
+      <c r="E258" t="n">
+        <v>484.13</v>
+      </c>
+      <c r="F258" t="n">
+        <v>1936.52</v>
+      </c>
+      <c r="G258" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H258" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
+        <v>0</v>
+      </c>
+      <c r="L258" t="n">
+        <v>4</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O258" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P258" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q258" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R258" t="n">
+        <v>0</v>
+      </c>
+      <c r="S258" t="inlineStr">
+        <is>
+          <t>FA1973667A91C4A000</t>
+        </is>
+      </c>
+      <c r="T258" t="inlineStr"/>
+      <c r="U258" t="inlineStr"/>
+      <c r="V258" t="inlineStr"/>
+      <c r="W258" t="inlineStr"/>
+      <c r="X258" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y258" t="inlineStr">
+        <is>
+          <t>mv :0.33, mv_2m:0.41,mv_5m : 1.03, mv_30m : 2.63, mv_60m: 5.43</t>
+        </is>
+      </c>
+      <c r="Z258" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>10</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D259" s="2" t="n">
+        <v>45547.1530634838</v>
+      </c>
+      <c r="E259" t="n">
+        <v>114.55</v>
+      </c>
+      <c r="F259" t="n">
+        <v>2176.45</v>
+      </c>
+      <c r="G259" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H259" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>0</v>
+      </c>
+      <c r="L259" t="n">
+        <v>19</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O259" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P259" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q259" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R259" t="n">
+        <v>0</v>
+      </c>
+      <c r="S259" t="inlineStr">
+        <is>
+          <t>FA197367C3943B2000</t>
+        </is>
+      </c>
+      <c r="T259" t="inlineStr"/>
+      <c r="U259" t="inlineStr"/>
+      <c r="V259" t="inlineStr"/>
+      <c r="W259" t="inlineStr"/>
+      <c r="X259" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y259" t="inlineStr">
+        <is>
+          <t>mv :1.25, mv_2m:0.53,mv_5m : -0.31, mv_30m : 2.09, mv_60m: 12.85</t>
+        </is>
+      </c>
+      <c r="Z259" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="n">
+        <v>45547.15366297454</v>
+      </c>
+      <c r="E260" t="n">
+        <v>198.14</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2179.54</v>
+      </c>
+      <c r="G260" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H260" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
+        <v>11</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O260" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P260" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q260" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R260" t="n">
+        <v>0</v>
+      </c>
+      <c r="S260" t="inlineStr">
+        <is>
+          <t>FA197367F62AC4A000</t>
+        </is>
+      </c>
+      <c r="T260" t="inlineStr"/>
+      <c r="U260" t="inlineStr"/>
+      <c r="V260" t="inlineStr"/>
+      <c r="W260" t="inlineStr"/>
+      <c r="X260" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y260" t="inlineStr">
+        <is>
+          <t>mv :-1.03, mv_2m:-0.03,mv_5m : 0.05, mv_30m : -0.09, mv_60m: -0.32</t>
+        </is>
+      </c>
+      <c r="Z260" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="D261" s="2" t="n">
+        <v>45547.15498265046</v>
+      </c>
+      <c r="E261" t="n">
+        <v>160.2099</v>
+      </c>
+      <c r="F261" t="n">
+        <v>2082.7287</v>
+      </c>
+      <c r="G261" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H261" s="2" t="n">
+        <v>45547.23628731482</v>
+      </c>
+      <c r="I261" t="n">
+        <v>160.9318</v>
+      </c>
+      <c r="J261" t="n">
+        <v>2092.1134</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L261" t="n">
+        <v>13</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O261" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P261" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="Q261" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R261" t="n">
+        <v>9.234700000000068</v>
+      </c>
+      <c r="S261" t="inlineStr">
+        <is>
+          <t>FA19736865847B2000</t>
+        </is>
+      </c>
+      <c r="T261" t="inlineStr"/>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>FA197368BD7604A000</t>
+        </is>
+      </c>
+      <c r="V261" t="inlineStr">
+        <is>
+          <t>FA197368BDDB3B2000</t>
+        </is>
+      </c>
+      <c r="W261" t="inlineStr">
+        <is>
+          <t>FA197375091D84A000</t>
+        </is>
+      </c>
+      <c r="X261" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y261" t="inlineStr">
+        <is>
+          <t>mv :-0.14, mv_2m:-0.02,mv_5m : 0.60, mv_30m : -0.70, mv_60m: 2.59</t>
+        </is>
+      </c>
+      <c r="Z261" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="n">
+        <v>45547.21324043981</v>
+      </c>
+      <c r="E262" t="n">
+        <v>156.48</v>
+      </c>
+      <c r="F262" t="n">
+        <v>2190.72</v>
+      </c>
+      <c r="G262" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H262" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
+        <v>14</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O262" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P262" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q262" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R262" t="n">
+        <v>0</v>
+      </c>
+      <c r="S262" t="inlineStr">
+        <is>
+          <t>FA19737B990204A000</t>
+        </is>
+      </c>
+      <c r="T262" t="inlineStr"/>
+      <c r="U262" t="inlineStr"/>
+      <c r="V262" t="inlineStr"/>
+      <c r="W262" t="inlineStr"/>
+      <c r="X262" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y262" t="inlineStr">
+        <is>
+          <t>mv :12.33, mv_2m:0.67,mv_5m : 0.84, mv_30m : 3.85, mv_60m: 10.62</t>
+        </is>
+      </c>
+      <c r="Z262" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>3</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>45547.21333063657</v>
+      </c>
+      <c r="E263" t="n">
+        <v>79.13</v>
+      </c>
+      <c r="F263" t="n">
+        <v>2136.51</v>
+      </c>
+      <c r="G263" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H263" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
+        <v>27</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O263" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P263" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q263" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R263" t="n">
+        <v>0</v>
+      </c>
+      <c r="S263" t="inlineStr">
+        <is>
+          <t>FA19737BA09B3B2000</t>
+        </is>
+      </c>
+      <c r="T263" t="inlineStr"/>
+      <c r="U263" t="inlineStr"/>
+      <c r="V263" t="inlineStr"/>
+      <c r="W263" t="inlineStr"/>
+      <c r="X263" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y263" t="inlineStr">
+        <is>
+          <t>mv :12.37, mv_2m:0.72,mv_5m : 0.84, mv_30m : 4.02, mv_60m: 11.92</t>
+        </is>
+      </c>
+      <c r="Z263" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>4</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>45547.21341651621</v>
+      </c>
+      <c r="E264" t="n">
+        <v>257.24</v>
+      </c>
+      <c r="F264" t="n">
+        <v>2057.92</v>
+      </c>
+      <c r="G264" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H264" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>0</v>
+      </c>
+      <c r="L264" t="n">
+        <v>8</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O264" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P264" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q264" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R264" t="n">
+        <v>0</v>
+      </c>
+      <c r="S264" t="inlineStr">
+        <is>
+          <t>FA19737BA7E804A000</t>
+        </is>
+      </c>
+      <c r="T264" t="inlineStr"/>
+      <c r="U264" t="inlineStr"/>
+      <c r="V264" t="inlineStr"/>
+      <c r="W264" t="inlineStr"/>
+      <c r="X264" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y264" t="inlineStr">
+        <is>
+          <t>mv :12.46, mv_2m:0.80,mv_5m : 1.03, mv_30m : 4.01, mv_60m: 12.53</t>
+        </is>
+      </c>
+      <c r="Z264" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>5</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>45547.21349494213</v>
+      </c>
+      <c r="E265" t="n">
+        <v>61.75</v>
+      </c>
+      <c r="F265" t="n">
+        <v>2161.25</v>
+      </c>
+      <c r="G265" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H265" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>35</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O265" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P265" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q265" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R265" t="n">
+        <v>0</v>
+      </c>
+      <c r="S265" t="inlineStr">
+        <is>
+          <t>FA19737BAE787B2000</t>
+        </is>
+      </c>
+      <c r="T265" t="inlineStr"/>
+      <c r="U265" t="inlineStr"/>
+      <c r="V265" t="inlineStr"/>
+      <c r="W265" t="inlineStr"/>
+      <c r="X265" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y265" t="inlineStr">
+        <is>
+          <t>mv :12.58, mv_2m:0.93,mv_5m : 1.07, mv_30m : 4.42, mv_60m: 12.92</t>
+        </is>
+      </c>
+      <c r="Z265" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>6</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>45547.21368917824</v>
+      </c>
+      <c r="E266" t="n">
+        <v>125.27</v>
+      </c>
+      <c r="F266" t="n">
+        <v>2129.59</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H266" s="2" t="n">
+        <v>45547.27417972222</v>
+      </c>
+      <c r="I266" t="n">
+        <v>125.585</v>
+      </c>
+      <c r="J266" t="n">
+        <v>2134.945</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L266" t="n">
+        <v>17</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O266" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P266" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q266" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R266" t="n">
+        <v>4.203999999999564</v>
+      </c>
+      <c r="S266" t="inlineStr">
+        <is>
+          <t>FA19737BBEDC04A000</t>
+        </is>
+      </c>
+      <c r="T266" t="inlineStr"/>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>FA19737D307FC4A000</t>
+        </is>
+      </c>
+      <c r="V266" t="inlineStr">
+        <is>
+          <t>FA19737D311D44A000</t>
+        </is>
+      </c>
+      <c r="W266" t="inlineStr">
+        <is>
+          <t>FA1973828620FB2000</t>
+        </is>
+      </c>
+      <c r="X266" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y266" t="inlineStr">
+        <is>
+          <t>mv :13.42, mv_2m:1.83,mv_5m : 1.94, mv_30m : 6.09, mv_60m: 16.02</t>
+        </is>
+      </c>
+      <c r="Z266" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>8</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>ECL</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>45547.22109905093</v>
+      </c>
+      <c r="E267" t="n">
+        <v>248.03</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1984.24</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H267" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>0</v>
+      </c>
+      <c r="L267" t="n">
+        <v>8</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O267" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P267" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q267" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R267" t="n">
+        <v>0</v>
+      </c>
+      <c r="S267" t="inlineStr">
+        <is>
+          <t>FA19737E300E44A000</t>
+        </is>
+      </c>
+      <c r="T267" t="inlineStr"/>
+      <c r="U267" t="inlineStr"/>
+      <c r="V267" t="inlineStr"/>
+      <c r="W267" t="inlineStr"/>
+      <c r="X267" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y267" t="inlineStr">
+        <is>
+          <t>mv :17.27, mv_2m:-0.15,mv_5m : 2.57, mv_30m : 1.06, mv_60m: 25.30</t>
+        </is>
+      </c>
+      <c r="Z267" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>9</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>45547.2265234375</v>
+      </c>
+      <c r="E268" t="n">
+        <v>81.28</v>
+      </c>
+      <c r="F268" t="n">
+        <v>2194.56</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H268" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>0</v>
+      </c>
+      <c r="L268" t="n">
+        <v>27</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O268" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P268" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q268" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R268" t="n">
+        <v>0</v>
+      </c>
+      <c r="S268" t="inlineStr">
+        <is>
+          <t>FA19737FF9BF7B2000</t>
+        </is>
+      </c>
+      <c r="T268" t="inlineStr"/>
+      <c r="U268" t="inlineStr"/>
+      <c r="V268" t="inlineStr"/>
+      <c r="W268" t="inlineStr"/>
+      <c r="X268" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y268" t="inlineStr">
+        <is>
+          <t>mv :21.53, mv_2m:0.68,mv_5m : 2.05, mv_30m : 6.55, mv_60m: 22.15</t>
+        </is>
+      </c>
+      <c r="Z268" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>10</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="D269" s="2" t="n">
+        <v>45547.23111491898</v>
+      </c>
+      <c r="E269" t="n">
+        <v>79.34999999999999</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2142.45</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H269" s="2" t="n">
+        <v>45547.28574905093</v>
+      </c>
+      <c r="I269" t="n">
+        <v>79.50060000000001</v>
+      </c>
+      <c r="J269" t="n">
+        <v>2146.5162</v>
+      </c>
+      <c r="K269" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L269" t="n">
+        <v>27</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O269" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P269" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q269" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R269" t="n">
+        <v>3.836200000000208</v>
+      </c>
+      <c r="S269" t="inlineStr">
+        <is>
+          <t>FA1973817D2504A000</t>
+        </is>
+      </c>
+      <c r="T269" t="inlineStr"/>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>FA197382E5D37B2000</t>
+        </is>
+      </c>
+      <c r="V269" t="inlineStr">
+        <is>
+          <t>FA197382E63C84A000</t>
+        </is>
+      </c>
+      <c r="W269" t="inlineStr">
+        <is>
+          <t>FA1973869638C4A000</t>
+        </is>
+      </c>
+      <c r="X269" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y269" t="inlineStr">
+        <is>
+          <t>mv :24.35, mv_2m:0.32,mv_5m : 1.64, mv_30m : 10.76, mv_60m: 15.92</t>
+        </is>
+      </c>
+      <c r="Z269" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>11</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>45547.23275737269</v>
+      </c>
+      <c r="E270" t="n">
+        <v>151.6893</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2123.6502</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H270" s="2" t="n">
+        <v>45547.28545178241</v>
+      </c>
+      <c r="I270" t="n">
+        <v>152.075</v>
+      </c>
+      <c r="J270" t="n">
+        <v>2129.05</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L270" t="n">
+        <v>14</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P270" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R270" t="n">
+        <v>5.249799999999686</v>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>FA19738207BA44A000</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>FA197382867DFB2000</t>
+        </is>
+      </c>
+      <c r="V270" t="inlineStr">
+        <is>
+          <t>FA19738286E1FB2000</t>
+        </is>
+      </c>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>FA1973865620FB2000</t>
+        </is>
+      </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>mv :25.33, mv_2m:1.88,mv_5m : 0.79, mv_30m : 21.92, mv_60m: 26.93</t>
+        </is>
+      </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>12</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>45547.23606040509</v>
+      </c>
+      <c r="E271" t="n">
+        <v>263.3656</v>
+      </c>
+      <c r="F271" t="n">
+        <v>2106.9248</v>
+      </c>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" s="2" t="n">
+        <v>45547.28218885417</v>
+      </c>
+      <c r="I271" t="n">
+        <v>263.88</v>
+      </c>
+      <c r="J271" t="n">
+        <v>2111.04</v>
+      </c>
+      <c r="K271" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L271" t="n">
+        <v>8</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P271" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R271" t="inlineStr"/>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>FA1973831E6A44A000</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>FA197384141284A000</t>
+        </is>
+      </c>
+      <c r="V271" t="inlineStr">
+        <is>
+          <t>FA19738414763B2000</t>
+        </is>
+      </c>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>FA19738507E884A000</t>
+        </is>
+      </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>mv :23.72, mv_2m:-0.47,mv_5m : -0.88, mv_30m : 13.98, mv_60m: 17.96</t>
+        </is>
+      </c>
+      <c r="Z271" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>13</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>45547.24387328704</v>
+      </c>
+      <c r="E272" t="n">
+        <v>233.28</v>
+      </c>
+      <c r="F272" t="n">
+        <v>2099.52</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H272" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>9</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P272" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R272" t="n">
+        <v>0</v>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>FA197385B1A1BB2000</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr"/>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>mv :19.99, mv_2m:0.81,mv_5m : 2.19, mv_30m : 2.59, mv_60m: 2.55</t>
+        </is>
+      </c>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>14</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>45547.24432797453</v>
+      </c>
+      <c r="E273" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="F273" t="n">
+        <v>2163.2</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H273" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
+        <v>26</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P273" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="R273" t="n">
+        <v>0</v>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>FA197385D7FD7B2000</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
+      <c r="W273" t="inlineStr"/>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t>1m</t>
+        </is>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>mv :21.03, mv_2m:1.85,mv_5m : 5.05, mv_30m : 3.62, mv_60m: 7.75</t>
+        </is>
+      </c>
+      <c r="Z273" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z136"/>
+  <dimension ref="A1:Z247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13081,7 +13081,7 @@
         </is>
       </c>
       <c r="D135" s="2" t="n">
-        <v>45553.19157439147</v>
+        <v>45553.19157438658</v>
       </c>
       <c r="E135" t="n">
         <v>365.23</v>
@@ -13177,7 +13177,7 @@
         </is>
       </c>
       <c r="D136" s="2" t="n">
-        <v>45553.20124928452</v>
+        <v>45553.20124928241</v>
       </c>
       <c r="E136" t="n">
         <v>364.9933</v>
@@ -13255,6 +13255,9770 @@
         </is>
       </c>
       <c r="Z136" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45553.98063075232</v>
+      </c>
+      <c r="E137" t="n">
+        <v>72.94</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2188.2</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>45554.0208669213</v>
+      </c>
+      <c r="I137" t="n">
+        <v>72.97</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2189.1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L137" t="n">
+        <v>30</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P137" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R137" t="n">
+        <v>0.6500000000000909</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>FA197C320F94FB2000</t>
+        </is>
+      </c>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr">
+        <is>
+          <t>FA197C327EDCBB2000</t>
+        </is>
+      </c>
+      <c r="X137" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y137" t="inlineStr">
+        <is>
+          <t>mv :-1.36, mv_2m:-1.62,  mv_5m : 0.75, mv_30m : 3.62, mv_60m: 1.36</t>
+        </is>
+      </c>
+      <c r="Z137" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45553.98121782408</v>
+      </c>
+      <c r="E138" t="n">
+        <v>50.6496</v>
+      </c>
+      <c r="F138" t="n">
+        <v>2177.9328</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>45554.02390834491</v>
+      </c>
+      <c r="I138" t="n">
+        <v>50.72</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2180.96</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L138" t="n">
+        <v>43</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O138" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P138" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R138" t="n">
+        <v>2.697199999999993</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>FA197C32411CC4A000</t>
+        </is>
+      </c>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>FA197C32F116FB2000</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>FA197C32F1707B2000</t>
+        </is>
+      </c>
+      <c r="W138" t="inlineStr">
+        <is>
+          <t>FA197C327F5E7B2000</t>
+        </is>
+      </c>
+      <c r="X138" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y138" t="inlineStr">
+        <is>
+          <t>mv :-2.42, mv_2m:-2.72,  mv_5m : -0.91, mv_30m : 5.85, mv_60m: 2.54</t>
+        </is>
+      </c>
+      <c r="Z138" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45553.98130722222</v>
+      </c>
+      <c r="E139" t="n">
+        <v>314.53</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1887.18</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>6</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P139" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R139" t="n">
+        <v>0</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>FA197C3248A8FB2000</t>
+        </is>
+      </c>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y139" t="inlineStr">
+        <is>
+          <t>mv :-2.33, mv_2m:-2.63,  mv_5m : -0.54, mv_30m : 6.58, mv_60m: 3.39</t>
+        </is>
+      </c>
+      <c r="Z139" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>4</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45553.98226488426</v>
+      </c>
+      <c r="E140" t="n">
+        <v>63.98</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2175.32</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>45554.02270332176</v>
+      </c>
+      <c r="I140" t="n">
+        <v>63.8208</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2169.9072</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L140" t="n">
+        <v>34</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O140" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P140" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R140" t="n">
+        <v>-5.682799999999606</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>FA197C32997384A000</t>
+        </is>
+      </c>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>FA197C32EFC284A000</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>FA197C32F02DBB2000</t>
+        </is>
+      </c>
+      <c r="W140" t="inlineStr">
+        <is>
+          <t>FA197C32F0B0C4A000</t>
+        </is>
+      </c>
+      <c r="X140" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y140" t="inlineStr">
+        <is>
+          <t>mv :-0.88, mv_2m:1.50,  mv_5m : -0.87, mv_30m : 2.48, mv_60m: 0.73</t>
+        </is>
+      </c>
+      <c r="Z140" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45553.98335518518</v>
+      </c>
+      <c r="E141" t="n">
+        <v>70.13</v>
+      </c>
+      <c r="F141" t="n">
+        <v>2174.03</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" s="2" t="n">
+        <v>45554.02397006944</v>
+      </c>
+      <c r="I141" t="n">
+        <v>70.02</v>
+      </c>
+      <c r="J141" t="n">
+        <v>2170.62</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L141" t="n">
+        <v>31</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P141" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>FA197C32F5847B2000</t>
+        </is>
+      </c>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>FA197C3378EE3B2000</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>FA197C33794C44A000</t>
+        </is>
+      </c>
+      <c r="W141" t="inlineStr">
+        <is>
+          <t>FA197C3379CF84A000</t>
+        </is>
+      </c>
+      <c r="X141" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y141" t="inlineStr">
+        <is>
+          <t>mv :0.21, mv_2m:0.62,  mv_5m : 0.69, mv_30m : 0.79, mv_60m: 0.59</t>
+        </is>
+      </c>
+      <c r="Z141" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>7</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45553.98381877315</v>
+      </c>
+      <c r="E142" t="n">
+        <v>51.5</v>
+      </c>
+      <c r="F142" t="n">
+        <v>2163</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>45554.02444737269</v>
+      </c>
+      <c r="I142" t="n">
+        <v>51.6304</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2168.4768</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>42</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O142" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P142" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R142" t="n">
+        <v>5.146799999999912</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>FA197C331C9104A000</t>
+        </is>
+      </c>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>FA197C33775CBB2000</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>FA197C3377CA3B2000</t>
+        </is>
+      </c>
+      <c r="W142" t="inlineStr">
+        <is>
+          <t>FA197C33787FBB2000</t>
+        </is>
+      </c>
+      <c r="X142" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y142" t="inlineStr">
+        <is>
+          <t>mv :3.46, mv_2m:3.87,  mv_5m : 6.40, mv_30m : 9.51, mv_60m: 7.41</t>
+        </is>
+      </c>
+      <c r="Z142" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45553.98525818287</v>
+      </c>
+      <c r="E143" t="n">
+        <v>143.81</v>
+      </c>
+      <c r="F143" t="n">
+        <v>2157.15</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>45554.02622417824</v>
+      </c>
+      <c r="I143" t="n">
+        <v>143.64</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2154.6</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L143" t="n">
+        <v>15</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O143" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P143" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R143" t="n">
+        <v>-2.720000000000182</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>FA197C33960244A000</t>
+        </is>
+      </c>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>FA197C3407C484A000</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>FA197C340813FB2000</t>
+        </is>
+      </c>
+      <c r="W143" t="inlineStr">
+        <is>
+          <t>FA197C34088284A000</t>
+        </is>
+      </c>
+      <c r="X143" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y143" t="inlineStr">
+        <is>
+          <t>mv :2.72, mv_2m:0.89,  mv_5m : 5.89, mv_30m : 8.80, mv_60m: 7.59</t>
+        </is>
+      </c>
+      <c r="Z143" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>9</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45553.98585078704</v>
+      </c>
+      <c r="E144" t="n">
+        <v>294.63</v>
+      </c>
+      <c r="F144" t="n">
+        <v>2062.41</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>45554.02868767361</v>
+      </c>
+      <c r="I144" t="n">
+        <v>294.51</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2061.57</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L144" t="n">
+        <v>7</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O144" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P144" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R144" t="n">
+        <v>-0.9600000000001455</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>FA197C33C8023B2000</t>
+        </is>
+      </c>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>FA197C349348FB2000</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>FA197C3493A284A000</t>
+        </is>
+      </c>
+      <c r="W144" t="inlineStr">
+        <is>
+          <t>FA197C3494237B2000</t>
+        </is>
+      </c>
+      <c r="X144" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y144" t="inlineStr">
+        <is>
+          <t>mv :4.97, mv_2m:3.46,  mv_5m : 10.47, mv_30m : 18.47, mv_60m: 16.65</t>
+        </is>
+      </c>
+      <c r="Z144" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>10</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45553.98596554398</v>
+      </c>
+      <c r="E145" t="n">
+        <v>144.14</v>
+      </c>
+      <c r="F145" t="n">
+        <v>2162.1</v>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" s="2" t="n">
+        <v>45554.03215778935</v>
+      </c>
+      <c r="I145" t="n">
+        <v>144.05</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2160.75</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L145" t="n">
+        <v>15</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O145" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P145" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>FA197C33D1B204A000</t>
+        </is>
+      </c>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>FA197C3494813B2000</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>FA197C3494E57B2000</t>
+        </is>
+      </c>
+      <c r="W145" t="inlineStr">
+        <is>
+          <t>FA197C34956A44A000</t>
+        </is>
+      </c>
+      <c r="X145" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y145" t="inlineStr">
+        <is>
+          <t>mv :5.74, mv_2m:4.22,  mv_5m : 10.77, mv_30m : 18.80, mv_60m: 17.40</t>
+        </is>
+      </c>
+      <c r="Z145" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>14</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>45553.9873989699</v>
+      </c>
+      <c r="E146" t="n">
+        <v>44.94</v>
+      </c>
+      <c r="F146" t="n">
+        <v>2157.12</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>45554.02877569445</v>
+      </c>
+      <c r="I146" t="n">
+        <v>45.0405</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2161.944</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="L146" t="n">
+        <v>48</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P146" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R146" t="n">
+        <v>4.464000000000069</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>FA197C344AA4FB2000</t>
+        </is>
+      </c>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>FA197C350FC23B2000</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>FA197C35101B04A000</t>
+        </is>
+      </c>
+      <c r="W146" t="inlineStr">
+        <is>
+          <t>FA197C34ABD67B2000</t>
+        </is>
+      </c>
+      <c r="X146" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y146" t="inlineStr">
+        <is>
+          <t>mv :6.84, mv_2m:1.56,  mv_5m : 8.82, mv_30m : 21.60, mv_60m: 19.40</t>
+        </is>
+      </c>
+      <c r="Z146" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>17</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45553.98995776621</v>
+      </c>
+      <c r="E147" t="n">
+        <v>298.03</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2086.21</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>45554.03060295139</v>
+      </c>
+      <c r="I147" t="n">
+        <v>297.4986</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2082.4902</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L147" t="n">
+        <v>7</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P147" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R147" t="n">
+        <v>-3.82979999999985</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>FA197C35228B3B2000</t>
+        </is>
+      </c>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>FA197C359939FB2000</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>FA197C35999C7B2000</t>
+        </is>
+      </c>
+      <c r="W147" t="inlineStr">
+        <is>
+          <t>FA197C359A1D3B2000</t>
+        </is>
+      </c>
+      <c r="X147" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y147" t="inlineStr">
+        <is>
+          <t>mv :6.08, mv_2m:0.28,  mv_5m : 1.29, mv_30m : 10.40, mv_60m: 8.25</t>
+        </is>
+      </c>
+      <c r="Z147" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>18</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45553.99044223379</v>
+      </c>
+      <c r="E148" t="n">
+        <v>52.1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>2188.2</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>42</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P148" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R148" t="n">
+        <v>0</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>FA197C354B68BB2000</t>
+        </is>
+      </c>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y148" t="inlineStr">
+        <is>
+          <t>mv :5.57, mv_2m:-0.24,  mv_5m : -0.94, mv_30m : 17.26, mv_60m: 13.14</t>
+        </is>
+      </c>
+      <c r="Z148" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>20</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>45553.99209734954</v>
+      </c>
+      <c r="E149" t="n">
+        <v>342.38</v>
+      </c>
+      <c r="F149" t="n">
+        <v>2054.28</v>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" s="2" t="n">
+        <v>45554.03220837963</v>
+      </c>
+      <c r="I149" t="n">
+        <v>341.36</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2048.16</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L149" t="n">
+        <v>6</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P149" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>FA197C35D71104A000</t>
+        </is>
+      </c>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>FA197C3624A8FB2000</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>FA197C362512BB2000</t>
+        </is>
+      </c>
+      <c r="W149" t="inlineStr">
+        <is>
+          <t>FA197C36258E84A000</t>
+        </is>
+      </c>
+      <c r="X149" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y149" t="inlineStr">
+        <is>
+          <t>mv :3.98, mv_2m:-0.92,  mv_5m : -2.98, mv_30m : 12.56, mv_60m: 9.95</t>
+        </is>
+      </c>
+      <c r="Z149" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>21</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>45553.99265765047</v>
+      </c>
+      <c r="E150" t="n">
+        <v>317.7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1906.2</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>45554.03282503472</v>
+      </c>
+      <c r="I150" t="n">
+        <v>316.41</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1898.46</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L150" t="n">
+        <v>6</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P150" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R150" t="n">
+        <v>-7.840000000000009</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>FA197C36065784A000</t>
+        </is>
+      </c>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr">
+        <is>
+          <t>FA197C363B1844A000</t>
+        </is>
+      </c>
+      <c r="X150" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y150" t="inlineStr">
+        <is>
+          <t>mv :3.63, mv_2m:-1.23,  mv_5m : -4.67, mv_30m : 12.79, mv_60m: 11.04</t>
+        </is>
+      </c>
+      <c r="Z150" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>45553.9983357176</v>
+      </c>
+      <c r="E151" t="n">
+        <v>39.59</v>
+      </c>
+      <c r="F151" t="n">
+        <v>2177.45</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>55</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O151" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P151" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R151" t="n">
+        <v>0</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>FA197C37E56CBB2000</t>
+        </is>
+      </c>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y151" t="inlineStr">
+        <is>
+          <t>mv :-4.61, mv_2m:-1.67,  mv_5m : -5.33, mv_30m : 4.19, mv_60m: 10.45</t>
+        </is>
+      </c>
+      <c r="Z151" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>45553.99891814815</v>
+      </c>
+      <c r="E152" t="n">
+        <v>58.14</v>
+      </c>
+      <c r="F152" t="n">
+        <v>2151.18</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" s="2" t="n">
+        <v>45554.04123201389</v>
+      </c>
+      <c r="I152" t="n">
+        <v>58.21</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2153.77</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L152" t="n">
+        <v>37</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O152" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P152" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>FA197C381691C4A000</t>
+        </is>
+      </c>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>FA197C38DD3DBB2000</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>FA197C38DD95BB2000</t>
+        </is>
+      </c>
+      <c r="W152" t="inlineStr">
+        <is>
+          <t>FA197C38DE1244A000</t>
+        </is>
+      </c>
+      <c r="X152" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y152" t="inlineStr">
+        <is>
+          <t>mv :-4.67, mv_2m:0.24,  mv_5m : 0.38, mv_30m : 1.14, mv_60m: 1.32</t>
+        </is>
+      </c>
+      <c r="Z152" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>45554.00016092593</v>
+      </c>
+      <c r="E153" t="n">
+        <v>51.75</v>
+      </c>
+      <c r="F153" t="n">
+        <v>2173.5</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>42</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O153" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P153" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R153" t="n">
+        <v>0</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>FA197C387F6D04A000</t>
+        </is>
+      </c>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y153" t="inlineStr">
+        <is>
+          <t>mv :-1.28, mv_2m:-0.28,  mv_5m : 0.53, mv_30m : 7.55, mv_60m: 10.26</t>
+        </is>
+      </c>
+      <c r="Z153" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>45554.00147508102</v>
+      </c>
+      <c r="E154" t="n">
+        <v>96.73999999999999</v>
+      </c>
+      <c r="F154" t="n">
+        <v>2128.28</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>22</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P154" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>FA197C38EE4FFB2000</t>
+        </is>
+      </c>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y154" t="inlineStr">
+        <is>
+          <t>mv :-0.86, mv_2m:-0.35,  mv_5m : 0.09, mv_30m : 4.14, mv_60m: 5.38</t>
+        </is>
+      </c>
+      <c r="Z154" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="D155" s="2" t="n">
+        <v>45554.00205475694</v>
+      </c>
+      <c r="E155" t="n">
+        <v>341.91</v>
+      </c>
+      <c r="F155" t="n">
+        <v>2051.46</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H155" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>6</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P155" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>FA197C391F38BB2000</t>
+        </is>
+      </c>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y155" t="inlineStr">
+        <is>
+          <t>mv :-1.17, mv_2m:-0.66,  mv_5m : -0.02, mv_30m : 5.40, mv_60m: 8.66</t>
+        </is>
+      </c>
+      <c r="Z155" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>45554.00440052083</v>
+      </c>
+      <c r="E156" t="n">
+        <v>69.77</v>
+      </c>
+      <c r="F156" t="n">
+        <v>2162.87</v>
+      </c>
+      <c r="G156" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H156" s="2" t="n">
+        <v>45554.04596452546</v>
+      </c>
+      <c r="I156" t="n">
+        <v>69.75</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2162.25</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L156" t="n">
+        <v>31</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O156" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P156" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R156" t="n">
+        <v>-0.8699999999998909</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>FA197C39E52404A000</t>
+        </is>
+      </c>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>FA197C3A65543B2000</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>FA197C3A65B23B2000</t>
+        </is>
+      </c>
+      <c r="W156" t="inlineStr">
+        <is>
+          <t>FA197C3A66393B2000</t>
+        </is>
+      </c>
+      <c r="X156" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y156" t="inlineStr">
+        <is>
+          <t>mv :-0.88, mv_2m:0.04,  mv_5m : 0.11, mv_30m : -0.79, mv_60m: 0.31</t>
+        </is>
+      </c>
+      <c r="Z156" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>4</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="n">
+        <v>45554.00463177083</v>
+      </c>
+      <c r="E157" t="n">
+        <v>96.92</v>
+      </c>
+      <c r="F157" t="n">
+        <v>2132.24</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H157" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>22</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O157" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P157" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R157" t="n">
+        <v>0</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>FA197C39F8A8C4A000</t>
+        </is>
+      </c>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y157" t="inlineStr">
+        <is>
+          <t>mv :-0.75, mv_2m:0.17,  mv_5m : 0.43, mv_30m : 1.63, mv_60m: 6.44</t>
+        </is>
+      </c>
+      <c r="Z157" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="n">
+        <v>45554.00609269676</v>
+      </c>
+      <c r="E158" t="n">
+        <v>362.99</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2177.94</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H158" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>6</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O158" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P158" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R158" t="n">
+        <v>0</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>FA197C3A73ED84A000</t>
+        </is>
+      </c>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y158" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:-0.29,  mv_5m : -0.07, mv_30m : 0.28, mv_60m: 3.92</t>
+        </is>
+      </c>
+      <c r="Z158" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>6</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="D159" s="2" t="n">
+        <v>45554.0064843287</v>
+      </c>
+      <c r="E159" t="n">
+        <v>51.79</v>
+      </c>
+      <c r="F159" t="n">
+        <v>2175.18</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H159" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>42</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O159" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P159" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R159" t="n">
+        <v>0</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>FA197C3A94F6C4A000</t>
+        </is>
+      </c>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y159" t="inlineStr">
+        <is>
+          <t>mv :-0.70, mv_2m:-0.08,  mv_5m : 1.10, mv_30m : 0.10, mv_60m: 11.45</t>
+        </is>
+      </c>
+      <c r="Z159" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>8</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>45554.00713784722</v>
+      </c>
+      <c r="E160" t="n">
+        <v>118.58</v>
+      </c>
+      <c r="F160" t="n">
+        <v>2134.44</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H160" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>18</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O160" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P160" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R160" t="n">
+        <v>0</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>FA197C3ACC1A84A000</t>
+        </is>
+      </c>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y160" t="inlineStr">
+        <is>
+          <t>mv :-0.12, mv_2m:0.51,  mv_5m : -0.01, mv_30m : -9.71, mv_60m: 7.29</t>
+        </is>
+      </c>
+      <c r="Z160" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="n">
+        <v>45554.15484814815</v>
+      </c>
+      <c r="E161" t="n">
+        <v>50.69</v>
+      </c>
+      <c r="F161" t="n">
+        <v>2179.67</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H161" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>43</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O161" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P161" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R161" t="n">
+        <v>0</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>FA197C6B7B1F44A000</t>
+        </is>
+      </c>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y161" t="inlineStr">
+        <is>
+          <t>mv :-1.01, mv_2m:-0.01,  mv_5m : -0.05, mv_30m : -0.19, mv_60m: 0.06</t>
+        </is>
+      </c>
+      <c r="Z161" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="n">
+        <v>45554.15584336805</v>
+      </c>
+      <c r="E162" t="n">
+        <v>499.22</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1996.88</v>
+      </c>
+      <c r="G162" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H162" s="2" t="n">
+        <v>45554.83549113426</v>
+      </c>
+      <c r="I162" t="n">
+        <v>505.32</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2021.28</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="L162" t="n">
+        <v>4</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O162" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P162" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R162" t="n">
+        <v>24.30999999999986</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>FA197C6BCF14C4A000</t>
+        </is>
+      </c>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y162" t="inlineStr">
+        <is>
+          <t>mv :-1.06, mv_2m:-0.06,  mv_5m : -0.50, mv_30m : -2.31, mv_60m: -2.63</t>
+        </is>
+      </c>
+      <c r="Z162" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D163" s="2" t="n">
+        <v>45554.15597319444</v>
+      </c>
+      <c r="E163" t="n">
+        <v>150.3492</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2104.8888</v>
+      </c>
+      <c r="G163" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H163" s="2" t="n">
+        <v>45554.83505597222</v>
+      </c>
+      <c r="I163" t="n">
+        <v>153.32</v>
+      </c>
+      <c r="J163" t="n">
+        <v>2146.48</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L163" t="n">
+        <v>14</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O163" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P163" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R163" t="n">
+        <v>41.44119999999985</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>FA197C6BDA073B2000</t>
+        </is>
+      </c>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y163" t="inlineStr">
+        <is>
+          <t>mv :-0.89, mv_2m:0.11,  mv_5m : -0.47, mv_30m : -3.24, mv_60m: -3.94</t>
+        </is>
+      </c>
+      <c r="Z163" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>7</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="n">
+        <v>45554.15688589121</v>
+      </c>
+      <c r="E164" t="n">
+        <v>362.87</v>
+      </c>
+      <c r="F164" t="n">
+        <v>2177.22</v>
+      </c>
+      <c r="G164" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H164" s="2" t="n">
+        <v>45553.24564335648</v>
+      </c>
+      <c r="I164" t="n">
+        <v>364.4441</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2186.6646</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>6</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O164" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P164" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R164" t="n">
+        <v>9.324600000000265</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>FA197C6C270984A000</t>
+        </is>
+      </c>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y164" t="inlineStr">
+        <is>
+          <t>mv :-0.76, mv_2m:0.26,  mv_5m : -0.67, mv_30m : -6.97, mv_60m: -6.44</t>
+        </is>
+      </c>
+      <c r="Z164" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="D165" s="2" t="n">
+        <v>45555.01262543981</v>
+      </c>
+      <c r="E165" t="n">
+        <v>337.18</v>
+      </c>
+      <c r="F165" t="n">
+        <v>2023.08</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H165" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>6</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P165" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R165" t="n">
+        <v>0</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>FA197D8631FE7B2000</t>
+        </is>
+      </c>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y165" t="inlineStr">
+        <is>
+          <t>mv :-2.47, mv_2m:-1.47,    mv_5m : -3.91, mv_30m : -1.72, mv_60m: -7.49</t>
+        </is>
+      </c>
+      <c r="Z165" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="n">
+        <v>45555.01468244213</v>
+      </c>
+      <c r="E166" t="n">
+        <v>40.6</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2192.4</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H166" s="2" t="n">
+        <v>45555.05843796297</v>
+      </c>
+      <c r="I166" t="n">
+        <v>40.6103</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2192.9562</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L166" t="n">
+        <v>54</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O166" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P166" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R166" t="n">
+        <v>0.1661999999999898</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>FA197D86DF8E3B2000</t>
+        </is>
+      </c>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>FA197D878BD984A000</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>FA197D878C4784A000</t>
+        </is>
+      </c>
+      <c r="W166" t="inlineStr">
+        <is>
+          <t>FA197D873D8FFB2000</t>
+        </is>
+      </c>
+      <c r="X166" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y166" t="inlineStr">
+        <is>
+          <t>mv :-1.07, mv_2m:0.04,    mv_5m : -2.74, mv_30m : -0.65, mv_60m: -23.39</t>
+        </is>
+      </c>
+      <c r="Z166" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="D167" s="2" t="n">
+        <v>45555.01562398148</v>
+      </c>
+      <c r="E167" t="n">
+        <v>337.42</v>
+      </c>
+      <c r="F167" t="n">
+        <v>2024.52</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H167" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>6</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O167" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P167" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R167" t="n">
+        <v>0</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>FA197D872EFE44A000</t>
+        </is>
+      </c>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y167" t="inlineStr">
+        <is>
+          <t>mv :-2.90, mv_2m:-1.22,    mv_5m : -1.08, mv_30m : -1.61, mv_60m: -7.29</t>
+        </is>
+      </c>
+      <c r="Z167" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="n">
+        <v>45555.01825858797</v>
+      </c>
+      <c r="E168" t="n">
+        <v>71.91</v>
+      </c>
+      <c r="F168" t="n">
+        <v>2157.3</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H168" s="2" t="n">
+        <v>45555.05979484953</v>
+      </c>
+      <c r="I168" t="n">
+        <v>71.95999999999999</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2158.8</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L168" t="n">
+        <v>30</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O168" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P168" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>FA197D880D4A84A000</t>
+        </is>
+      </c>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>FA197D88909D7B2000</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>FA197D88910384A000</t>
+        </is>
+      </c>
+      <c r="W168" t="inlineStr">
+        <is>
+          <t>FA197D88918AC4A000</t>
+        </is>
+      </c>
+      <c r="X168" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y168" t="inlineStr">
+        <is>
+          <t>mv :-2.36, mv_2m:-0.14,    mv_5m : -0.24, mv_30m : 1.21, mv_60m: 1.08</t>
+        </is>
+      </c>
+      <c r="Z168" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="n">
+        <v>45555.01871966435</v>
+      </c>
+      <c r="E169" t="n">
+        <v>337.33</v>
+      </c>
+      <c r="F169" t="n">
+        <v>2023.98</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H169" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>6</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O169" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P169" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R169" t="n">
+        <v>0</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>FA197D883433BB2000</t>
+        </is>
+      </c>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y169" t="inlineStr">
+        <is>
+          <t>mv :-2.18, mv_2m:-0.04,    mv_5m : -0.00, mv_30m : -2.21, mv_60m: -9.70</t>
+        </is>
+      </c>
+      <c r="Z169" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>4</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>45555.03470269676</v>
+      </c>
+      <c r="E170" t="n">
+        <v>502.93</v>
+      </c>
+      <c r="F170" t="n">
+        <v>2011.72</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H170" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>4</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O170" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P170" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>FA197D8D78BFC4A000</t>
+        </is>
+      </c>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y170" t="inlineStr">
+        <is>
+          <t>mv :-5.54, mv_2m:1.70,    mv_5m : -4.42, mv_30m : -1.89, mv_60m: -2.75</t>
+        </is>
+      </c>
+      <c r="Z170" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="n">
+        <v>45555.03761690972</v>
+      </c>
+      <c r="E171" t="n">
+        <v>502.83</v>
+      </c>
+      <c r="F171" t="n">
+        <v>2011.32</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H171" s="2" t="n">
+        <v>45555.08094306713</v>
+      </c>
+      <c r="I171" t="n">
+        <v>502.78</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2011.12</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="L171" t="n">
+        <v>4</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O171" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P171" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R171" t="n">
+        <v>-0.2900000000000454</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>FA197D8E6EA384A000</t>
+        </is>
+      </c>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>FA197D8ECCE344A000</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>FA197D8ECD4B44A000</t>
+        </is>
+      </c>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>FA197D8ECDD684A000</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y171" t="inlineStr">
+        <is>
+          <t>mv :-4.54, mv_2m:-2.12,    mv_5m : -0.77, mv_30m : 0.58, mv_60m: 1.42</t>
+        </is>
+      </c>
+      <c r="Z171" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>45555.0381090162</v>
+      </c>
+      <c r="E172" t="n">
+        <v>40.7697</v>
+      </c>
+      <c r="F172" t="n">
+        <v>2160.7941</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H172" s="2" t="n">
+        <v>45555.08027908565</v>
+      </c>
+      <c r="I172" t="n">
+        <v>40.7701</v>
+      </c>
+      <c r="J172" t="n">
+        <v>2160.8153</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L172" t="n">
+        <v>53</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O172" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P172" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R172" t="n">
+        <v>-0.3688000000003194</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>FA197D8E9827FB2000</t>
+        </is>
+      </c>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>FA197D8ECE3C3B2000</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>FA197D8ECE9C44A000</t>
+        </is>
+      </c>
+      <c r="W172" t="inlineStr">
+        <is>
+          <t>FA197D8ECF2644A000</t>
+        </is>
+      </c>
+      <c r="X172" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y172" t="inlineStr">
+        <is>
+          <t>mv :-4.07, mv_2m:-1.59,    mv_5m : -0.88, mv_30m : 1.09, mv_60m: -1.24</t>
+        </is>
+      </c>
+      <c r="Z172" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>7</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="n">
+        <v>45555.03821636574</v>
+      </c>
+      <c r="E173" t="n">
+        <v>710.62</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2131.86</v>
+      </c>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" s="2" t="n">
+        <v>45548.04957446759</v>
+      </c>
+      <c r="I173" t="n">
+        <v>691.25</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2073.75</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="L173" t="n">
+        <v>3</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P173" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>FA197D8EA1627B2000</t>
+        </is>
+      </c>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>FA197D8ECB93FB2000</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>FA197D8ECBF27B2000</t>
+        </is>
+      </c>
+      <c r="W173" t="inlineStr">
+        <is>
+          <t>FA197D8ECC77FB2000</t>
+        </is>
+      </c>
+      <c r="X173" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y173" t="inlineStr">
+        <is>
+          <t>mv :-4.08, mv_2m:-1.60,    mv_5m : -1.35, mv_30m : 1.32, mv_60m: 0.34</t>
+        </is>
+      </c>
+      <c r="Z173" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>8</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>45555.04003791667</v>
+      </c>
+      <c r="E174" t="n">
+        <v>710.62</v>
+      </c>
+      <c r="F174" t="n">
+        <v>2131.86</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H174" s="2" t="n">
+        <v>45555.08122135416</v>
+      </c>
+      <c r="I174" t="n">
+        <v>710.0429</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2130.1287</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="L174" t="n">
+        <v>3</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O174" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P174" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R174" t="n">
+        <v>-1.821299999999919</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>FA197D8F3AE8BB2000</t>
+        </is>
+      </c>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>FA197D8FDB307B2000</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>FA197D8FDB9084A000</t>
+        </is>
+      </c>
+      <c r="W174" t="inlineStr">
+        <is>
+          <t>FA197D8FDC10C4A000</t>
+        </is>
+      </c>
+      <c r="X174" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y174" t="inlineStr">
+        <is>
+          <t>mv :-3.24, mv_2m:1.16,    mv_5m : 0.78, mv_30m : 1.37, mv_60m: -1.06</t>
+        </is>
+      </c>
+      <c r="Z174" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>9</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="D175" s="2" t="n">
+        <v>45555.05965142361</v>
+      </c>
+      <c r="E175" t="n">
+        <v>711.9299999999999</v>
+      </c>
+      <c r="F175" t="n">
+        <v>2135.79</v>
+      </c>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" s="2" t="n">
+        <v>45555.09945677083</v>
+      </c>
+      <c r="I175" t="n">
+        <v>711.49</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2134.47</v>
+      </c>
+      <c r="K175" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="L175" t="n">
+        <v>3</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O175" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P175" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>FA197D95B1DCFB2000</t>
+        </is>
+      </c>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>FA197D95DB8B7B2000</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>FA197D95DBE6FB2000</t>
+        </is>
+      </c>
+      <c r="W175" t="inlineStr">
+        <is>
+          <t>FA197D95DC6A44A000</t>
+        </is>
+      </c>
+      <c r="X175" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y175" t="inlineStr">
+        <is>
+          <t>mv :1.09, mv_2m:0.40,    mv_5m : 0.84, mv_30m : 4.17, mv_60m: 5.83</t>
+        </is>
+      </c>
+      <c r="Z175" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>10</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="n">
+        <v>45555.06254564815</v>
+      </c>
+      <c r="E176" t="n">
+        <v>711.62</v>
+      </c>
+      <c r="F176" t="n">
+        <v>2134.86</v>
+      </c>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" s="2" t="n">
+        <v>45555.10248944444</v>
+      </c>
+      <c r="I176" t="n">
+        <v>711.24</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2133.72</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="L176" t="n">
+        <v>3</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O176" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P176" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>FA197D96A61544A000</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>FA197D96CF33FB2000</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>FA197D96CF95FB2000</t>
+        </is>
+      </c>
+      <c r="W176" t="inlineStr">
+        <is>
+          <t>FA197D96D014FB2000</t>
+        </is>
+      </c>
+      <c r="X176" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y176" t="inlineStr">
+        <is>
+          <t>mv :-0.92, mv_2m:-1.70,    mv_5m : -2.94, mv_30m : -2.16, mv_60m: -0.81</t>
+        </is>
+      </c>
+      <c r="Z176" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>11</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="n">
+        <v>45555.12730888889</v>
+      </c>
+      <c r="E177" t="n">
+        <v>269.74</v>
+      </c>
+      <c r="F177" t="n">
+        <v>2157.92</v>
+      </c>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" s="2" t="n">
+        <v>45555.17698486111</v>
+      </c>
+      <c r="I177" t="n">
+        <v>269.44</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2155.52</v>
+      </c>
+      <c r="K177" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>8</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O177" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P177" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>FA197DABFE8C7B2000</t>
+        </is>
+      </c>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>FA197DACCE7F44A000</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>FA197DACCEEAFB2000</t>
+        </is>
+      </c>
+      <c r="W177" t="inlineStr">
+        <is>
+          <t>FA197DACCF76FB2000</t>
+        </is>
+      </c>
+      <c r="X177" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y177" t="inlineStr">
+        <is>
+          <t>mv :4.07, mv_2m:0.44,    mv_5m : 0.43, mv_30m : 1.30, mv_60m: 6.84</t>
+        </is>
+      </c>
+      <c r="Z177" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>12</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="n">
+        <v>45555.13093207176</v>
+      </c>
+      <c r="E178" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="F178" t="n">
+        <v>2164.59</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H178" s="2" t="n">
+        <v>45555.17168648148</v>
+      </c>
+      <c r="I178" t="n">
+        <v>80.1904</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2165.1408</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L178" t="n">
+        <v>27</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O178" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P178" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0.320799999999981</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>FA197DAD303F84A000</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>FA197DADC0FD84A000</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>FA197DADC170C4A000</t>
+        </is>
+      </c>
+      <c r="W178" t="inlineStr">
+        <is>
+          <t>FA197DAD60B444A000</t>
+        </is>
+      </c>
+      <c r="X178" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y178" t="inlineStr">
+        <is>
+          <t>mv :5.55, mv_2m:0.03,    mv_5m : 2.71, mv_30m : 2.91, mv_60m: 14.67</t>
+        </is>
+      </c>
+      <c r="Z178" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>13</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="D179" s="2" t="n">
+        <v>45555.14603402778</v>
+      </c>
+      <c r="E179" t="n">
+        <v>292.5</v>
+      </c>
+      <c r="F179" t="n">
+        <v>2047.5</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H179" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>0</v>
+      </c>
+      <c r="L179" t="n">
+        <v>7</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P179" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R179" t="n">
+        <v>0</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>FA197DB22A783B2000</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y179" t="inlineStr">
+        <is>
+          <t>mv :7.07, mv_2m:-0.96,    mv_5m : 0.36, mv_30m : 3.99, mv_60m: 6.48</t>
+        </is>
+      </c>
+      <c r="Z179" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>14</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="n">
+        <v>45555.14617665509</v>
+      </c>
+      <c r="E180" t="n">
+        <v>579.71</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1739.13</v>
+      </c>
+      <c r="G180" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H180" s="2" t="n">
+        <v>45555.28119232639</v>
+      </c>
+      <c r="I180" t="n">
+        <v>578.5599999999999</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1735.68</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L180" t="n">
+        <v>3</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O180" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P180" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R180" t="n">
+        <v>-3.530000000000272</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>FA197DB236807B2000</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr">
+        <is>
+          <t>FA197DD1D9E704A000</t>
+        </is>
+      </c>
+      <c r="X180" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y180" t="inlineStr">
+        <is>
+          <t>mv :7.18, mv_2m:-0.85,    mv_5m : 0.43, mv_30m : 4.98, mv_60m: 7.22</t>
+        </is>
+      </c>
+      <c r="Z180" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>15</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="n">
+        <v>45555.14632008102</v>
+      </c>
+      <c r="E181" t="n">
+        <v>166.98</v>
+      </c>
+      <c r="F181" t="n">
+        <v>2170.74</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H181" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>13</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O181" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P181" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>FA197DB24299BB2000</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y181" t="inlineStr">
+        <is>
+          <t>mv :7.39, mv_2m:-0.64,    mv_5m : 0.36, mv_30m : 5.72, mv_60m: 7.52</t>
+        </is>
+      </c>
+      <c r="Z181" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>20</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="n">
+        <v>45555.14787096065</v>
+      </c>
+      <c r="E182" t="n">
+        <v>88.77</v>
+      </c>
+      <c r="F182" t="n">
+        <v>2130.48</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H182" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
+        <v>24</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O182" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P182" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>FA197DB2C57A3B2000</t>
+        </is>
+      </c>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y182" t="inlineStr">
+        <is>
+          <t>mv :7.60, mv_2m:0.28,    mv_5m : -0.39, mv_30m : 4.73, mv_60m: 6.94</t>
+        </is>
+      </c>
+      <c r="Z182" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>21</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="n">
+        <v>45555.14811814815</v>
+      </c>
+      <c r="E183" t="n">
+        <v>75.80500000000001</v>
+      </c>
+      <c r="F183" t="n">
+        <v>2198.345</v>
+      </c>
+      <c r="G183" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H183" s="2" t="n">
+        <v>45555.28131167824</v>
+      </c>
+      <c r="I183" t="n">
+        <v>75.66030000000001</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2194.1487</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L183" t="n">
+        <v>29</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O183" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P183" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R183" t="n">
+        <v>-4.44629999999961</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>FA197DB2DA5284A000</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr">
+        <is>
+          <t>FA197DD1B43044A000</t>
+        </is>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>mv :7.53, mv_2m:0.22,    mv_5m : -0.33, mv_30m : 6.73, mv_60m: 8.10</t>
+        </is>
+      </c>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>27</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="n">
+        <v>45555.14978503472</v>
+      </c>
+      <c r="E184" t="n">
+        <v>167.23</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2173.99</v>
+      </c>
+      <c r="G184" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H184" s="2" t="n">
+        <v>45555.20883596065</v>
+      </c>
+      <c r="I184" t="n">
+        <v>168.0925</v>
+      </c>
+      <c r="J184" t="n">
+        <v>2185.2025</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L184" t="n">
+        <v>13</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O184" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P184" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R184" t="n">
+        <v>11.06250000000009</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>FA197DB366F43B2000</t>
+        </is>
+      </c>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr">
+        <is>
+          <t>FA197DB9F0B744A000</t>
+        </is>
+      </c>
+      <c r="X184" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y184" t="inlineStr">
+        <is>
+          <t>mv :7.15, mv_2m:-0.39,    mv_5m : 0.62, mv_30m : 4.71, mv_60m: 8.46</t>
+        </is>
+      </c>
+      <c r="Z184" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
+      <c r="D185" s="2" t="n">
+        <v>45555.17009150463</v>
+      </c>
+      <c r="E185" t="n">
+        <v>115.2</v>
+      </c>
+      <c r="F185" t="n">
+        <v>2188.8</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" s="2" t="n">
+        <v>45555.28239611111</v>
+      </c>
+      <c r="I185" t="n">
+        <v>115.2408</v>
+      </c>
+      <c r="J185" t="n">
+        <v>2189.5752</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L185" t="n">
+        <v>19</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O185" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P185" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>FA197DBA185704A000</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr">
+        <is>
+          <t>FA197DD1B4E244A000</t>
+        </is>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>mv :-0.81, mv_2m:0.19,    mv_5m : 0.61, mv_30m : 0.10, mv_60m: 2.44</t>
+        </is>
+      </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="n">
+        <v>45555.98033913194</v>
+      </c>
+      <c r="E186" t="n">
+        <v>166.78</v>
+      </c>
+      <c r="F186" t="n">
+        <v>2168.14</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H186" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>13</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O186" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P186" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R186" t="n">
+        <v>0</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>FA197EC524EBC4A000</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>mv :0.52, mv_2m:1.18,    mv_5m : 2.52, mv_30m : 0.79, mv_60m: -3.09</t>
+        </is>
+      </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D187" s="2" t="n">
+        <v>45555.9833302199</v>
+      </c>
+      <c r="E187" t="n">
+        <v>167.9</v>
+      </c>
+      <c r="F187" t="n">
+        <v>2182.7</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H187" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
+        <v>13</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O187" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P187" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R187" t="n">
+        <v>0</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>FA197EC6214804A000</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>mv :-2.53, mv_2m:-0.28,    mv_5m : -8.33, mv_30m : -6.48, mv_60m: -12.05</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="n">
+        <v>45555.98350296296</v>
+      </c>
+      <c r="E188" t="n">
+        <v>331.31</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1987.86</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H188" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>6</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P188" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R188" t="n">
+        <v>0</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>FA197EC62FDF3B2000</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>mv :-3.19, mv_2m:-0.90,    mv_5m : -8.46, mv_30m : -8.15, mv_60m: -16.00</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D189" s="2" t="n">
+        <v>45555.98804267361</v>
+      </c>
+      <c r="E189" t="n">
+        <v>168.59</v>
+      </c>
+      <c r="F189" t="n">
+        <v>2191.67</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H189" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>13</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O189" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P189" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>FA197EC7AEEB3B2000</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>mv :-1.08, mv_2m:0.49,    mv_5m : 5.73, mv_30m : -3.16, mv_60m: -6.97</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>45555.99163239583</v>
+      </c>
+      <c r="E190" t="n">
+        <v>168.86</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2195.18</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H190" s="2" t="n">
+        <v>45556.03171590278</v>
+      </c>
+      <c r="I190" t="n">
+        <v>168.32</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2188.16</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L190" t="n">
+        <v>13</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O190" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P190" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R190" t="n">
+        <v>-7.170000000000437</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>FA197EC8DDC77B2000</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>FA197EC932597B2000</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>FA197EC932C53B2000</t>
+        </is>
+      </c>
+      <c r="W190" t="inlineStr">
+        <is>
+          <t>FA197EC9334EC4A000</t>
+        </is>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>mv :-3.07, mv_2m:-2.03,    mv_5m : -4.73, mv_30m : -9.31, mv_60m: -12.31</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>ELV</t>
+        </is>
+      </c>
+      <c r="D191" s="2" t="n">
+        <v>45555.99184457176</v>
+      </c>
+      <c r="E191" t="n">
+        <v>537.85</v>
+      </c>
+      <c r="F191" t="n">
+        <v>2151.4</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H191" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
+        <v>4</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O191" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P191" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R191" t="n">
+        <v>0</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>FA197EC8EFB13B2000</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>mv :-3.47, mv_2m:-2.44,    mv_5m : -4.22, mv_30m : -10.78, mv_60m: -15.38</t>
+        </is>
+      </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>45555.99474895834</v>
+      </c>
+      <c r="E192" t="n">
+        <v>168.51</v>
+      </c>
+      <c r="F192" t="n">
+        <v>2190.63</v>
+      </c>
+      <c r="G192" t="inlineStr"/>
+      <c r="H192" s="2" t="n">
+        <v>45556.03490929398</v>
+      </c>
+      <c r="I192" t="n">
+        <v>168.37</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2188.81</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L192" t="n">
+        <v>13</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O192" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P192" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>FA197EC9E4BC3B2000</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>FA197ECA41BFBB2000</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>FA197ECA429584A000</t>
+        </is>
+      </c>
+      <c r="W192" t="inlineStr">
+        <is>
+          <t>FA197ECA4342BB2000</t>
+        </is>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>mv :-2.98, mv_2m:-0.50,    mv_5m : -0.35, mv_30m : -5.93, mv_60m: -10.66</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>3</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="D193" s="2" t="n">
+        <v>45555.99500354167</v>
+      </c>
+      <c r="E193" t="n">
+        <v>566.41</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1699.23</v>
+      </c>
+      <c r="G193" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H193" s="2" t="n">
+        <v>45556.05634797454</v>
+      </c>
+      <c r="I193" t="n">
+        <v>568.41</v>
+      </c>
+      <c r="J193" t="n">
+        <v>1705.23</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L193" t="n">
+        <v>3</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O193" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P193" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R193" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>FA197EC9FA3744A000</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>FA197ECA401844A000</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>FA197ECA409C04A000</t>
+        </is>
+      </c>
+      <c r="W193" t="inlineStr">
+        <is>
+          <t>FA197ECA414184A000</t>
+        </is>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>mv :-3.12, mv_2m:-0.67,    mv_5m : -1.16, mv_30m : -6.78, mv_60m: -14.51</t>
+        </is>
+      </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>4</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>45555.99530912037</v>
+      </c>
+      <c r="E194" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2181.06</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H194" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>54</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O194" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P194" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R194" t="n">
+        <v>0</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>FA197ECA13FF44A000</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>mv :-2.74, mv_2m:-0.29,    mv_5m : -1.80, mv_30m : -5.73, mv_60m: -15.07</t>
+        </is>
+      </c>
+      <c r="Z194" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D195" s="2" t="n">
+        <v>45555.99821493056</v>
+      </c>
+      <c r="E195" t="n">
+        <v>382.15</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1910.75</v>
+      </c>
+      <c r="G195" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H195" s="2" t="n">
+        <v>45556.03949114584</v>
+      </c>
+      <c r="I195" t="n">
+        <v>382.23</v>
+      </c>
+      <c r="J195" t="n">
+        <v>1911.15</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L195" t="n">
+        <v>5</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O195" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P195" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R195" t="n">
+        <v>0.3000000000000909</v>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>FA197ECB092D7B2000</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>FA197ECB494344A000</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>FA197ECB49A77B2000</t>
+        </is>
+      </c>
+      <c r="W195" t="inlineStr">
+        <is>
+          <t>FA197ECB4A2E3B2000</t>
+        </is>
+      </c>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>mv :-2.41, mv_2m:0.79,    mv_5m : 0.07, mv_30m : -7.25, mv_60m: -14.61</t>
+        </is>
+      </c>
+      <c r="Z195" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="n">
+        <v>45555.99843769676</v>
+      </c>
+      <c r="E196" t="n">
+        <v>40.39</v>
+      </c>
+      <c r="F196" t="n">
+        <v>2181.06</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H196" s="2" t="n">
+        <v>45556.03861346065</v>
+      </c>
+      <c r="I196" t="n">
+        <v>40.3817</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2180.6118</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L196" t="n">
+        <v>54</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O196" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P196" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R196" t="n">
+        <v>-0.8381999999998152</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>FA197ECB1BFF7B2000</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr">
+        <is>
+          <t>FA197ECB6045FB2000</t>
+        </is>
+      </c>
+      <c r="X196" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>mv :-2.62, mv_2m:0.58,    mv_5m : -1.20, mv_30m : -8.40, mv_60m: -15.34</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>7</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D197" s="2" t="n">
+        <v>45555.99957826389</v>
+      </c>
+      <c r="E197" t="n">
+        <v>168.22</v>
+      </c>
+      <c r="F197" t="n">
+        <v>841.1</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H197" s="2" t="n">
+        <v>45556.04166354167</v>
+      </c>
+      <c r="I197" t="n">
+        <v>169.3725</v>
+      </c>
+      <c r="J197" t="n">
+        <v>846.8625</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="L197" t="n">
+        <v>5</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P197" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R197" t="n">
+        <v>5.692499999999932</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>FA197ECB7C37BB2000</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>FA197ECBC66D3B2000</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>FA197ECBC6E744A000</t>
+        </is>
+      </c>
+      <c r="W197" t="inlineStr">
+        <is>
+          <t>FA197ECBC7843B2000</t>
+        </is>
+      </c>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>mv :-3.10, mv_2m:-0.46,    mv_5m : 0.69, mv_30m : -5.37, mv_60m: -8.34</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>8</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>ELV</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="n">
+        <v>45555.99979253472</v>
+      </c>
+      <c r="E198" t="n">
+        <v>537.88</v>
+      </c>
+      <c r="F198" t="n">
+        <v>2151.52</v>
+      </c>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" s="2" t="n">
+        <v>45556.04224908565</v>
+      </c>
+      <c r="I198" t="n">
+        <v>537.0599999999999</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2148.24</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0.07999999999999999</v>
+      </c>
+      <c r="L198" t="n">
+        <v>4</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O198" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P198" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>FA197ECB8E49C4A000</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>FA197ECBC50B7B2000</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>FA197ECBC56D3B2000</t>
+        </is>
+      </c>
+      <c r="W198" t="inlineStr">
+        <is>
+          <t>FA197ECBC5FCC4A000</t>
+        </is>
+      </c>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>mv :-3.15, mv_2m:-0.51,    mv_5m : -0.38, mv_30m : -8.45, mv_60m: -12.78</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>9</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="D199" s="2" t="n">
+        <v>45556.0013490625</v>
+      </c>
+      <c r="E199" t="n">
+        <v>331.89</v>
+      </c>
+      <c r="F199" t="n">
+        <v>1991.34</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H199" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>6</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O199" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P199" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R199" t="n">
+        <v>0</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>FA197ECC11A2BB2000</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>mv :-5.86, mv_2m:-1.79,    mv_5m : -2.89, mv_30m : -6.66, mv_60m: -11.99</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>11</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="n">
+        <v>45556.00329497685</v>
+      </c>
+      <c r="E200" t="n">
+        <v>83.1298</v>
+      </c>
+      <c r="F200" t="n">
+        <v>2161.3748</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H200" s="2" t="n">
+        <v>45556.04368375</v>
+      </c>
+      <c r="I200" t="n">
+        <v>82.94</v>
+      </c>
+      <c r="J200" t="n">
+        <v>2156.44</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L200" t="n">
+        <v>26</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O200" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P200" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R200" t="n">
+        <v>-5.164799999999996</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>FA197ECCB5D17B2000</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>FA197ECCEFC5BB2000</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>FA197ECCF031FB2000</t>
+        </is>
+      </c>
+      <c r="W200" t="inlineStr">
+        <is>
+          <t>FA197ECCF0B4FB2000</t>
+        </is>
+      </c>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>mv :-5.03, mv_2m:-0.18,    mv_5m : -0.24, mv_30m : -1.76, mv_60m: -11.90</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>12</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="n">
+        <v>45556.00348271991</v>
+      </c>
+      <c r="E201" t="n">
+        <v>75.67</v>
+      </c>
+      <c r="F201" t="n">
+        <v>2194.43</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H201" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>29</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O201" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P201" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>FA197ECCC5B53B2000</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>mv :-5.15, mv_2m:-0.30,    mv_5m : -0.74, mv_30m : -2.85, mv_60m: -13.63</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>13</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="n">
+        <v>45556.00517592593</v>
+      </c>
+      <c r="E202" t="n">
+        <v>89.2195</v>
+      </c>
+      <c r="F202" t="n">
+        <v>2141.268</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H202" s="2" t="n">
+        <v>45556.04529263889</v>
+      </c>
+      <c r="I202" t="n">
+        <v>89.1309</v>
+      </c>
+      <c r="J202" t="n">
+        <v>2139.1416</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L202" t="n">
+        <v>24</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P202" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R202" t="n">
+        <v>-2.336400000000103</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>FA197ECD54873B2000</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr">
+        <is>
+          <t>FA197ECD967344A000</t>
+        </is>
+      </c>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>mv :-5.99, mv_2m:-0.99,    mv_5m : -1.02, mv_30m : -5.17, mv_60m: -16.13</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>14</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>PGR</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="n">
+        <v>45556.00583960649</v>
+      </c>
+      <c r="E203" t="n">
+        <v>256.99</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2055.92</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H203" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>8</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O203" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P203" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R203" t="n">
+        <v>0</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>FA197ECD8C83BB2000</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>mv :-6.03, mv_2m:0.12,    mv_5m : -1.13, mv_30m : -0.56, mv_60m: -3.58</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>15</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="n">
+        <v>45556.00665400463</v>
+      </c>
+      <c r="E204" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="F204" t="n">
+        <v>2155.14</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H204" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
+        <v>26</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P204" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R204" t="n">
+        <v>0</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>FA197ECDD139FB2000</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>mv :-6.44, mv_2m:-0.30,    mv_5m : -2.67, mv_30m : -9.19, mv_60m: -16.82</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>16</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D205" s="2" t="n">
+        <v>45556.01511763889</v>
+      </c>
+      <c r="E205" t="n">
+        <v>168.3</v>
+      </c>
+      <c r="F205" t="n">
+        <v>2187.9</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H205" s="2" t="n">
+        <v>45556.0570181713</v>
+      </c>
+      <c r="I205" t="n">
+        <v>168.95</v>
+      </c>
+      <c r="J205" t="n">
+        <v>2196.35</v>
+      </c>
+      <c r="K205" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L205" t="n">
+        <v>13</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O205" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P205" t="n">
+        <v>1.0075</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R205" t="n">
+        <v>8.29999999999982</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>FA197ED09B55FB2000</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>FA197ED0F16F7B2000</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>FA197ED0F1D004A000</t>
+        </is>
+      </c>
+      <c r="W205" t="inlineStr">
+        <is>
+          <t>FA197ED0F262C4A000</t>
+        </is>
+      </c>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>mv :-2.70, mv_2m:0.88,    mv_5m : 3.93, mv_30m : 0.48, mv_60m: -4.73</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>17</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>ELV</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="n">
+        <v>45556.01532754629</v>
+      </c>
+      <c r="E206" t="n">
+        <v>537.39</v>
+      </c>
+      <c r="F206" t="n">
+        <v>2149.56</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H206" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>4</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O206" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P206" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R206" t="n">
+        <v>0</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>FA197ED0AD0E04A000</t>
+        </is>
+      </c>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>mv :-2.70, mv_2m:0.89,    mv_5m : 4.64, mv_30m : -1.13, mv_60m: -8.33</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="n">
+        <v>45556.04066748843</v>
+      </c>
+      <c r="E207" t="n">
+        <v>570.0599999999999</v>
+      </c>
+      <c r="F207" t="n">
+        <v>1710.18</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" s="2" t="n">
+        <v>45556.1030237963</v>
+      </c>
+      <c r="I207" t="n">
+        <v>572.3200000000001</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1716.96</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L207" t="n">
+        <v>3</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O207" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P207" t="n">
+        <v>1.0065</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R207" t="n">
+        <v>4.719999999999972</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>FA197ED90719BB2000</t>
+        </is>
+      </c>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>FA197ED9C0A07B2000</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>FA197ED9C10A44A000</t>
+        </is>
+      </c>
+      <c r="W207" t="inlineStr">
+        <is>
+          <t>FA197ED9C19E44A000</t>
+        </is>
+      </c>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>mv :-3.97, mv_2m:0.15,    mv_5m : -3.48, mv_30m : -3.12, mv_60m: -4.43</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="n">
+        <v>45556.05655321759</v>
+      </c>
+      <c r="E208" t="n">
+        <v>55.7471</v>
+      </c>
+      <c r="F208" t="n">
+        <v>2174.1369</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H208" s="2" t="n">
+        <v>45556.11201542824</v>
+      </c>
+      <c r="I208" t="n">
+        <v>55.7709</v>
+      </c>
+      <c r="J208" t="n">
+        <v>2175.0651</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L208" t="n">
+        <v>39</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O208" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P208" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R208" t="n">
+        <v>-1.361800000000167</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>FA197EDE437384A000</t>
+        </is>
+      </c>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>FA197EDEBD9CFB2000</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>FA197EDEBDFCBB2000</t>
+        </is>
+      </c>
+      <c r="W208" t="inlineStr">
+        <is>
+          <t>FA197EDEBE80C4A000</t>
+        </is>
+      </c>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>mv :-0.87, mv_2m:-0.16,    mv_5m : -0.18, mv_30m : -0.31, mv_60m: -0.10</t>
+        </is>
+      </c>
+      <c r="Z208" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="n">
+        <v>45556.06701934028</v>
+      </c>
+      <c r="E209" t="n">
+        <v>255.65</v>
+      </c>
+      <c r="F209" t="n">
+        <v>2045.2</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H209" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>8</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O209" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P209" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R209" t="n">
+        <v>0</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>FA197EE1B682C4A000</t>
+        </is>
+      </c>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>mv :1.75, mv_2m:0.27,    mv_5m : 1.40, mv_30m : 1.32, mv_60m: 1.10</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="n">
+        <v>45556.08138944444</v>
+      </c>
+      <c r="E210" t="n">
+        <v>256.7</v>
+      </c>
+      <c r="F210" t="n">
+        <v>2053.6</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H210" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>8</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O210" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P210" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R210" t="n">
+        <v>0</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>FA197EE672FD84A000</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>mv :-3.75, mv_2m:0.71,    mv_5m : 0.18, mv_30m : 0.71, mv_60m: 1.45</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="n">
+        <v>45556.08158340277</v>
+      </c>
+      <c r="E211" t="n">
+        <v>146.34</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2195.1</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H211" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>15</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O211" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P211" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R211" t="n">
+        <v>0</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>FA197EE6835C3B2000</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>mv :-3.65, mv_2m:0.80,    mv_5m : 0.44, mv_30m : 0.55, mv_60m: 1.42</t>
+        </is>
+      </c>
+      <c r="Z211" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>45556.08449341435</v>
+      </c>
+      <c r="E212" t="n">
+        <v>257.18</v>
+      </c>
+      <c r="F212" t="n">
+        <v>2057.44</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H212" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>8</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P212" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>FA197EE778E23B2000</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>mv :-5.03, mv_2m:-0.62,    mv_5m : -0.85, mv_30m : 0.40, mv_60m: 1.00</t>
+        </is>
+      </c>
+      <c r="Z212" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>3</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="n">
+        <v>45556.08747342593</v>
+      </c>
+      <c r="E213" t="n">
+        <v>257.53</v>
+      </c>
+      <c r="F213" t="n">
+        <v>2060.24</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H213" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>8</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O213" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P213" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R213" t="n">
+        <v>0</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>FA197EE874513B2000</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>mv :-3.50, mv_2m:0.03,    mv_5m : 0.96, mv_30m : 0.46, mv_60m: 1.24</t>
+        </is>
+      </c>
+      <c r="Z213" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>4</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>45556.08792715278</v>
+      </c>
+      <c r="E214" t="n">
+        <v>169.2</v>
+      </c>
+      <c r="F214" t="n">
+        <v>2199.6</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H214" s="2" t="n">
+        <v>45556.13034547454</v>
+      </c>
+      <c r="I214" t="n">
+        <v>169.32</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2201.16</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>13</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O214" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P214" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R214" t="n">
+        <v>-0.5700000000000547</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>FA197EE89A9884A000</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>FA197EE964C3FB2000</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>FA197EE9652944A000</t>
+        </is>
+      </c>
+      <c r="W214" t="inlineStr">
+        <is>
+          <t>FA197EE965B684A000</t>
+        </is>
+      </c>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>mv :-4.15, mv_2m:-0.58,    mv_5m : 0.89, mv_30m : 1.81, mv_60m: 2.35</t>
+        </is>
+      </c>
+      <c r="Z214" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="n">
+        <v>45556.09055068287</v>
+      </c>
+      <c r="E215" t="n">
+        <v>257.62</v>
+      </c>
+      <c r="F215" t="n">
+        <v>2060.96</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H215" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>8</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O215" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P215" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R215" t="n">
+        <v>0</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>FA197EE977F704A000</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>mv :-4.19, mv_2m:-0.18,    mv_5m : -0.07, mv_30m : -0.17, mv_60m: 0.62</t>
+        </is>
+      </c>
+      <c r="Z215" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>6</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="n">
+        <v>45556.09251840278</v>
+      </c>
+      <c r="E216" t="n">
+        <v>169.23</v>
+      </c>
+      <c r="F216" t="n">
+        <v>2199.99</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H216" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>13</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O216" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P216" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R216" t="n">
+        <v>0</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>FA197EEA1DFC04A000</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>mv :-5.57, mv_2m:-0.86,    mv_5m : -1.28, mv_30m : -2.40, mv_60m: -0.21</t>
+        </is>
+      </c>
+      <c r="Z216" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>7</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D217" s="2" t="n">
+        <v>45556.09366532407</v>
+      </c>
+      <c r="E217" t="n">
+        <v>258.2</v>
+      </c>
+      <c r="F217" t="n">
+        <v>2065.6</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H217" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>8</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O217" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P217" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R217" t="n">
+        <v>0</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>FA197EEA7EC544A000</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>mv :-5.76, mv_2m:-0.37,    mv_5m : -0.77, mv_30m : -2.56, mv_60m: -0.40</t>
+        </is>
+      </c>
+      <c r="Z217" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>8</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="n">
+        <v>45556.0967503125</v>
+      </c>
+      <c r="E218" t="n">
+        <v>258.36</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2066.88</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H218" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
+        <v>8</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O218" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P218" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R218" t="n">
+        <v>0</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>FA197EEB830EBB2000</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>mv :-5.65, mv_2m:-0.17,    mv_5m : -0.43, mv_30m : -2.34, mv_60m: -0.21</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>9</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D219" s="2" t="n">
+        <v>45556.09720534722</v>
+      </c>
+      <c r="E219" t="n">
+        <v>169.29</v>
+      </c>
+      <c r="F219" t="n">
+        <v>2031.48</v>
+      </c>
+      <c r="G219" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H219" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>12</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O219" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P219" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R219" t="n">
+        <v>0</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>FA197EEBA9713B2000</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>mv :-5.48, mv_2m:-0.00,    mv_5m : -0.38, mv_30m : -3.05, mv_60m: -0.10</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>10</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="n">
+        <v>45556.09992303241</v>
+      </c>
+      <c r="E220" t="n">
+        <v>258.61</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2068.88</v>
+      </c>
+      <c r="G220" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H220" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
+        <v>8</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O220" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P220" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R220" t="n">
+        <v>0</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>FA197EEC8EC184A000</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>mv :-3.68, mv_2m:0.67,    mv_5m : 1.03, mv_30m : 0.25, mv_60m: 0.78</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>11</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D221" s="2" t="n">
+        <v>45556.10037922454</v>
+      </c>
+      <c r="E221" t="n">
+        <v>169.62</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2035.44</v>
+      </c>
+      <c r="G221" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H221" s="2" t="n">
+        <v>45556.14402859953</v>
+      </c>
+      <c r="I221" t="n">
+        <v>169.4304</v>
+      </c>
+      <c r="J221" t="n">
+        <v>2033.1648</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>12</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O221" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P221" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R221" t="n">
+        <v>-4.405200000000042</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>FA197EECB53EC4A000</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>FA197EED83D9BB2000</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>FA197EED844344A000</t>
+        </is>
+      </c>
+      <c r="W221" t="inlineStr">
+        <is>
+          <t>FA197EED1FB9BB2000</t>
+        </is>
+      </c>
+      <c r="X221" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>mv :-3.81, mv_2m:0.54,    mv_5m : 1.73, mv_30m : 1.45, mv_60m: 2.51</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>12</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="n">
+        <v>45556.10306032407</v>
+      </c>
+      <c r="E222" t="n">
+        <v>258.84</v>
+      </c>
+      <c r="F222" t="n">
+        <v>2070.72</v>
+      </c>
+      <c r="G222" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H222" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>8</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O222" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P222" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R222" t="n">
+        <v>0</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>FA197EED977644A000</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>mv :-2.64, mv_2m:-0.59,    mv_5m : -0.11, mv_30m : -0.54, mv_60m: -0.10</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>13</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="D223" s="2" t="n">
+        <v>45556.10316800926</v>
+      </c>
+      <c r="E223" t="n">
+        <v>276.15</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1933.05</v>
+      </c>
+      <c r="G223" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H223" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>7</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O223" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P223" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R223" t="n">
+        <v>0</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>FA197EEDA08FFB2000</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>mv :-2.65, mv_2m:-0.60,    mv_5m : 0.02, mv_30m : -0.17, mv_60m: 0.40</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="n">
+        <v>45556.11161258101</v>
+      </c>
+      <c r="E224" t="n">
+        <v>259.74</v>
+      </c>
+      <c r="F224" t="n">
+        <v>2077.92</v>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" s="2" t="n">
+        <v>45556.16570083333</v>
+      </c>
+      <c r="I224" t="n">
+        <v>259.43</v>
+      </c>
+      <c r="J224" t="n">
+        <v>2075.44</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L224" t="n">
+        <v>8</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O224" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P224" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>FA197EF0690B44A000</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>FA197EF0E4267B2000</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>FA197EF0E48BC4A000</t>
+        </is>
+      </c>
+      <c r="W224" t="inlineStr">
+        <is>
+          <t>FA197EF0E52684A000</t>
+        </is>
+      </c>
+      <c r="X224" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>mv :-1.14, mv_2m:-0.14,    mv_5m : 0.36, mv_30m : 0.01, mv_60m: -0.44</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="n">
+        <v>45556.1118102662</v>
+      </c>
+      <c r="E225" t="n">
+        <v>146.76</v>
+      </c>
+      <c r="F225" t="n">
+        <v>2054.64</v>
+      </c>
+      <c r="G225" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H225" s="2" t="n">
+        <v>45556.15695666667</v>
+      </c>
+      <c r="I225" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="J225" t="n">
+        <v>2054.5</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L225" t="n">
+        <v>14</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O225" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P225" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q225" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="R225" t="n">
+        <v>-2.269999999999873</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>FA197EF079BC44A000</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>FA197EF0E2C03B2000</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>FA197EF0E33084A000</t>
+        </is>
+      </c>
+      <c r="W225" t="inlineStr">
+        <is>
+          <t>FA197EF0E3C4C4A000</t>
+        </is>
+      </c>
+      <c r="X225" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>mv :-1.21, mv_2m:-0.21,    mv_5m : 0.46, mv_30m : 0.49, mv_60m: 0.67</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>2</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="n">
+        <v>45556.11214306713</v>
+      </c>
+      <c r="E226" t="n">
+        <v>169.81</v>
+      </c>
+      <c r="F226" t="n">
+        <v>2037.72</v>
+      </c>
+      <c r="G226" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H226" s="2" t="n">
+        <v>45556.15395039352</v>
+      </c>
+      <c r="I226" t="n">
+        <v>169.73</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2036.76</v>
+      </c>
+      <c r="K226" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L226" t="n">
+        <v>12</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O226" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P226" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q226" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R226" t="n">
+        <v>-3.090000000000264</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>FA197EF095D03B2000</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>FA197EF0E58BBB2000</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>FA197EF0E5F2FB2000</t>
+        </is>
+      </c>
+      <c r="W226" t="inlineStr">
+        <is>
+          <t>FA197EF0E691C4A000</t>
+        </is>
+      </c>
+      <c r="X226" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>mv :-1.27, mv_2m:-0.27,    mv_5m : 0.73, mv_30m : 3.02, mv_60m: 2.36</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>45556.11521421296</v>
+      </c>
+      <c r="E227" t="n">
+        <v>391.7</v>
+      </c>
+      <c r="F227" t="n">
+        <v>1958.5</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H227" s="2" t="n">
+        <v>45556.15870905093</v>
+      </c>
+      <c r="I227" t="n">
+        <v>391.38</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1956.9</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L227" t="n">
+        <v>5</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O227" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P227" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q227" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R227" t="n">
+        <v>-3.679999999999909</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>FA197EF198F184A000</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>FA197EF1FE123B2000</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>FA197EF1FE7BC4A000</t>
+        </is>
+      </c>
+      <c r="W227" t="inlineStr">
+        <is>
+          <t>FA197EF1FF0FBB2000</t>
+        </is>
+      </c>
+      <c r="X227" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>mv :-1.38, mv_2m:-0.01,    mv_5m : 0.09, mv_30m : -0.37, mv_60m: -1.75</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>45556.11855196759</v>
+      </c>
+      <c r="E228" t="n">
+        <v>506.14</v>
+      </c>
+      <c r="F228" t="n">
+        <v>2024.56</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H228" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>0</v>
+      </c>
+      <c r="L228" t="n">
+        <v>4</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O228" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P228" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q228" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R228" t="n">
+        <v>0</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>FA197EF2B29084A000</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>mv :-1.14, mv_2m:-0.14,    mv_5m : 0.01, mv_30m : 4.01, mv_60m: 0.98</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="n">
+        <v>45556.12001284722</v>
+      </c>
+      <c r="E229" t="n">
+        <v>146.77</v>
+      </c>
+      <c r="F229" t="n">
+        <v>2054.78</v>
+      </c>
+      <c r="G229" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H229" s="2" t="n">
+        <v>45556.15695666667</v>
+      </c>
+      <c r="I229" t="n">
+        <v>146.75</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2054.5</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>14</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O229" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P229" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q229" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R229" t="n">
+        <v>-2.4100000000002</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>FA197EF32DD204A000</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>FA197EF39C807B2000</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>FA197EF39CE47B2000</t>
+        </is>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>FA197EF39D6B84A000</t>
+        </is>
+      </c>
+      <c r="X229" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>mv :-0.22, mv_2m:0.22,    mv_5m : 0.43, mv_30m : 1.79, mv_60m: 1.49</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>3</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="n">
+        <v>45556.12039832176</v>
+      </c>
+      <c r="E230" t="n">
+        <v>169.89</v>
+      </c>
+      <c r="F230" t="n">
+        <v>2038.68</v>
+      </c>
+      <c r="G230" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H230" s="2" t="n">
+        <v>45556.1639078588</v>
+      </c>
+      <c r="I230" t="n">
+        <v>169.69</v>
+      </c>
+      <c r="J230" t="n">
+        <v>2036.28</v>
+      </c>
+      <c r="K230" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L230" t="n">
+        <v>12</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O230" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P230" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q230" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R230" t="n">
+        <v>-4.529999999999864</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>FA197EF34E5884A000</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>FA197EF39DFFC4A000</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>FA197EF39E70FB2000</t>
+        </is>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>FA197EF39F183B2000</t>
+        </is>
+      </c>
+      <c r="X230" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>mv :-0.26, mv_2m:0.30,    mv_5m : 0.28, mv_30m : 4.21, mv_60m: 2.93</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="n">
+        <v>45556.12545122685</v>
+      </c>
+      <c r="E231" t="n">
+        <v>233.75</v>
+      </c>
+      <c r="F231" t="n">
+        <v>2103.75</v>
+      </c>
+      <c r="G231" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H231" s="2" t="n">
+        <v>45556.17895822917</v>
+      </c>
+      <c r="I231" t="n">
+        <v>233.4471</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2101.0239</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L231" t="n">
+        <v>9</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O231" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P231" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q231" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R231" t="n">
+        <v>-4.836099999999861</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>FA197EF4F8B07B2000</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>FA197EF54AB104A000</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>FA197EF54B1DFB2000</t>
+        </is>
+      </c>
+      <c r="W231" t="inlineStr">
+        <is>
+          <t>FA197EF54BC47B2000</t>
+        </is>
+      </c>
+      <c r="X231" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>mv :-0.86, mv_2m:-0.26,    mv_5m : -1.11, mv_30m : 0.93, mv_60m: 1.36</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="n">
+        <v>45556.13031813657</v>
+      </c>
+      <c r="E232" t="n">
+        <v>330.56</v>
+      </c>
+      <c r="F232" t="n">
+        <v>1983.36</v>
+      </c>
+      <c r="G232" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H232" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>6</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O232" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P232" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R232" t="n">
+        <v>0</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>FA197EF69353BB2000</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>mv :-1.36, mv_2m:-0.15,    mv_5m : -1.97, mv_30m : 0.63, mv_60m: 8.05</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="n">
+        <v>45556.13268046296</v>
+      </c>
+      <c r="E233" t="n">
+        <v>506.17</v>
+      </c>
+      <c r="F233" t="n">
+        <v>2024.68</v>
+      </c>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" s="2" t="n">
+        <v>45556.17691247685</v>
+      </c>
+      <c r="I233" t="n">
+        <v>506.065</v>
+      </c>
+      <c r="J233" t="n">
+        <v>2024.26</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L233" t="n">
+        <v>4</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O233" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P233" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q233" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>FA197EF75AA844A000</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>FA197EF7BB5144A000</t>
+        </is>
+      </c>
+      <c r="V233" t="inlineStr">
+        <is>
+          <t>FA197EF7BBB504A000</t>
+        </is>
+      </c>
+      <c r="W233" t="inlineStr">
+        <is>
+          <t>FA197EF7BC4804A000</t>
+        </is>
+      </c>
+      <c r="X233" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>mv :-1.05, mv_2m:0.08,    mv_5m : 0.92, mv_30m : -0.36, mv_60m: 2.01</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>45556.13347216435</v>
+      </c>
+      <c r="E234" t="n">
+        <v>330.88</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1985.28</v>
+      </c>
+      <c r="G234" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H234" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>6</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O234" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P234" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R234" t="n">
+        <v>0</v>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>FA197EF79D7304A000</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>mv :-0.16, mv_2m:0.97,    mv_5m : 1.94, mv_30m : 2.32, mv_60m: 11.22</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>8</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>45556.13564001158</v>
+      </c>
+      <c r="E235" t="n">
+        <v>276.14</v>
+      </c>
+      <c r="F235" t="n">
+        <v>1932.98</v>
+      </c>
+      <c r="G235" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H235" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>7</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P235" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>FA197EF8545A84A000</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr"/>
+      <c r="V235" t="inlineStr"/>
+      <c r="W235" t="inlineStr"/>
+      <c r="X235" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>mv :0.89, mv_2m:0.32,    mv_5m : 1.02, mv_30m : 0.80, mv_60m: 2.16</t>
+        </is>
+      </c>
+      <c r="Z235" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>10</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>45556.13728834491</v>
+      </c>
+      <c r="E236" t="n">
+        <v>148.06</v>
+      </c>
+      <c r="F236" t="n">
+        <v>2072.84</v>
+      </c>
+      <c r="G236" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H236" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>14</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P236" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>FA197EF8DF70FB2000</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr"/>
+      <c r="U236" t="inlineStr"/>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>mv :1.51, mv_2m:0.13,    mv_5m : 0.30, mv_30m : 0.74, mv_60m: 2.28</t>
+        </is>
+      </c>
+      <c r="Z236" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>11</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="n">
+        <v>45556.13820418982</v>
+      </c>
+      <c r="E237" t="n">
+        <v>331.03</v>
+      </c>
+      <c r="F237" t="n">
+        <v>1986.18</v>
+      </c>
+      <c r="G237" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H237" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>6</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P237" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>FA197EF92CB584A000</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr"/>
+      <c r="U237" t="inlineStr"/>
+      <c r="V237" t="inlineStr"/>
+      <c r="W237" t="inlineStr"/>
+      <c r="X237" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>mv :1.73, mv_2m:0.35,    mv_5m : 1.36, mv_30m : 3.31, mv_60m: 15.60</t>
+        </is>
+      </c>
+      <c r="Z237" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>14</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="n">
+        <v>45556.13911961806</v>
+      </c>
+      <c r="E238" t="n">
+        <v>338.39</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2030.34</v>
+      </c>
+      <c r="G238" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H238" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>6</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P238" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>FA197EF979F2BB2000</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr"/>
+      <c r="U238" t="inlineStr"/>
+      <c r="V238" t="inlineStr"/>
+      <c r="W238" t="inlineStr"/>
+      <c r="X238" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>mv :1.78, mv_2m:-0.03,    mv_5m : 0.39, mv_30m : 1.10, mv_60m: 5.39</t>
+        </is>
+      </c>
+      <c r="Z238" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>16</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D239" s="2" t="n">
+        <v>45556.14039905093</v>
+      </c>
+      <c r="E239" t="n">
+        <v>391.65</v>
+      </c>
+      <c r="F239" t="n">
+        <v>1958.25</v>
+      </c>
+      <c r="G239" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H239" s="2" t="n">
+        <v>45556.18280556713</v>
+      </c>
+      <c r="I239" t="n">
+        <v>391.08</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1955.4</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L239" t="n">
+        <v>5</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P239" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R239" t="n">
+        <v>-4.930000000000136</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>FA197EF9E5E784A000</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>FA197EFA5C3CC4A000</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr">
+        <is>
+          <t>FA197EFA5CA43B2000</t>
+        </is>
+      </c>
+      <c r="W239" t="inlineStr">
+        <is>
+          <t>FA197EFA5D387B2000</t>
+        </is>
+      </c>
+      <c r="X239" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>mv :1.13, mv_2m:-0.34,    mv_5m : -0.35, mv_30m : 0.04, mv_60m: -0.39</t>
+        </is>
+      </c>
+      <c r="Z239" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>17</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="n">
+        <v>45556.14059445602</v>
+      </c>
+      <c r="E240" t="n">
+        <v>276.59</v>
+      </c>
+      <c r="F240" t="n">
+        <v>1936.13</v>
+      </c>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" s="2" t="n">
+        <v>45556.19915200231</v>
+      </c>
+      <c r="I240" t="n">
+        <v>276.6414</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1936.4898</v>
+      </c>
+      <c r="K240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L240" t="n">
+        <v>7</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P240" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R240" t="inlineStr"/>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>FA197EF9F663BB2000</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>FA197EFA5DA17B2000</t>
+        </is>
+      </c>
+      <c r="V240" t="inlineStr">
+        <is>
+          <t>FA197EFA5E06FB2000</t>
+        </is>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>FA197EFA5E9944A000</t>
+        </is>
+      </c>
+      <c r="X240" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>mv :1.13, mv_2m:-0.34,    mv_5m : -0.80, mv_30m : -0.21, mv_60m: 1.29</t>
+        </is>
+      </c>
+      <c r="Z240" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>18</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D241" s="2" t="n">
+        <v>45556.14107269676</v>
+      </c>
+      <c r="E241" t="n">
+        <v>169.61</v>
+      </c>
+      <c r="F241" t="n">
+        <v>2035.32</v>
+      </c>
+      <c r="G241" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H241" s="2" t="n">
+        <v>45556.1639078588</v>
+      </c>
+      <c r="I241" t="n">
+        <v>169.69</v>
+      </c>
+      <c r="J241" t="n">
+        <v>2036.28</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>12</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P241" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R241" t="n">
+        <v>-1.160000000000191</v>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>FA197EFA1EBEC4A000</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr"/>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>FA197EFA65FC04A000</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr">
+        <is>
+          <t>FA197EFA665CBB2000</t>
+        </is>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>FA197EFA66F044A000</t>
+        </is>
+      </c>
+      <c r="X241" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>mv :1.36, mv_2m:-0.10,    mv_5m : -0.36, mv_30m : 0.81, mv_60m: 5.68</t>
+        </is>
+      </c>
+      <c r="Z241" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>19</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="n">
+        <v>45556.14506555555</v>
+      </c>
+      <c r="E242" t="n">
+        <v>331.06</v>
+      </c>
+      <c r="F242" t="n">
+        <v>1986.36</v>
+      </c>
+      <c r="G242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H242" s="2" t="n">
+        <v>45556.18847530093</v>
+      </c>
+      <c r="I242" t="n">
+        <v>330.65</v>
+      </c>
+      <c r="J242" t="n">
+        <v>1983.9</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L242" t="n">
+        <v>6</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P242" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R242" t="n">
+        <v>-4.550000000000264</v>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>FA197EFB6FA3BB2000</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr"/>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>FA197EFC0013C4A000</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr">
+        <is>
+          <t>FA197EFC008484A000</t>
+        </is>
+      </c>
+      <c r="W242" t="inlineStr">
+        <is>
+          <t>FA197EFBA55AFB2000</t>
+        </is>
+      </c>
+      <c r="X242" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>mv :-0.16, mv_2m:-1.31,    mv_5m : -1.58, mv_30m : 0.95, mv_60m: 9.48</t>
+        </is>
+      </c>
+      <c r="Z242" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>20</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>DE</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="n">
+        <v>45556.14585256945</v>
+      </c>
+      <c r="E243" t="n">
+        <v>408.55</v>
+      </c>
+      <c r="F243" t="n">
+        <v>2042.75</v>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" s="2" t="n">
+        <v>45556.18831285879</v>
+      </c>
+      <c r="I243" t="n">
+        <v>408.11</v>
+      </c>
+      <c r="J243" t="n">
+        <v>2040.55</v>
+      </c>
+      <c r="K243" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L243" t="n">
+        <v>5</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O243" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P243" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q243" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R243" t="inlineStr"/>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>FA197EFBB20DFB2000</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>FA197EFC011F7B2000</t>
+        </is>
+      </c>
+      <c r="V243" t="inlineStr">
+        <is>
+          <t>FA197EFC018FBB2000</t>
+        </is>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>FA197EFC022A3B2000</t>
+        </is>
+      </c>
+      <c r="X243" t="inlineStr">
+        <is>
+          <t>1h</t>
+        </is>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>mv :0.23, mv_2m:0.58,    mv_5m : -0.11, mv_30m : 0.61, mv_60m: 3.00</t>
+        </is>
+      </c>
+      <c r="Z243" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>21</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="n">
+        <v>45556.14956997685</v>
+      </c>
+      <c r="E244" t="n">
+        <v>57.6</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2188.8</v>
+      </c>
+      <c r="G244" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H244" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
+        <v>38</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P244" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q244" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>FA197EFCEBB13B2000</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr"/>
+      <c r="U244" t="inlineStr"/>
+      <c r="V244" t="inlineStr"/>
+      <c r="W244" t="inlineStr"/>
+      <c r="X244" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>mv :0.97, mv_2m:0.14,    mv_5m : 0.29, mv_30m : 0.57, mv_60m: 0.75</t>
+        </is>
+      </c>
+      <c r="Z244" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>22</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="n">
+        <v>45556.1496699537</v>
+      </c>
+      <c r="E245" t="n">
+        <v>34.5398</v>
+      </c>
+      <c r="F245" t="n">
+        <v>2176.0074</v>
+      </c>
+      <c r="G245" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H245" s="2" t="n">
+        <v>45556.28084219908</v>
+      </c>
+      <c r="I245" t="n">
+        <v>34.6503</v>
+      </c>
+      <c r="J245" t="n">
+        <v>2182.9689</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L245" t="n">
+        <v>63</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P245" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q245" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R245" t="n">
+        <v>4.531500000000342</v>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>FA197EFCF42184A000</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr"/>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>FA197F1B49703B2000</t>
+        </is>
+      </c>
+      <c r="X245" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>mv :0.89, mv_2m:0.06,    mv_5m : 0.12, mv_30m : 0.63, mv_60m: 1.14</t>
+        </is>
+      </c>
+      <c r="Z245" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>38</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="n">
+        <v>45556.15193494213</v>
+      </c>
+      <c r="E246" t="n">
+        <v>147.81</v>
+      </c>
+      <c r="F246" t="n">
+        <v>2069.34</v>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" s="2" t="n">
+        <v>45556.28180390046</v>
+      </c>
+      <c r="I246" t="n">
+        <v>148.405</v>
+      </c>
+      <c r="J246" t="n">
+        <v>2077.67</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L246" t="n">
+        <v>14</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O246" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P246" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q246" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R246" t="inlineStr"/>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>FA197EFDB33CFB2000</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr"/>
+      <c r="U246" t="inlineStr"/>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>FA197F1A2EBAC4A000</t>
+        </is>
+      </c>
+      <c r="X246" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>mv :0.96, mv_2m:0.11,    mv_5m : 0.01, mv_30m : 1.56, mv_60m: 2.12</t>
+        </is>
+      </c>
+      <c r="Z246" t="inlineStr">
+        <is>
+          <t>E. Australia Standard Time</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="D247" s="2" t="n">
+        <v>45556.16035956018</v>
+      </c>
+      <c r="E247" t="n">
+        <v>57.6787</v>
+      </c>
+      <c r="F247" t="n">
+        <v>2191.7906</v>
+      </c>
+      <c r="G247" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H247" s="2" t="n">
+        <v>45556.28321295139</v>
+      </c>
+      <c r="I247" t="n">
+        <v>57.5401</v>
+      </c>
+      <c r="J247" t="n">
+        <v>2186.5238</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L247" t="n">
+        <v>38</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O247" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P247" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q247" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="R247" t="n">
+        <v>-7.536799999999875</v>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>FA197F007A0EBB2000</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr"/>
+      <c r="V247" t="inlineStr"/>
+      <c r="W247" t="inlineStr"/>
+      <c r="X247" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>mv :-0.76, mv_2m:0.24,    mv_5m : -0.17, mv_30m : 0.62, mv_60m: 0.96</t>
+        </is>
+      </c>
+      <c r="Z247" t="inlineStr">
         <is>
           <t>E. Australia Standard Time</t>
         </is>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA269"/>
+  <dimension ref="A1:AA276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,7 +565,7 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>stop_limit_sell_order_id</t>
+          <t>stop_limit_order_id</t>
         </is>
       </c>
     </row>
@@ -25959,6 +25959,617 @@
       </c>
       <c r="AA269" t="inlineStr"/>
     </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>290</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="n">
+        <v>45580.18006612269</v>
+      </c>
+      <c r="E270" t="n">
+        <v>82.5492</v>
+      </c>
+      <c r="F270" t="n">
+        <v>3136.8696</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H270" s="2" t="n">
+        <v>45580.28755964121</v>
+      </c>
+      <c r="I270" t="n">
+        <v>82.66030000000001</v>
+      </c>
+      <c r="J270" t="n">
+        <v>3141.0914</v>
+      </c>
+      <c r="K270" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="L270" t="n">
+        <v>38</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O270" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P270" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q270" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R270" t="n">
+        <v>1.921800000000257</v>
+      </c>
+      <c r="S270" t="inlineStr">
+        <is>
+          <t>FA199DDF65447B2000</t>
+        </is>
+      </c>
+      <c r="T270" t="inlineStr"/>
+      <c r="U270" t="inlineStr"/>
+      <c r="V270" t="inlineStr"/>
+      <c r="W270" t="inlineStr">
+        <is>
+          <t>FA199DE6C57A44A000</t>
+        </is>
+      </c>
+      <c r="X270" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y270" t="inlineStr">
+        <is>
+          <t>mv :-1.14, mv_2m:-0.15,      mv_5m : -0.21, mv_30m : -0.60, mv_60m: -0.05</t>
+        </is>
+      </c>
+      <c r="Z270" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>293</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>CMG</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="n">
+        <v>45581.15869940972</v>
+      </c>
+      <c r="E271" t="n">
+        <v>59.72</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3165.16</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H271" s="2" t="n">
+        <v>45581.28762678241</v>
+      </c>
+      <c r="I271" t="n">
+        <v>59.9001</v>
+      </c>
+      <c r="J271" t="n">
+        <v>3174.7053</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L271" t="n">
+        <v>53</v>
+      </c>
+      <c r="M271" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N271" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O271" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P271" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q271" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R271" t="n">
+        <v>7.294300000000224</v>
+      </c>
+      <c r="S271" t="inlineStr">
+        <is>
+          <t>FA199F21F15A44A000</t>
+        </is>
+      </c>
+      <c r="T271" t="inlineStr"/>
+      <c r="U271" t="inlineStr"/>
+      <c r="V271" t="inlineStr"/>
+      <c r="W271" t="inlineStr">
+        <is>
+          <t>FA199F2BC9BBBB2000</t>
+        </is>
+      </c>
+      <c r="X271" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y271" t="inlineStr">
+        <is>
+          <t>mv :-22.67, mv_2m:-0.50,      mv_5m : -1.72, mv_30m : 1.23, mv_60m: 3.43</t>
+        </is>
+      </c>
+      <c r="Z271" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>295</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="D272" s="2" t="n">
+        <v>45582.17252115741</v>
+      </c>
+      <c r="E272" t="n">
+        <v>42.915</v>
+      </c>
+      <c r="F272" t="n">
+        <v>3175.71</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H272" s="2" t="n">
+        <v>45582.24687973379</v>
+      </c>
+      <c r="I272" t="n">
+        <v>42.975</v>
+      </c>
+      <c r="J272" t="n">
+        <v>3180.15</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L272" t="n">
+        <v>74</v>
+      </c>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N272" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O272" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P272" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q272" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R272" t="n">
+        <v>1.920000000000055</v>
+      </c>
+      <c r="S272" t="inlineStr">
+        <is>
+          <t>FA19A070169E04A000</t>
+        </is>
+      </c>
+      <c r="T272" t="inlineStr"/>
+      <c r="U272" t="inlineStr"/>
+      <c r="V272" t="inlineStr"/>
+      <c r="W272" t="inlineStr">
+        <is>
+          <t>FA19A07897EE7B2000</t>
+        </is>
+      </c>
+      <c r="X272" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y272" t="inlineStr">
+        <is>
+          <t>mv :-1.77, mv_2m:-0.15,      mv_5m : -0.28, mv_30m : -1.13, mv_60m: -2.30</t>
+        </is>
+      </c>
+      <c r="Z272" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>298</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="n">
+        <v>45582.2124253125</v>
+      </c>
+      <c r="E273" t="n">
+        <v>287.83</v>
+      </c>
+      <c r="F273" t="n">
+        <v>3166.13</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H273" s="2" t="n">
+        <v>45582.28688711805</v>
+      </c>
+      <c r="I273" t="n">
+        <v>288.39</v>
+      </c>
+      <c r="J273" t="n">
+        <v>3172.29</v>
+      </c>
+      <c r="K273" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L273" t="n">
+        <v>11</v>
+      </c>
+      <c r="M273" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N273" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O273" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P273" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q273" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R273" t="n">
+        <v>4.02000000000031</v>
+      </c>
+      <c r="S273" t="inlineStr">
+        <is>
+          <t>FA19A07D3D8B3B2000</t>
+        </is>
+      </c>
+      <c r="T273" t="inlineStr"/>
+      <c r="U273" t="inlineStr"/>
+      <c r="V273" t="inlineStr"/>
+      <c r="W273" t="inlineStr">
+        <is>
+          <t>FA19A081561684A000</t>
+        </is>
+      </c>
+      <c r="X273" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y273" t="inlineStr">
+        <is>
+          <t>mv :-1.50, mv_2m:0.41,      mv_5m : 0.26, mv_30m : 0.60, mv_60m: 0.35</t>
+        </is>
+      </c>
+      <c r="Z273" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B274" t="n">
+        <v>301</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="D274" s="2" t="n">
+        <v>45583.1528390625</v>
+      </c>
+      <c r="E274" t="n">
+        <v>401.62</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3212.96</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H274" s="2" t="n">
+        <v>45583.28773255787</v>
+      </c>
+      <c r="I274" t="n">
+        <v>401.35</v>
+      </c>
+      <c r="J274" t="n">
+        <v>3210.8</v>
+      </c>
+      <c r="K274" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L274" t="n">
+        <v>8</v>
+      </c>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N274" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O274" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P274" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q274" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="R274" t="n">
+        <v>-4.279999999999855</v>
+      </c>
+      <c r="S274" t="inlineStr">
+        <is>
+          <t>FA19A1B3310AC4A000</t>
+        </is>
+      </c>
+      <c r="T274" t="inlineStr"/>
+      <c r="U274" t="inlineStr"/>
+      <c r="V274" t="inlineStr"/>
+      <c r="W274" t="inlineStr">
+        <is>
+          <t>FA19A1D24FB7BB2000</t>
+        </is>
+      </c>
+      <c r="X274" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y274" t="inlineStr">
+        <is>
+          <t>mv :0.89, mv_2m:0.81,      mv_5m : 1.66, mv_30m : -1.27, mv_60m: -1.63</t>
+        </is>
+      </c>
+      <c r="Z274" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B275" t="n">
+        <v>302</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>CHTR</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="n">
+        <v>45583.16485706018</v>
+      </c>
+      <c r="E275" t="n">
+        <v>328.87</v>
+      </c>
+      <c r="F275" t="n">
+        <v>2959.83</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H275" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
+        <v>9</v>
+      </c>
+      <c r="M275" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N275" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O275" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P275" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q275" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R275" t="n">
+        <v>0</v>
+      </c>
+      <c r="S275" t="inlineStr">
+        <is>
+          <t>FA19A1B7270C7B2000</t>
+        </is>
+      </c>
+      <c r="T275" t="inlineStr"/>
+      <c r="U275" t="inlineStr"/>
+      <c r="V275" t="inlineStr"/>
+      <c r="W275" t="inlineStr"/>
+      <c r="X275" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y275" t="inlineStr">
+        <is>
+          <t>mv :3.49, mv_2m:0.07,      mv_5m : 0.03, mv_30m : 0.88, mv_60m: 0.35</t>
+        </is>
+      </c>
+      <c r="Z275" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B276" t="n">
+        <v>303</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="n">
+        <v>45583.27386659722</v>
+      </c>
+      <c r="E276" t="n">
+        <v>203.21</v>
+      </c>
+      <c r="F276" t="n">
+        <v>3251.36</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H276" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>16</v>
+      </c>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>placed</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O276" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="P276" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q276" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R276" t="n">
+        <v>0</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>FA19A1DB14AABB2000</t>
+        </is>
+      </c>
+      <c r="T276" t="inlineStr"/>
+      <c r="U276" t="inlineStr"/>
+      <c r="V276" t="inlineStr"/>
+      <c r="W276" t="inlineStr"/>
+      <c r="X276" t="inlineStr">
+        <is>
+          <t>speed_norm100</t>
+        </is>
+      </c>
+      <c r="Y276" t="inlineStr">
+        <is>
+          <t>mv :0.16, mv_2m:-0.29,      mv_5m : -0.02, mv_30m : -1.16, mv_60m: -0.20</t>
+        </is>
+      </c>
+      <c r="Z276" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA276" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA820"/>
+  <dimension ref="A1:AA828"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27940,7 +27940,7 @@
         <v>1.006</v>
       </c>
       <c r="Q291" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="R291" t="n">
         <v>0</v>
@@ -71787,21 +71787,23 @@
         <v>1.03</v>
       </c>
       <c r="H817" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>45741.06419210648</v>
+      </c>
+      <c r="I817" t="n">
+        <v>264.97</v>
+      </c>
       <c r="J817" t="n">
-        <v>0</v>
+        <v>3179.64</v>
       </c>
       <c r="K817" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="L817" t="n">
         <v>12</v>
       </c>
       <c r="M817" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N817" t="n">
@@ -71811,13 +71813,13 @@
         <v>1.005</v>
       </c>
       <c r="P817" t="n">
-        <v>1.006</v>
+        <v>1.0075</v>
       </c>
       <c r="Q817" t="n">
         <v>0.15</v>
       </c>
       <c r="R817" t="n">
-        <v>0</v>
+        <v>51.24000000000054</v>
       </c>
       <c r="S817" t="inlineStr">
         <is>
@@ -71940,7 +71942,7 @@
     </row>
     <row r="819">
       <c r="A819" s="1" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B819" t="n">
         <v>4113</v>
@@ -72029,7 +72031,7 @@
     </row>
     <row r="820">
       <c r="A820" s="1" t="n">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B820" t="n">
         <v>4114</v>
@@ -72052,21 +72054,23 @@
         <v>1.02</v>
       </c>
       <c r="H820" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
+        <v>45741.02655521991</v>
+      </c>
+      <c r="I820" t="n">
+        <v>305.69</v>
+      </c>
       <c r="J820" t="n">
-        <v>0</v>
+        <v>2751.21</v>
       </c>
       <c r="K820" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L820" t="n">
         <v>9</v>
       </c>
       <c r="M820" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N820" t="n">
@@ -72076,13 +72080,13 @@
         <v>1.0001</v>
       </c>
       <c r="P820" t="n">
-        <v>1.006</v>
+        <v>1.0065</v>
       </c>
       <c r="Q820" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="R820" t="n">
-        <v>0</v>
+        <v>6.13110000000017</v>
       </c>
       <c r="S820" t="inlineStr">
         <is>
@@ -72114,6 +72118,740 @@
       </c>
       <c r="AA820" t="inlineStr"/>
     </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>4115</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>CB</t>
+        </is>
+      </c>
+      <c r="D821" s="2" t="n">
+        <v>45741.14519493056</v>
+      </c>
+      <c r="E821" t="n">
+        <v>291.59</v>
+      </c>
+      <c r="F821" t="n">
+        <v>3207.49</v>
+      </c>
+      <c r="G821" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H821" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>0</v>
+      </c>
+      <c r="K821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L821" t="n">
+        <v>11</v>
+      </c>
+      <c r="M821" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N821" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O821" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P821" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q821" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R821" t="n">
+        <v>0</v>
+      </c>
+      <c r="S821" t="inlineStr">
+        <is>
+          <t>FA1A6D1BDE37BB2000</t>
+        </is>
+      </c>
+      <c r="T821" t="inlineStr">
+        <is>
+          <t>FA1A6D1C31003B2000</t>
+        </is>
+      </c>
+      <c r="U821" t="inlineStr"/>
+      <c r="V821" t="inlineStr"/>
+      <c r="W821" t="inlineStr">
+        <is>
+          <t>FA1A6D1C9BDC44A000</t>
+        </is>
+      </c>
+      <c r="X821" t="inlineStr">
+        <is>
+          <t>MA60_MA5</t>
+        </is>
+      </c>
+      <c r="Y821" t="inlineStr">
+        <is>
+          <t>mv :-0.92, mv_2m:0.08,      mv_5m : 0.03, mv_30m : -0.05, mv_60m: 0.21</t>
+        </is>
+      </c>
+      <c r="Z821" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA821" t="inlineStr">
+        <is>
+          <t>FA1A6D1C31CAC4A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="n">
+        <v>4116</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D822" s="2" t="n">
+        <v>45741.20273938657</v>
+      </c>
+      <c r="E822" t="n">
+        <v>24.197</v>
+      </c>
+      <c r="F822" t="n">
+        <v>3000.428</v>
+      </c>
+      <c r="G822" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H822" s="2" t="n">
+        <v>45741.83583892361</v>
+      </c>
+      <c r="I822" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="J822" t="n">
+        <v>2988.4</v>
+      </c>
+      <c r="K822" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="L822" t="n">
+        <v>124</v>
+      </c>
+      <c r="M822" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N822" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O822" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P822" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R822" t="n">
+        <v>-14.84799999999979</v>
+      </c>
+      <c r="S822" t="inlineStr">
+        <is>
+          <t>FA1A6D2ED58A3B2000</t>
+        </is>
+      </c>
+      <c r="T822" t="inlineStr">
+        <is>
+          <t>FA1A6D2F102CBB2000</t>
+        </is>
+      </c>
+      <c r="U822" t="inlineStr"/>
+      <c r="V822" t="inlineStr"/>
+      <c r="W822" t="inlineStr">
+        <is>
+          <t>FA1A6D3F86DF04A000</t>
+        </is>
+      </c>
+      <c r="X822" t="inlineStr">
+        <is>
+          <t>MA60_MA5</t>
+        </is>
+      </c>
+      <c r="Y822" t="inlineStr">
+        <is>
+          <t>mv :-5.16, mv_2m:0.03,      mv_5m : -0.11, mv_30m : -0.18, mv_60m: -3.92</t>
+        </is>
+      </c>
+      <c r="Z822" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA822" t="inlineStr">
+        <is>
+          <t>FA1A6D2F10E984A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="n">
+        <v>4117</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="D823" s="2" t="n">
+        <v>45742.01280428241</v>
+      </c>
+      <c r="E823" t="n">
+        <v>432.71</v>
+      </c>
+      <c r="F823" t="n">
+        <v>2596.26</v>
+      </c>
+      <c r="G823" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H823" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>0</v>
+      </c>
+      <c r="K823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L823" t="n">
+        <v>6</v>
+      </c>
+      <c r="M823" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N823" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="O823" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="P823" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q823" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R823" t="n">
+        <v>0</v>
+      </c>
+      <c r="S823" t="inlineStr">
+        <is>
+          <t>FA1A6E39D2E93B2000</t>
+        </is>
+      </c>
+      <c r="T823" t="inlineStr"/>
+      <c r="U823" t="inlineStr"/>
+      <c r="V823" t="inlineStr"/>
+      <c r="W823" t="inlineStr"/>
+      <c r="X823" t="inlineStr">
+        <is>
+          <t>before_market_open_2</t>
+        </is>
+      </c>
+      <c r="Y823" t="inlineStr">
+        <is>
+          <t>mv :-11.10, mv_2m:-0.47,      mv_5m : 1.37, mv_30m : -7.03, mv_60m: -14.15</t>
+        </is>
+      </c>
+      <c r="Z823" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA823" t="inlineStr"/>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="n">
+        <v>4119</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="D824" s="2" t="n">
+        <v>45742.19684638889</v>
+      </c>
+      <c r="E824" t="n">
+        <v>299.5</v>
+      </c>
+      <c r="F824" t="n">
+        <v>3294.5</v>
+      </c>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>0</v>
+      </c>
+      <c r="K824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L824" t="n">
+        <v>11</v>
+      </c>
+      <c r="M824" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N824" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="O824" t="n">
+        <v>1.0001</v>
+      </c>
+      <c r="P824" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q824" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R824" t="n">
+        <v>0</v>
+      </c>
+      <c r="S824" t="inlineStr">
+        <is>
+          <t>FA1A6E767B017B2000</t>
+        </is>
+      </c>
+      <c r="T824" t="inlineStr"/>
+      <c r="U824" t="inlineStr"/>
+      <c r="V824" t="inlineStr"/>
+      <c r="W824" t="inlineStr"/>
+      <c r="X824" t="inlineStr">
+        <is>
+          <t>1230</t>
+        </is>
+      </c>
+      <c r="Y824" t="inlineStr">
+        <is>
+          <t>mv :-31.71, mv_2m:0.40,      mv_5m : 1.20, mv_30m : -2.38, mv_60m: -3.82</t>
+        </is>
+      </c>
+      <c r="Z824" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>4120</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>KLAC</t>
+        </is>
+      </c>
+      <c r="D825" s="2" t="n">
+        <v>45742.26677307871</v>
+      </c>
+      <c r="E825" t="n">
+        <v>720.85</v>
+      </c>
+      <c r="F825" t="n">
+        <v>2883.4</v>
+      </c>
+      <c r="G825" t="n">
+        <v>1</v>
+      </c>
+      <c r="H825" s="2" t="n">
+        <v>45743.07161030093</v>
+      </c>
+      <c r="I825" t="n">
+        <v>712.42</v>
+      </c>
+      <c r="J825" t="n">
+        <v>2849.68</v>
+      </c>
+      <c r="K825" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L825" t="n">
+        <v>4</v>
+      </c>
+      <c r="M825" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N825" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O825" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P825" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R825" t="n">
+        <v>-35.82100000000025</v>
+      </c>
+      <c r="S825" t="inlineStr">
+        <is>
+          <t>FA1A6E8D876284A000</t>
+        </is>
+      </c>
+      <c r="T825" t="inlineStr">
+        <is>
+          <t>FA1A6E8DD32D04A000</t>
+        </is>
+      </c>
+      <c r="U825" t="inlineStr"/>
+      <c r="V825" t="inlineStr"/>
+      <c r="W825" t="inlineStr">
+        <is>
+          <t>FA1A6E90522904A000</t>
+        </is>
+      </c>
+      <c r="X825" t="inlineStr">
+        <is>
+          <t>MA60_MA5</t>
+        </is>
+      </c>
+      <c r="Y825" t="inlineStr">
+        <is>
+          <t>mv :-37.17, mv_2m:-0.96,      mv_5m : -0.15, mv_30m : 4.66, mv_60m: -7.47</t>
+        </is>
+      </c>
+      <c r="Z825" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA825" t="inlineStr">
+        <is>
+          <t>FA1A6E8DD3D884A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>4121</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>AMAT</t>
+        </is>
+      </c>
+      <c r="D826" s="2" t="n">
+        <v>45743.09739583333</v>
+      </c>
+      <c r="E826" t="n">
+        <v>152.134</v>
+      </c>
+      <c r="F826" t="n">
+        <v>2738.412</v>
+      </c>
+      <c r="G826" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H826" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>0</v>
+      </c>
+      <c r="K826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L826" t="n">
+        <v>18</v>
+      </c>
+      <c r="M826" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N826" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O826" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P826" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q826" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R826" t="n">
+        <v>0</v>
+      </c>
+      <c r="S826" t="inlineStr">
+        <is>
+          <t>FA1A6F9F4B8084A000</t>
+        </is>
+      </c>
+      <c r="T826" t="inlineStr">
+        <is>
+          <t>FA1A6F9F948B3B2000</t>
+        </is>
+      </c>
+      <c r="U826" t="inlineStr"/>
+      <c r="V826" t="inlineStr"/>
+      <c r="W826" t="inlineStr">
+        <is>
+          <t>FA1A70D08058BB2000</t>
+        </is>
+      </c>
+      <c r="X826" t="inlineStr">
+        <is>
+          <t>MA60_MA5</t>
+        </is>
+      </c>
+      <c r="Y826" t="inlineStr">
+        <is>
+          <t>mv :-14.76, mv_2m:-1.45,      mv_5m : -2.00, mv_30m : -2.88, mv_60m: -3.09</t>
+        </is>
+      </c>
+      <c r="Z826" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA826" t="inlineStr">
+        <is>
+          <t>FA1A6F9F9544C4A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>4122</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D827" s="2" t="n">
+        <v>45743.09739583333</v>
+      </c>
+      <c r="E827" t="n">
+        <v>72.235</v>
+      </c>
+      <c r="F827" t="n">
+        <v>2744.93</v>
+      </c>
+      <c r="G827" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H827" s="2" t="n">
+        <v>45745.02083980324</v>
+      </c>
+      <c r="I827" t="n">
+        <v>71.6019</v>
+      </c>
+      <c r="J827" t="n">
+        <v>2720.8722</v>
+      </c>
+      <c r="K827" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="L827" t="n">
+        <v>38</v>
+      </c>
+      <c r="M827" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N827" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O827" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P827" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q827" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R827" t="n">
+        <v>-26.34780000000005</v>
+      </c>
+      <c r="S827" t="inlineStr">
+        <is>
+          <t>FA1A71253C16FB2000</t>
+        </is>
+      </c>
+      <c r="T827" t="inlineStr">
+        <is>
+          <t>FA1A7135DEE03B2000</t>
+        </is>
+      </c>
+      <c r="U827" t="inlineStr"/>
+      <c r="V827" t="inlineStr"/>
+      <c r="W827" t="inlineStr"/>
+      <c r="X827" t="inlineStr">
+        <is>
+          <t>MA60_MA5</t>
+        </is>
+      </c>
+      <c r="Y827" t="inlineStr"/>
+      <c r="Z827" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA827" t="inlineStr">
+        <is>
+          <t>FA1A6F9F9544C4A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>4123</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="D828" s="2" t="n">
+        <v>45745.1103808449</v>
+      </c>
+      <c r="E828" t="n">
+        <v>89.48909999999999</v>
+      </c>
+      <c r="F828" t="n">
+        <v>2774.1621</v>
+      </c>
+      <c r="G828" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H828" s="2" t="n">
+        <v>45745.32922364584</v>
+      </c>
+      <c r="I828" t="n">
+        <v>89.23099999999999</v>
+      </c>
+      <c r="J828" t="n">
+        <v>2766.161</v>
+      </c>
+      <c r="K828" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L828" t="n">
+        <v>31</v>
+      </c>
+      <c r="M828" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N828" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O828" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P828" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q828" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="R828" t="n">
+        <v>-10.25109999999995</v>
+      </c>
+      <c r="S828" t="inlineStr">
+        <is>
+          <t>FA1A7236C0D3BB2000</t>
+        </is>
+      </c>
+      <c r="T828" t="inlineStr">
+        <is>
+          <t>FA1A723701C184A000</t>
+        </is>
+      </c>
+      <c r="U828" t="inlineStr"/>
+      <c r="V828" t="inlineStr"/>
+      <c r="W828" t="inlineStr">
+        <is>
+          <t>FA1A723A168F04A000</t>
+        </is>
+      </c>
+      <c r="X828" t="inlineStr">
+        <is>
+          <t>MA60_MA5</t>
+        </is>
+      </c>
+      <c r="Y828" t="inlineStr">
+        <is>
+          <t>mv :-20.66, mv_2m:-0.04,      mv_5m : 0.56, mv_30m : 12.41, mv_60m: 6.03, md_60m: 1</t>
+        </is>
+      </c>
+      <c r="Z828" t="inlineStr">
+        <is>
+          <t>Сиднейское время (лето)</t>
+        </is>
+      </c>
+      <c r="AA828" t="inlineStr">
+        <is>
+          <t>FA1A72370281BB2000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA356"/>
+  <dimension ref="A1:AA360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32720,41 +32720,43 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>4134</v>
+        <v>4135</v>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="D344" s="2" t="n">
-        <v>45761.84365928241</v>
+        <v>45761.89916496527</v>
       </c>
       <c r="E344" t="n">
-        <v>35.28</v>
+        <v>63.49</v>
       </c>
       <c r="F344" t="n">
-        <v>987.84</v>
+        <v>952.35</v>
       </c>
       <c r="G344" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H344" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
+        <v>45762.01938324074</v>
+      </c>
+      <c r="I344" t="n">
+        <v>62.85</v>
+      </c>
       <c r="J344" t="n">
-        <v>0</v>
+        <v>942.75</v>
       </c>
       <c r="K344" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="L344" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N344" t="n">
@@ -32767,20 +32769,28 @@
         <v>1.006</v>
       </c>
       <c r="Q344" t="n">
-        <v>0.45</v>
+        <v>0.99</v>
       </c>
       <c r="R344" t="n">
-        <v>0</v>
+        <v>-11.72000000000002</v>
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>FA1A87CF9ABCC4A000</t>
-        </is>
-      </c>
-      <c r="T344" t="inlineStr"/>
+          <t>FA1A87E1E60884A000</t>
+        </is>
+      </c>
+      <c r="T344" t="inlineStr">
+        <is>
+          <t>FA1A87E253C47B2000</t>
+        </is>
+      </c>
       <c r="U344" t="inlineStr"/>
       <c r="V344" t="inlineStr"/>
-      <c r="W344" t="inlineStr"/>
+      <c r="W344" t="inlineStr">
+        <is>
+          <t>FA1A87E8A91504A000</t>
+        </is>
+      </c>
       <c r="X344" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -32788,7 +32798,7 @@
       </c>
       <c r="Y344" t="inlineStr">
         <is>
-          <t>mv :-1.64, mv_2m:-0.72,      mv_5m : -1.06, mv_30m : 2.17, mv_60m: 3.09, md_60m: -1</t>
+          <t>mv :-1.00, mv_2m:0.39,      mv_5m : 0.32, mv_30m : 2.81, mv_60m: 3.00, md_60m: 1</t>
         </is>
       </c>
       <c r="Z344" t="inlineStr">
@@ -32796,46 +32806,50 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA344" t="inlineStr"/>
+      <c r="AA344" t="inlineStr">
+        <is>
+          <t>FA1A87E2543FFB2000</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>4135</v>
+        <v>4137</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>BIIB</t>
         </is>
       </c>
       <c r="D345" s="2" t="n">
-        <v>45761.89916496527</v>
+        <v>45761.92484070601</v>
       </c>
       <c r="E345" t="n">
-        <v>63.49</v>
+        <v>115.85</v>
       </c>
       <c r="F345" t="n">
-        <v>952.35</v>
+        <v>926.8</v>
       </c>
       <c r="G345" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="H345" s="2" t="n">
-        <v>45762.01938324074</v>
+        <v>45762.01883856481</v>
       </c>
       <c r="I345" t="n">
-        <v>62.85</v>
+        <v>115.805</v>
       </c>
       <c r="J345" t="n">
-        <v>942.75</v>
+        <v>926.4400000000001</v>
       </c>
       <c r="K345" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="L345" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
@@ -32852,26 +32866,26 @@
         <v>1.006</v>
       </c>
       <c r="Q345" t="n">
-        <v>0.99</v>
+        <v>0.7</v>
       </c>
       <c r="R345" t="n">
-        <v>-11.72000000000002</v>
+        <v>-2.4299999999999</v>
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t>FA1A87E1E60884A000</t>
+          <t>FA1A87EA5C7084A000</t>
         </is>
       </c>
       <c r="T345" t="inlineStr">
         <is>
-          <t>FA1A87E253C47B2000</t>
+          <t>FA1A87F8A10344A000</t>
         </is>
       </c>
       <c r="U345" t="inlineStr"/>
       <c r="V345" t="inlineStr"/>
       <c r="W345" t="inlineStr">
         <is>
-          <t>FA1A87E8A91504A000</t>
+          <t>FA1A87FBD50AC4A000</t>
         </is>
       </c>
       <c r="X345" t="inlineStr">
@@ -32881,7 +32895,7 @@
       </c>
       <c r="Y345" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:0.39,      mv_5m : 0.32, mv_30m : 2.81, mv_60m: 3.00, md_60m: 1</t>
+          <t>mv :6.66, mv_2m:2.86,      mv_5m : 4.46, mv_30m : -1.16, mv_60m: 0.44, md_60m: 0</t>
         </is>
       </c>
       <c r="Z345" t="inlineStr">
@@ -32891,7 +32905,7 @@
       </c>
       <c r="AA345" t="inlineStr">
         <is>
-          <t>FA1A87E2543FFB2000</t>
+          <t>FA1A87F8A180C4A000</t>
         </is>
       </c>
     </row>
@@ -32900,41 +32914,43 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>4136</v>
+        <v>4138</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="D346" s="2" t="n">
-        <v>45761.89942335648</v>
+        <v>45761.92555357639</v>
       </c>
       <c r="E346" t="n">
-        <v>83.23999999999999</v>
+        <v>79.38</v>
       </c>
       <c r="F346" t="n">
-        <v>998.8799999999999</v>
+        <v>952.5599999999999</v>
       </c>
       <c r="G346" t="n">
-        <v>1.111</v>
+        <v>1.03</v>
       </c>
       <c r="H346" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
+        <v>45762.01817681713</v>
+      </c>
+      <c r="I346" t="n">
+        <v>79.86499999999999</v>
+      </c>
       <c r="J346" t="n">
-        <v>0</v>
+        <v>958.3799999999999</v>
       </c>
       <c r="K346" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="L346" t="n">
         <v>12</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N346" t="n">
@@ -32947,20 +32963,28 @@
         <v>1.006</v>
       </c>
       <c r="Q346" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="R346" t="n">
-        <v>0</v>
+        <v>3.719999999999936</v>
       </c>
       <c r="S346" t="inlineStr">
         <is>
-          <t>FA1A87E1FBD5FB2000</t>
-        </is>
-      </c>
-      <c r="T346" t="inlineStr"/>
+          <t>FA1A87EA9897C4A000</t>
+        </is>
+      </c>
+      <c r="T346" t="inlineStr">
+        <is>
+          <t>FA1A87EB0F463B2000</t>
+        </is>
+      </c>
       <c r="U346" t="inlineStr"/>
       <c r="V346" t="inlineStr"/>
-      <c r="W346" t="inlineStr"/>
+      <c r="W346" t="inlineStr">
+        <is>
+          <t>FA1A87EB683AC4A000</t>
+        </is>
+      </c>
       <c r="X346" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -32968,7 +32992,7 @@
       </c>
       <c r="Y346" t="inlineStr">
         <is>
-          <t>mv :-1.00, mv_2m:0.24,      mv_5m : 1.20, mv_30m : -0.88, mv_60m: -0.39, md_60m: -1</t>
+          <t>mv :6.91, mv_2m:3.01,      mv_5m : 5.57, mv_30m : -0.12, mv_60m: 2.57, md_60m: 2</t>
         </is>
       </c>
       <c r="Z346" t="inlineStr">
@@ -32976,46 +33000,50 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA346" t="inlineStr"/>
+      <c r="AA346" t="inlineStr">
+        <is>
+          <t>FA1A87EB0FC984A000</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>4137</v>
+        <v>4139</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>BIIB</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="D347" s="2" t="n">
-        <v>45761.92484070601</v>
+        <v>45762.03856059028</v>
       </c>
       <c r="E347" t="n">
-        <v>115.85</v>
+        <v>39.936</v>
       </c>
       <c r="F347" t="n">
-        <v>926.8</v>
+        <v>998.4</v>
       </c>
       <c r="G347" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="H347" s="2" t="n">
-        <v>45762.01883856481</v>
+        <v>45762.099524375</v>
       </c>
       <c r="I347" t="n">
-        <v>115.805</v>
+        <v>39.11</v>
       </c>
       <c r="J347" t="n">
-        <v>926.4400000000001</v>
+        <v>977.75</v>
       </c>
       <c r="K347" t="n">
-        <v>1.05</v>
+        <v>1.14</v>
       </c>
       <c r="L347" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
@@ -33032,28 +33060,24 @@
         <v>1.006</v>
       </c>
       <c r="Q347" t="n">
-        <v>0.7</v>
+        <v>0.45</v>
       </c>
       <c r="R347" t="n">
-        <v>-2.4299999999999</v>
+        <v>-22.85999999999998</v>
       </c>
       <c r="S347" t="inlineStr">
         <is>
-          <t>FA1A87EA5C7084A000</t>
+          <t>FA1A880FD79004A000</t>
         </is>
       </c>
       <c r="T347" t="inlineStr">
         <is>
-          <t>FA1A87F8A10344A000</t>
+          <t>FA1A8810408384A000</t>
         </is>
       </c>
       <c r="U347" t="inlineStr"/>
       <c r="V347" t="inlineStr"/>
-      <c r="W347" t="inlineStr">
-        <is>
-          <t>FA1A87FBD50AC4A000</t>
-        </is>
-      </c>
+      <c r="W347" t="inlineStr"/>
       <c r="X347" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -33061,7 +33085,7 @@
       </c>
       <c r="Y347" t="inlineStr">
         <is>
-          <t>mv :6.66, mv_2m:2.86,      mv_5m : 4.46, mv_30m : -1.16, mv_60m: 0.44, md_60m: 0</t>
+          <t>mv :-0.68, mv_2m:0.32,      mv_5m : 0.59, mv_30m : 1.45, mv_60m: 1.20, md_60m: 1</t>
         </is>
       </c>
       <c r="Z347" t="inlineStr">
@@ -33071,7 +33095,7 @@
       </c>
       <c r="AA347" t="inlineStr">
         <is>
-          <t>FA1A87F8A180C4A000</t>
+          <t>FA1A8810410804A000</t>
         </is>
       </c>
     </row>
@@ -33080,39 +33104,39 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>4138</v>
+        <v>4140</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>TFC</t>
         </is>
       </c>
       <c r="D348" s="2" t="n">
-        <v>45761.92555357639</v>
+        <v>45762.12632922453</v>
       </c>
       <c r="E348" t="n">
-        <v>79.38</v>
+        <v>36.1779</v>
       </c>
       <c r="F348" t="n">
-        <v>952.5599999999999</v>
+        <v>976.8033</v>
       </c>
       <c r="G348" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="H348" s="2" t="n">
-        <v>45762.01817681713</v>
+        <v>45762.21419508102</v>
       </c>
       <c r="I348" t="n">
-        <v>79.86499999999999</v>
+        <v>36.2018</v>
       </c>
       <c r="J348" t="n">
-        <v>958.3799999999999</v>
+        <v>977.4485999999999</v>
       </c>
       <c r="K348" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="L348" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M348" t="inlineStr">
         <is>
@@ -33129,26 +33153,26 @@
         <v>1.006</v>
       </c>
       <c r="Q348" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="R348" t="n">
-        <v>3.719999999999936</v>
+        <v>-1.534700000000094</v>
       </c>
       <c r="S348" t="inlineStr">
         <is>
-          <t>FA1A87EA9897C4A000</t>
+          <t>FA1A882CC504C4A000</t>
         </is>
       </c>
       <c r="T348" t="inlineStr">
         <is>
-          <t>FA1A87EB0F463B2000</t>
+          <t>FA1A882D12E13B2000</t>
         </is>
       </c>
       <c r="U348" t="inlineStr"/>
       <c r="V348" t="inlineStr"/>
       <c r="W348" t="inlineStr">
         <is>
-          <t>FA1A87EB683AC4A000</t>
+          <t>FA1A882F6F9B7B2000</t>
         </is>
       </c>
       <c r="X348" t="inlineStr">
@@ -33158,7 +33182,7 @@
       </c>
       <c r="Y348" t="inlineStr">
         <is>
-          <t>mv :6.91, mv_2m:3.01,      mv_5m : 5.57, mv_30m : -0.12, mv_60m: 2.57, md_60m: 2</t>
+          <t>mv :0.62, mv_2m:1.62,      mv_5m : 1.58, mv_30m : 1.78, mv_60m: 1.48, md_60m: 1</t>
         </is>
       </c>
       <c r="Z348" t="inlineStr">
@@ -33168,7 +33192,7 @@
       </c>
       <c r="AA348" t="inlineStr">
         <is>
-          <t>FA1A87EB0FC984A000</t>
+          <t>FA1A882D135BFB2000</t>
         </is>
       </c>
     </row>
@@ -33177,39 +33201,39 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>4139</v>
+        <v>4141</v>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="D349" s="2" t="n">
-        <v>45762.03856059028</v>
+        <v>45762.12896179398</v>
       </c>
       <c r="E349" t="n">
-        <v>39.936</v>
+        <v>34.1099</v>
       </c>
       <c r="F349" t="n">
-        <v>998.4</v>
+        <v>989.1871000000001</v>
       </c>
       <c r="G349" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="H349" s="2" t="n">
-        <v>45762.099524375</v>
+        <v>45762.28196479167</v>
       </c>
       <c r="I349" t="n">
-        <v>39.11</v>
+        <v>34.2803</v>
       </c>
       <c r="J349" t="n">
-        <v>977.75</v>
+        <v>994.1286999999999</v>
       </c>
       <c r="K349" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="L349" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M349" t="inlineStr">
         <is>
@@ -33226,24 +33250,28 @@
         <v>1.006</v>
       </c>
       <c r="Q349" t="n">
-        <v>0.45</v>
+        <v>0.35</v>
       </c>
       <c r="R349" t="n">
-        <v>-22.85999999999998</v>
+        <v>2.741599999999766</v>
       </c>
       <c r="S349" t="inlineStr">
         <is>
-          <t>FA1A880FD79004A000</t>
+          <t>FA1A882DA32584A000</t>
         </is>
       </c>
       <c r="T349" t="inlineStr">
         <is>
-          <t>FA1A8810408384A000</t>
+          <t>FA1A882DEFAB44A000</t>
         </is>
       </c>
       <c r="U349" t="inlineStr"/>
       <c r="V349" t="inlineStr"/>
-      <c r="W349" t="inlineStr"/>
+      <c r="W349" t="inlineStr">
+        <is>
+          <t>FA1A882FA0EF04A000</t>
+        </is>
+      </c>
       <c r="X349" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -33251,7 +33279,7 @@
       </c>
       <c r="Y349" t="inlineStr">
         <is>
-          <t>mv :-0.68, mv_2m:0.32,      mv_5m : 0.59, mv_30m : 1.45, mv_60m: 1.20, md_60m: 1</t>
+          <t>mv :-1.55, mv_2m:0.89,      mv_5m : -1.69, mv_30m : 0.56, mv_60m: 4.01, md_60m: 1</t>
         </is>
       </c>
       <c r="Z349" t="inlineStr">
@@ -33261,7 +33289,7 @@
       </c>
       <c r="AA349" t="inlineStr">
         <is>
-          <t>FA1A8810410804A000</t>
+          <t>FA1A882DF02B3B2000</t>
         </is>
       </c>
     </row>
@@ -33270,39 +33298,39 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>4140</v>
+        <v>4142</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>TFC</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="D350" s="2" t="n">
-        <v>45762.12632922453</v>
+        <v>45762.18763444445</v>
       </c>
       <c r="E350" t="n">
-        <v>36.1779</v>
+        <v>51.1772</v>
       </c>
       <c r="F350" t="n">
-        <v>976.8033</v>
+        <v>972.3668</v>
       </c>
       <c r="G350" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="H350" s="2" t="n">
-        <v>45762.21419508102</v>
+        <v>45762.28271696759</v>
       </c>
       <c r="I350" t="n">
-        <v>36.2018</v>
+        <v>51.3809</v>
       </c>
       <c r="J350" t="n">
-        <v>977.4485999999999</v>
+        <v>976.2370999999999</v>
       </c>
       <c r="K350" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="L350" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="M350" t="inlineStr">
         <is>
@@ -33319,26 +33347,26 @@
         <v>1.006</v>
       </c>
       <c r="Q350" t="n">
-        <v>0.55</v>
+        <v>0.35</v>
       </c>
       <c r="R350" t="n">
-        <v>-1.534700000000094</v>
+        <v>1.730299999999929</v>
       </c>
       <c r="S350" t="inlineStr">
         <is>
-          <t>FA1A882CC504C4A000</t>
+          <t>FA1A8840F9A144A000</t>
         </is>
       </c>
       <c r="T350" t="inlineStr">
         <is>
-          <t>FA1A882D12E13B2000</t>
+          <t>FA1A88416209FB2000</t>
         </is>
       </c>
       <c r="U350" t="inlineStr"/>
       <c r="V350" t="inlineStr"/>
       <c r="W350" t="inlineStr">
         <is>
-          <t>FA1A882F6F9B7B2000</t>
+          <t>FA1A884163FEFB2000</t>
         </is>
       </c>
       <c r="X350" t="inlineStr">
@@ -33348,7 +33376,7 @@
       </c>
       <c r="Y350" t="inlineStr">
         <is>
-          <t>mv :0.62, mv_2m:1.62,      mv_5m : 1.58, mv_30m : 1.78, mv_60m: 1.48, md_60m: 1</t>
+          <t>mv :-1.15, mv_2m:-0.15,      mv_5m : 0.09, mv_30m : 1.07, mv_60m: 1.46, md_60m: 3</t>
         </is>
       </c>
       <c r="Z350" t="inlineStr">
@@ -33358,7 +33386,7 @@
       </c>
       <c r="AA350" t="inlineStr">
         <is>
-          <t>FA1A882D135BFB2000</t>
+          <t>FA1A8841628F04A000</t>
         </is>
       </c>
     </row>
@@ -33367,39 +33395,39 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>4141</v>
+        <v>4143</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="D351" s="2" t="n">
-        <v>45762.12896179398</v>
+        <v>45762.18825421296</v>
       </c>
       <c r="E351" t="n">
-        <v>34.1099</v>
+        <v>63.65</v>
       </c>
       <c r="F351" t="n">
-        <v>989.1871000000001</v>
+        <v>954.75</v>
       </c>
       <c r="G351" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="H351" s="2" t="n">
-        <v>45762.28196479167</v>
+        <v>45762.2660058912</v>
       </c>
       <c r="I351" t="n">
-        <v>34.2803</v>
+        <v>63.6413</v>
       </c>
       <c r="J351" t="n">
-        <v>994.1286999999999</v>
+        <v>954.6195</v>
       </c>
       <c r="K351" t="n">
-        <v>1.12</v>
+        <v>1.101</v>
       </c>
       <c r="L351" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="M351" t="inlineStr">
         <is>
@@ -33416,26 +33444,26 @@
         <v>1.006</v>
       </c>
       <c r="Q351" t="n">
-        <v>0.35</v>
+        <v>0.55</v>
       </c>
       <c r="R351" t="n">
-        <v>2.741599999999766</v>
+        <v>-2.271499999999984</v>
       </c>
       <c r="S351" t="inlineStr">
         <is>
-          <t>FA1A882DA32584A000</t>
+          <t>FA1A88412DEAC4A000</t>
         </is>
       </c>
       <c r="T351" t="inlineStr">
         <is>
-          <t>FA1A882DEFAB44A000</t>
+          <t>FA1A8841954704A000</t>
         </is>
       </c>
       <c r="U351" t="inlineStr"/>
       <c r="V351" t="inlineStr"/>
       <c r="W351" t="inlineStr">
         <is>
-          <t>FA1A882FA0EF04A000</t>
+          <t>FA1A884309063B2000</t>
         </is>
       </c>
       <c r="X351" t="inlineStr">
@@ -33445,7 +33473,7 @@
       </c>
       <c r="Y351" t="inlineStr">
         <is>
-          <t>mv :-1.55, mv_2m:0.89,      mv_5m : -1.69, mv_30m : 0.56, mv_60m: 4.01, md_60m: 1</t>
+          <t>mv :-1.04, mv_2m:-0.04,      mv_5m : 0.21, mv_30m : 0.39, mv_60m: 1.01, md_60m: 3</t>
         </is>
       </c>
       <c r="Z351" t="inlineStr">
@@ -33455,7 +33483,7 @@
       </c>
       <c r="AA351" t="inlineStr">
         <is>
-          <t>FA1A882DF02B3B2000</t>
+          <t>FA1A884195C5C4A000</t>
         </is>
       </c>
     </row>
@@ -33464,39 +33492,39 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>4142</v>
+        <v>4144</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="D352" s="2" t="n">
-        <v>45762.18763444445</v>
+        <v>45763.02245784722</v>
       </c>
       <c r="E352" t="n">
-        <v>51.1772</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="F352" t="n">
-        <v>972.3668</v>
+        <v>939.4000000000001</v>
       </c>
       <c r="G352" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="H352" s="2" t="n">
-        <v>45762.28271696759</v>
+        <v>45763.07108331018</v>
       </c>
       <c r="I352" t="n">
-        <v>51.3809</v>
+        <v>85.23999999999999</v>
       </c>
       <c r="J352" t="n">
-        <v>976.2370999999999</v>
+        <v>937.64</v>
       </c>
       <c r="K352" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="L352" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M352" t="inlineStr">
         <is>
@@ -33513,26 +33541,26 @@
         <v>1.006</v>
       </c>
       <c r="Q352" t="n">
-        <v>0.35</v>
+        <v>0.7</v>
       </c>
       <c r="R352" t="n">
-        <v>1.730299999999929</v>
+        <v>-3.840000000000105</v>
       </c>
       <c r="S352" t="inlineStr">
         <is>
-          <t>FA1A8840F9A144A000</t>
+          <t>FA1A89541FDB44A000</t>
         </is>
       </c>
       <c r="T352" t="inlineStr">
         <is>
-          <t>FA1A88416209FB2000</t>
+          <t>FA1A89546CCFBB2000</t>
         </is>
       </c>
       <c r="U352" t="inlineStr"/>
       <c r="V352" t="inlineStr"/>
       <c r="W352" t="inlineStr">
         <is>
-          <t>FA1A884163FEFB2000</t>
+          <t>FA1A895497FC84A000</t>
         </is>
       </c>
       <c r="X352" t="inlineStr">
@@ -33542,7 +33570,7 @@
       </c>
       <c r="Y352" t="inlineStr">
         <is>
-          <t>mv :-1.15, mv_2m:-0.15,      mv_5m : 0.09, mv_30m : 1.07, mv_60m: 1.46, md_60m: 3</t>
+          <t>mv :-1.34, mv_2m:-0.34,      mv_5m : 0.83, mv_30m : -0.76, mv_60m: -0.15, md_60m: -1</t>
         </is>
       </c>
       <c r="Z352" t="inlineStr">
@@ -33552,7 +33580,7 @@
       </c>
       <c r="AA352" t="inlineStr">
         <is>
-          <t>FA1A8841628F04A000</t>
+          <t>FA1A89546D4BBB2000</t>
         </is>
       </c>
     </row>
@@ -33561,39 +33589,39 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>4143</v>
+        <v>4145</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="D353" s="2" t="n">
-        <v>45762.18825421296</v>
+        <v>45763.10221366898</v>
       </c>
       <c r="E353" t="n">
-        <v>63.65</v>
+        <v>223.6461</v>
       </c>
       <c r="F353" t="n">
-        <v>954.75</v>
+        <v>894.5844</v>
       </c>
       <c r="G353" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="H353" s="2" t="n">
-        <v>45762.2660058912</v>
+        <v>45763.91211696759</v>
       </c>
       <c r="I353" t="n">
-        <v>63.6413</v>
+        <v>219.39</v>
       </c>
       <c r="J353" t="n">
-        <v>954.6195</v>
+        <v>877.5599999999999</v>
       </c>
       <c r="K353" t="n">
-        <v>1.101</v>
+        <v>1.03</v>
       </c>
       <c r="L353" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="M353" t="inlineStr">
         <is>
@@ -33610,26 +33638,26 @@
         <v>1.006</v>
       </c>
       <c r="Q353" t="n">
-        <v>0.55</v>
+        <v>0.15</v>
       </c>
       <c r="R353" t="n">
-        <v>-2.271499999999984</v>
+        <v>-19.05440000000002</v>
       </c>
       <c r="S353" t="inlineStr">
         <is>
-          <t>FA1A88412DEAC4A000</t>
+          <t>FA1A896E694D3B2000</t>
         </is>
       </c>
       <c r="T353" t="inlineStr">
         <is>
-          <t>FA1A8841954704A000</t>
+          <t>FA1A896EB49944A000</t>
         </is>
       </c>
       <c r="U353" t="inlineStr"/>
       <c r="V353" t="inlineStr"/>
       <c r="W353" t="inlineStr">
         <is>
-          <t>FA1A884309063B2000</t>
+          <t>FA1A89BC36F2BB2000</t>
         </is>
       </c>
       <c r="X353" t="inlineStr">
@@ -33639,7 +33667,7 @@
       </c>
       <c r="Y353" t="inlineStr">
         <is>
-          <t>mv :-1.04, mv_2m:-0.04,      mv_5m : 0.21, mv_30m : 0.39, mv_60m: 1.01, md_60m: 3</t>
+          <t>mv :-0.77, mv_2m:0.23,      mv_5m : 0.79, mv_30m : 0.85, mv_60m: 0.98, md_60m: 1</t>
         </is>
       </c>
       <c r="Z353" t="inlineStr">
@@ -33649,7 +33677,7 @@
       </c>
       <c r="AA353" t="inlineStr">
         <is>
-          <t>FA1A884195C5C4A000</t>
+          <t>FA1A896EB515BB2000</t>
         </is>
       </c>
     </row>
@@ -33658,39 +33686,39 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>4144</v>
+        <v>4146</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="D354" s="2" t="n">
-        <v>45763.02245784722</v>
+        <v>45763.23008152778</v>
       </c>
       <c r="E354" t="n">
-        <v>85.40000000000001</v>
+        <v>329.6</v>
       </c>
       <c r="F354" t="n">
-        <v>939.4000000000001</v>
+        <v>988.8000000000001</v>
       </c>
       <c r="G354" t="n">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="H354" s="2" t="n">
-        <v>45763.07108331018</v>
+        <v>45764.02043048611</v>
       </c>
       <c r="I354" t="n">
-        <v>85.23999999999999</v>
+        <v>331.72</v>
       </c>
       <c r="J354" t="n">
-        <v>937.64</v>
+        <v>995.1600000000001</v>
       </c>
       <c r="K354" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="L354" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M354" t="inlineStr">
         <is>
@@ -33707,26 +33735,26 @@
         <v>1.006</v>
       </c>
       <c r="Q354" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="R354" t="n">
-        <v>-3.840000000000105</v>
+        <v>4.320000000000014</v>
       </c>
       <c r="S354" t="inlineStr">
         <is>
-          <t>FA1A89541FDB44A000</t>
+          <t>FA1A89988E2504A000</t>
         </is>
       </c>
       <c r="T354" t="inlineStr">
         <is>
-          <t>FA1A89546CCFBB2000</t>
+          <t>FA1A8998E492C4A000</t>
         </is>
       </c>
       <c r="U354" t="inlineStr"/>
       <c r="V354" t="inlineStr"/>
       <c r="W354" t="inlineStr">
         <is>
-          <t>FA1A895497FC84A000</t>
+          <t>FA1A8999787E7B2000</t>
         </is>
       </c>
       <c r="X354" t="inlineStr">
@@ -33736,7 +33764,7 @@
       </c>
       <c r="Y354" t="inlineStr">
         <is>
-          <t>mv :-1.34, mv_2m:-0.34,      mv_5m : 0.83, mv_30m : -0.76, mv_60m: -0.15, md_60m: -1</t>
+          <t>mv :-1.21, mv_2m:-0.21,      mv_5m : -0.02, mv_30m : 1.16, mv_60m: 2.44, md_60m: 4</t>
         </is>
       </c>
       <c r="Z354" t="inlineStr">
@@ -33746,7 +33774,7 @@
       </c>
       <c r="AA354" t="inlineStr">
         <is>
-          <t>FA1A89546D4BBB2000</t>
+          <t>FA1A8998E5107B2000</t>
         </is>
       </c>
     </row>
@@ -33755,41 +33783,43 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>4145</v>
+        <v>4147</v>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="D355" s="2" t="n">
-        <v>45763.10221366898</v>
+        <v>45764.04038259259</v>
       </c>
       <c r="E355" t="n">
-        <v>223.6461</v>
+        <v>69.64</v>
       </c>
       <c r="F355" t="n">
-        <v>894.5844</v>
+        <v>974.96</v>
       </c>
       <c r="G355" t="n">
-        <v>1</v>
+        <v>1.03</v>
       </c>
       <c r="H355" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
+        <v>45764.14553491898</v>
+      </c>
+      <c r="I355" t="n">
+        <v>68.9207</v>
+      </c>
       <c r="J355" t="n">
-        <v>0</v>
+        <v>964.8897999999999</v>
       </c>
       <c r="K355" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="L355" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N355" t="n">
@@ -33802,34 +33832,26 @@
         <v>1.006</v>
       </c>
       <c r="Q355" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="R355" t="n">
-        <v>0</v>
+        <v>-12.17020000000011</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
-          <t>FA1A896E694D3B2000</t>
+          <t>FA1A8AA39F49BB2000</t>
         </is>
       </c>
       <c r="T355" t="inlineStr">
         <is>
-          <t>FA1A896EB49944A000</t>
-        </is>
-      </c>
-      <c r="U355" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V355" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>FA1A8AA402EA84A000</t>
+        </is>
+      </c>
+      <c r="U355" t="inlineStr"/>
+      <c r="V355" t="inlineStr"/>
       <c r="W355" t="inlineStr">
         <is>
-          <t>FA1A89BC36F2BB2000</t>
+          <t>FA1A8AA404CE84A000</t>
         </is>
       </c>
       <c r="X355" t="inlineStr">
@@ -33839,7 +33861,7 @@
       </c>
       <c r="Y355" t="inlineStr">
         <is>
-          <t>mv :-0.77, mv_2m:0.23,      mv_5m : 0.79, mv_30m : 0.85, mv_60m: 0.98, md_60m: 1</t>
+          <t>mv :-3.89, mv_2m:-2.89,      mv_5m : -6.04, mv_30m : 9.32, mv_60m: 20.09, md_60m: -2</t>
         </is>
       </c>
       <c r="Z355" t="inlineStr">
@@ -33849,7 +33871,7 @@
       </c>
       <c r="AA355" t="inlineStr">
         <is>
-          <t>FA1A896EB515BB2000</t>
+          <t>FA1A8AA4037244A000</t>
         </is>
       </c>
     </row>
@@ -33858,24 +33880,24 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>4146</v>
+        <v>4148</v>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>ZTS</t>
         </is>
       </c>
       <c r="D356" s="2" t="n">
-        <v>45763.23008152778</v>
+        <v>45765.10470579861</v>
       </c>
       <c r="E356" t="n">
-        <v>329.6</v>
+        <v>149.3</v>
       </c>
       <c r="F356" t="n">
-        <v>988.8000000000001</v>
+        <v>895.8000000000001</v>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="H356" s="2" t="n">
         <v>25934</v>
@@ -33888,7 +33910,7 @@
         <v>0</v>
       </c>
       <c r="L356" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
@@ -33905,26 +33927,26 @@
         <v>1.006</v>
       </c>
       <c r="Q356" t="n">
-        <v>0.99</v>
+        <v>2.99</v>
       </c>
       <c r="R356" t="n">
         <v>0</v>
       </c>
       <c r="S356" t="inlineStr">
         <is>
-          <t>FA1A89988E2504A000</t>
+          <t>FA1A8C02699884A000</t>
         </is>
       </c>
       <c r="T356" t="inlineStr">
         <is>
-          <t>FA1A8998E492C4A000</t>
+          <t>FA1A8C02FB5484A000</t>
         </is>
       </c>
       <c r="U356" t="inlineStr"/>
       <c r="V356" t="inlineStr"/>
       <c r="W356" t="inlineStr">
         <is>
-          <t>FA1A8999787E7B2000</t>
+          <t>FA1A8C03A37BBB2000</t>
         </is>
       </c>
       <c r="X356" t="inlineStr">
@@ -33934,7 +33956,7 @@
       </c>
       <c r="Y356" t="inlineStr">
         <is>
-          <t>mv :-1.21, mv_2m:-0.21,      mv_5m : -0.02, mv_30m : 1.16, mv_60m: 2.44, md_60m: 4</t>
+          <t>mv :-0.72, mv_2m:0.28,      mv_5m : 0.60, mv_30m : 2.88, mv_60m: 2.66, md_60m: 3</t>
         </is>
       </c>
       <c r="Z356" t="inlineStr">
@@ -33944,7 +33966,387 @@
       </c>
       <c r="AA356" t="inlineStr">
         <is>
-          <t>FA1A8998E5107B2000</t>
+          <t>FA1A8C02FBE27B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>4149</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D357" s="2" t="n">
+        <v>45765.10794478009</v>
+      </c>
+      <c r="E357" t="n">
+        <v>209.38</v>
+      </c>
+      <c r="F357" t="n">
+        <v>837.52</v>
+      </c>
+      <c r="G357" t="n">
+        <v>1</v>
+      </c>
+      <c r="H357" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>0</v>
+      </c>
+      <c r="K357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L357" t="n">
+        <v>4</v>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N357" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O357" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P357" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q357" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R357" t="n">
+        <v>0</v>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>FA1A8C037ADD7B2000</t>
+        </is>
+      </c>
+      <c r="T357" t="inlineStr">
+        <is>
+          <t>FA1A8C0449A504A000</t>
+        </is>
+      </c>
+      <c r="U357" t="inlineStr"/>
+      <c r="V357" t="inlineStr"/>
+      <c r="W357" t="inlineStr">
+        <is>
+          <t>FA1A8C07753704A000</t>
+        </is>
+      </c>
+      <c r="X357" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y357" t="inlineStr">
+        <is>
+          <t>mv :2.62, mv_2m:3.62,      mv_5m : 4.77, mv_30m : 55.80, mv_60m: 42.14, md_60m: 35</t>
+        </is>
+      </c>
+      <c r="Z357" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA357" t="inlineStr">
+        <is>
+          <t>FA1A8C044A3244A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>4150</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="D358" s="2" t="n">
+        <v>45765.16071565972</v>
+      </c>
+      <c r="E358" t="n">
+        <v>85.51000000000001</v>
+      </c>
+      <c r="F358" t="n">
+        <v>940.61</v>
+      </c>
+      <c r="G358" t="inlineStr"/>
+      <c r="H358" s="2" t="n">
+        <v>45763.07108331018</v>
+      </c>
+      <c r="I358" t="n">
+        <v>85.23999999999999</v>
+      </c>
+      <c r="J358" t="n">
+        <v>937.64</v>
+      </c>
+      <c r="K358" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L358" t="n">
+        <v>11</v>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N358" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O358" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P358" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q358" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R358" t="inlineStr"/>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>FA1A8C14DF65BB2000</t>
+        </is>
+      </c>
+      <c r="T358" t="inlineStr">
+        <is>
+          <t>FA1A8C156F233B2000</t>
+        </is>
+      </c>
+      <c r="U358" t="inlineStr"/>
+      <c r="V358" t="inlineStr"/>
+      <c r="W358" t="inlineStr">
+        <is>
+          <t>FA1A8C180C0AC4A000</t>
+        </is>
+      </c>
+      <c r="X358" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y358" t="inlineStr">
+        <is>
+          <t>mv :-1.34, mv_2m:-0.34,      mv_5m : 0.32, mv_30m : 3.17, mv_60m: 0.79, md_60m: -9</t>
+        </is>
+      </c>
+      <c r="Z358" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA358" t="inlineStr">
+        <is>
+          <t>FA1A8C156F9D84A000</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>4151</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="D359" s="2" t="n">
+        <v>45765.1879058912</v>
+      </c>
+      <c r="E359" t="n">
+        <v>55.8682</v>
+      </c>
+      <c r="F359" t="n">
+        <v>949.7594</v>
+      </c>
+      <c r="G359" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H359" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>0</v>
+      </c>
+      <c r="K359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L359" t="n">
+        <v>17</v>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N359" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O359" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P359" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q359" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R359" t="n">
+        <v>0</v>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>FA1A8C1DD58F7B2000</t>
+        </is>
+      </c>
+      <c r="T359" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3B94FB2000</t>
+        </is>
+      </c>
+      <c r="U359" t="inlineStr"/>
+      <c r="V359" t="inlineStr"/>
+      <c r="W359" t="inlineStr">
+        <is>
+          <t>FA1A8C221FF604A000</t>
+        </is>
+      </c>
+      <c r="X359" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y359" t="inlineStr">
+        <is>
+          <t>mv :-1.27, mv_2m:-0.27,      mv_5m : -3.30, mv_30m : 5.17, mv_60m: 21.15, md_60m: 25</t>
+        </is>
+      </c>
+      <c r="Z359" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA359" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3C0F7B2000</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>4152</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="D360" s="2" t="n">
+        <v>45765.18801103009</v>
+      </c>
+      <c r="E360" t="n">
+        <v>82.92</v>
+      </c>
+      <c r="F360" t="n">
+        <v>995.04</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H360" s="2" t="n">
+        <v>45765.30762502315</v>
+      </c>
+      <c r="I360" t="n">
+        <v>82.3</v>
+      </c>
+      <c r="J360" t="n">
+        <v>987.5999999999999</v>
+      </c>
+      <c r="K360" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L360" t="n">
+        <v>12</v>
+      </c>
+      <c r="M360" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N360" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="O360" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P360" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q360" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R360" t="n">
+        <v>-9.540000000000054</v>
+      </c>
+      <c r="S360" t="inlineStr">
+        <is>
+          <t>FA1A8C1DDE6DBB2000</t>
+        </is>
+      </c>
+      <c r="T360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3D8744A000</t>
+        </is>
+      </c>
+      <c r="U360" t="inlineStr"/>
+      <c r="V360" t="inlineStr"/>
+      <c r="W360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3F42BB2000</t>
+        </is>
+      </c>
+      <c r="X360" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y360" t="inlineStr">
+        <is>
+          <t>mv :-1.33, mv_2m:-0.33,      mv_5m : -3.88, mv_30m : 4.85, mv_60m: 22.96, md_60m: 27</t>
+        </is>
+      </c>
+      <c r="Z360" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA360" t="inlineStr">
+        <is>
+          <t>FA1A8C1E3E08BB2000</t>
         </is>
       </c>
     </row>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA574"/>
+  <dimension ref="A1:AA597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -54517,21 +54517,23 @@
         <v>1.01</v>
       </c>
       <c r="H569" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
+        <v>45834.01851332176</v>
+      </c>
+      <c r="I569" t="n">
+        <v>221.84</v>
+      </c>
       <c r="J569" t="n">
-        <v>0</v>
+        <v>1996.56</v>
       </c>
       <c r="K569" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L569" t="n">
         <v>9</v>
       </c>
       <c r="M569" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N569" t="n">
@@ -54544,10 +54546,10 @@
         <v>1.006</v>
       </c>
       <c r="Q569" t="n">
-        <v>2.99</v>
+        <v>0.05</v>
       </c>
       <c r="R569" t="n">
-        <v>0</v>
+        <v>33.77999999999994</v>
       </c>
       <c r="S569" t="inlineStr">
         <is>
@@ -54592,41 +54594,43 @@
         <v>568</v>
       </c>
       <c r="B570" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="D570" s="2" t="n">
-        <v>45831.97983489584</v>
+        <v>45831.98380289352</v>
       </c>
       <c r="E570" t="n">
-        <v>10.56</v>
+        <v>106.18</v>
       </c>
       <c r="F570" t="n">
-        <v>1995.84</v>
+        <v>1911.24</v>
       </c>
       <c r="G570" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H570" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>45832.0296459838</v>
+      </c>
+      <c r="I570" t="n">
+        <v>105.86</v>
+      </c>
       <c r="J570" t="n">
-        <v>0</v>
+        <v>1905.48</v>
       </c>
       <c r="K570" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L570" t="n">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="M570" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N570" t="n">
@@ -54639,20 +54643,28 @@
         <v>1.006</v>
       </c>
       <c r="Q570" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R570" t="n">
-        <v>0</v>
+        <v>-7.849999999999991</v>
       </c>
       <c r="S570" t="inlineStr">
         <is>
-          <t>FA1AE21BC69FCAD000</t>
-        </is>
-      </c>
-      <c r="T570" t="inlineStr"/>
+          <t>FA1AE21D156DCAD000</t>
+        </is>
+      </c>
+      <c r="T570" t="inlineStr">
+        <is>
+          <t>FA1AE21DD37D4AD000</t>
+        </is>
+      </c>
       <c r="U570" t="inlineStr"/>
       <c r="V570" t="inlineStr"/>
-      <c r="W570" t="inlineStr"/>
+      <c r="W570" t="inlineStr">
+        <is>
+          <t>FA1AE21DD53F4AD000</t>
+        </is>
+      </c>
       <c r="X570" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -54660,7 +54672,7 @@
       </c>
       <c r="Y570" t="inlineStr">
         <is>
-          <t>mv :-0.35, mv_2m:0.72,mv_5m : -0.09, mv_30m : 0.68, mv_60m: 0.32, md_60m: -5c1: 0, c2: 1</t>
+          <t>mv :-0.09, mv_2m:0.07,mv_5m : -2.58, mv_30m : -0.68, mv_60m: -0.79, md_60m: -4c1: 1, c2: 0</t>
         </is>
       </c>
       <c r="Z570" t="inlineStr">
@@ -54668,46 +54680,50 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA570" t="inlineStr"/>
+      <c r="AA570" t="inlineStr">
+        <is>
+          <t>FA1AE21DD41057C000</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
         <v>569</v>
       </c>
       <c r="B571" t="n">
-        <v>4365</v>
+        <v>4370</v>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="D571" s="2" t="n">
-        <v>45831.98380289352</v>
+        <v>45831.98543841435</v>
       </c>
       <c r="E571" t="n">
-        <v>106.18</v>
+        <v>69.64619999999999</v>
       </c>
       <c r="F571" t="n">
-        <v>1911.24</v>
+        <v>1532.2164</v>
       </c>
       <c r="G571" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="H571" s="2" t="n">
-        <v>45832.0296459838</v>
+        <v>45832.11033256944</v>
       </c>
       <c r="I571" t="n">
-        <v>105.86</v>
+        <v>69.51000000000001</v>
       </c>
       <c r="J571" t="n">
-        <v>1905.48</v>
+        <v>1529.22</v>
       </c>
       <c r="K571" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="L571" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M571" t="inlineStr">
         <is>
@@ -54724,26 +54740,26 @@
         <v>1.006</v>
       </c>
       <c r="Q571" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="R571" t="n">
-        <v>-7.849999999999991</v>
+        <v>-5.126399999999995</v>
       </c>
       <c r="S571" t="inlineStr">
         <is>
-          <t>FA1AE21D156DCAD000</t>
+          <t>FA1AE21D9F6D97C000</t>
         </is>
       </c>
       <c r="T571" t="inlineStr">
         <is>
-          <t>FA1AE21DD37D4AD000</t>
+          <t>FA1AE21F0D3357C000</t>
         </is>
       </c>
       <c r="U571" t="inlineStr"/>
       <c r="V571" t="inlineStr"/>
       <c r="W571" t="inlineStr">
         <is>
-          <t>FA1AE21DD53F4AD000</t>
+          <t>FA1AE21F0EDE57C000</t>
         </is>
       </c>
       <c r="X571" t="inlineStr">
@@ -54753,7 +54769,7 @@
       </c>
       <c r="Y571" t="inlineStr">
         <is>
-          <t>mv :-0.09, mv_2m:0.07,mv_5m : -2.58, mv_30m : -0.68, mv_60m: -0.79, md_60m: -4c1: 1, c2: 0</t>
+          <t>mv :3.85, mv_2m:4.28,mv_5m : 4.85, mv_30m : 7.73, mv_60m: 8.53, md_60m: -5c1: 1, c2: 0</t>
         </is>
       </c>
       <c r="Z571" t="inlineStr">
@@ -54763,7 +54779,7 @@
       </c>
       <c r="AA571" t="inlineStr">
         <is>
-          <t>FA1AE21DD41057C000</t>
+          <t>FA1AE21F0DC34AD000</t>
         </is>
       </c>
     </row>
@@ -54772,41 +54788,43 @@
         <v>570</v>
       </c>
       <c r="B572" t="n">
-        <v>4366</v>
+        <v>4371</v>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>INTU</t>
         </is>
       </c>
       <c r="D572" s="2" t="n">
-        <v>45831.98405833334</v>
+        <v>45831.99085085648</v>
       </c>
       <c r="E572" t="n">
-        <v>169.1</v>
+        <v>760.92</v>
       </c>
       <c r="F572" t="n">
-        <v>1521.9</v>
+        <v>1521.84</v>
       </c>
       <c r="G572" t="n">
-        <v>1.111</v>
+        <v>0.99</v>
       </c>
       <c r="H572" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
+        <v>45832.07748671297</v>
+      </c>
+      <c r="I572" t="n">
+        <v>762.3</v>
+      </c>
       <c r="J572" t="n">
-        <v>0</v>
+        <v>1524.6</v>
       </c>
       <c r="K572" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="L572" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M572" t="inlineStr">
         <is>
-          <t>placed</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N572" t="n">
@@ -54819,20 +54837,28 @@
         <v>1.006</v>
       </c>
       <c r="Q572" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
       <c r="R572" t="n">
-        <v>0</v>
+        <v>0.7599999999999909</v>
       </c>
       <c r="S572" t="inlineStr">
         <is>
-          <t>FA1AE21D2AFA57C000</t>
-        </is>
-      </c>
-      <c r="T572" t="inlineStr"/>
+          <t>FA1AE21F681ACAD000</t>
+        </is>
+      </c>
+      <c r="T572" t="inlineStr">
+        <is>
+          <t>FA1AE21FB0528AD000</t>
+        </is>
+      </c>
       <c r="U572" t="inlineStr"/>
       <c r="V572" t="inlineStr"/>
-      <c r="W572" t="inlineStr"/>
+      <c r="W572" t="inlineStr">
+        <is>
+          <t>FA1AE21FB1FDCAD000</t>
+        </is>
+      </c>
       <c r="X572" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -54840,7 +54866,7 @@
       </c>
       <c r="Y572" t="inlineStr">
         <is>
-          <t>mv :1.09, mv_2m:1.25,mv_5m : -2.46, mv_30m : 2.00, mv_60m: 1.40, md_60m: -3c1: 1, c2: 0</t>
+          <t>mv :-2.37, mv_2m:-1.00,mv_5m : -3.08, mv_30m : 8.83, mv_60m: 7.90, md_60m: -6c1: 0, c2: 1</t>
         </is>
       </c>
       <c r="Z572" t="inlineStr">
@@ -54848,48 +54874,54 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA572" t="inlineStr"/>
+      <c r="AA572" t="inlineStr">
+        <is>
+          <t>FA1AE21FB0E0CAD000</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
         <v>571</v>
       </c>
       <c r="B573" t="n">
-        <v>4370</v>
+        <v>4372</v>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="D573" s="2" t="n">
-        <v>45831.98543841435</v>
+        <v>45832.03896349537</v>
       </c>
       <c r="E573" t="n">
-        <v>69.64619999999999</v>
+        <v>93.9492</v>
       </c>
       <c r="F573" t="n">
-        <v>1532.2164</v>
+        <v>1878.984</v>
       </c>
       <c r="G573" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H573" s="2" t="n">
+        <v>45832.13798946759</v>
+      </c>
+      <c r="I573" t="n">
+        <v>93.67</v>
+      </c>
+      <c r="J573" t="n">
+        <v>1873.4</v>
+      </c>
+      <c r="K573" t="n">
         <v>1.06</v>
       </c>
-      <c r="H573" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>0</v>
-      </c>
-      <c r="K573" t="n">
-        <v>0</v>
-      </c>
       <c r="L573" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M573" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N573" t="n">
@@ -54902,26 +54934,26 @@
         <v>1.006</v>
       </c>
       <c r="Q573" t="n">
-        <v>2.99</v>
+        <v>0.01</v>
       </c>
       <c r="R573" t="n">
-        <v>0</v>
+        <v>-7.693999999999832</v>
       </c>
       <c r="S573" t="inlineStr">
         <is>
-          <t>FA1AE21D9F6D97C000</t>
+          <t>FA1AE22F439FCAD000</t>
         </is>
       </c>
       <c r="T573" t="inlineStr">
         <is>
-          <t>FA1AE21F0D3357C000</t>
+          <t>FA1AE230172C97C000</t>
         </is>
       </c>
       <c r="U573" t="inlineStr"/>
       <c r="V573" t="inlineStr"/>
       <c r="W573" t="inlineStr">
         <is>
-          <t>FA1AE21F0EDE57C000</t>
+          <t>FA1AE23018ED4AD000</t>
         </is>
       </c>
       <c r="X573" t="inlineStr">
@@ -54931,7 +54963,7 @@
       </c>
       <c r="Y573" t="inlineStr">
         <is>
-          <t>mv :3.85, mv_2m:4.28,mv_5m : 4.85, mv_30m : 7.73, mv_60m: 8.53, md_60m: -5c1: 1, c2: 0</t>
+          <t>mv :-2.49, mv_2m:-0.95,mv_5m : -1.64, mv_30m : -14.39, mv_60m: -2.86, md_60m: -34c1: 0, c2: 1</t>
         </is>
       </c>
       <c r="Z573" t="inlineStr">
@@ -54941,7 +54973,7 @@
       </c>
       <c r="AA573" t="inlineStr">
         <is>
-          <t>FA1AE21F0DC34AD000</t>
+          <t>FA1AE23017BC4AD000</t>
         </is>
       </c>
     </row>
@@ -54950,41 +54982,43 @@
         <v>572</v>
       </c>
       <c r="B574" t="n">
-        <v>4371</v>
+        <v>4373</v>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>INTU</t>
+          <t>PANW</t>
         </is>
       </c>
       <c r="D574" s="2" t="n">
-        <v>45831.99085085648</v>
+        <v>45832.07160158565</v>
       </c>
       <c r="E574" t="n">
-        <v>760.92</v>
+        <v>201.95</v>
       </c>
       <c r="F574" t="n">
-        <v>1521.84</v>
+        <v>1413.65</v>
       </c>
       <c r="G574" t="n">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="H574" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
+        <v>45832.12611210648</v>
+      </c>
+      <c r="I574" t="n">
+        <v>201.33</v>
+      </c>
       <c r="J574" t="n">
-        <v>0</v>
+        <v>1409.31</v>
       </c>
       <c r="K574" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="L574" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M574" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N574" t="n">
@@ -54997,26 +55031,26 @@
         <v>1.006</v>
       </c>
       <c r="Q574" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="R574" t="n">
-        <v>0</v>
+        <v>-6.369999999999918</v>
       </c>
       <c r="S574" t="inlineStr">
         <is>
-          <t>FA1AE21F681ACAD000</t>
+          <t>FA1AE23A056B17C000</t>
         </is>
       </c>
       <c r="T574" t="inlineStr">
         <is>
-          <t>FA1AE21FB0528AD000</t>
+          <t>FA1AE23A6C6B17C000</t>
         </is>
       </c>
       <c r="U574" t="inlineStr"/>
       <c r="V574" t="inlineStr"/>
       <c r="W574" t="inlineStr">
         <is>
-          <t>FA1AE21FB1FDCAD000</t>
+          <t>FA1AE23A6E550AD000</t>
         </is>
       </c>
       <c r="X574" t="inlineStr">
@@ -55026,7 +55060,7 @@
       </c>
       <c r="Y574" t="inlineStr">
         <is>
-          <t>mv :-2.37, mv_2m:-1.00,mv_5m : -3.08, mv_30m : 8.83, mv_60m: 7.90, md_60m: -6c1: 0, c2: 1</t>
+          <t>mv :-6.42, mv_2m:-1.83,mv_5m : -4.87, mv_30m : -6.79, mv_60m: -18.57, md_60m: -42c1: 0, c2: 1</t>
         </is>
       </c>
       <c r="Z574" t="inlineStr">
@@ -55036,7 +55070,2240 @@
       </c>
       <c r="AA574" t="inlineStr">
         <is>
-          <t>FA1AE21FB0E0CAD000</t>
+          <t>FA1AE23A6D074AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="n">
+        <v>573</v>
+      </c>
+      <c r="B575" t="n">
+        <v>4374</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="D575" s="2" t="n">
+        <v>45832.08828190972</v>
+      </c>
+      <c r="E575" t="n">
+        <v>201.29</v>
+      </c>
+      <c r="F575" t="n">
+        <v>1409.03</v>
+      </c>
+      <c r="G575" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H575" s="2" t="n">
+        <v>45832.14130105324</v>
+      </c>
+      <c r="I575" t="n">
+        <v>200.67</v>
+      </c>
+      <c r="J575" t="n">
+        <v>1404.69</v>
+      </c>
+      <c r="K575" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L575" t="n">
+        <v>7</v>
+      </c>
+      <c r="M575" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N575" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O575" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P575" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R575" t="n">
+        <v>-6.370000000000145</v>
+      </c>
+      <c r="S575" t="inlineStr">
+        <is>
+          <t>FA1AE23F84D18AD000</t>
+        </is>
+      </c>
+      <c r="T575" t="inlineStr">
+        <is>
+          <t>FA1AE23FD8748AD000</t>
+        </is>
+      </c>
+      <c r="U575" t="inlineStr"/>
+      <c r="V575" t="inlineStr"/>
+      <c r="W575" t="inlineStr">
+        <is>
+          <t>FA1AE23FDA324AD000</t>
+        </is>
+      </c>
+      <c r="X575" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y575" t="inlineStr">
+        <is>
+          <t>mv :-1.23, mv_2m:-0.28,mv_5m : 0.59, mv_30m : -8.61, mv_60m: -11.09, md_60m: -38c1: 0, c2: 1</t>
+        </is>
+      </c>
+      <c r="Z575" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA575" t="inlineStr">
+        <is>
+          <t>FA1AE23FD911D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="n">
+        <v>574</v>
+      </c>
+      <c r="B576" t="n">
+        <v>4375</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="D576" s="2" t="n">
+        <v>45832.09940652778</v>
+      </c>
+      <c r="E576" t="n">
+        <v>283.23</v>
+      </c>
+      <c r="F576" t="n">
+        <v>1982.61</v>
+      </c>
+      <c r="G576" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H576" s="2" t="n">
+        <v>45832.1489422801</v>
+      </c>
+      <c r="I576" t="n">
+        <v>281.92</v>
+      </c>
+      <c r="J576" t="n">
+        <v>1973.44</v>
+      </c>
+      <c r="K576" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L576" t="n">
+        <v>7</v>
+      </c>
+      <c r="M576" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N576" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O576" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P576" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R576" t="n">
+        <v>-11.19999999999984</v>
+      </c>
+      <c r="S576" t="inlineStr">
+        <is>
+          <t>FA1AE2432F7417C000</t>
+        </is>
+      </c>
+      <c r="T576" t="inlineStr">
+        <is>
+          <t>FA1AE243F3BDCAD000</t>
+        </is>
+      </c>
+      <c r="U576" t="inlineStr"/>
+      <c r="V576" t="inlineStr"/>
+      <c r="W576" t="inlineStr">
+        <is>
+          <t>FA1AE243F5710AD000</t>
+        </is>
+      </c>
+      <c r="X576" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y576" t="inlineStr">
+        <is>
+          <t>mv :-3.06, mv_2m:-0.63,mv_5m : -2.43, mv_30m : -7.49, mv_60m: -17.54, md_60m: -69c1: 0, c2: 1</t>
+        </is>
+      </c>
+      <c r="Z576" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA576" t="inlineStr">
+        <is>
+          <t>FA1AE243F44BCAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="n">
+        <v>575</v>
+      </c>
+      <c r="B577" t="n">
+        <v>4376</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="D577" s="2" t="n">
+        <v>45832.10264516203</v>
+      </c>
+      <c r="E577" t="n">
+        <v>199.78</v>
+      </c>
+      <c r="F577" t="n">
+        <v>1398.46</v>
+      </c>
+      <c r="G577" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H577" s="2" t="n">
+        <v>45832.14625863426</v>
+      </c>
+      <c r="I577" t="n">
+        <v>199.15</v>
+      </c>
+      <c r="J577" t="n">
+        <v>1394.05</v>
+      </c>
+      <c r="K577" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L577" t="n">
+        <v>7</v>
+      </c>
+      <c r="M577" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N577" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O577" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P577" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R577" t="n">
+        <v>-6.440000000000081</v>
+      </c>
+      <c r="S577" t="inlineStr">
+        <is>
+          <t>FA1AE24440B857C000</t>
+        </is>
+      </c>
+      <c r="T577" t="inlineStr">
+        <is>
+          <t>FA1AE2449895D7C000</t>
+        </is>
+      </c>
+      <c r="U577" t="inlineStr"/>
+      <c r="V577" t="inlineStr"/>
+      <c r="W577" t="inlineStr">
+        <is>
+          <t>FA1AE2449A52D7C000</t>
+        </is>
+      </c>
+      <c r="X577" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y577" t="inlineStr">
+        <is>
+          <t>mv :-6.98, mv_2m:-2.58,mv_5m : -6.64, mv_30m : -9.45, mv_60m: -17.65, md_60m: -48c1: 0, c2: 1</t>
+        </is>
+      </c>
+      <c r="Z577" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA577" t="inlineStr">
+        <is>
+          <t>FA1AE2449930D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="n">
+        <v>576</v>
+      </c>
+      <c r="B578" t="n">
+        <v>4377</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="D578" s="2" t="n">
+        <v>45832.10769884259</v>
+      </c>
+      <c r="E578" t="n">
+        <v>170.2</v>
+      </c>
+      <c r="F578" t="n">
+        <v>1361.6</v>
+      </c>
+      <c r="G578" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H578" s="2" t="n">
+        <v>45832.14946236111</v>
+      </c>
+      <c r="I578" t="n">
+        <v>169.3475</v>
+      </c>
+      <c r="J578" t="n">
+        <v>1354.78</v>
+      </c>
+      <c r="K578" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L578" t="n">
+        <v>8</v>
+      </c>
+      <c r="M578" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N578" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O578" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P578" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R578" t="n">
+        <v>-8.849999999999936</v>
+      </c>
+      <c r="S578" t="inlineStr">
+        <is>
+          <t>FA1AE245EB1D57C000</t>
+        </is>
+      </c>
+      <c r="T578" t="inlineStr">
+        <is>
+          <t>FA1AE2465AD54AD000</t>
+        </is>
+      </c>
+      <c r="U578" t="inlineStr"/>
+      <c r="V578" t="inlineStr"/>
+      <c r="W578" t="inlineStr">
+        <is>
+          <t>FA1AE2465C954AD000</t>
+        </is>
+      </c>
+      <c r="X578" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y578" t="inlineStr">
+        <is>
+          <t>mv :-11.91, mv_2m:-0.90,mv_5m : -2.69, mv_30m : -7.39, mv_60m: -11.89, md_60m: -24c1: 0, c2: 1</t>
+        </is>
+      </c>
+      <c r="Z578" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA578" t="inlineStr">
+        <is>
+          <t>FA1AE2465B654AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="n">
+        <v>577</v>
+      </c>
+      <c r="B579" t="n">
+        <v>4378</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>NOC</t>
+        </is>
+      </c>
+      <c r="D579" s="2" t="n">
+        <v>45832.11023432871</v>
+      </c>
+      <c r="E579" t="n">
+        <v>507.31</v>
+      </c>
+      <c r="F579" t="n">
+        <v>1521.93</v>
+      </c>
+      <c r="G579" t="n">
+        <v>1</v>
+      </c>
+      <c r="H579" s="2" t="n">
+        <v>45832.15380416666</v>
+      </c>
+      <c r="I579" t="n">
+        <v>504.5827</v>
+      </c>
+      <c r="J579" t="n">
+        <v>1513.7481</v>
+      </c>
+      <c r="K579" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L579" t="n">
+        <v>3</v>
+      </c>
+      <c r="M579" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N579" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O579" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P579" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R579" t="n">
+        <v>-10.19190000000004</v>
+      </c>
+      <c r="S579" t="inlineStr">
+        <is>
+          <t>FA1AE246C1110AD000</t>
+        </is>
+      </c>
+      <c r="T579" t="inlineStr">
+        <is>
+          <t>FA1AE247084197C000</t>
+        </is>
+      </c>
+      <c r="U579" t="inlineStr"/>
+      <c r="V579" t="inlineStr"/>
+      <c r="W579" t="inlineStr">
+        <is>
+          <t>FA1AE24709EC57C000</t>
+        </is>
+      </c>
+      <c r="X579" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y579" t="inlineStr">
+        <is>
+          <t>mv :-0.90, mv_2m:0.10,mv_5m : -7.85, mv_30m : -24.21, mv_60m: -36.49, md_60m: -67c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z579" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA579" t="inlineStr">
+        <is>
+          <t>FA1AE24708D797C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="n">
+        <v>578</v>
+      </c>
+      <c r="B580" t="n">
+        <v>4379</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="D580" s="2" t="n">
+        <v>45832.1123775926</v>
+      </c>
+      <c r="E580" t="n">
+        <v>281.91</v>
+      </c>
+      <c r="F580" t="n">
+        <v>1691.46</v>
+      </c>
+      <c r="G580" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H580" s="2" t="n">
+        <v>45832.17586607639</v>
+      </c>
+      <c r="I580" t="n">
+        <v>281.16</v>
+      </c>
+      <c r="J580" t="n">
+        <v>1686.96</v>
+      </c>
+      <c r="K580" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L580" t="n">
+        <v>6</v>
+      </c>
+      <c r="M580" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N580" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O580" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P580" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R580" t="n">
+        <v>-6.529999999999999</v>
+      </c>
+      <c r="S580" t="inlineStr">
+        <is>
+          <t>FA1AE24775E30AD000</t>
+        </is>
+      </c>
+      <c r="T580" t="inlineStr">
+        <is>
+          <t>FA1AE248357C17C000</t>
+        </is>
+      </c>
+      <c r="U580" t="inlineStr"/>
+      <c r="V580" t="inlineStr"/>
+      <c r="W580" t="inlineStr">
+        <is>
+          <t>FA1AE24837364AD000</t>
+        </is>
+      </c>
+      <c r="X580" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y580" t="inlineStr">
+        <is>
+          <t>mv :1.83, mv_2m:2.88,mv_5m : 6.73, mv_30m : -20.82, mv_60m: -31.71, md_60m: -77c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z580" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA580" t="inlineStr">
+        <is>
+          <t>FA1AE248360D97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="n">
+        <v>579</v>
+      </c>
+      <c r="B581" t="n">
+        <v>4380</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="D581" s="2" t="n">
+        <v>45832.11567224537</v>
+      </c>
+      <c r="E581" t="n">
+        <v>199.97</v>
+      </c>
+      <c r="F581" t="n">
+        <v>1599.76</v>
+      </c>
+      <c r="G581" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H581" s="2" t="n">
+        <v>45832.15595979166</v>
+      </c>
+      <c r="I581" t="n">
+        <v>199.1701</v>
+      </c>
+      <c r="J581" t="n">
+        <v>1593.3608</v>
+      </c>
+      <c r="K581" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L581" t="n">
+        <v>8</v>
+      </c>
+      <c r="M581" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N581" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O581" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P581" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R581" t="n">
+        <v>-8.429200000000064</v>
+      </c>
+      <c r="S581" t="inlineStr">
+        <is>
+          <t>FA1AE2488BDD57C000</t>
+        </is>
+      </c>
+      <c r="T581" t="inlineStr">
+        <is>
+          <t>FA1AE248E2B557C000</t>
+        </is>
+      </c>
+      <c r="U581" t="inlineStr"/>
+      <c r="V581" t="inlineStr"/>
+      <c r="W581" t="inlineStr">
+        <is>
+          <t>FA1AE248E4698AD000</t>
+        </is>
+      </c>
+      <c r="X581" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y581" t="inlineStr">
+        <is>
+          <t>mv :8.47, mv_2m:1.45,mv_5m : 6.29, mv_30m : -6.32, mv_60m: -9.38, md_60m: -42c1: 0, c2: 1</t>
+        </is>
+      </c>
+      <c r="Z581" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA581" t="inlineStr">
+        <is>
+          <t>FA1AE248E343CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="n">
+        <v>580</v>
+      </c>
+      <c r="B582" t="n">
+        <v>4381</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>NOC</t>
+        </is>
+      </c>
+      <c r="D582" s="2" t="n">
+        <v>45832.11796085648</v>
+      </c>
+      <c r="E582" t="n">
+        <v>503.76</v>
+      </c>
+      <c r="F582" t="n">
+        <v>1511.28</v>
+      </c>
+      <c r="G582" t="n">
+        <v>1</v>
+      </c>
+      <c r="H582" s="2" t="n">
+        <v>45832.1749002662</v>
+      </c>
+      <c r="I582" t="n">
+        <v>501.15</v>
+      </c>
+      <c r="J582" t="n">
+        <v>1503.45</v>
+      </c>
+      <c r="K582" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L582" t="n">
+        <v>3</v>
+      </c>
+      <c r="M582" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N582" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O582" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P582" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="R582" t="n">
+        <v>-9.840000000000154</v>
+      </c>
+      <c r="S582" t="inlineStr">
+        <is>
+          <t>FA1AE2494CF797C000</t>
+        </is>
+      </c>
+      <c r="T582" t="inlineStr">
+        <is>
+          <t>FA1AE24A184A4AD000</t>
+        </is>
+      </c>
+      <c r="U582" t="inlineStr"/>
+      <c r="V582" t="inlineStr"/>
+      <c r="W582" t="inlineStr">
+        <is>
+          <t>FA1AE24A19EECAD000</t>
+        </is>
+      </c>
+      <c r="X582" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y582" t="inlineStr">
+        <is>
+          <t>mv :5.55, mv_2m:-3.15,mv_5m : -1.13, mv_30m : -10.55, mv_60m: -14.82, md_60m: -57c1: 0, c2: 1</t>
+        </is>
+      </c>
+      <c r="Z582" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA582" t="inlineStr">
+        <is>
+          <t>FA1AE24A18D8CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="n">
+        <v>581</v>
+      </c>
+      <c r="B583" t="n">
+        <v>4382</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="D583" s="2" t="n">
+        <v>45832.13613508102</v>
+      </c>
+      <c r="E583" t="n">
+        <v>297.8</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1489</v>
+      </c>
+      <c r="G583" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H583" s="2" t="n">
+        <v>45834.26896150463</v>
+      </c>
+      <c r="I583" t="n">
+        <v>303.31</v>
+      </c>
+      <c r="J583" t="n">
+        <v>1516.55</v>
+      </c>
+      <c r="K583" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L583" t="n">
+        <v>5</v>
+      </c>
+      <c r="M583" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N583" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O583" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P583" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R583" t="n">
+        <v>25.51999999999995</v>
+      </c>
+      <c r="S583" t="inlineStr">
+        <is>
+          <t>FA1AE24F4A69CAD000</t>
+        </is>
+      </c>
+      <c r="T583" t="inlineStr">
+        <is>
+          <t>FA1AE2501D1C57C000</t>
+        </is>
+      </c>
+      <c r="U583" t="inlineStr"/>
+      <c r="V583" t="inlineStr"/>
+      <c r="W583" t="inlineStr">
+        <is>
+          <t>FA1AE2501ECD4AD000</t>
+        </is>
+      </c>
+      <c r="X583" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y583" t="inlineStr">
+        <is>
+          <t>mv :1.37, mv_2m:-0.66,mv_5m : 0.41, mv_30m : -1.28, mv_60m: -17.18, md_60m: -60c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z583" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA583" t="inlineStr">
+        <is>
+          <t>FA1AE2501DBA97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="n">
+        <v>582</v>
+      </c>
+      <c r="B584" t="n">
+        <v>4383</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="D584" s="2" t="n">
+        <v>45832.13753571759</v>
+      </c>
+      <c r="E584" t="n">
+        <v>200.06</v>
+      </c>
+      <c r="F584" t="n">
+        <v>1800.54</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H584" s="2" t="n">
+        <v>45834.0848187963</v>
+      </c>
+      <c r="I584" t="n">
+        <v>203.8381</v>
+      </c>
+      <c r="J584" t="n">
+        <v>1834.5429</v>
+      </c>
+      <c r="K584" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L584" t="n">
+        <v>9</v>
+      </c>
+      <c r="M584" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N584" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O584" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P584" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R584" t="n">
+        <v>31.95289999999995</v>
+      </c>
+      <c r="S584" t="inlineStr">
+        <is>
+          <t>FA1AE24FC0994AD000</t>
+        </is>
+      </c>
+      <c r="T584" t="inlineStr">
+        <is>
+          <t>FA1AE250164457C000</t>
+        </is>
+      </c>
+      <c r="U584" t="inlineStr"/>
+      <c r="V584" t="inlineStr"/>
+      <c r="W584" t="inlineStr">
+        <is>
+          <t>FA1AE25017E597C000</t>
+        </is>
+      </c>
+      <c r="X584" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y584" t="inlineStr">
+        <is>
+          <t>mv :3.66, mv_2m:2.37,mv_5m : 2.66, mv_30m : 3.11, mv_60m: -9.06, md_60m: -38c1: 0, c2: 1</t>
+        </is>
+      </c>
+      <c r="Z584" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA584" t="inlineStr">
+        <is>
+          <t>FA1AE25016D297C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="n">
+        <v>583</v>
+      </c>
+      <c r="B585" t="n">
+        <v>4384</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="D585" s="2" t="n">
+        <v>45833.99691318287</v>
+      </c>
+      <c r="E585" t="n">
+        <v>85.74639999999999</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1972.1672</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H585" s="2" t="n">
+        <v>45834.06785967592</v>
+      </c>
+      <c r="I585" t="n">
+        <v>85.6801</v>
+      </c>
+      <c r="J585" t="n">
+        <v>1970.6423</v>
+      </c>
+      <c r="K585" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L585" t="n">
+        <v>23</v>
+      </c>
+      <c r="M585" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N585" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O585" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P585" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R585" t="n">
+        <v>-3.654900000000116</v>
+      </c>
+      <c r="S585" t="inlineStr">
+        <is>
+          <t>FA1AE4B4959717C000</t>
+        </is>
+      </c>
+      <c r="T585" t="inlineStr">
+        <is>
+          <t>FA1AE4B4D5FB8AD000</t>
+        </is>
+      </c>
+      <c r="U585" t="inlineStr"/>
+      <c r="V585" t="inlineStr"/>
+      <c r="W585" t="inlineStr">
+        <is>
+          <t>FA1AE4B4D7C88AD000</t>
+        </is>
+      </c>
+      <c r="X585" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y585" t="inlineStr">
+        <is>
+          <t>mv :-2.74, mv_2m:0.64,mv_5m : -1.33, mv_30m : -15.87, mv_60m: -17.67, md_60m: -40c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z585" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA585" t="inlineStr">
+        <is>
+          <t>FA1AE4B4D69A57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="n">
+        <v>584</v>
+      </c>
+      <c r="B586" t="n">
+        <v>4385</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="D586" s="2" t="n">
+        <v>45834.04817767361</v>
+      </c>
+      <c r="E586" t="n">
+        <v>85.58969999999999</v>
+      </c>
+      <c r="F586" t="n">
+        <v>1968.5631</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H586" s="2" t="n">
+        <v>45834.19123069444</v>
+      </c>
+      <c r="I586" t="n">
+        <v>86.0501</v>
+      </c>
+      <c r="J586" t="n">
+        <v>1979.1523</v>
+      </c>
+      <c r="K586" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L586" t="n">
+        <v>23</v>
+      </c>
+      <c r="M586" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N586" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O586" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P586" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R586" t="n">
+        <v>8.459199999999891</v>
+      </c>
+      <c r="S586" t="inlineStr">
+        <is>
+          <t>FA1AE4C57AFE17C000</t>
+        </is>
+      </c>
+      <c r="T586" t="inlineStr">
+        <is>
+          <t>FA1AE4C5BDC897C000</t>
+        </is>
+      </c>
+      <c r="U586" t="inlineStr"/>
+      <c r="V586" t="inlineStr"/>
+      <c r="W586" t="inlineStr">
+        <is>
+          <t>FA1AE4C5BF8BCAD000</t>
+        </is>
+      </c>
+      <c r="X586" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y586" t="inlineStr">
+        <is>
+          <t>mv :-4.51, mv_2m:-0.25,mv_5m : -1.88, mv_30m : -4.42, mv_60m: -2.09, md_60m: -32c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z586" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA586" t="inlineStr">
+        <is>
+          <t>FA1AE4C5BE6797C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="n">
+        <v>585</v>
+      </c>
+      <c r="B587" t="n">
+        <v>4386</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="D587" s="2" t="n">
+        <v>45834.23053396991</v>
+      </c>
+      <c r="E587" t="n">
+        <v>105.9881</v>
+      </c>
+      <c r="F587" t="n">
+        <v>1907.7858</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H587" s="2" t="n">
+        <v>45835.02306469907</v>
+      </c>
+      <c r="I587" t="n">
+        <v>106.53</v>
+      </c>
+      <c r="J587" t="n">
+        <v>1917.54</v>
+      </c>
+      <c r="K587" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L587" t="n">
+        <v>18</v>
+      </c>
+      <c r="M587" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N587" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O587" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P587" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R587" t="n">
+        <v>7.644199999999856</v>
+      </c>
+      <c r="S587" t="inlineStr">
+        <is>
+          <t>FA1AE501955DCAD000</t>
+        </is>
+      </c>
+      <c r="T587" t="inlineStr">
+        <is>
+          <t>FA1AE501F40757C000</t>
+        </is>
+      </c>
+      <c r="U587" t="inlineStr"/>
+      <c r="V587" t="inlineStr"/>
+      <c r="W587" t="inlineStr">
+        <is>
+          <t>FA1AE501F5B70AD000</t>
+        </is>
+      </c>
+      <c r="X587" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y587" t="inlineStr">
+        <is>
+          <t>mv :1.91, mv_2m:-0.97,mv_5m : -3.27, mv_30m : 0.46, mv_60m: 7.90, md_60m: -3c1: 0, c2: 1</t>
+        </is>
+      </c>
+      <c r="Z587" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA587" t="inlineStr">
+        <is>
+          <t>FA1AE501F49517C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="n">
+        <v>586</v>
+      </c>
+      <c r="B588" t="n">
+        <v>4387</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>HCA</t>
+        </is>
+      </c>
+      <c r="D588" s="2" t="n">
+        <v>45835.0375524074</v>
+      </c>
+      <c r="E588" t="n">
+        <v>381.18</v>
+      </c>
+      <c r="F588" t="n">
+        <v>1905.9</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H588" s="2" t="n">
+        <v>45840.28536775463</v>
+      </c>
+      <c r="I588" t="n">
+        <v>389.69</v>
+      </c>
+      <c r="J588" t="n">
+        <v>1948.45</v>
+      </c>
+      <c r="K588" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L588" t="n">
+        <v>5</v>
+      </c>
+      <c r="M588" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N588" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O588" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P588" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R588" t="n">
+        <v>40.51999999999995</v>
+      </c>
+      <c r="S588" t="inlineStr">
+        <is>
+          <t>FA1AE60B918717C000</t>
+        </is>
+      </c>
+      <c r="T588" t="inlineStr">
+        <is>
+          <t>FA1AE60C1339CAD000</t>
+        </is>
+      </c>
+      <c r="U588" t="inlineStr"/>
+      <c r="V588" t="inlineStr"/>
+      <c r="W588" t="inlineStr">
+        <is>
+          <t>FA1AE60C1500D7C000</t>
+        </is>
+      </c>
+      <c r="X588" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y588" t="inlineStr">
+        <is>
+          <t>mv :2.52, mv_2m:0.43,mv_5m : 1.26, mv_30m : 2.96, mv_60m: 1.80, md_60m: -2c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z588" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA588" t="inlineStr">
+        <is>
+          <t>FA1AE60C13CB0AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="n">
+        <v>587</v>
+      </c>
+      <c r="B589" t="n">
+        <v>4388</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="D589" s="2" t="n">
+        <v>45835.08217371528</v>
+      </c>
+      <c r="E589" t="n">
+        <v>100.39</v>
+      </c>
+      <c r="F589" t="n">
+        <v>1907.41</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H589" s="2" t="n">
+        <v>45836.18839013889</v>
+      </c>
+      <c r="I589" t="n">
+        <v>101.305</v>
+      </c>
+      <c r="J589" t="n">
+        <v>1924.795</v>
+      </c>
+      <c r="K589" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L589" t="n">
+        <v>19</v>
+      </c>
+      <c r="M589" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N589" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O589" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P589" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R589" t="n">
+        <v>15.27499999999999</v>
+      </c>
+      <c r="S589" t="inlineStr">
+        <is>
+          <t>FA1AE61A46744AD000</t>
+        </is>
+      </c>
+      <c r="T589" t="inlineStr">
+        <is>
+          <t>FA1AE61AA3CB0AD000</t>
+        </is>
+      </c>
+      <c r="U589" t="inlineStr"/>
+      <c r="V589" t="inlineStr"/>
+      <c r="W589" t="inlineStr">
+        <is>
+          <t>FA1AE61AA5928AD000</t>
+        </is>
+      </c>
+      <c r="X589" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y589" t="inlineStr">
+        <is>
+          <t>mv :-3.81, mv_2m:0.73,mv_5m : 0.51, mv_30m : -2.92, mv_60m: -7.62, md_60m: -32c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z589" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA589" t="inlineStr">
+        <is>
+          <t>FA1AE61AA45997C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="n">
+        <v>588</v>
+      </c>
+      <c r="B590" t="n">
+        <v>4389</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="D590" s="2" t="n">
+        <v>45835.08902726852</v>
+      </c>
+      <c r="E590" t="n">
+        <v>324.64</v>
+      </c>
+      <c r="F590" t="n">
+        <v>1623.2</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H590" s="2" t="n">
+        <v>45836.19656328703</v>
+      </c>
+      <c r="I590" t="n">
+        <v>329.17</v>
+      </c>
+      <c r="J590" t="n">
+        <v>1645.85</v>
+      </c>
+      <c r="K590" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L590" t="n">
+        <v>5</v>
+      </c>
+      <c r="M590" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N590" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O590" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P590" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R590" t="n">
+        <v>20.62000000000009</v>
+      </c>
+      <c r="S590" t="inlineStr">
+        <is>
+          <t>FA1AE61C88B40AD000</t>
+        </is>
+      </c>
+      <c r="T590" t="inlineStr">
+        <is>
+          <t>FA1AE61D3F3B97C000</t>
+        </is>
+      </c>
+      <c r="U590" t="inlineStr"/>
+      <c r="V590" t="inlineStr"/>
+      <c r="W590" t="inlineStr">
+        <is>
+          <t>FA1AE61D4119D7C000</t>
+        </is>
+      </c>
+      <c r="X590" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y590" t="inlineStr">
+        <is>
+          <t>mv :-1.59, mv_2m:-0.19,mv_5m : 1.55, mv_30m : 0.34, mv_60m: -5.66, md_60m: -47c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z590" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA590" t="inlineStr">
+        <is>
+          <t>FA1AE61D3FC8D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="n">
+        <v>589</v>
+      </c>
+      <c r="B591" t="n">
+        <v>4390</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="D591" s="2" t="n">
+        <v>45836.15316915509</v>
+      </c>
+      <c r="E591" t="n">
+        <v>227.8</v>
+      </c>
+      <c r="F591" t="n">
+        <v>1822.4</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H591" s="2" t="n">
+        <v>45840.27049047454</v>
+      </c>
+      <c r="I591" t="n">
+        <v>235.0518</v>
+      </c>
+      <c r="J591" t="n">
+        <v>1880.4144</v>
+      </c>
+      <c r="K591" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L591" t="n">
+        <v>8</v>
+      </c>
+      <c r="M591" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N591" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O591" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P591" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R591" t="n">
+        <v>55.98439999999979</v>
+      </c>
+      <c r="S591" t="inlineStr">
+        <is>
+          <t>FA1AE77B43A44AD000</t>
+        </is>
+      </c>
+      <c r="T591" t="inlineStr">
+        <is>
+          <t>FA1AE77BDF4BD7C000</t>
+        </is>
+      </c>
+      <c r="U591" t="inlineStr"/>
+      <c r="V591" t="inlineStr"/>
+      <c r="W591" t="inlineStr">
+        <is>
+          <t>FA1AE77BE11F17C000</t>
+        </is>
+      </c>
+      <c r="X591" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y591" t="inlineStr">
+        <is>
+          <t>mv :0.03, mv_2m:-0.00,mv_5m : 0.09, mv_30m : -0.58, mv_60m: -0.73, md_60m: -1c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z591" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA591" t="inlineStr">
+        <is>
+          <t>FA1AE77BDFD9D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="n">
+        <v>590</v>
+      </c>
+      <c r="B592" t="n">
+        <v>4391</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="D592" s="2" t="n">
+        <v>45836.15778747686</v>
+      </c>
+      <c r="E592" t="n">
+        <v>731.75</v>
+      </c>
+      <c r="F592" t="n">
+        <v>1463.5</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1</v>
+      </c>
+      <c r="H592" s="2" t="n">
+        <v>45840.10964957176</v>
+      </c>
+      <c r="I592" t="n">
+        <v>717.5700000000001</v>
+      </c>
+      <c r="J592" t="n">
+        <v>1435.14</v>
+      </c>
+      <c r="K592" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L592" t="n">
+        <v>2</v>
+      </c>
+      <c r="M592" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N592" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O592" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P592" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R592" t="n">
+        <v>-30.4609999999999</v>
+      </c>
+      <c r="S592" t="inlineStr">
+        <is>
+          <t>FA1AE77CC9500AD000</t>
+        </is>
+      </c>
+      <c r="T592" t="inlineStr">
+        <is>
+          <t>FA1AE77DFEAA17C000</t>
+        </is>
+      </c>
+      <c r="U592" t="inlineStr"/>
+      <c r="V592" t="inlineStr"/>
+      <c r="W592" t="inlineStr">
+        <is>
+          <t>FA1AE77E00498AD000</t>
+        </is>
+      </c>
+      <c r="X592" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y592" t="inlineStr">
+        <is>
+          <t>mv :-4.85, mv_2m:-2.94,mv_5m : -6.58, mv_30m : -6.10, mv_60m: -10.08, md_60m: -31c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z592" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA592" t="inlineStr">
+        <is>
+          <t>FA1AE77DFF39D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="n">
+        <v>591</v>
+      </c>
+      <c r="B593" t="n">
+        <v>4392</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="D593" s="2" t="n">
+        <v>45840.1147853588</v>
+      </c>
+      <c r="E593" t="n">
+        <v>223.34</v>
+      </c>
+      <c r="F593" t="n">
+        <v>1563.38</v>
+      </c>
+      <c r="G593" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H593" s="2" t="n">
+        <v>45841.02754986111</v>
+      </c>
+      <c r="I593" t="n">
+        <v>223.5</v>
+      </c>
+      <c r="J593" t="n">
+        <v>1564.5</v>
+      </c>
+      <c r="K593" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L593" t="n">
+        <v>7</v>
+      </c>
+      <c r="M593" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N593" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O593" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P593" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q593" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R593" t="n">
+        <v>-0.9100000000001092</v>
+      </c>
+      <c r="S593" t="inlineStr">
+        <is>
+          <t>FA1AEC94F8F24AD000</t>
+        </is>
+      </c>
+      <c r="T593" t="inlineStr">
+        <is>
+          <t>FA1AEC958E14CAD000</t>
+        </is>
+      </c>
+      <c r="U593" t="inlineStr"/>
+      <c r="V593" t="inlineStr"/>
+      <c r="W593" t="inlineStr">
+        <is>
+          <t>FA1AEC958FEA97C000</t>
+        </is>
+      </c>
+      <c r="X593" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y593" t="inlineStr">
+        <is>
+          <t>mv :32.32, mv_2m:-0.31,mv_5m : -1.14, mv_30m : -2.64, mv_60m: -0.91, md_60m: -2c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z593" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA593" t="inlineStr">
+        <is>
+          <t>FA1AEC958EB20AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="n">
+        <v>592</v>
+      </c>
+      <c r="B594" t="n">
+        <v>4393</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D594" s="2" t="n">
+        <v>45840.23921135416</v>
+      </c>
+      <c r="E594" t="n">
+        <v>57.8987</v>
+      </c>
+      <c r="F594" t="n">
+        <v>1968.5558</v>
+      </c>
+      <c r="G594" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H594" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>0</v>
+      </c>
+      <c r="K594" t="n">
+        <v>0</v>
+      </c>
+      <c r="L594" t="n">
+        <v>34</v>
+      </c>
+      <c r="M594" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N594" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O594" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P594" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R594" t="n">
+        <v>0</v>
+      </c>
+      <c r="S594" t="inlineStr">
+        <is>
+          <t>FA1AECBDFB5B97C000</t>
+        </is>
+      </c>
+      <c r="T594" t="inlineStr">
+        <is>
+          <t>FA1AECBE57078AD000</t>
+        </is>
+      </c>
+      <c r="U594" t="inlineStr"/>
+      <c r="V594" t="inlineStr"/>
+      <c r="W594" t="inlineStr">
+        <is>
+          <t>FA1AECBE58F3CAD000</t>
+        </is>
+      </c>
+      <c r="X594" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y594" t="inlineStr">
+        <is>
+          <t>mv :37.83, mv_2m:0.48,mv_5m : 2.78, mv_30m : 3.20, mv_60m: 0.35, md_60m: -34c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z594" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA594" t="inlineStr">
+        <is>
+          <t>FA1AECBE5797D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="n">
+        <v>593</v>
+      </c>
+      <c r="B595" t="n">
+        <v>4394</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="D595" s="2" t="n">
+        <v>45840.24952729166</v>
+      </c>
+      <c r="E595" t="n">
+        <v>54.3597</v>
+      </c>
+      <c r="F595" t="n">
+        <v>1956.9492</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H595" s="2" t="n">
+        <v>45841.26957667824</v>
+      </c>
+      <c r="I595" t="n">
+        <v>55.6818</v>
+      </c>
+      <c r="J595" t="n">
+        <v>2004.5448</v>
+      </c>
+      <c r="K595" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L595" t="n">
+        <v>36</v>
+      </c>
+      <c r="M595" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N595" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O595" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P595" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R595" t="n">
+        <v>45.3856000000001</v>
+      </c>
+      <c r="S595" t="inlineStr">
+        <is>
+          <t>FA1AECC161C40AD000</t>
+        </is>
+      </c>
+      <c r="T595" t="inlineStr">
+        <is>
+          <t>FA1AECC268C817C000</t>
+        </is>
+      </c>
+      <c r="U595" t="inlineStr"/>
+      <c r="V595" t="inlineStr"/>
+      <c r="W595" t="inlineStr">
+        <is>
+          <t>FA1AECC26A9197C000</t>
+        </is>
+      </c>
+      <c r="X595" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y595" t="inlineStr">
+        <is>
+          <t>mv :35.14, mv_2m:-2.74,mv_5m : 1.00, mv_30m : -7.26, mv_60m: -8.95, md_60m: -53c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z595" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA595" t="inlineStr">
+        <is>
+          <t>FA1AECC269604AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="n">
+        <v>594</v>
+      </c>
+      <c r="B596" t="n">
+        <v>4395</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="D596" s="2" t="n">
+        <v>45841.003339375</v>
+      </c>
+      <c r="E596" t="n">
+        <v>109.29</v>
+      </c>
+      <c r="F596" t="n">
+        <v>1530.06</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H596" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>0</v>
+      </c>
+      <c r="K596" t="n">
+        <v>0</v>
+      </c>
+      <c r="L596" t="n">
+        <v>14</v>
+      </c>
+      <c r="M596" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N596" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O596" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P596" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R596" t="n">
+        <v>0</v>
+      </c>
+      <c r="S596" t="inlineStr">
+        <is>
+          <t>FA1AEDB9D4A74AD000</t>
+        </is>
+      </c>
+      <c r="T596" t="inlineStr">
+        <is>
+          <t>FA1AEDBAE42257C000</t>
+        </is>
+      </c>
+      <c r="U596" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V596" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W596" t="inlineStr">
+        <is>
+          <t>FA1AEDBAE6048AD000</t>
+        </is>
+      </c>
+      <c r="X596" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y596" t="inlineStr">
+        <is>
+          <t>mv :-5.85, mv_2m:0.59,mv_5m : 1.15, mv_30m : 3.58, mv_60m: -6.65, md_60m: -13c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z596" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA596" t="inlineStr">
+        <is>
+          <t>FA1AEDBAE4B10AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="n">
+        <v>595</v>
+      </c>
+      <c r="B597" t="n">
+        <v>4396</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+      <c r="D597" s="2" t="n">
+        <v>45842.07413511574</v>
+      </c>
+      <c r="E597" t="n">
+        <v>174.64</v>
+      </c>
+      <c r="F597" t="n">
+        <v>1921.04</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H597" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>0</v>
+      </c>
+      <c r="K597" t="n">
+        <v>0</v>
+      </c>
+      <c r="L597" t="n">
+        <v>11</v>
+      </c>
+      <c r="M597" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N597" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O597" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P597" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R597" t="n">
+        <v>0</v>
+      </c>
+      <c r="S597" t="inlineStr">
+        <is>
+          <t>FA1AEF1AC1130AD000</t>
+        </is>
+      </c>
+      <c r="T597" t="inlineStr">
+        <is>
+          <t>FA1AEF1B521497C000</t>
+        </is>
+      </c>
+      <c r="U597" t="inlineStr"/>
+      <c r="V597" t="inlineStr"/>
+      <c r="W597" t="inlineStr">
+        <is>
+          <t>FA1AEF1B54364AD000</t>
+        </is>
+      </c>
+      <c r="X597" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y597" t="inlineStr">
+        <is>
+          <t>mv :27.43, mv_2m:0.39,mv_5m : 0.77, mv_30m : 0.17, mv_60m: 1.17, md_60m: -4c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z597" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA597" t="inlineStr">
+        <is>
+          <t>FA1AEF1B52F497C000</t>
         </is>
       </c>
     </row>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA597"/>
+  <dimension ref="A1:AA618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56942,21 +56942,23 @@
         <v>1.09</v>
       </c>
       <c r="H594" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>45847.01809327547</v>
+      </c>
+      <c r="I594" t="n">
+        <v>57.17</v>
+      </c>
       <c r="J594" t="n">
-        <v>0</v>
+        <v>1943.78</v>
       </c>
       <c r="K594" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="L594" t="n">
         <v>34</v>
       </c>
       <c r="M594" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N594" t="n">
@@ -56969,10 +56971,10 @@
         <v>1.006</v>
       </c>
       <c r="Q594" t="n">
-        <v>2.99</v>
+        <v>0.3</v>
       </c>
       <c r="R594" t="n">
-        <v>0</v>
+        <v>-26.96580000000012</v>
       </c>
       <c r="S594" t="inlineStr">
         <is>
@@ -57134,21 +57136,23 @@
         <v>1.03</v>
       </c>
       <c r="H596" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>45846.01879324074</v>
+      </c>
+      <c r="I596" t="n">
+        <v>111.12</v>
+      </c>
       <c r="J596" t="n">
-        <v>0</v>
+        <v>1555.68</v>
       </c>
       <c r="K596" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L596" t="n">
         <v>14</v>
       </c>
       <c r="M596" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N596" t="n">
@@ -57161,10 +57165,10 @@
         <v>1.006</v>
       </c>
       <c r="Q596" t="n">
-        <v>2.99</v>
+        <v>0.05</v>
       </c>
       <c r="R596" t="n">
-        <v>0</v>
+        <v>23.55000000000012</v>
       </c>
       <c r="S596" t="inlineStr">
         <is>
@@ -57176,16 +57180,8 @@
           <t>FA1AEDBAE42257C000</t>
         </is>
       </c>
-      <c r="U596" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V596" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="U596" t="inlineStr"/>
+      <c r="V596" t="inlineStr"/>
       <c r="W596" t="inlineStr">
         <is>
           <t>FA1AEDBAE6048AD000</t>
@@ -57237,21 +57233,23 @@
         <v>1.02</v>
       </c>
       <c r="H597" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>45847.03790008102</v>
+      </c>
+      <c r="I597" t="n">
+        <v>171.02</v>
+      </c>
       <c r="J597" t="n">
-        <v>0</v>
+        <v>1881.22</v>
       </c>
       <c r="K597" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L597" t="n">
         <v>11</v>
       </c>
       <c r="M597" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N597" t="n">
@@ -57267,7 +57265,7 @@
         <v>2.99</v>
       </c>
       <c r="R597" t="n">
-        <v>0</v>
+        <v>-41.86999999999994</v>
       </c>
       <c r="S597" t="inlineStr">
         <is>
@@ -57304,6 +57302,2043 @@
       <c r="AA597" t="inlineStr">
         <is>
           <t>FA1AEF1B52F497C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="n">
+        <v>596</v>
+      </c>
+      <c r="B598" t="n">
+        <v>4397</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>PANW</t>
+        </is>
+      </c>
+      <c r="D598" s="2" t="n">
+        <v>45845.99309769676</v>
+      </c>
+      <c r="E598" t="n">
+        <v>200.61</v>
+      </c>
+      <c r="F598" t="n">
+        <v>1604.88</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H598" s="2" t="n">
+        <v>45846.19576506945</v>
+      </c>
+      <c r="I598" t="n">
+        <v>200.45</v>
+      </c>
+      <c r="J598" t="n">
+        <v>1603.6</v>
+      </c>
+      <c r="K598" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L598" t="n">
+        <v>8</v>
+      </c>
+      <c r="M598" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N598" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O598" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P598" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q598" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R598" t="n">
+        <v>-3.3100000000002</v>
+      </c>
+      <c r="S598" t="inlineStr">
+        <is>
+          <t>FA1AF42667934AD000</t>
+        </is>
+      </c>
+      <c r="T598" t="inlineStr">
+        <is>
+          <t>FA1AF427589C97C000</t>
+        </is>
+      </c>
+      <c r="U598" t="inlineStr"/>
+      <c r="V598" t="inlineStr"/>
+      <c r="W598" t="inlineStr">
+        <is>
+          <t>FA1AF4275A5D57C000</t>
+        </is>
+      </c>
+      <c r="X598" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y598" t="inlineStr">
+        <is>
+          <t>mv :-6.32, mv_2m:0.23,mv_5m : -1.72, mv_30m : -1.89, mv_60m: -1.62, md_60m: -8c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z598" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA598" t="inlineStr">
+        <is>
+          <t>FA1AF427593257C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="n">
+        <v>597</v>
+      </c>
+      <c r="B599" t="n">
+        <v>4398</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="D599" s="2" t="n">
+        <v>45846.18907966435</v>
+      </c>
+      <c r="E599" t="n">
+        <v>153.117</v>
+      </c>
+      <c r="F599" t="n">
+        <v>1684.287</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H599" s="2" t="n">
+        <v>45847.04139300926</v>
+      </c>
+      <c r="I599" t="n">
+        <v>153.395</v>
+      </c>
+      <c r="J599" t="n">
+        <v>1687.345</v>
+      </c>
+      <c r="K599" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L599" t="n">
+        <v>11</v>
+      </c>
+      <c r="M599" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N599" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O599" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P599" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R599" t="n">
+        <v>1.007999999999993</v>
+      </c>
+      <c r="S599" t="inlineStr">
+        <is>
+          <t>FA1AF466FF9097C000</t>
+        </is>
+      </c>
+      <c r="T599" t="inlineStr">
+        <is>
+          <t>FA1AF467B0F94AD000</t>
+        </is>
+      </c>
+      <c r="U599" t="inlineStr"/>
+      <c r="V599" t="inlineStr"/>
+      <c r="W599" t="inlineStr">
+        <is>
+          <t>FA1AF467B2BC0AD000</t>
+        </is>
+      </c>
+      <c r="X599" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y599" t="inlineStr">
+        <is>
+          <t>mv :-35.45, mv_2m:-0.15,mv_5m : -5.85, mv_30m : -27.63, mv_60m: -30.83, md_60m: -94c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z599" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA599" t="inlineStr">
+        <is>
+          <t>FA1AF467B1990AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="n">
+        <v>598</v>
+      </c>
+      <c r="B600" t="n">
+        <v>4399</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D600" s="2" t="n">
+        <v>45847.0857991088</v>
+      </c>
+      <c r="E600" t="n">
+        <v>23.2097</v>
+      </c>
+      <c r="F600" t="n">
+        <v>1996.0342</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H600" s="2" t="n">
+        <v>45848.01828075232</v>
+      </c>
+      <c r="I600" t="n">
+        <v>23.4003</v>
+      </c>
+      <c r="J600" t="n">
+        <v>2012.4258</v>
+      </c>
+      <c r="K600" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L600" t="n">
+        <v>86</v>
+      </c>
+      <c r="M600" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N600" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O600" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P600" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R600" t="n">
+        <v>13.88160000000015</v>
+      </c>
+      <c r="S600" t="inlineStr">
+        <is>
+          <t>FA1AF58E8BA44AD000</t>
+        </is>
+      </c>
+      <c r="T600" t="inlineStr">
+        <is>
+          <t>FA1AF58F091B4AD000</t>
+        </is>
+      </c>
+      <c r="U600" t="inlineStr"/>
+      <c r="V600" t="inlineStr"/>
+      <c r="W600" t="inlineStr">
+        <is>
+          <t>FA1AF58F0AD617C000</t>
+        </is>
+      </c>
+      <c r="X600" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y600" t="inlineStr">
+        <is>
+          <t>mv :-7.21, mv_2m:-0.26,mv_5m : -0.26, mv_30m : -2.24, mv_60m: -2.56, md_60m: -5c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z600" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA600" t="inlineStr">
+        <is>
+          <t>FA1AF58F09AED7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="n">
+        <v>599</v>
+      </c>
+      <c r="B601" t="n">
+        <v>4400</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="D601" s="2" t="n">
+        <v>45847.09491254629</v>
+      </c>
+      <c r="E601" t="n">
+        <v>74.2594</v>
+      </c>
+      <c r="F601" t="n">
+        <v>1930.7444</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H601" s="2" t="n">
+        <v>45848.05264450231</v>
+      </c>
+      <c r="I601" t="n">
+        <v>74.6208</v>
+      </c>
+      <c r="J601" t="n">
+        <v>1940.1408</v>
+      </c>
+      <c r="K601" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L601" t="n">
+        <v>26</v>
+      </c>
+      <c r="M601" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N601" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O601" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P601" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R601" t="n">
+        <v>7.246400000000085</v>
+      </c>
+      <c r="S601" t="inlineStr">
+        <is>
+          <t>FA1AF5918C9617C000</t>
+        </is>
+      </c>
+      <c r="T601" t="inlineStr">
+        <is>
+          <t>FA1AF591C6590AD000</t>
+        </is>
+      </c>
+      <c r="U601" t="inlineStr"/>
+      <c r="V601" t="inlineStr"/>
+      <c r="W601" t="inlineStr">
+        <is>
+          <t>FA1AF591C80D8AD000</t>
+        </is>
+      </c>
+      <c r="X601" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y601" t="inlineStr">
+        <is>
+          <t>mv :-11.02, mv_2m:0.43,mv_5m : -0.07, mv_30m : -7.95, mv_60m: -16.71, md_60m: -47c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z601" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA601" t="inlineStr">
+        <is>
+          <t>FA1AF591C6ED17C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="n">
+        <v>600</v>
+      </c>
+      <c r="B602" t="n">
+        <v>4401</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="D602" s="2" t="n">
+        <v>45847.09697940973</v>
+      </c>
+      <c r="E602" t="n">
+        <v>789.95</v>
+      </c>
+      <c r="F602" t="n">
+        <v>1579.9</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1</v>
+      </c>
+      <c r="H602" s="2" t="n">
+        <v>45847.16724581018</v>
+      </c>
+      <c r="I602" t="n">
+        <v>773.38</v>
+      </c>
+      <c r="J602" t="n">
+        <v>1546.76</v>
+      </c>
+      <c r="K602" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L602" t="n">
+        <v>2</v>
+      </c>
+      <c r="M602" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N602" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O602" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P602" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R602" t="n">
+        <v>-35.1500000000001</v>
+      </c>
+      <c r="S602" t="inlineStr">
+        <is>
+          <t>FA1AF5923AF94AD000</t>
+        </is>
+      </c>
+      <c r="T602" t="inlineStr">
+        <is>
+          <t>FA1AF592EC0FCAD000</t>
+        </is>
+      </c>
+      <c r="U602" t="inlineStr"/>
+      <c r="V602" t="inlineStr"/>
+      <c r="W602" t="inlineStr">
+        <is>
+          <t>FA1AF592EDCF97C000</t>
+        </is>
+      </c>
+      <c r="X602" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y602" t="inlineStr">
+        <is>
+          <t>mv :-9.55, mv_2m:1.10,mv_5m : 3.04, mv_30m : -8.56, mv_60m: -14.32, md_60m: -43c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z602" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA602" t="inlineStr">
+        <is>
+          <t>FA1AF592ECAE0AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="n">
+        <v>601</v>
+      </c>
+      <c r="B603" t="n">
+        <v>4402</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="D603" s="2" t="n">
+        <v>45847.13725704861</v>
+      </c>
+      <c r="E603" t="n">
+        <v>94.9293</v>
+      </c>
+      <c r="F603" t="n">
+        <v>1518.8688</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H603" s="2" t="n">
+        <v>45847.28520521991</v>
+      </c>
+      <c r="I603" t="n">
+        <v>95.0111</v>
+      </c>
+      <c r="J603" t="n">
+        <v>1520.1776</v>
+      </c>
+      <c r="K603" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L603" t="n">
+        <v>16</v>
+      </c>
+      <c r="M603" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N603" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O603" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P603" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R603" t="n">
+        <v>-0.7811999999999808</v>
+      </c>
+      <c r="S603" t="inlineStr">
+        <is>
+          <t>FA1AF59F815CD7C000</t>
+        </is>
+      </c>
+      <c r="T603" t="inlineStr">
+        <is>
+          <t>FA1AF59FBD71CAD000</t>
+        </is>
+      </c>
+      <c r="U603" t="inlineStr"/>
+      <c r="V603" t="inlineStr"/>
+      <c r="W603" t="inlineStr">
+        <is>
+          <t>FA1AF59FBF2397C000</t>
+        </is>
+      </c>
+      <c r="X603" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y603" t="inlineStr">
+        <is>
+          <t>mv :-7.96, mv_2m:-1.95,mv_5m : 1.60, mv_30m : -4.28, mv_60m: -2.63, md_60m: -29c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z603" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA603" t="inlineStr">
+        <is>
+          <t>FA1AF59FBE028AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="n">
+        <v>602</v>
+      </c>
+      <c r="B604" t="n">
+        <v>4403</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D604" s="2" t="n">
+        <v>45847.99162548611</v>
+      </c>
+      <c r="E604" t="n">
+        <v>23.4589</v>
+      </c>
+      <c r="F604" t="n">
+        <v>1994.0065</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H604" s="2" t="n">
+        <v>45848.03354096065</v>
+      </c>
+      <c r="I604" t="n">
+        <v>23.3803</v>
+      </c>
+      <c r="J604" t="n">
+        <v>1987.3255</v>
+      </c>
+      <c r="K604" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="L604" t="n">
+        <v>85</v>
+      </c>
+      <c r="M604" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N604" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O604" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P604" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R604" t="n">
+        <v>-9.19100000000004</v>
+      </c>
+      <c r="S604" t="inlineStr">
+        <is>
+          <t>FA1AF6B9194DCAD000</t>
+        </is>
+      </c>
+      <c r="T604" t="inlineStr">
+        <is>
+          <t>FA1AF6B9A0B1D7C000</t>
+        </is>
+      </c>
+      <c r="U604" t="inlineStr"/>
+      <c r="V604" t="inlineStr"/>
+      <c r="W604" t="inlineStr">
+        <is>
+          <t>FA1AF6B9A27B17C000</t>
+        </is>
+      </c>
+      <c r="X604" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y604" t="inlineStr">
+        <is>
+          <t>mv :1.72, mv_2m:0.16,mv_5m : 0.25, mv_30m : -0.27, mv_60m: 0.40, md_60m: -1c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z604" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA604" t="inlineStr">
+        <is>
+          <t>FA1AF6B9A1564AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="n">
+        <v>603</v>
+      </c>
+      <c r="B605" t="n">
+        <v>4404</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="D605" s="2" t="n">
+        <v>45848.13101875</v>
+      </c>
+      <c r="E605" t="n">
+        <v>145.92</v>
+      </c>
+      <c r="F605" t="n">
+        <v>1896.96</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H605" s="2" t="n">
+        <v>45849.02554996528</v>
+      </c>
+      <c r="I605" t="n">
+        <v>145.92</v>
+      </c>
+      <c r="J605" t="n">
+        <v>1896.96</v>
+      </c>
+      <c r="K605" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L605" t="n">
+        <v>13</v>
+      </c>
+      <c r="M605" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N605" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O605" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P605" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R605" t="n">
+        <v>-2.070000000000228</v>
+      </c>
+      <c r="S605" t="inlineStr">
+        <is>
+          <t>FA1AF6E70A784AD000</t>
+        </is>
+      </c>
+      <c r="T605" t="inlineStr">
+        <is>
+          <t>FA1AF6E7701357C000</t>
+        </is>
+      </c>
+      <c r="U605" t="inlineStr"/>
+      <c r="V605" t="inlineStr"/>
+      <c r="W605" t="inlineStr">
+        <is>
+          <t>FA1AF6E771EBD7C000</t>
+        </is>
+      </c>
+      <c r="X605" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y605" t="inlineStr">
+        <is>
+          <t>mv :1.88, mv_2m:0.16,mv_5m : -0.14, mv_30m : 3.55, mv_60m: 2.12, md_60m: -17c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z605" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA605" t="inlineStr">
+        <is>
+          <t>FA1AF6E770BC17C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="n">
+        <v>604</v>
+      </c>
+      <c r="B606" t="n">
+        <v>4405</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="D606" s="2" t="n">
+        <v>45848.18197834491</v>
+      </c>
+      <c r="E606" t="n">
+        <v>250.0283</v>
+      </c>
+      <c r="F606" t="n">
+        <v>1750.1981</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H606" s="2" t="n">
+        <v>45848.23518974537</v>
+      </c>
+      <c r="I606" t="n">
+        <v>249.7954</v>
+      </c>
+      <c r="J606" t="n">
+        <v>1748.5678</v>
+      </c>
+      <c r="K606" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L606" t="n">
+        <v>7</v>
+      </c>
+      <c r="M606" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N606" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O606" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P606" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q606" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R606" t="n">
+        <v>-3.660300000000034</v>
+      </c>
+      <c r="S606" t="inlineStr">
+        <is>
+          <t>FA1AF6F7D62217C000</t>
+        </is>
+      </c>
+      <c r="T606" t="inlineStr">
+        <is>
+          <t>FA1AF6F83B4DD7C000</t>
+        </is>
+      </c>
+      <c r="U606" t="inlineStr"/>
+      <c r="V606" t="inlineStr"/>
+      <c r="W606" t="inlineStr">
+        <is>
+          <t>FA1AF6F83D1B97C000</t>
+        </is>
+      </c>
+      <c r="X606" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y606" t="inlineStr">
+        <is>
+          <t>mv :-1.35, mv_2m:-0.64,mv_5m : -0.34, mv_30m : -0.41, mv_60m: -0.01, md_60m: -14c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z606" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA606" t="inlineStr">
+        <is>
+          <t>FA1AF6F83BE197C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="1" t="n">
+        <v>605</v>
+      </c>
+      <c r="B607" t="n">
+        <v>4406</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D607" s="2" t="n">
+        <v>45848.23129435186</v>
+      </c>
+      <c r="E607" t="n">
+        <v>139.0177</v>
+      </c>
+      <c r="F607" t="n">
+        <v>1946.2478</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H607" s="2" t="n">
+        <v>45848.28271886574</v>
+      </c>
+      <c r="I607" t="n">
+        <v>138.3102</v>
+      </c>
+      <c r="J607" t="n">
+        <v>1936.3428</v>
+      </c>
+      <c r="K607" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L607" t="n">
+        <v>14</v>
+      </c>
+      <c r="M607" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N607" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O607" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P607" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R607" t="n">
+        <v>-11.97499999999997</v>
+      </c>
+      <c r="S607" t="inlineStr">
+        <is>
+          <t>FA1AF708172D57C000</t>
+        </is>
+      </c>
+      <c r="T607" t="inlineStr">
+        <is>
+          <t>FA1AF7089BC757C000</t>
+        </is>
+      </c>
+      <c r="U607" t="inlineStr"/>
+      <c r="V607" t="inlineStr"/>
+      <c r="W607" t="inlineStr">
+        <is>
+          <t>FA1AF7089D9F57C000</t>
+        </is>
+      </c>
+      <c r="X607" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y607" t="inlineStr">
+        <is>
+          <t>mv :-0.39, mv_2m:0.21,mv_5m : -0.04, mv_30m : 1.28, mv_60m: 2.84, md_60m: -1c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z607" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA607" t="inlineStr">
+        <is>
+          <t>FA1AF7089C6117C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="1" t="n">
+        <v>606</v>
+      </c>
+      <c r="B608" t="n">
+        <v>4407</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="D608" s="2" t="n">
+        <v>45849.03112979166</v>
+      </c>
+      <c r="E608" t="n">
+        <v>178.235</v>
+      </c>
+      <c r="F608" t="n">
+        <v>1960.585</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H608" s="2" t="n">
+        <v>45849.07687009259</v>
+      </c>
+      <c r="I608" t="n">
+        <v>178.15</v>
+      </c>
+      <c r="J608" t="n">
+        <v>1959.65</v>
+      </c>
+      <c r="K608" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L608" t="n">
+        <v>11</v>
+      </c>
+      <c r="M608" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N608" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O608" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P608" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R608" t="n">
+        <v>-2.984999999999945</v>
+      </c>
+      <c r="S608" t="inlineStr">
+        <is>
+          <t>FA1AF80FB5914AD000</t>
+        </is>
+      </c>
+      <c r="T608" t="inlineStr">
+        <is>
+          <t>FA1AF81008170AD000</t>
+        </is>
+      </c>
+      <c r="U608" t="inlineStr"/>
+      <c r="V608" t="inlineStr"/>
+      <c r="W608" t="inlineStr">
+        <is>
+          <t>FA1AF81009E997C000</t>
+        </is>
+      </c>
+      <c r="X608" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y608" t="inlineStr">
+        <is>
+          <t>mv :0.48, mv_2m:0.45,mv_5m : 2.59, mv_30m : 9.13, mv_60m: 24.48, md_60m: 20c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z608" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA608" t="inlineStr">
+        <is>
+          <t>FA1AF81008AB57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="1" t="n">
+        <v>607</v>
+      </c>
+      <c r="B609" t="n">
+        <v>4408</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D609" s="2" t="n">
+        <v>45849.06373532407</v>
+      </c>
+      <c r="E609" t="n">
+        <v>144.0489</v>
+      </c>
+      <c r="F609" t="n">
+        <v>1872.6357</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H609" s="2" t="n">
+        <v>45849.2310037963</v>
+      </c>
+      <c r="I609" t="n">
+        <v>143.8601</v>
+      </c>
+      <c r="J609" t="n">
+        <v>1870.1813</v>
+      </c>
+      <c r="K609" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L609" t="n">
+        <v>13</v>
+      </c>
+      <c r="M609" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N609" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O609" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P609" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R609" t="n">
+        <v>-4.524400000000306</v>
+      </c>
+      <c r="S609" t="inlineStr">
+        <is>
+          <t>FA1AF81A74A997C000</t>
+        </is>
+      </c>
+      <c r="T609" t="inlineStr">
+        <is>
+          <t>FA1AF81AF1884AD000</t>
+        </is>
+      </c>
+      <c r="U609" t="inlineStr"/>
+      <c r="V609" t="inlineStr"/>
+      <c r="W609" t="inlineStr">
+        <is>
+          <t>FA1AF81AF34717C000</t>
+        </is>
+      </c>
+      <c r="X609" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y609" t="inlineStr">
+        <is>
+          <t>mv :2.81, mv_2m:0.32,mv_5m : 0.49, mv_30m : 0.54, mv_60m: 3.65, md_60m: 3c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z609" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA609" t="inlineStr">
+        <is>
+          <t>FA1AF81AF21D0AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="1" t="n">
+        <v>608</v>
+      </c>
+      <c r="B610" t="n">
+        <v>4409</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="D610" s="2" t="n">
+        <v>45849.07251065972</v>
+      </c>
+      <c r="E610" t="n">
+        <v>90.0287</v>
+      </c>
+      <c r="F610" t="n">
+        <v>1980.6314</v>
+      </c>
+      <c r="G610" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H610" s="2" t="n">
+        <v>45849.23012575231</v>
+      </c>
+      <c r="I610" t="n">
+        <v>89.8203</v>
+      </c>
+      <c r="J610" t="n">
+        <v>1976.0466</v>
+      </c>
+      <c r="K610" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L610" t="n">
+        <v>22</v>
+      </c>
+      <c r="M610" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N610" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O610" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P610" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R610" t="n">
+        <v>-6.71479999999986</v>
+      </c>
+      <c r="S610" t="inlineStr">
+        <is>
+          <t>FA1AF81D591497C000</t>
+        </is>
+      </c>
+      <c r="T610" t="inlineStr">
+        <is>
+          <t>FA1AF81D9C568AD000</t>
+        </is>
+      </c>
+      <c r="U610" t="inlineStr"/>
+      <c r="V610" t="inlineStr"/>
+      <c r="W610" t="inlineStr">
+        <is>
+          <t>FA1AF81D9E16D7C000</t>
+        </is>
+      </c>
+      <c r="X610" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y610" t="inlineStr">
+        <is>
+          <t>mv :0.40, mv_2m:0.58,mv_5m : -0.28, mv_30m : -0.96, mv_60m: -0.47, md_60m: -21c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z610" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA610" t="inlineStr">
+        <is>
+          <t>FA1AF81D9CF8CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="1" t="n">
+        <v>609</v>
+      </c>
+      <c r="B611" t="n">
+        <v>4410</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+      <c r="D611" s="2" t="n">
+        <v>45849.07408901621</v>
+      </c>
+      <c r="E611" t="n">
+        <v>134.38</v>
+      </c>
+      <c r="F611" t="n">
+        <v>1612.56</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H611" s="2" t="n">
+        <v>45849.12419916667</v>
+      </c>
+      <c r="I611" t="n">
+        <v>134.273</v>
+      </c>
+      <c r="J611" t="n">
+        <v>1611.276</v>
+      </c>
+      <c r="K611" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L611" t="n">
+        <v>12</v>
+      </c>
+      <c r="M611" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N611" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O611" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P611" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R611" t="n">
+        <v>-3.354000000000106</v>
+      </c>
+      <c r="S611" t="inlineStr">
+        <is>
+          <t>FA1AF81DDE3FD7C000</t>
+        </is>
+      </c>
+      <c r="T611" t="inlineStr">
+        <is>
+          <t>FA1AF81E384357C000</t>
+        </is>
+      </c>
+      <c r="U611" t="inlineStr"/>
+      <c r="V611" t="inlineStr"/>
+      <c r="W611" t="inlineStr">
+        <is>
+          <t>FA1AF81E3A0D0AD000</t>
+        </is>
+      </c>
+      <c r="X611" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y611" t="inlineStr">
+        <is>
+          <t>mv :0.24, mv_2m:-0.14,mv_5m : 0.19, mv_30m : -2.96, mv_60m: 0.78, md_60m: -19c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z611" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA611" t="inlineStr">
+        <is>
+          <t>FA1AF81E38D6D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="1" t="n">
+        <v>610</v>
+      </c>
+      <c r="B612" t="n">
+        <v>4411</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>ABBV</t>
+        </is>
+      </c>
+      <c r="D612" s="2" t="n">
+        <v>45849.08576494213</v>
+      </c>
+      <c r="E612" t="n">
+        <v>195.15</v>
+      </c>
+      <c r="F612" t="n">
+        <v>1561.2</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H612" s="2" t="n">
+        <v>45849.2695047338</v>
+      </c>
+      <c r="I612" t="n">
+        <v>195.3911</v>
+      </c>
+      <c r="J612" t="n">
+        <v>1563.1288</v>
+      </c>
+      <c r="K612" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L612" t="n">
+        <v>8</v>
+      </c>
+      <c r="M612" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N612" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O612" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P612" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R612" t="n">
+        <v>-0.1822000000000898</v>
+      </c>
+      <c r="S612" t="inlineStr">
+        <is>
+          <t>FA1AF821B76717C000</t>
+        </is>
+      </c>
+      <c r="T612" t="inlineStr">
+        <is>
+          <t>FA1AF8227073CAD000</t>
+        </is>
+      </c>
+      <c r="U612" t="inlineStr"/>
+      <c r="V612" t="inlineStr"/>
+      <c r="W612" t="inlineStr">
+        <is>
+          <t>FA1AF82272488AD000</t>
+        </is>
+      </c>
+      <c r="X612" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y612" t="inlineStr">
+        <is>
+          <t>mv :-1.90, mv_2m:0.97,mv_5m : 1.73, mv_30m : -8.94, mv_60m: -6.41, md_60m: -46c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z612" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA612" t="inlineStr">
+        <is>
+          <t>FA1AF822710A97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="1" t="n">
+        <v>611</v>
+      </c>
+      <c r="B613" t="n">
+        <v>4412</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="D613" s="2" t="n">
+        <v>45849.19834469907</v>
+      </c>
+      <c r="E613" t="n">
+        <v>206.3295</v>
+      </c>
+      <c r="F613" t="n">
+        <v>1856.9655</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H613" s="2" t="n">
+        <v>45849.24387465278</v>
+      </c>
+      <c r="I613" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="J613" t="n">
+        <v>1852.2</v>
+      </c>
+      <c r="K613" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L613" t="n">
+        <v>9</v>
+      </c>
+      <c r="M613" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N613" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O613" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P613" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R613" t="n">
+        <v>-6.825499999999974</v>
+      </c>
+      <c r="S613" t="inlineStr">
+        <is>
+          <t>FA1AF846D249D7C000</t>
+        </is>
+      </c>
+      <c r="T613" t="inlineStr">
+        <is>
+          <t>FA1AF8474C52CAD000</t>
+        </is>
+      </c>
+      <c r="U613" t="inlineStr"/>
+      <c r="V613" t="inlineStr"/>
+      <c r="W613" t="inlineStr">
+        <is>
+          <t>FA1AF8474E1E8AD000</t>
+        </is>
+      </c>
+      <c r="X613" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y613" t="inlineStr">
+        <is>
+          <t>mv :-2.31, mv_2m:-0.10,mv_5m : 0.03, mv_30m : -1.83, mv_60m: -3.24, md_60m: -19c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z613" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA613" t="inlineStr">
+        <is>
+          <t>FA1AF8474CF6CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="1" t="n">
+        <v>612</v>
+      </c>
+      <c r="B614" t="n">
+        <v>4413</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="D614" s="2" t="n">
+        <v>45849.1993509838</v>
+      </c>
+      <c r="E614" t="n">
+        <v>152.9347</v>
+      </c>
+      <c r="F614" t="n">
+        <v>1988.1511</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H614" s="2" t="n">
+        <v>45849.28267967593</v>
+      </c>
+      <c r="I614" t="n">
+        <v>152.7</v>
+      </c>
+      <c r="J614" t="n">
+        <v>1985.1</v>
+      </c>
+      <c r="K614" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L614" t="n">
+        <v>13</v>
+      </c>
+      <c r="M614" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N614" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O614" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P614" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R614" t="n">
+        <v>-5.121100000000133</v>
+      </c>
+      <c r="S614" t="inlineStr">
+        <is>
+          <t>FA1AF8472731D7C000</t>
+        </is>
+      </c>
+      <c r="T614" t="inlineStr">
+        <is>
+          <t>FA1AF847DF0D0AD000</t>
+        </is>
+      </c>
+      <c r="U614" t="inlineStr"/>
+      <c r="V614" t="inlineStr"/>
+      <c r="W614" t="inlineStr">
+        <is>
+          <t>FA1AF847E0C797C000</t>
+        </is>
+      </c>
+      <c r="X614" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y614" t="inlineStr">
+        <is>
+          <t>mv :-3.92, mv_2m:-1.70,mv_5m : -2.71, mv_30m : -5.31, mv_60m: -7.71, md_60m: -68c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z614" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA614" t="inlineStr">
+        <is>
+          <t>FA1AF847DFA017C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="1" t="n">
+        <v>613</v>
+      </c>
+      <c r="B615" t="n">
+        <v>4414</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>CMG</t>
+        </is>
+      </c>
+      <c r="D615" s="2" t="n">
+        <v>45849.21469648148</v>
+      </c>
+      <c r="E615" t="n">
+        <v>56.6888</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1927.4192</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H615" s="2" t="n">
+        <v>45849.27384170139</v>
+      </c>
+      <c r="I615" t="n">
+        <v>56.5502</v>
+      </c>
+      <c r="J615" t="n">
+        <v>1922.7068</v>
+      </c>
+      <c r="K615" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L615" t="n">
+        <v>34</v>
+      </c>
+      <c r="M615" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N615" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O615" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P615" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R615" t="n">
+        <v>-6.902400000000116</v>
+      </c>
+      <c r="S615" t="inlineStr">
+        <is>
+          <t>FA1AF84C35F48AD000</t>
+        </is>
+      </c>
+      <c r="T615" t="inlineStr">
+        <is>
+          <t>FA1AF84CCD4117C000</t>
+        </is>
+      </c>
+      <c r="U615" t="inlineStr"/>
+      <c r="V615" t="inlineStr"/>
+      <c r="W615" t="inlineStr">
+        <is>
+          <t>FA1AF84CCEF497C000</t>
+        </is>
+      </c>
+      <c r="X615" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y615" t="inlineStr">
+        <is>
+          <t>mv :-4.85, mv_2m:0.09,mv_5m : 0.35, mv_30m : 1.06, mv_60m: 0.93, md_60m: 0c1: 1, c2: 0</t>
+        </is>
+      </c>
+      <c r="Z615" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA615" t="inlineStr">
+        <is>
+          <t>FA1AF84CCDD597C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="1" t="n">
+        <v>614</v>
+      </c>
+      <c r="B616" t="n">
+        <v>4415</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="D616" s="2" t="n">
+        <v>45850.04046799769</v>
+      </c>
+      <c r="E616" t="n">
+        <v>146.5387</v>
+      </c>
+      <c r="F616" t="n">
+        <v>1905.0031</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H616" s="2" t="n">
+        <v>45850.11751971065</v>
+      </c>
+      <c r="I616" t="n">
+        <v>146.1705</v>
+      </c>
+      <c r="J616" t="n">
+        <v>1900.2165</v>
+      </c>
+      <c r="K616" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L616" t="n">
+        <v>13</v>
+      </c>
+      <c r="M616" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N616" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O616" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P616" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R616" t="n">
+        <v>-6.856599999999908</v>
+      </c>
+      <c r="S616" t="inlineStr">
+        <is>
+          <t>FA1AF95C606A97C000</t>
+        </is>
+      </c>
+      <c r="T616" t="inlineStr">
+        <is>
+          <t>FA1AF95D0AA18AD000</t>
+        </is>
+      </c>
+      <c r="U616" t="inlineStr"/>
+      <c r="V616" t="inlineStr"/>
+      <c r="W616" t="inlineStr">
+        <is>
+          <t>FA1AF95D0CA08AD000</t>
+        </is>
+      </c>
+      <c r="X616" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y616" t="inlineStr">
+        <is>
+          <t>mv :-0.14, mv_2m:0.91,mv_5m : 0.68, mv_30m : -1.41, mv_60m: 3.57, md_60m: 0c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z616" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA616" t="inlineStr">
+        <is>
+          <t>FA1AF95D0B34D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="1" t="n">
+        <v>615</v>
+      </c>
+      <c r="B617" t="n">
+        <v>4416</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="D617" s="2" t="n">
+        <v>45850.04144208333</v>
+      </c>
+      <c r="E617" t="n">
+        <v>58.3998</v>
+      </c>
+      <c r="F617" t="n">
+        <v>1985.5932</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H617" s="2" t="n">
+        <v>45850.28306538195</v>
+      </c>
+      <c r="I617" t="n">
+        <v>58.1409</v>
+      </c>
+      <c r="J617" t="n">
+        <v>1976.7906</v>
+      </c>
+      <c r="K617" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L617" t="n">
+        <v>34</v>
+      </c>
+      <c r="M617" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N617" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O617" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P617" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R617" t="n">
+        <v>-10.99259999999998</v>
+      </c>
+      <c r="S617" t="inlineStr">
+        <is>
+          <t>FA1AF95CB2994AD000</t>
+        </is>
+      </c>
+      <c r="T617" t="inlineStr">
+        <is>
+          <t>FA1AF95DA376CAD000</t>
+        </is>
+      </c>
+      <c r="U617" t="inlineStr"/>
+      <c r="V617" t="inlineStr"/>
+      <c r="W617" t="inlineStr">
+        <is>
+          <t>FA1AF95DA5344AD000</t>
+        </is>
+      </c>
+      <c r="X617" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y617" t="inlineStr">
+        <is>
+          <t>mv :-0.01, mv_2m:1.05,mv_5m : 5.15, mv_30m : -2.42, mv_60m: 11.38, md_60m: -5c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z617" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA617" t="inlineStr">
+        <is>
+          <t>FA1AF95DA40957C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="1" t="n">
+        <v>616</v>
+      </c>
+      <c r="B618" t="n">
+        <v>4417</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
+      </c>
+      <c r="D618" s="2" t="n">
+        <v>45850.05836446759</v>
+      </c>
+      <c r="E618" t="n">
+        <v>267.26</v>
+      </c>
+      <c r="F618" t="n">
+        <v>1336.3</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H618" s="2" t="n">
+        <v>45850.21847697916</v>
+      </c>
+      <c r="I618" t="n">
+        <v>265.974</v>
+      </c>
+      <c r="J618" t="n">
+        <v>1329.87</v>
+      </c>
+      <c r="K618" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L618" t="n">
+        <v>5</v>
+      </c>
+      <c r="M618" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N618" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O618" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P618" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R618" t="n">
+        <v>-8.460000000000063</v>
+      </c>
+      <c r="S618" t="inlineStr">
+        <is>
+          <t>FA1AF962466E57C000</t>
+        </is>
+      </c>
+      <c r="T618" t="inlineStr">
+        <is>
+          <t>FA1AF9628316D7C000</t>
+        </is>
+      </c>
+      <c r="U618" t="inlineStr"/>
+      <c r="V618" t="inlineStr"/>
+      <c r="W618" t="inlineStr">
+        <is>
+          <t>FA1AF96284D4CAD000</t>
+        </is>
+      </c>
+      <c r="X618" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y618" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:1.18,mv_5m : 4.42, mv_30m : -1.07, mv_60m: -7.87, md_60m: -55c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z618" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA618" t="inlineStr">
+        <is>
+          <t>FA1AF96283AA57C000</t>
         </is>
       </c>
     </row>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA618"/>
+  <dimension ref="A1:AA669"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59342,6 +59342,4951 @@
         </is>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" s="1" t="n">
+        <v>617</v>
+      </c>
+      <c r="B619" t="n">
+        <v>4418</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="D619" s="2" t="n">
+        <v>45852.9866745949</v>
+      </c>
+      <c r="E619" t="n">
+        <v>74.70999999999999</v>
+      </c>
+      <c r="F619" t="n">
+        <v>1942.46</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H619" s="2" t="n">
+        <v>45853.10417108797</v>
+      </c>
+      <c r="I619" t="n">
+        <v>74.465</v>
+      </c>
+      <c r="J619" t="n">
+        <v>1936.09</v>
+      </c>
+      <c r="K619" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L619" t="n">
+        <v>26</v>
+      </c>
+      <c r="M619" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N619" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O619" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P619" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R619" t="n">
+        <v>-8.519999999999891</v>
+      </c>
+      <c r="S619" t="inlineStr">
+        <is>
+          <t>FA1AFD276AA04AD000</t>
+        </is>
+      </c>
+      <c r="T619" t="inlineStr">
+        <is>
+          <t>FA1AFD27A03D0AD000</t>
+        </is>
+      </c>
+      <c r="U619" t="inlineStr"/>
+      <c r="V619" t="inlineStr"/>
+      <c r="W619" t="inlineStr">
+        <is>
+          <t>FA1AFD27A234D7C000</t>
+        </is>
+      </c>
+      <c r="X619" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y619" t="inlineStr">
+        <is>
+          <t>mv :0.43, mv_2m:1.43,mv_5m : 2.78, mv_30m : -1.87, mv_60m: -0.09, md_60m: -8c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z619" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA619" t="inlineStr">
+        <is>
+          <t>FA1AFD27A0E68AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="1" t="n">
+        <v>618</v>
+      </c>
+      <c r="B620" t="n">
+        <v>4419</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D620" s="2" t="n">
+        <v>45852.9891278125</v>
+      </c>
+      <c r="E620" t="n">
+        <v>69.88500000000001</v>
+      </c>
+      <c r="F620" t="n">
+        <v>1956.78</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H620" s="2" t="n">
+        <v>45853.04053476852</v>
+      </c>
+      <c r="I620" t="n">
+        <v>69.85120000000001</v>
+      </c>
+      <c r="J620" t="n">
+        <v>1955.8336</v>
+      </c>
+      <c r="K620" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L620" t="n">
+        <v>28</v>
+      </c>
+      <c r="M620" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N620" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O620" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P620" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R620" t="n">
+        <v>-3.096399999999813</v>
+      </c>
+      <c r="S620" t="inlineStr">
+        <is>
+          <t>FA1AFD28399F0AD000</t>
+        </is>
+      </c>
+      <c r="T620" t="inlineStr">
+        <is>
+          <t>FA1AFD287D7897C000</t>
+        </is>
+      </c>
+      <c r="U620" t="inlineStr"/>
+      <c r="V620" t="inlineStr"/>
+      <c r="W620" t="inlineStr">
+        <is>
+          <t>FA1AFD287F6717C000</t>
+        </is>
+      </c>
+      <c r="X620" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y620" t="inlineStr">
+        <is>
+          <t>mv :-0.86, mv_2m:0.14,mv_5m : -0.14, mv_30m : 0.11, mv_60m: 1.06, md_60m: -2c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z620" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA620" t="inlineStr">
+        <is>
+          <t>FA1AFD287E19CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="1" t="n">
+        <v>619</v>
+      </c>
+      <c r="B621" t="n">
+        <v>4420</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>MDLZ</t>
+        </is>
+      </c>
+      <c r="D621" s="2" t="n">
+        <v>45852.99014</v>
+      </c>
+      <c r="E621" t="n">
+        <v>67.18000000000001</v>
+      </c>
+      <c r="F621" t="n">
+        <v>1545.14</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H621" s="2" t="n">
+        <v>45853.03804532407</v>
+      </c>
+      <c r="I621" t="n">
+        <v>67.2714</v>
+      </c>
+      <c r="J621" t="n">
+        <v>1547.2422</v>
+      </c>
+      <c r="K621" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L621" t="n">
+        <v>23</v>
+      </c>
+      <c r="M621" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N621" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O621" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P621" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q621" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R621" t="n">
+        <v>-0.02780000000018856</v>
+      </c>
+      <c r="S621" t="inlineStr">
+        <is>
+          <t>FA1AFD288F03CAD000</t>
+        </is>
+      </c>
+      <c r="T621" t="inlineStr">
+        <is>
+          <t>FA1AFD28C70997C000</t>
+        </is>
+      </c>
+      <c r="U621" t="inlineStr"/>
+      <c r="V621" t="inlineStr"/>
+      <c r="W621" t="inlineStr">
+        <is>
+          <t>FA1AFD28C906CAD000</t>
+        </is>
+      </c>
+      <c r="X621" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y621" t="inlineStr">
+        <is>
+          <t>mv :-0.63, mv_2m:0.37,mv_5m : 0.99, mv_30m : 0.82, mv_60m: 2.73, md_60m: -3c1: 0, c2: 1, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z621" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA621" t="inlineStr">
+        <is>
+          <t>FA1AFD28C7A2CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="1" t="n">
+        <v>620</v>
+      </c>
+      <c r="B622" t="n">
+        <v>4421</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="D622" s="2" t="n">
+        <v>45853.01174078703</v>
+      </c>
+      <c r="E622" t="n">
+        <v>27.509</v>
+      </c>
+      <c r="F622" t="n">
+        <v>1980.648</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H622" s="2" t="n">
+        <v>45854.07437792824</v>
+      </c>
+      <c r="I622" t="n">
+        <v>27.5101</v>
+      </c>
+      <c r="J622" t="n">
+        <v>1980.7272</v>
+      </c>
+      <c r="K622" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L622" t="n">
+        <v>72</v>
+      </c>
+      <c r="M622" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N622" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O622" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P622" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R622" t="n">
+        <v>-2.350799999999872</v>
+      </c>
+      <c r="S622" t="inlineStr">
+        <is>
+          <t>FA1AFD2FAD954AD000</t>
+        </is>
+      </c>
+      <c r="T622" t="inlineStr">
+        <is>
+          <t>FA1AFD301DAF0AD000</t>
+        </is>
+      </c>
+      <c r="U622" t="inlineStr"/>
+      <c r="V622" t="inlineStr"/>
+      <c r="W622" t="inlineStr">
+        <is>
+          <t>FA1AFD301FA197C000</t>
+        </is>
+      </c>
+      <c r="X622" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y622" t="inlineStr">
+        <is>
+          <t>mv :-0.56, mv_2m:0.31,mv_5m : 0.30, mv_30m : 2.68, mv_60m: 4.46, md_60m: 2c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z622" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA622" t="inlineStr">
+        <is>
+          <t>FA1AFD301E498AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="1" t="n">
+        <v>621</v>
+      </c>
+      <c r="B623" t="n">
+        <v>4422</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>PRGO</t>
+        </is>
+      </c>
+      <c r="D623" s="2" t="n">
+        <v>45853.0143778125</v>
+      </c>
+      <c r="E623" t="n">
+        <v>27.5694</v>
+      </c>
+      <c r="F623" t="n">
+        <v>1516.317</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H623" s="2" t="n">
+        <v>45853.09243537037</v>
+      </c>
+      <c r="I623" t="n">
+        <v>27</v>
+      </c>
+      <c r="J623" t="n">
+        <v>1485</v>
+      </c>
+      <c r="K623" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="L623" t="n">
+        <v>55</v>
+      </c>
+      <c r="M623" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N623" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O623" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P623" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q623" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="R623" t="n">
+        <v>-33.657</v>
+      </c>
+      <c r="S623" t="inlineStr">
+        <is>
+          <t>FA1AFD308C14CAD000</t>
+        </is>
+      </c>
+      <c r="T623" t="inlineStr">
+        <is>
+          <t>FA1AFD30F7430AD000</t>
+        </is>
+      </c>
+      <c r="U623" t="inlineStr"/>
+      <c r="V623" t="inlineStr"/>
+      <c r="W623" t="inlineStr">
+        <is>
+          <t>FA1AFD30F910D7C000</t>
+        </is>
+      </c>
+      <c r="X623" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y623" t="inlineStr">
+        <is>
+          <t>mv :-1.92, mv_2m:-0.92,mv_5m : -0.26, mv_30m : 0.24, mv_60m: 4.81, md_60m: 2c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z623" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA623" t="inlineStr">
+        <is>
+          <t>FA1AFD30F7E517C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="1" t="n">
+        <v>622</v>
+      </c>
+      <c r="B624" t="n">
+        <v>4423</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D624" s="2" t="n">
+        <v>45853.05748112268</v>
+      </c>
+      <c r="E624" t="n">
+        <v>58.1797</v>
+      </c>
+      <c r="F624" t="n">
+        <v>1454.4925</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H624" s="2" t="n">
+        <v>45854.02510409722</v>
+      </c>
+      <c r="I624" t="n">
+        <v>58.0605</v>
+      </c>
+      <c r="J624" t="n">
+        <v>1451.5125</v>
+      </c>
+      <c r="K624" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L624" t="n">
+        <v>25</v>
+      </c>
+      <c r="M624" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N624" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O624" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P624" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q624" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R624" t="n">
+        <v>-5.130000000000019</v>
+      </c>
+      <c r="S624" t="inlineStr">
+        <is>
+          <t>FA1AFD3EC0E917C000</t>
+        </is>
+      </c>
+      <c r="T624" t="inlineStr">
+        <is>
+          <t>FA1AFD3F23DB0AD000</t>
+        </is>
+      </c>
+      <c r="U624" t="inlineStr"/>
+      <c r="V624" t="inlineStr"/>
+      <c r="W624" t="inlineStr">
+        <is>
+          <t>FA1AFD3F25D997C000</t>
+        </is>
+      </c>
+      <c r="X624" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y624" t="inlineStr">
+        <is>
+          <t>mv :-1.15, mv_2m:-0.13,mv_5m : 0.13, mv_30m : -0.07, mv_60m: -3.25, md_60m: -11c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z624" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA624" t="inlineStr">
+        <is>
+          <t>FA1AFD3F247917C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="1" t="n">
+        <v>623</v>
+      </c>
+      <c r="B625" t="n">
+        <v>4424</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="D625" s="2" t="n">
+        <v>45853.07301150463</v>
+      </c>
+      <c r="E625" t="n">
+        <v>183.65</v>
+      </c>
+      <c r="F625" t="n">
+        <v>1836.5</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H625" s="2" t="n">
+        <v>45854.02095414352</v>
+      </c>
+      <c r="I625" t="n">
+        <v>182.82</v>
+      </c>
+      <c r="J625" t="n">
+        <v>1828.2</v>
+      </c>
+      <c r="K625" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L625" t="n">
+        <v>10</v>
+      </c>
+      <c r="M625" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N625" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O625" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P625" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q625" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R625" t="n">
+        <v>-10.35000000000018</v>
+      </c>
+      <c r="S625" t="inlineStr">
+        <is>
+          <t>FA1AFD43DF514AD000</t>
+        </is>
+      </c>
+      <c r="T625" t="inlineStr">
+        <is>
+          <t>FA1AFD44425F4AD000</t>
+        </is>
+      </c>
+      <c r="U625" t="inlineStr"/>
+      <c r="V625" t="inlineStr"/>
+      <c r="W625" t="inlineStr">
+        <is>
+          <t>FA1AFD44444857C000</t>
+        </is>
+      </c>
+      <c r="X625" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y625" t="inlineStr">
+        <is>
+          <t>mv :-1.05, mv_2m:-0.05,mv_5m : 0.58, mv_30m : 1.88, mv_60m: 1.19, md_60m: -1c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z625" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA625" t="inlineStr">
+        <is>
+          <t>FA1AFD4442F68AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="1" t="n">
+        <v>624</v>
+      </c>
+      <c r="B626" t="n">
+        <v>4425</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="D626" s="2" t="n">
+        <v>45854.0284921875</v>
+      </c>
+      <c r="E626" t="n">
+        <v>1264.87</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1264.87</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H626" s="2" t="n">
+        <v>45854.10300390046</v>
+      </c>
+      <c r="I626" t="n">
+        <v>1258.1</v>
+      </c>
+      <c r="J626" t="n">
+        <v>1258.1</v>
+      </c>
+      <c r="K626" t="n">
+        <v>1</v>
+      </c>
+      <c r="L626" t="n">
+        <v>1</v>
+      </c>
+      <c r="M626" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N626" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O626" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P626" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q626" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R626" t="n">
+        <v>-8.759999999999982</v>
+      </c>
+      <c r="S626" t="inlineStr">
+        <is>
+          <t>FA1AFE7ECA070AD000</t>
+        </is>
+      </c>
+      <c r="T626" t="inlineStr">
+        <is>
+          <t>FA1AFE7F084F97C000</t>
+        </is>
+      </c>
+      <c r="U626" t="inlineStr"/>
+      <c r="V626" t="inlineStr"/>
+      <c r="W626" t="inlineStr">
+        <is>
+          <t>FA1AFE7F0A44CAD000</t>
+        </is>
+      </c>
+      <c r="X626" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y626" t="inlineStr">
+        <is>
+          <t>mv :-1.11, mv_2m:0.02,mv_5m : 0.15, mv_30m : -6.19, mv_60m: -6.45, md_60m: -3c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z626" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA626" t="inlineStr">
+        <is>
+          <t>FA1AFE7F08FD97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="1" t="n">
+        <v>625</v>
+      </c>
+      <c r="B627" t="n">
+        <v>4426</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="D627" s="2" t="n">
+        <v>45854.08558032408</v>
+      </c>
+      <c r="E627" t="n">
+        <v>104.43</v>
+      </c>
+      <c r="F627" t="n">
+        <v>1984.17</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H627" s="2" t="n">
+        <v>45854.16230094907</v>
+      </c>
+      <c r="I627" t="n">
+        <v>104.4504</v>
+      </c>
+      <c r="J627" t="n">
+        <v>1984.5576</v>
+      </c>
+      <c r="K627" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L627" t="n">
+        <v>19</v>
+      </c>
+      <c r="M627" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N627" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O627" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P627" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q627" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R627" t="n">
+        <v>-1.76339999999998</v>
+      </c>
+      <c r="S627" t="inlineStr">
+        <is>
+          <t>FA1AFE919AD20AD000</t>
+        </is>
+      </c>
+      <c r="T627" t="inlineStr">
+        <is>
+          <t>FA1AFE91D20F17C000</t>
+        </is>
+      </c>
+      <c r="U627" t="inlineStr"/>
+      <c r="V627" t="inlineStr"/>
+      <c r="W627" t="inlineStr">
+        <is>
+          <t>FA1AFE91D3F40AD000</t>
+        </is>
+      </c>
+      <c r="X627" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y627" t="inlineStr">
+        <is>
+          <t>mv :-1.06, mv_2m:-0.06,mv_5m : 0.62, mv_30m : -0.06, mv_60m: -0.39, md_60m: -3c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z627" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA627" t="inlineStr">
+        <is>
+          <t>FA1AFE91D2A78AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="1" t="n">
+        <v>626</v>
+      </c>
+      <c r="B628" t="n">
+        <v>4427</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D628" s="2" t="n">
+        <v>45854.09372199074</v>
+      </c>
+      <c r="E628" t="n">
+        <v>281.3557</v>
+      </c>
+      <c r="F628" t="n">
+        <v>1969.4899</v>
+      </c>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" s="2" t="n">
+        <v>45854.18733534723</v>
+      </c>
+      <c r="I628" t="n">
+        <v>280.34</v>
+      </c>
+      <c r="J628" t="n">
+        <v>1962.38</v>
+      </c>
+      <c r="K628" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L628" t="n">
+        <v>7</v>
+      </c>
+      <c r="M628" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N628" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O628" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P628" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q628" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R628" t="inlineStr"/>
+      <c r="S628" t="inlineStr">
+        <is>
+          <t>FA1AFE9449C497C000</t>
+        </is>
+      </c>
+      <c r="T628" t="inlineStr">
+        <is>
+          <t>FA1AFE947A968AD000</t>
+        </is>
+      </c>
+      <c r="U628" t="inlineStr"/>
+      <c r="V628" t="inlineStr"/>
+      <c r="W628" t="inlineStr">
+        <is>
+          <t>FA1AFE947C840AD000</t>
+        </is>
+      </c>
+      <c r="X628" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y628" t="inlineStr">
+        <is>
+          <t>mv :-0.66, mv_2m:0.34,mv_5m : -0.29, mv_30m : -3.42, mv_60m: -1.42, md_60m: -8c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z628" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA628" t="inlineStr">
+        <is>
+          <t>FA1AFE947B3D17C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="1" t="n">
+        <v>627</v>
+      </c>
+      <c r="B629" t="n">
+        <v>4428</v>
+      </c>
+      <c r="C629" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="D629" s="2" t="n">
+        <v>45854.09978237269</v>
+      </c>
+      <c r="E629" t="n">
+        <v>962.59</v>
+      </c>
+      <c r="F629" t="n">
+        <v>962.59</v>
+      </c>
+      <c r="G629" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H629" s="2" t="n">
+        <v>45854.16210219907</v>
+      </c>
+      <c r="I629" t="n">
+        <v>963.8200000000001</v>
+      </c>
+      <c r="J629" t="n">
+        <v>963.8200000000001</v>
+      </c>
+      <c r="K629" t="n">
+        <v>1</v>
+      </c>
+      <c r="L629" t="n">
+        <v>1</v>
+      </c>
+      <c r="M629" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N629" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O629" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P629" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q629" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R629" t="n">
+        <v>-0.7599999999999818</v>
+      </c>
+      <c r="S629" t="inlineStr">
+        <is>
+          <t>FA1AFE9649198AD000</t>
+        </is>
+      </c>
+      <c r="T629" t="inlineStr">
+        <is>
+          <t>FA1AFE96868617C000</t>
+        </is>
+      </c>
+      <c r="U629" t="inlineStr"/>
+      <c r="V629" t="inlineStr"/>
+      <c r="W629" t="inlineStr">
+        <is>
+          <t>FA1AFE968865D7C000</t>
+        </is>
+      </c>
+      <c r="X629" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y629" t="inlineStr">
+        <is>
+          <t>mv :-0.88, mv_2m:-0.12,mv_5m : -0.01, mv_30m : -1.84, mv_60m: -0.73, md_60m: -3c1: 0, c2: 1, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z629" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA629" t="inlineStr">
+        <is>
+          <t>FA1AFE96872B8AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="1" t="n">
+        <v>628</v>
+      </c>
+      <c r="B630" t="n">
+        <v>4429</v>
+      </c>
+      <c r="C630" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D630" s="2" t="n">
+        <v>45854.13405729167</v>
+      </c>
+      <c r="E630" t="n">
+        <v>95.4288</v>
+      </c>
+      <c r="F630" t="n">
+        <v>1908.576</v>
+      </c>
+      <c r="G630" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H630" s="2" t="n">
+        <v>45854.22329877315</v>
+      </c>
+      <c r="I630" t="n">
+        <v>95.4803</v>
+      </c>
+      <c r="J630" t="n">
+        <v>1909.606</v>
+      </c>
+      <c r="K630" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L630" t="n">
+        <v>20</v>
+      </c>
+      <c r="M630" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N630" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O630" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P630" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q630" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R630" t="n">
+        <v>-1.080000000000027</v>
+      </c>
+      <c r="S630" t="inlineStr">
+        <is>
+          <t>FA1AFEA1951257C000</t>
+        </is>
+      </c>
+      <c r="T630" t="inlineStr">
+        <is>
+          <t>FA1AFEA1C2E7CAD000</t>
+        </is>
+      </c>
+      <c r="U630" t="inlineStr"/>
+      <c r="V630" t="inlineStr"/>
+      <c r="W630" t="inlineStr">
+        <is>
+          <t>FA1AFEA1C4CB0AD000</t>
+        </is>
+      </c>
+      <c r="X630" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y630" t="inlineStr">
+        <is>
+          <t>mv :-1.10, mv_2m:-0.10,mv_5m : 0.34, mv_30m : -0.70, mv_60m: -0.80, md_60m: -11c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z630" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA630" t="inlineStr">
+        <is>
+          <t>FA1AFEA1C37D4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="1" t="n">
+        <v>629</v>
+      </c>
+      <c r="B631" t="n">
+        <v>4430</v>
+      </c>
+      <c r="C631" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="D631" s="2" t="n">
+        <v>45854.13925325232</v>
+      </c>
+      <c r="E631" t="n">
+        <v>104.57</v>
+      </c>
+      <c r="F631" t="n">
+        <v>1463.98</v>
+      </c>
+      <c r="G631" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H631" s="2" t="n">
+        <v>45855.01981826389</v>
+      </c>
+      <c r="I631" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="J631" t="n">
+        <v>1465.8</v>
+      </c>
+      <c r="K631" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L631" t="n">
+        <v>14</v>
+      </c>
+      <c r="M631" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N631" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O631" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P631" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q631" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R631" t="n">
+        <v>-0.2500000000000637</v>
+      </c>
+      <c r="S631" t="inlineStr">
+        <is>
+          <t>FA1AFEA34B7217C000</t>
+        </is>
+      </c>
+      <c r="T631" t="inlineStr">
+        <is>
+          <t>FA1AFEA3C2F697C000</t>
+        </is>
+      </c>
+      <c r="U631" t="inlineStr"/>
+      <c r="V631" t="inlineStr"/>
+      <c r="W631" t="inlineStr">
+        <is>
+          <t>FA1AFEA3C4E60AD000</t>
+        </is>
+      </c>
+      <c r="X631" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y631" t="inlineStr">
+        <is>
+          <t>mv :-0.96, mv_2m:0.04,mv_5m : -0.13, mv_30m : -0.49, mv_60m: -1.36, md_60m: -4c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z631" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA631" t="inlineStr">
+        <is>
+          <t>FA1AFEA3C38E17C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="1" t="n">
+        <v>630</v>
+      </c>
+      <c r="B632" t="n">
+        <v>4431</v>
+      </c>
+      <c r="C632" t="inlineStr">
+        <is>
+          <t>ROP</t>
+        </is>
+      </c>
+      <c r="D632" s="2" t="n">
+        <v>45854.14890260417</v>
+      </c>
+      <c r="E632" t="n">
+        <v>547.36</v>
+      </c>
+      <c r="F632" t="n">
+        <v>1642.08</v>
+      </c>
+      <c r="G632" t="n">
+        <v>1</v>
+      </c>
+      <c r="H632" s="2" t="n">
+        <v>45854.26585119213</v>
+      </c>
+      <c r="I632" t="n">
+        <v>546.79</v>
+      </c>
+      <c r="J632" t="n">
+        <v>1640.37</v>
+      </c>
+      <c r="K632" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L632" t="n">
+        <v>3</v>
+      </c>
+      <c r="M632" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N632" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O632" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P632" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q632" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R632" t="n">
+        <v>-3.720000000000036</v>
+      </c>
+      <c r="S632" t="inlineStr">
+        <is>
+          <t>FA1AFEA6799DCAD000</t>
+        </is>
+      </c>
+      <c r="T632" t="inlineStr">
+        <is>
+          <t>FA1AFEA6AA9F97C000</t>
+        </is>
+      </c>
+      <c r="U632" t="inlineStr"/>
+      <c r="V632" t="inlineStr"/>
+      <c r="W632" t="inlineStr">
+        <is>
+          <t>FA1AFEA6AC5417C000</t>
+        </is>
+      </c>
+      <c r="X632" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y632" t="inlineStr">
+        <is>
+          <t>mv :-1.14, mv_2m:-0.14,mv_5m : -0.52, mv_30m : 0.08, mv_60m: 0.62, md_60m: -4c1: 0, c2: 1, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z632" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA632" t="inlineStr">
+        <is>
+          <t>FA1AFEA6AB37CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="1" t="n">
+        <v>631</v>
+      </c>
+      <c r="B633" t="n">
+        <v>4432</v>
+      </c>
+      <c r="C633" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="D633" s="2" t="n">
+        <v>45854.190278125</v>
+      </c>
+      <c r="E633" t="n">
+        <v>291.16</v>
+      </c>
+      <c r="F633" t="n">
+        <v>1746.96</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H633" s="2" t="n">
+        <v>45854.26846929398</v>
+      </c>
+      <c r="I633" t="n">
+        <v>289.64</v>
+      </c>
+      <c r="J633" t="n">
+        <v>1737.84</v>
+      </c>
+      <c r="K633" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L633" t="n">
+        <v>6</v>
+      </c>
+      <c r="M633" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N633" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O633" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P633" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q633" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R633" t="n">
+        <v>-11.15000000000012</v>
+      </c>
+      <c r="S633" t="inlineStr">
+        <is>
+          <t>FA1AFEB41CA70AD000</t>
+        </is>
+      </c>
+      <c r="T633" t="inlineStr">
+        <is>
+          <t>FA1AFEB45BEBCAD000</t>
+        </is>
+      </c>
+      <c r="U633" t="inlineStr"/>
+      <c r="V633" t="inlineStr"/>
+      <c r="W633" t="inlineStr">
+        <is>
+          <t>FA1AFEB45DD9CAD000</t>
+        </is>
+      </c>
+      <c r="X633" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y633" t="inlineStr">
+        <is>
+          <t>mv :-0.94, mv_2m:0.06,mv_5m : 0.07, mv_30m : -0.16, mv_60m: 0.09, md_60m: -3c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z633" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA633" t="inlineStr">
+        <is>
+          <t>FA1AFEB45C90CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="1" t="n">
+        <v>632</v>
+      </c>
+      <c r="B634" t="n">
+        <v>4433</v>
+      </c>
+      <c r="C634" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="D634" s="2" t="n">
+        <v>45854.2378216088</v>
+      </c>
+      <c r="E634" t="n">
+        <v>95.5699</v>
+      </c>
+      <c r="F634" t="n">
+        <v>1911.398</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H634" s="2" t="n">
+        <v>45855.03710311343</v>
+      </c>
+      <c r="I634" t="n">
+        <v>95.15000000000001</v>
+      </c>
+      <c r="J634" t="n">
+        <v>1903</v>
+      </c>
+      <c r="K634" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L634" t="n">
+        <v>20</v>
+      </c>
+      <c r="M634" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N634" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O634" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P634" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R634" t="n">
+        <v>-10.50799999999991</v>
+      </c>
+      <c r="S634" t="inlineStr">
+        <is>
+          <t>FA1AFEC3C81E8AD000</t>
+        </is>
+      </c>
+      <c r="T634" t="inlineStr">
+        <is>
+          <t>FA1AFEC401940AD000</t>
+        </is>
+      </c>
+      <c r="U634" t="inlineStr"/>
+      <c r="V634" t="inlineStr"/>
+      <c r="W634" t="inlineStr">
+        <is>
+          <t>FA1AFEC4038717C000</t>
+        </is>
+      </c>
+      <c r="X634" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y634" t="inlineStr">
+        <is>
+          <t>mv :-0.73, mv_2m:0.27,mv_5m : 0.63, mv_30m : -1.16, mv_60m: -0.74, md_60m: -5c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z634" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA634" t="inlineStr">
+        <is>
+          <t>FA1AFEC4022AD7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="1" t="n">
+        <v>633</v>
+      </c>
+      <c r="B635" t="n">
+        <v>4434</v>
+      </c>
+      <c r="C635" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D635" s="2" t="n">
+        <v>45855.06646863426</v>
+      </c>
+      <c r="E635" t="n">
+        <v>164.8382</v>
+      </c>
+      <c r="F635" t="n">
+        <v>1978.0584</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H635" s="2" t="n">
+        <v>45855.16670684027</v>
+      </c>
+      <c r="I635" t="n">
+        <v>164.9605</v>
+      </c>
+      <c r="J635" t="n">
+        <v>1979.526</v>
+      </c>
+      <c r="K635" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L635" t="n">
+        <v>12</v>
+      </c>
+      <c r="M635" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N635" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O635" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P635" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q635" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R635" t="n">
+        <v>-0.6024000000000524</v>
+      </c>
+      <c r="S635" t="inlineStr">
+        <is>
+          <t>FA1AFFD4E53C57C000</t>
+        </is>
+      </c>
+      <c r="T635" t="inlineStr">
+        <is>
+          <t>FA1AFFD551FECAD000</t>
+        </is>
+      </c>
+      <c r="U635" t="inlineStr"/>
+      <c r="V635" t="inlineStr"/>
+      <c r="W635" t="inlineStr">
+        <is>
+          <t>FA1AFFD5540157C000</t>
+        </is>
+      </c>
+      <c r="X635" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y635" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:0.09,mv_5m : -1.18, mv_30m : -7.81, mv_60m: -5.04, md_60m: -17c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z635" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA635" t="inlineStr">
+        <is>
+          <t>FA1AFFD552964AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="1" t="n">
+        <v>634</v>
+      </c>
+      <c r="B636" t="n">
+        <v>4435</v>
+      </c>
+      <c r="C636" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="D636" s="2" t="n">
+        <v>45855.16703614583</v>
+      </c>
+      <c r="E636" t="n">
+        <v>164.565</v>
+      </c>
+      <c r="F636" t="n">
+        <v>1974.78</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H636" s="2" t="n">
+        <v>45855.22225774306</v>
+      </c>
+      <c r="I636" t="n">
+        <v>164.0544</v>
+      </c>
+      <c r="J636" t="n">
+        <v>1968.6528</v>
+      </c>
+      <c r="K636" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L636" t="n">
+        <v>12</v>
+      </c>
+      <c r="M636" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N636" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O636" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P636" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q636" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R636" t="n">
+        <v>-8.19720000000013</v>
+      </c>
+      <c r="S636" t="inlineStr">
+        <is>
+          <t>FA1AFFF60AA8D7C000</t>
+        </is>
+      </c>
+      <c r="T636" t="inlineStr">
+        <is>
+          <t>FA1AFFF683BECAD000</t>
+        </is>
+      </c>
+      <c r="U636" t="inlineStr"/>
+      <c r="V636" t="inlineStr"/>
+      <c r="W636" t="inlineStr">
+        <is>
+          <t>FA1AFFF685AA4AD000</t>
+        </is>
+      </c>
+      <c r="X636" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y636" t="inlineStr">
+        <is>
+          <t>mv :-0.75, mv_2m:0.25,mv_5m : 0.19, mv_30m : -0.23, mv_60m: 0.66, md_60m: -12c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z636" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA636" t="inlineStr">
+        <is>
+          <t>FA1AFFF684574AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="1" t="n">
+        <v>635</v>
+      </c>
+      <c r="B637" t="n">
+        <v>4436</v>
+      </c>
+      <c r="C637" t="inlineStr">
+        <is>
+          <t>ECL</t>
+        </is>
+      </c>
+      <c r="D637" s="2" t="n">
+        <v>45855.18457038194</v>
+      </c>
+      <c r="E637" t="n">
+        <v>265.98</v>
+      </c>
+      <c r="F637" t="n">
+        <v>1861.86</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H637" s="2" t="n">
+        <v>45856.01808596065</v>
+      </c>
+      <c r="I637" t="n">
+        <v>266.49</v>
+      </c>
+      <c r="J637" t="n">
+        <v>1865.43</v>
+      </c>
+      <c r="K637" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L637" t="n">
+        <v>7</v>
+      </c>
+      <c r="M637" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N637" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O637" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P637" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q637" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R637" t="n">
+        <v>1.540000000000164</v>
+      </c>
+      <c r="S637" t="inlineStr">
+        <is>
+          <t>FA1AFFFBD21D4AD000</t>
+        </is>
+      </c>
+      <c r="T637" t="inlineStr">
+        <is>
+          <t>FA1AFFFC098A0AD000</t>
+        </is>
+      </c>
+      <c r="U637" t="inlineStr"/>
+      <c r="V637" t="inlineStr"/>
+      <c r="W637" t="inlineStr">
+        <is>
+          <t>FA1AFFFC0B6417C000</t>
+        </is>
+      </c>
+      <c r="X637" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y637" t="inlineStr">
+        <is>
+          <t>mv :-1.20, mv_2m:-0.20,mv_5m : -0.33, mv_30m : -2.40, mv_60m: -5.58, md_60m: -49c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z637" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA637" t="inlineStr">
+        <is>
+          <t>FA1AFFFC0A270AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="1" t="n">
+        <v>636</v>
+      </c>
+      <c r="B638" t="n">
+        <v>4438</v>
+      </c>
+      <c r="C638" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="D638" s="2" t="n">
+        <v>45855.22552930556</v>
+      </c>
+      <c r="E638" t="n">
+        <v>100.0239</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1900.4541</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H638" s="2" t="n">
+        <v>45857.17054508102</v>
+      </c>
+      <c r="I638" t="n">
+        <v>103.16</v>
+      </c>
+      <c r="J638" t="n">
+        <v>1960.04</v>
+      </c>
+      <c r="K638" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L638" t="n">
+        <v>19</v>
+      </c>
+      <c r="M638" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N638" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O638" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P638" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q638" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R638" t="n">
+        <v>57.47590000000004</v>
+      </c>
+      <c r="S638" t="inlineStr">
+        <is>
+          <t>FA1B000952004AD000</t>
+        </is>
+      </c>
+      <c r="T638" t="inlineStr">
+        <is>
+          <t>FA1B000981AFD7C000</t>
+        </is>
+      </c>
+      <c r="U638" t="inlineStr"/>
+      <c r="V638" t="inlineStr"/>
+      <c r="W638" t="inlineStr">
+        <is>
+          <t>FA1B000983980AD000</t>
+        </is>
+      </c>
+      <c r="X638" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y638" t="inlineStr">
+        <is>
+          <t>mv :-1.07, mv_2m:-0.07,mv_5m : -0.11, mv_30m : 0.34, mv_60m: 6.86, md_60m: -38c1: 0, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z638" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA638" t="inlineStr">
+        <is>
+          <t>FA1B0009824957C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="1" t="n">
+        <v>637</v>
+      </c>
+      <c r="B639" t="n">
+        <v>4440</v>
+      </c>
+      <c r="C639" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="D639" s="2" t="n">
+        <v>45856.02293743056</v>
+      </c>
+      <c r="E639" t="n">
+        <v>250.73</v>
+      </c>
+      <c r="F639" t="n">
+        <v>1755.11</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H639" s="2" t="n">
+        <v>45856.11951644676</v>
+      </c>
+      <c r="I639" t="n">
+        <v>248.7019</v>
+      </c>
+      <c r="J639" t="n">
+        <v>1740.9133</v>
+      </c>
+      <c r="K639" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L639" t="n">
+        <v>7</v>
+      </c>
+      <c r="M639" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N639" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O639" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P639" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R639" t="n">
+        <v>-16.22669999999997</v>
+      </c>
+      <c r="S639" t="inlineStr">
+        <is>
+          <t>FA1B0110234A0AD000</t>
+        </is>
+      </c>
+      <c r="T639" t="inlineStr">
+        <is>
+          <t>FA1B0110C0BA17C000</t>
+        </is>
+      </c>
+      <c r="U639" t="inlineStr"/>
+      <c r="V639" t="inlineStr"/>
+      <c r="W639" t="inlineStr">
+        <is>
+          <t>FA1B0110C2CAD7C000</t>
+        </is>
+      </c>
+      <c r="X639" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y639" t="inlineStr">
+        <is>
+          <t>mv :-1.09, mv_2m:-0.09,mv_5m : 0.40, mv_30m : 0.44, mv_60m: 4.20, md_60m: 1c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z639" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA639" t="inlineStr">
+        <is>
+          <t>FA1B0110C1514AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="1" t="n">
+        <v>638</v>
+      </c>
+      <c r="B640" t="n">
+        <v>4441</v>
+      </c>
+      <c r="C640" t="inlineStr">
+        <is>
+          <t>AVGO</t>
+        </is>
+      </c>
+      <c r="D640" s="2" t="n">
+        <v>45856.02416173611</v>
+      </c>
+      <c r="E640" t="n">
+        <v>285.17</v>
+      </c>
+      <c r="F640" t="n">
+        <v>1425.85</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H640" s="2" t="n">
+        <v>45856.19691252315</v>
+      </c>
+      <c r="I640" t="n">
+        <v>286.8</v>
+      </c>
+      <c r="J640" t="n">
+        <v>1434</v>
+      </c>
+      <c r="K640" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L640" t="n">
+        <v>5</v>
+      </c>
+      <c r="M640" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N640" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O640" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P640" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R640" t="n">
+        <v>6.120000000000092</v>
+      </c>
+      <c r="S640" t="inlineStr">
+        <is>
+          <t>FA1B01108A9D4AD000</t>
+        </is>
+      </c>
+      <c r="T640" t="inlineStr">
+        <is>
+          <t>FA1B0110C590D7C000</t>
+        </is>
+      </c>
+      <c r="U640" t="inlineStr"/>
+      <c r="V640" t="inlineStr"/>
+      <c r="W640" t="inlineStr">
+        <is>
+          <t>FA1B0110C77797C000</t>
+        </is>
+      </c>
+      <c r="X640" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y640" t="inlineStr">
+        <is>
+          <t>mv :-1.19, mv_2m:0.02,mv_5m : 3.44, mv_30m : 1.13, mv_60m: 7.38, md_60m: -4c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z640" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA640" t="inlineStr">
+        <is>
+          <t>FA1B0110C62B57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="1" t="n">
+        <v>639</v>
+      </c>
+      <c r="B641" t="n">
+        <v>4442</v>
+      </c>
+      <c r="C641" t="inlineStr">
+        <is>
+          <t>NDAQ</t>
+        </is>
+      </c>
+      <c r="D641" s="2" t="n">
+        <v>45856.08832914352</v>
+      </c>
+      <c r="E641" t="n">
+        <v>89.83499999999999</v>
+      </c>
+      <c r="F641" t="n">
+        <v>1976.37</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H641" s="2" t="n">
+        <v>45856.2888434375</v>
+      </c>
+      <c r="I641" t="n">
+        <v>89.905</v>
+      </c>
+      <c r="J641" t="n">
+        <v>1977.91</v>
+      </c>
+      <c r="K641" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L641" t="n">
+        <v>22</v>
+      </c>
+      <c r="M641" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N641" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O641" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P641" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R641" t="n">
+        <v>-0.5899999999998091</v>
+      </c>
+      <c r="S641" t="inlineStr">
+        <is>
+          <t>FA1B0125B0B417C000</t>
+        </is>
+      </c>
+      <c r="T641" t="inlineStr">
+        <is>
+          <t>FA1B012641BCD7C000</t>
+        </is>
+      </c>
+      <c r="U641" t="inlineStr"/>
+      <c r="V641" t="inlineStr"/>
+      <c r="W641" t="inlineStr">
+        <is>
+          <t>FA1B012643A817C000</t>
+        </is>
+      </c>
+      <c r="X641" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y641" t="inlineStr">
+        <is>
+          <t>mv :-1.56, mv_2m:-0.51,mv_5m : -0.42, mv_30m : 1.72, mv_60m: 8.03, md_60m: -6c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z641" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA641" t="inlineStr">
+        <is>
+          <t>FA1B0126425597C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="1" t="n">
+        <v>640</v>
+      </c>
+      <c r="B642" t="n">
+        <v>4443</v>
+      </c>
+      <c r="C642" t="inlineStr">
+        <is>
+          <t>CZR</t>
+        </is>
+      </c>
+      <c r="D642" s="2" t="n">
+        <v>45856.17091935185</v>
+      </c>
+      <c r="E642" t="n">
+        <v>31.03</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1427.38</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="H642" s="2" t="n">
+        <v>45856.24341944444</v>
+      </c>
+      <c r="I642" t="n">
+        <v>30.805</v>
+      </c>
+      <c r="J642" t="n">
+        <v>1417.03</v>
+      </c>
+      <c r="K642" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L642" t="n">
+        <v>46</v>
+      </c>
+      <c r="M642" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N642" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O642" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P642" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R642" t="n">
+        <v>-12.62000000000014</v>
+      </c>
+      <c r="S642" t="inlineStr">
+        <is>
+          <t>FA1B0140E93CCAD000</t>
+        </is>
+      </c>
+      <c r="T642" t="inlineStr">
+        <is>
+          <t>FA1B014158CD97C000</t>
+        </is>
+      </c>
+      <c r="U642" t="inlineStr"/>
+      <c r="V642" t="inlineStr"/>
+      <c r="W642" t="inlineStr">
+        <is>
+          <t>FA1B01415AFE0AD000</t>
+        </is>
+      </c>
+      <c r="X642" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y642" t="inlineStr">
+        <is>
+          <t>mv :-1.02, mv_2m:-0.02,mv_5m : -0.87, mv_30m : 2.22, mv_60m: 4.50, md_60m: -40c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z642" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA642" t="inlineStr">
+        <is>
+          <t>FA1B0141596417C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="1" t="n">
+        <v>641</v>
+      </c>
+      <c r="B643" t="n">
+        <v>4444</v>
+      </c>
+      <c r="C643" t="inlineStr">
+        <is>
+          <t>SWK</t>
+        </is>
+      </c>
+      <c r="D643" s="2" t="n">
+        <v>45856.21230914352</v>
+      </c>
+      <c r="E643" t="n">
+        <v>70.61839999999999</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1412.368</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H643" s="2" t="n">
+        <v>45857.04624916667</v>
+      </c>
+      <c r="I643" t="n">
+        <v>70.5835</v>
+      </c>
+      <c r="J643" t="n">
+        <v>1411.67</v>
+      </c>
+      <c r="K643" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L643" t="n">
+        <v>20</v>
+      </c>
+      <c r="M643" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N643" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O643" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P643" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R643" t="n">
+        <v>-2.837999999999866</v>
+      </c>
+      <c r="S643" t="inlineStr">
+        <is>
+          <t>FA1B014E8D8397C000</t>
+        </is>
+      </c>
+      <c r="T643" t="inlineStr">
+        <is>
+          <t>FA1B014EC17ED7C000</t>
+        </is>
+      </c>
+      <c r="U643" t="inlineStr"/>
+      <c r="V643" t="inlineStr"/>
+      <c r="W643" t="inlineStr">
+        <is>
+          <t>FA1B014EC3704AD000</t>
+        </is>
+      </c>
+      <c r="X643" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y643" t="inlineStr">
+        <is>
+          <t>mv :0.00, mv_2m:0.97,mv_5m : 4.57, mv_30m : 7.45, mv_60m: 18.44, md_60m: -33c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z643" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA643" t="inlineStr">
+        <is>
+          <t>FA1B014EC22A8AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="1" t="n">
+        <v>642</v>
+      </c>
+      <c r="B644" t="n">
+        <v>4445</v>
+      </c>
+      <c r="C644" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="D644" s="2" t="n">
+        <v>45856.2506399537</v>
+      </c>
+      <c r="E644" t="n">
+        <v>162.0991666666667</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1945.19</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H644" s="2" t="n">
+        <v>45857.0214547338</v>
+      </c>
+      <c r="I644" t="n">
+        <v>163.85</v>
+      </c>
+      <c r="J644" t="n">
+        <v>1966.2</v>
+      </c>
+      <c r="K644" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L644" t="n">
+        <v>12</v>
+      </c>
+      <c r="M644" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N644" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O644" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P644" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R644" t="n">
+        <v>18.93999999999976</v>
+      </c>
+      <c r="S644" t="inlineStr">
+        <is>
+          <t>FA1B015B2FB217C000</t>
+        </is>
+      </c>
+      <c r="T644" t="inlineStr">
+        <is>
+          <t>FA1B0180979517C000</t>
+        </is>
+      </c>
+      <c r="U644" t="inlineStr"/>
+      <c r="V644" t="inlineStr"/>
+      <c r="W644" t="inlineStr">
+        <is>
+          <t>FA1B018099720AD000</t>
+        </is>
+      </c>
+      <c r="X644" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y644" t="inlineStr">
+        <is>
+          <t>mv :0.64, mv_2m:1.64,mv_5m : 8.69, mv_30m : 4.38, mv_60m: 7.02, md_60m: -39c1: 0, c2: 1, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z644" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA644" t="inlineStr">
+        <is>
+          <t>FA1B018098378AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="1" t="n">
+        <v>643</v>
+      </c>
+      <c r="B645" t="n">
+        <v>4446</v>
+      </c>
+      <c r="C645" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="D645" s="2" t="n">
+        <v>45857.00228682871</v>
+      </c>
+      <c r="E645" t="n">
+        <v>112.33</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1909.61</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H645" s="2" t="n">
+        <v>45857.05003369213</v>
+      </c>
+      <c r="I645" t="n">
+        <v>111.335</v>
+      </c>
+      <c r="J645" t="n">
+        <v>1892.695</v>
+      </c>
+      <c r="K645" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L645" t="n">
+        <v>17</v>
+      </c>
+      <c r="M645" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N645" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O645" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P645" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R645" t="n">
+        <v>-19.00499999999996</v>
+      </c>
+      <c r="S645" t="inlineStr">
+        <is>
+          <t>FA1B0252EBE74AD000</t>
+        </is>
+      </c>
+      <c r="T645" t="inlineStr">
+        <is>
+          <t>FA1B02539A79CAD000</t>
+        </is>
+      </c>
+      <c r="U645" t="inlineStr"/>
+      <c r="V645" t="inlineStr"/>
+      <c r="W645" t="inlineStr">
+        <is>
+          <t>FA1B02539C60D7C000</t>
+        </is>
+      </c>
+      <c r="X645" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y645" t="inlineStr">
+        <is>
+          <t>mv :0.55, mv_2m:1.65,mv_5m : 0.67, mv_30m : -0.94, mv_60m: -4.86, md_60m: -16c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z645" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA645" t="inlineStr">
+        <is>
+          <t>FA1B02539B0F57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="1" t="n">
+        <v>644</v>
+      </c>
+      <c r="B646" t="n">
+        <v>4447</v>
+      </c>
+      <c r="C646" t="inlineStr">
+        <is>
+          <t>PNR</t>
+        </is>
+      </c>
+      <c r="D646" s="2" t="n">
+        <v>45857.02476346065</v>
+      </c>
+      <c r="E646" t="n">
+        <v>106.53</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1917.54</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H646" s="2" t="n">
+        <v>45857.06819359954</v>
+      </c>
+      <c r="I646" t="n">
+        <v>106.2932</v>
+      </c>
+      <c r="J646" t="n">
+        <v>1913.2776</v>
+      </c>
+      <c r="K646" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L646" t="n">
+        <v>18</v>
+      </c>
+      <c r="M646" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N646" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O646" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P646" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q646" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R646" t="n">
+        <v>-6.35240000000007</v>
+      </c>
+      <c r="S646" t="inlineStr">
+        <is>
+          <t>FA1B025A5460CAD000</t>
+        </is>
+      </c>
+      <c r="T646" t="inlineStr">
+        <is>
+          <t>FA1B025AC28E0AD000</t>
+        </is>
+      </c>
+      <c r="U646" t="inlineStr"/>
+      <c r="V646" t="inlineStr"/>
+      <c r="W646" t="inlineStr">
+        <is>
+          <t>FA1B025AC47F17C000</t>
+        </is>
+      </c>
+      <c r="X646" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y646" t="inlineStr">
+        <is>
+          <t>mv :-0.91, mv_2m:0.85,mv_5m : -0.69, mv_30m : -4.82, mv_60m: -1.21, md_60m: 1c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z646" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA646" t="inlineStr">
+        <is>
+          <t>FA1B025AC32697C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="1" t="n">
+        <v>645</v>
+      </c>
+      <c r="B647" t="n">
+        <v>4448</v>
+      </c>
+      <c r="C647" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="D647" s="2" t="n">
+        <v>45857.10906193287</v>
+      </c>
+      <c r="E647" t="n">
+        <v>146.18</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1900.34</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H647" s="2" t="n">
+        <v>45857.16710384259</v>
+      </c>
+      <c r="I647" t="n">
+        <v>145.7730769230769</v>
+      </c>
+      <c r="J647" t="n">
+        <v>1895.05</v>
+      </c>
+      <c r="K647" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L647" t="n">
+        <v>13</v>
+      </c>
+      <c r="M647" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N647" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O647" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P647" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R647" t="n">
+        <v>-7.369999999999736</v>
+      </c>
+      <c r="S647" t="inlineStr">
+        <is>
+          <t>FA1B02761D11D7C000</t>
+        </is>
+      </c>
+      <c r="T647" t="inlineStr">
+        <is>
+          <t>FA1B02765852CAD000</t>
+        </is>
+      </c>
+      <c r="U647" t="inlineStr"/>
+      <c r="V647" t="inlineStr"/>
+      <c r="W647" t="inlineStr">
+        <is>
+          <t>FA1B02765A34CAD000</t>
+        </is>
+      </c>
+      <c r="X647" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y647" t="inlineStr">
+        <is>
+          <t>mv :-0.56, mv_2m:1.12,mv_5m : 1.26, mv_30m : -7.88, mv_60m: -8.84, md_60m: -59c1: 0, c2: 1, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z647" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA647" t="inlineStr">
+        <is>
+          <t>FA1B027658EC8AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="1" t="n">
+        <v>646</v>
+      </c>
+      <c r="B648" t="n">
+        <v>4449</v>
+      </c>
+      <c r="C648" t="inlineStr">
+        <is>
+          <t>USB</t>
+        </is>
+      </c>
+      <c r="D648" s="2" t="n">
+        <v>45857.12959011574</v>
+      </c>
+      <c r="E648" t="n">
+        <v>45.6882</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1964.5926</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H648" s="2" t="n">
+        <v>45857.28785979166</v>
+      </c>
+      <c r="I648" t="n">
+        <v>45.6903</v>
+      </c>
+      <c r="J648" t="n">
+        <v>1964.6829</v>
+      </c>
+      <c r="K648" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L648" t="n">
+        <v>43</v>
+      </c>
+      <c r="M648" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N648" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O648" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P648" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R648" t="n">
+        <v>-2.15969999999993</v>
+      </c>
+      <c r="S648" t="inlineStr">
+        <is>
+          <t>FA1B027CE1224AD000</t>
+        </is>
+      </c>
+      <c r="T648" t="inlineStr">
+        <is>
+          <t>FA1B027DA577D7C000</t>
+        </is>
+      </c>
+      <c r="U648" t="inlineStr"/>
+      <c r="V648" t="inlineStr"/>
+      <c r="W648" t="inlineStr">
+        <is>
+          <t>FA1B027DA74E8AD000</t>
+        </is>
+      </c>
+      <c r="X648" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y648" t="inlineStr">
+        <is>
+          <t>mv :-0.08, mv_2m:0.79,mv_5m : 1.50, mv_30m : -1.20, mv_60m: -11.05, md_60m: -60c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z648" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA648" t="inlineStr">
+        <is>
+          <t>FA1B027DA60E97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="1" t="n">
+        <v>647</v>
+      </c>
+      <c r="B649" t="n">
+        <v>4450</v>
+      </c>
+      <c r="C649" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="D649" s="2" t="n">
+        <v>45857.13117807871</v>
+      </c>
+      <c r="E649" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1318.5</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H649" s="2" t="n">
+        <v>45857.18630550926</v>
+      </c>
+      <c r="I649" t="n">
+        <v>146.16</v>
+      </c>
+      <c r="J649" t="n">
+        <v>1315.44</v>
+      </c>
+      <c r="K649" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L649" t="n">
+        <v>9</v>
+      </c>
+      <c r="M649" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N649" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O649" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P649" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q649" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R649" t="n">
+        <v>-5.139999999999946</v>
+      </c>
+      <c r="S649" t="inlineStr">
+        <is>
+          <t>FA1B027D671DCAD000</t>
+        </is>
+      </c>
+      <c r="T649" t="inlineStr">
+        <is>
+          <t>FA1B027DA1F557C000</t>
+        </is>
+      </c>
+      <c r="U649" t="inlineStr"/>
+      <c r="V649" t="inlineStr"/>
+      <c r="W649" t="inlineStr">
+        <is>
+          <t>FA1B027DA3CB17C000</t>
+        </is>
+      </c>
+      <c r="X649" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y649" t="inlineStr">
+        <is>
+          <t>mv :0.14, mv_2m:1.03,mv_5m : 3.23, mv_30m : 0.48, mv_60m: -9.69, md_60m: -61c1: 0, c2: 1, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z649" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA649" t="inlineStr">
+        <is>
+          <t>FA1B027DA28A57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="1" t="n">
+        <v>648</v>
+      </c>
+      <c r="B650" t="n">
+        <v>4451</v>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="D650" s="2" t="n">
+        <v>45857.15407746527</v>
+      </c>
+      <c r="E650" t="n">
+        <v>184.3</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1843</v>
+      </c>
+      <c r="G650" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H650" s="2" t="n">
+        <v>45860.10882061342</v>
+      </c>
+      <c r="I650" t="n">
+        <v>184.67</v>
+      </c>
+      <c r="J650" t="n">
+        <v>1846.7</v>
+      </c>
+      <c r="K650" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L650" t="n">
+        <v>10</v>
+      </c>
+      <c r="M650" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N650" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O650" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P650" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q650" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R650" t="n">
+        <v>1.649999999999818</v>
+      </c>
+      <c r="S650" t="inlineStr">
+        <is>
+          <t>FA1B0284F34957C000</t>
+        </is>
+      </c>
+      <c r="T650" t="inlineStr">
+        <is>
+          <t>FA1B0285543ECAD000</t>
+        </is>
+      </c>
+      <c r="U650" t="inlineStr"/>
+      <c r="V650" t="inlineStr"/>
+      <c r="W650" t="inlineStr">
+        <is>
+          <t>FA1B02855635CAD000</t>
+        </is>
+      </c>
+      <c r="X650" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y650" t="inlineStr">
+        <is>
+          <t>mv :-0.93, mv_2m:0.07,mv_5m : 0.53, mv_30m : 1.86, mv_60m: 1.15, md_60m: -16c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z650" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA650" t="inlineStr">
+        <is>
+          <t>FA1B028554E497C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>4452</v>
+      </c>
+      <c r="C651" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="D651" s="2" t="n">
+        <v>45857.18337016203</v>
+      </c>
+      <c r="E651" t="n">
+        <v>126.085</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1513.02</v>
+      </c>
+      <c r="G651" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H651" s="2" t="n">
+        <v>45857.22524827546</v>
+      </c>
+      <c r="I651" t="n">
+        <v>125.8420833333333</v>
+      </c>
+      <c r="J651" t="n">
+        <v>1510.105</v>
+      </c>
+      <c r="K651" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L651" t="n">
+        <v>12</v>
+      </c>
+      <c r="M651" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N651" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O651" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P651" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q651" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R651" t="n">
+        <v>-4.994999999999964</v>
+      </c>
+      <c r="S651" t="inlineStr">
+        <is>
+          <t>FA1B028E9AD017C000</t>
+        </is>
+      </c>
+      <c r="T651" t="inlineStr">
+        <is>
+          <t>FA1B028EDA0997C000</t>
+        </is>
+      </c>
+      <c r="U651" t="inlineStr"/>
+      <c r="V651" t="inlineStr"/>
+      <c r="W651" t="inlineStr">
+        <is>
+          <t>FA1B028EDBFF57C000</t>
+        </is>
+      </c>
+      <c r="X651" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y651" t="inlineStr">
+        <is>
+          <t>mv :-0.46, mv_2m:0.54,mv_5m : 2.96, mv_30m : 3.49, mv_60m: 4.27, md_60m: -16c1: 0, c2: 1, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z651" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA651" t="inlineStr">
+        <is>
+          <t>FA1B028EDAB44AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>4453</v>
+      </c>
+      <c r="C652" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="D652" s="2" t="n">
+        <v>45857.22799387731</v>
+      </c>
+      <c r="E652" t="n">
+        <v>93.8293</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1501.2688</v>
+      </c>
+      <c r="G652" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H652" s="2" t="n">
+        <v>45860.03173805556</v>
+      </c>
+      <c r="I652" t="n">
+        <v>94.05</v>
+      </c>
+      <c r="J652" t="n">
+        <v>1504.8</v>
+      </c>
+      <c r="K652" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L652" t="n">
+        <v>16</v>
+      </c>
+      <c r="M652" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N652" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O652" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P652" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q652" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R652" t="n">
+        <v>1.390199999999899</v>
+      </c>
+      <c r="S652" t="inlineStr">
+        <is>
+          <t>FA1B029D4FEC17C000</t>
+        </is>
+      </c>
+      <c r="T652" t="inlineStr">
+        <is>
+          <t>FA1B029DA506CAD000</t>
+        </is>
+      </c>
+      <c r="U652" t="inlineStr"/>
+      <c r="V652" t="inlineStr"/>
+      <c r="W652" t="inlineStr">
+        <is>
+          <t>FA1B029DA6E48AD000</t>
+        </is>
+      </c>
+      <c r="X652" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y652" t="inlineStr">
+        <is>
+          <t>mv :-1.27, mv_2m:-0.27,mv_5m : 0.04, mv_30m : 2.28, mv_60m: 3.01, md_60m: -9c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z652" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA652" t="inlineStr">
+        <is>
+          <t>FA1B029DA59E57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>4454</v>
+      </c>
+      <c r="C653" t="inlineStr">
+        <is>
+          <t>PNC</t>
+        </is>
+      </c>
+      <c r="D653" s="2" t="n">
+        <v>45859.98996</v>
+      </c>
+      <c r="E653" t="n">
+        <v>196.93</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1969.3</v>
+      </c>
+      <c r="G653" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H653" s="2" t="n">
+        <v>45860.17491415509</v>
+      </c>
+      <c r="I653" t="n">
+        <v>197.65</v>
+      </c>
+      <c r="J653" t="n">
+        <v>1976.5</v>
+      </c>
+      <c r="K653" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L653" t="n">
+        <v>10</v>
+      </c>
+      <c r="M653" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N653" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O653" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P653" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q653" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R653" t="n">
+        <v>5.150000000000046</v>
+      </c>
+      <c r="S653" t="inlineStr">
+        <is>
+          <t>FA1B062BA0C8D7C000</t>
+        </is>
+      </c>
+      <c r="T653" t="inlineStr">
+        <is>
+          <t>FA1B062C04940AD000</t>
+        </is>
+      </c>
+      <c r="U653" t="inlineStr"/>
+      <c r="V653" t="inlineStr"/>
+      <c r="W653" t="inlineStr">
+        <is>
+          <t>FA1B062C068757C000</t>
+        </is>
+      </c>
+      <c r="X653" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y653" t="inlineStr">
+        <is>
+          <t>mv :-1.21, mv_2m:-0.21,mv_5m : -1.16, mv_30m : 9.51, mv_60m: 7.49, md_60m: 0c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z653" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA653" t="inlineStr">
+        <is>
+          <t>FA1B062C052C97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>4455</v>
+      </c>
+      <c r="C654" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="D654" s="2" t="n">
+        <v>45859.99527462963</v>
+      </c>
+      <c r="E654" t="n">
+        <v>126.35</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1516.2</v>
+      </c>
+      <c r="G654" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H654" s="2" t="n">
+        <v>45860.05206663194</v>
+      </c>
+      <c r="I654" t="n">
+        <v>126.58</v>
+      </c>
+      <c r="J654" t="n">
+        <v>1518.96</v>
+      </c>
+      <c r="K654" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L654" t="n">
+        <v>12</v>
+      </c>
+      <c r="M654" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N654" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O654" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P654" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q654" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="R654" t="n">
+        <v>0.6899999999999908</v>
+      </c>
+      <c r="S654" t="inlineStr">
+        <is>
+          <t>FA1B062D613897C000</t>
+        </is>
+      </c>
+      <c r="T654" t="inlineStr">
+        <is>
+          <t>FA1B062DCFF697C000</t>
+        </is>
+      </c>
+      <c r="U654" t="inlineStr"/>
+      <c r="V654" t="inlineStr"/>
+      <c r="W654" t="inlineStr">
+        <is>
+          <t>FA1B062DD1ED57C000</t>
+        </is>
+      </c>
+      <c r="X654" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y654" t="inlineStr">
+        <is>
+          <t>mv :0.70, mv_2m:1.70,mv_5m : 0.25, mv_30m : 2.85, mv_60m: 1.71, md_60m: -4c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z654" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA654" t="inlineStr">
+        <is>
+          <t>FA1B062DD08FCAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
+        <v>4456</v>
+      </c>
+      <c r="C655" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="D655" s="2" t="n">
+        <v>45860.01890766204</v>
+      </c>
+      <c r="E655" t="n">
+        <v>87.70999999999999</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1491.07</v>
+      </c>
+      <c r="G655" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H655" s="2" t="n">
+        <v>45860.0837019213</v>
+      </c>
+      <c r="I655" t="n">
+        <v>87.38500000000001</v>
+      </c>
+      <c r="J655" t="n">
+        <v>1485.545</v>
+      </c>
+      <c r="K655" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L655" t="n">
+        <v>17</v>
+      </c>
+      <c r="M655" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N655" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O655" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P655" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q655" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R655" t="n">
+        <v>-7.614999999999863</v>
+      </c>
+      <c r="S655" t="inlineStr">
+        <is>
+          <t>FA1B06352B4E4AD000</t>
+        </is>
+      </c>
+      <c r="T655" t="inlineStr">
+        <is>
+          <t>FA1B063585E30AD000</t>
+        </is>
+      </c>
+      <c r="U655" t="inlineStr"/>
+      <c r="V655" t="inlineStr"/>
+      <c r="W655" t="inlineStr">
+        <is>
+          <t>FA1B063587C317C000</t>
+        </is>
+      </c>
+      <c r="X655" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y655" t="inlineStr">
+        <is>
+          <t>mv :-1.86, mv_2m:-0.86,mv_5m : 3.56, mv_30m : 3.40, mv_60m: 11.14, md_60m: -6c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z655" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA655" t="inlineStr">
+        <is>
+          <t>FA1B063586794AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>4457</v>
+      </c>
+      <c r="C656" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D656" s="2" t="n">
+        <v>45860.11806741898</v>
+      </c>
+      <c r="E656" t="n">
+        <v>150.6</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1957.8</v>
+      </c>
+      <c r="G656" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H656" s="2" t="n">
+        <v>45860.19985295139</v>
+      </c>
+      <c r="I656" t="n">
+        <v>150.2701</v>
+      </c>
+      <c r="J656" t="n">
+        <v>1953.5113</v>
+      </c>
+      <c r="K656" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L656" t="n">
+        <v>13</v>
+      </c>
+      <c r="M656" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N656" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O656" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P656" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R656" t="n">
+        <v>-6.358699999999835</v>
+      </c>
+      <c r="S656" t="inlineStr">
+        <is>
+          <t>FA1B0655D9EB4AD000</t>
+        </is>
+      </c>
+      <c r="T656" t="inlineStr">
+        <is>
+          <t>FA1B0656086117C000</t>
+        </is>
+      </c>
+      <c r="U656" t="inlineStr"/>
+      <c r="V656" t="inlineStr"/>
+      <c r="W656" t="inlineStr">
+        <is>
+          <t>FA1B06560A5057C000</t>
+        </is>
+      </c>
+      <c r="X656" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y656" t="inlineStr">
+        <is>
+          <t>mv :-0.54, mv_2m:0.34,mv_5m : -0.05, mv_30m : -6.83, mv_60m: -12.60, md_60m: -93c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z656" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA656" t="inlineStr">
+        <is>
+          <t>FA1B065609050AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>4458</v>
+      </c>
+      <c r="C657" t="inlineStr">
+        <is>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="D657" s="2" t="n">
+        <v>45861.06702494213</v>
+      </c>
+      <c r="E657" t="n">
+        <v>318.21</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1909.26</v>
+      </c>
+      <c r="G657" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H657" s="2" t="n">
+        <v>45861.14571461805</v>
+      </c>
+      <c r="I657" t="n">
+        <v>317.29</v>
+      </c>
+      <c r="J657" t="n">
+        <v>1903.74</v>
+      </c>
+      <c r="K657" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L657" t="n">
+        <v>6</v>
+      </c>
+      <c r="M657" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N657" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O657" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P657" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q657" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R657" t="n">
+        <v>-7.549999999999754</v>
+      </c>
+      <c r="S657" t="inlineStr">
+        <is>
+          <t>FA1B078E9E24CAD000</t>
+        </is>
+      </c>
+      <c r="T657" t="inlineStr">
+        <is>
+          <t>FA1B078F20C64AD000</t>
+        </is>
+      </c>
+      <c r="U657" t="inlineStr"/>
+      <c r="V657" t="inlineStr"/>
+      <c r="W657" t="inlineStr">
+        <is>
+          <t>FA1B078F22A04AD000</t>
+        </is>
+      </c>
+      <c r="X657" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y657" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.18,mv_5m : 3.63, mv_30m : 14.62, mv_60m: 5.75, md_60m: -20c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z657" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA657" t="inlineStr">
+        <is>
+          <t>FA1B078F216A4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>4459</v>
+      </c>
+      <c r="C658" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="D658" s="2" t="n">
+        <v>45861.103045625</v>
+      </c>
+      <c r="E658" t="n">
+        <v>47.6883</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1955.2203</v>
+      </c>
+      <c r="G658" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H658" s="2" t="n">
+        <v>45862.22296086806</v>
+      </c>
+      <c r="I658" t="n">
+        <v>48.88</v>
+      </c>
+      <c r="J658" t="n">
+        <v>2004.08</v>
+      </c>
+      <c r="K658" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L658" t="n">
+        <v>41</v>
+      </c>
+      <c r="M658" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N658" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O658" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P658" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q658" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R658" t="n">
+        <v>46.62970000000021</v>
+      </c>
+      <c r="S658" t="inlineStr">
+        <is>
+          <t>FA1B079A7D5F0AD000</t>
+        </is>
+      </c>
+      <c r="T658" t="inlineStr">
+        <is>
+          <t>FA1B079AE8CB0AD000</t>
+        </is>
+      </c>
+      <c r="U658" t="inlineStr"/>
+      <c r="V658" t="inlineStr"/>
+      <c r="W658" t="inlineStr">
+        <is>
+          <t>FA1B079AEAAE0AD000</t>
+        </is>
+      </c>
+      <c r="X658" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y658" t="inlineStr">
+        <is>
+          <t>mv :-0.96, mv_2m:0.04,mv_5m : 0.45, mv_30m : 0.35, mv_60m: 2.87, md_60m: 4c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z658" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA658" t="inlineStr">
+        <is>
+          <t>FA1B079AE9604AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>4460</v>
+      </c>
+      <c r="C659" t="inlineStr">
+        <is>
+          <t>PRGO</t>
+        </is>
+      </c>
+      <c r="D659" s="2" t="n">
+        <v>45861.1264196412</v>
+      </c>
+      <c r="E659" t="n">
+        <v>27.5483</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1983.4776</v>
+      </c>
+      <c r="G659" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H659" s="2" t="n">
+        <v>45861.25795986111</v>
+      </c>
+      <c r="I659" t="n">
+        <v>27.4179</v>
+      </c>
+      <c r="J659" t="n">
+        <v>1974.0888</v>
+      </c>
+      <c r="K659" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L659" t="n">
+        <v>72</v>
+      </c>
+      <c r="M659" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N659" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O659" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P659" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q659" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R659" t="n">
+        <v>-11.81879999999995</v>
+      </c>
+      <c r="S659" t="inlineStr">
+        <is>
+          <t>FA1B07A2319257C000</t>
+        </is>
+      </c>
+      <c r="T659" t="inlineStr">
+        <is>
+          <t>FA1B07A2704017C000</t>
+        </is>
+      </c>
+      <c r="U659" t="inlineStr"/>
+      <c r="V659" t="inlineStr"/>
+      <c r="W659" t="inlineStr">
+        <is>
+          <t>FA1B07A2721817C000</t>
+        </is>
+      </c>
+      <c r="X659" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y659" t="inlineStr">
+        <is>
+          <t>mv :-0.30, mv_2m:0.70,mv_5m : -0.87, mv_30m : 1.91, mv_60m: 1.74, md_60m: -11c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z659" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA659" t="inlineStr">
+        <is>
+          <t>FA1B07A270D797C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>4461</v>
+      </c>
+      <c r="C660" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="D660" s="2" t="n">
+        <v>45861.139800625</v>
+      </c>
+      <c r="E660" t="n">
+        <v>423.42</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1270.26</v>
+      </c>
+      <c r="G660" t="n">
+        <v>1</v>
+      </c>
+      <c r="H660" s="2" t="n">
+        <v>45862.01617666666</v>
+      </c>
+      <c r="I660" t="n">
+        <v>474.24</v>
+      </c>
+      <c r="J660" t="n">
+        <v>1422.72</v>
+      </c>
+      <c r="K660" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L660" t="n">
+        <v>3</v>
+      </c>
+      <c r="M660" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N660" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O660" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P660" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q660" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R660" t="n">
+        <v>150.45</v>
+      </c>
+      <c r="S660" t="inlineStr">
+        <is>
+          <t>FA1B07A69AA00AD000</t>
+        </is>
+      </c>
+      <c r="T660" t="inlineStr">
+        <is>
+          <t>FA1B07A6DE4217C000</t>
+        </is>
+      </c>
+      <c r="U660" t="inlineStr"/>
+      <c r="V660" t="inlineStr"/>
+      <c r="W660" t="inlineStr">
+        <is>
+          <t>FA1B07A6E02057C000</t>
+        </is>
+      </c>
+      <c r="X660" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y660" t="inlineStr">
+        <is>
+          <t>mv :-0.63, mv_2m:0.37,mv_5m : 1.82, mv_30m : -0.13, mv_60m: 1.68, md_60m: -7c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z660" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA660" t="inlineStr">
+        <is>
+          <t>FA1B07A6DED9CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>4462</v>
+      </c>
+      <c r="C661" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+      <c r="D661" s="2" t="n">
+        <v>45861.22274738426</v>
+      </c>
+      <c r="E661" t="n">
+        <v>274.365</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1920.555</v>
+      </c>
+      <c r="G661" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H661" s="2" t="n">
+        <v>45862.01927986111</v>
+      </c>
+      <c r="I661" t="n">
+        <v>268.61</v>
+      </c>
+      <c r="J661" t="n">
+        <v>1880.27</v>
+      </c>
+      <c r="K661" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L661" t="n">
+        <v>7</v>
+      </c>
+      <c r="M661" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N661" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O661" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P661" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q661" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R661" t="n">
+        <v>-42.31500000000008</v>
+      </c>
+      <c r="S661" t="inlineStr">
+        <is>
+          <t>FA1B07C1F14D17C000</t>
+        </is>
+      </c>
+      <c r="T661" t="inlineStr">
+        <is>
+          <t>FA1B07C220180AD000</t>
+        </is>
+      </c>
+      <c r="U661" t="inlineStr"/>
+      <c r="V661" t="inlineStr"/>
+      <c r="W661" t="inlineStr">
+        <is>
+          <t>FA1B07C221F997C000</t>
+        </is>
+      </c>
+      <c r="X661" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y661" t="inlineStr">
+        <is>
+          <t>mv :-0.62, mv_2m:0.38,mv_5m : 2.42, mv_30m : 1.98, mv_60m: 9.59, md_60m: -11c1: 0, c2: 1, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z661" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA661" t="inlineStr">
+        <is>
+          <t>FA1B07C220AC17C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>4463</v>
+      </c>
+      <c r="C662" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="D662" s="2" t="n">
+        <v>45861.99947918981</v>
+      </c>
+      <c r="E662" t="n">
+        <v>34.285</v>
+      </c>
+      <c r="F662" t="n">
+        <v>1988.53</v>
+      </c>
+      <c r="G662" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H662" s="2" t="n">
+        <v>45862.08315400463</v>
+      </c>
+      <c r="I662" t="n">
+        <v>35.1011</v>
+      </c>
+      <c r="J662" t="n">
+        <v>2035.8638</v>
+      </c>
+      <c r="K662" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="L662" t="n">
+        <v>58</v>
+      </c>
+      <c r="M662" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N662" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O662" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P662" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q662" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R662" t="n">
+        <v>45.00380000000011</v>
+      </c>
+      <c r="S662" t="inlineStr">
+        <is>
+          <t>FA1B08C1F20A17C000</t>
+        </is>
+      </c>
+      <c r="T662" t="inlineStr">
+        <is>
+          <t>FA1B08C27E190AD000</t>
+        </is>
+      </c>
+      <c r="U662" t="inlineStr"/>
+      <c r="V662" t="inlineStr"/>
+      <c r="W662" t="inlineStr">
+        <is>
+          <t>FA1B08C27FF297C000</t>
+        </is>
+      </c>
+      <c r="X662" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y662" t="inlineStr">
+        <is>
+          <t>mv :0.05, mv_2m:1.05,mv_5m : 2.33, mv_30m : -3.87, mv_60m: -0.83, md_60m: 1c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z662" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA662" t="inlineStr">
+        <is>
+          <t>FA1B08C27EB197C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>4464</v>
+      </c>
+      <c r="C663" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="D663" s="2" t="n">
+        <v>45862.03280408565</v>
+      </c>
+      <c r="E663" t="n">
+        <v>262.01</v>
+      </c>
+      <c r="F663" t="n">
+        <v>1310.05</v>
+      </c>
+      <c r="G663" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H663" s="2" t="n">
+        <v>45862.19991128472</v>
+      </c>
+      <c r="I663" t="n">
+        <v>261.34</v>
+      </c>
+      <c r="J663" t="n">
+        <v>1306.7</v>
+      </c>
+      <c r="K663" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L663" t="n">
+        <v>5</v>
+      </c>
+      <c r="M663" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N663" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O663" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P663" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q663" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R663" t="n">
+        <v>-5.380000000000136</v>
+      </c>
+      <c r="S663" t="inlineStr">
+        <is>
+          <t>FA1B08CCEDD057C000</t>
+        </is>
+      </c>
+      <c r="T663" t="inlineStr">
+        <is>
+          <t>FA1B08CD7987CAD000</t>
+        </is>
+      </c>
+      <c r="U663" t="inlineStr"/>
+      <c r="V663" t="inlineStr"/>
+      <c r="W663" t="inlineStr">
+        <is>
+          <t>FA1B08CD7B3B8AD000</t>
+        </is>
+      </c>
+      <c r="X663" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y663" t="inlineStr">
+        <is>
+          <t>mv :-0.25, mv_2m:0.68,mv_5m : -3.75, mv_30m : 5.93, mv_60m: 15.93, md_60m: -3c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z663" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA663" t="inlineStr">
+        <is>
+          <t>FA1B08CD7A24D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>4465</v>
+      </c>
+      <c r="C664" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="D664" s="2" t="n">
+        <v>45862.06570708333</v>
+      </c>
+      <c r="E664" t="n">
+        <v>280.25</v>
+      </c>
+      <c r="F664" t="n">
+        <v>1961.75</v>
+      </c>
+      <c r="G664" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H664" s="2" t="n">
+        <v>45862.13803166667</v>
+      </c>
+      <c r="I664" t="n">
+        <v>278.7517</v>
+      </c>
+      <c r="J664" t="n">
+        <v>1951.2619</v>
+      </c>
+      <c r="K664" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L664" t="n">
+        <v>7</v>
+      </c>
+      <c r="M664" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N664" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O664" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P664" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q664" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R664" t="n">
+        <v>-12.5180999999998</v>
+      </c>
+      <c r="S664" t="inlineStr">
+        <is>
+          <t>FA1B08D7C5FE8AD000</t>
+        </is>
+      </c>
+      <c r="T664" t="inlineStr">
+        <is>
+          <t>FA1B08D805DC17C000</t>
+        </is>
+      </c>
+      <c r="U664" t="inlineStr"/>
+      <c r="V664" t="inlineStr"/>
+      <c r="W664" t="inlineStr">
+        <is>
+          <t>FA1B08D807C3D7C000</t>
+        </is>
+      </c>
+      <c r="X664" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y664" t="inlineStr">
+        <is>
+          <t>mv :-0.82, mv_2m:-0.65,mv_5m : -0.77, mv_30m : -6.91, mv_60m: -8.98, md_60m: -33c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z664" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA664" t="inlineStr">
+        <is>
+          <t>FA1B08D80671CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>4466</v>
+      </c>
+      <c r="C665" t="inlineStr">
+        <is>
+          <t>COF</t>
+        </is>
+      </c>
+      <c r="D665" s="2" t="n">
+        <v>45862.1134090625</v>
+      </c>
+      <c r="E665" t="n">
+        <v>222.497</v>
+      </c>
+      <c r="F665" t="n">
+        <v>1779.976</v>
+      </c>
+      <c r="G665" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H665" s="2" t="n">
+        <v>45862.1946796412</v>
+      </c>
+      <c r="I665" t="n">
+        <v>221.4477</v>
+      </c>
+      <c r="J665" t="n">
+        <v>1771.5816</v>
+      </c>
+      <c r="K665" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L665" t="n">
+        <v>8</v>
+      </c>
+      <c r="M665" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N665" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O665" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P665" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q665" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R665" t="n">
+        <v>-10.42440000000013</v>
+      </c>
+      <c r="S665" t="inlineStr">
+        <is>
+          <t>FA1B08E77ED6D7C000</t>
+        </is>
+      </c>
+      <c r="T665" t="inlineStr">
+        <is>
+          <t>FA1B08E7E69097C000</t>
+        </is>
+      </c>
+      <c r="U665" t="inlineStr"/>
+      <c r="V665" t="inlineStr"/>
+      <c r="W665" t="inlineStr">
+        <is>
+          <t>FA1B08E7E86DD7C000</t>
+        </is>
+      </c>
+      <c r="X665" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y665" t="inlineStr">
+        <is>
+          <t>mv :-1.26, mv_2m:-0.26,mv_5m : -1.59, mv_30m : -1.45, mv_60m: 6.83, md_60m: 3c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z665" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA665" t="inlineStr">
+        <is>
+          <t>FA1B08E7E72B97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>4467</v>
+      </c>
+      <c r="C666" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D666" s="2" t="n">
+        <v>45862.18191071759</v>
+      </c>
+      <c r="E666" t="n">
+        <v>152.6799</v>
+      </c>
+      <c r="F666" t="n">
+        <v>1984.8387</v>
+      </c>
+      <c r="G666" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H666" s="2" t="n">
+        <v>45862.25804009259</v>
+      </c>
+      <c r="I666" t="n">
+        <v>152.2504</v>
+      </c>
+      <c r="J666" t="n">
+        <v>1979.2552</v>
+      </c>
+      <c r="K666" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L666" t="n">
+        <v>13</v>
+      </c>
+      <c r="M666" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N666" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O666" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P666" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q666" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R666" t="n">
+        <v>-7.714499999999958</v>
+      </c>
+      <c r="S666" t="inlineStr">
+        <is>
+          <t>FA1B08FE12A357C000</t>
+        </is>
+      </c>
+      <c r="T666" t="inlineStr">
+        <is>
+          <t>FA1B08FE6D2FD7C000</t>
+        </is>
+      </c>
+      <c r="U666" t="inlineStr"/>
+      <c r="V666" t="inlineStr"/>
+      <c r="W666" t="inlineStr">
+        <is>
+          <t>FA1B08FE6F1FD7C000</t>
+        </is>
+      </c>
+      <c r="X666" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y666" t="inlineStr">
+        <is>
+          <t>mv :-0.46, mv_2m:0.54,mv_5m : 0.35, mv_30m : -2.37, mv_60m: -1.94, md_60m: -11c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z666" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA666" t="inlineStr">
+        <is>
+          <t>FA1B08FE6DD80AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>4468</v>
+      </c>
+      <c r="C667" t="inlineStr">
+        <is>
+          <t>GD</t>
+        </is>
+      </c>
+      <c r="D667" s="2" t="n">
+        <v>45862.20566662037</v>
+      </c>
+      <c r="E667" t="n">
+        <v>316.5</v>
+      </c>
+      <c r="F667" t="n">
+        <v>1899</v>
+      </c>
+      <c r="G667" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H667" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>0</v>
+      </c>
+      <c r="K667" t="n">
+        <v>0</v>
+      </c>
+      <c r="L667" t="n">
+        <v>6</v>
+      </c>
+      <c r="M667" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N667" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O667" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P667" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q667" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R667" t="n">
+        <v>0</v>
+      </c>
+      <c r="S667" t="inlineStr">
+        <is>
+          <t>FA1B0905E7098AD000</t>
+        </is>
+      </c>
+      <c r="T667" t="inlineStr">
+        <is>
+          <t>FA1B0906293DCAD000</t>
+        </is>
+      </c>
+      <c r="U667" t="inlineStr"/>
+      <c r="V667" t="inlineStr"/>
+      <c r="W667" t="inlineStr">
+        <is>
+          <t>FA1B09062B2D17C000</t>
+        </is>
+      </c>
+      <c r="X667" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y667" t="inlineStr">
+        <is>
+          <t>mv :-1.05, mv_2m:-0.05,mv_5m : 0.58, mv_30m : -1.53, mv_60m: -2.69, md_60m: -23c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z667" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA667" t="inlineStr">
+        <is>
+          <t>FA1B090629EACAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>4469</v>
+      </c>
+      <c r="C668" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="D668" s="2" t="n">
+        <v>45862.23141375</v>
+      </c>
+      <c r="E668" t="n">
+        <v>1122.09</v>
+      </c>
+      <c r="F668" t="n">
+        <v>1122.09</v>
+      </c>
+      <c r="G668" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H668" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>0</v>
+      </c>
+      <c r="K668" t="n">
+        <v>0</v>
+      </c>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N668" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O668" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P668" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q668" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R668" t="n">
+        <v>0</v>
+      </c>
+      <c r="S668" t="inlineStr">
+        <is>
+          <t>FA1B090E63724AD000</t>
+        </is>
+      </c>
+      <c r="T668" t="inlineStr">
+        <is>
+          <t>FA1B090EA3E6D7C000</t>
+        </is>
+      </c>
+      <c r="U668" t="inlineStr"/>
+      <c r="V668" t="inlineStr"/>
+      <c r="W668" t="inlineStr">
+        <is>
+          <t>FA1B090EA5BD0AD000</t>
+        </is>
+      </c>
+      <c r="X668" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y668" t="inlineStr">
+        <is>
+          <t>mv :-0.80, mv_2m:0.20,mv_5m : -1.17, mv_30m : -0.87, mv_60m: -0.52, md_60m: -16c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z668" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA668" t="inlineStr">
+        <is>
+          <t>FA1B090EA4828AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>4470</v>
+      </c>
+      <c r="C669" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="D669" s="2" t="n">
+        <v>45862.24294503472</v>
+      </c>
+      <c r="E669" t="n">
+        <v>53.2376</v>
+      </c>
+      <c r="F669" t="n">
+        <v>1969.7912</v>
+      </c>
+      <c r="G669" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H669" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>0</v>
+      </c>
+      <c r="K669" t="n">
+        <v>0</v>
+      </c>
+      <c r="L669" t="n">
+        <v>37</v>
+      </c>
+      <c r="M669" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N669" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O669" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P669" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q669" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R669" t="n">
+        <v>0</v>
+      </c>
+      <c r="S669" t="inlineStr">
+        <is>
+          <t>FA1B09123061D7C000</t>
+        </is>
+      </c>
+      <c r="T669" t="inlineStr">
+        <is>
+          <t>FA1B0912B77497C000</t>
+        </is>
+      </c>
+      <c r="U669" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V669" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W669" t="inlineStr">
+        <is>
+          <t>FA1B0912B9634AD000</t>
+        </is>
+      </c>
+      <c r="X669" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y669" t="inlineStr">
+        <is>
+          <t>mv :-1.25, mv_2m:-0.25,mv_5m : 1.52, mv_30m : -1.52, mv_60m: -1.41, md_60m: -30c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z669" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA669" t="inlineStr">
+        <is>
+          <t>FA1B0912B80DD7C000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA817"/>
+  <dimension ref="A1:AA850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78340,7 +78340,7 @@
     </row>
     <row r="815">
       <c r="A815" s="1" t="n">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B815" t="n">
         <v>4624</v>
@@ -78437,7 +78437,7 @@
     </row>
     <row r="816">
       <c r="A816" s="1" t="n">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B816" t="n">
         <v>4627</v>
@@ -78534,7 +78534,7 @@
     </row>
     <row r="817">
       <c r="A817" s="1" t="n">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="B817" t="n">
         <v>4628</v>
@@ -78557,21 +78557,23 @@
         <v>1.29</v>
       </c>
       <c r="H817" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
+        <v>45913.02043416667</v>
+      </c>
+      <c r="I817" t="n">
+        <v>24.6814</v>
+      </c>
       <c r="J817" t="n">
-        <v>0</v>
+        <v>2468.14</v>
       </c>
       <c r="K817" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="L817" t="n">
         <v>100</v>
       </c>
       <c r="M817" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N817" t="n">
@@ -78584,10 +78586,10 @@
         <v>1.006</v>
       </c>
       <c r="Q817" t="n">
-        <v>1.25</v>
+        <v>0.05</v>
       </c>
       <c r="R817" t="n">
-        <v>0</v>
+        <v>-12.46000000000013</v>
       </c>
       <c r="S817" t="inlineStr">
         <is>
@@ -78624,6 +78626,3145 @@
       <c r="AA817" t="inlineStr">
         <is>
           <t>FA1B49624DA357C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>816</v>
+      </c>
+      <c r="B818" t="n">
+        <v>4629</v>
+      </c>
+      <c r="C818" t="inlineStr">
+        <is>
+          <t>CHKP</t>
+        </is>
+      </c>
+      <c r="D818" s="2" t="n">
+        <v>45912.98342487268</v>
+      </c>
+      <c r="E818" t="n">
+        <v>197.54</v>
+      </c>
+      <c r="F818" t="n">
+        <v>2370.48</v>
+      </c>
+      <c r="G818" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H818" s="2" t="n">
+        <v>45913.07941668981</v>
+      </c>
+      <c r="I818" t="n">
+        <v>196.64</v>
+      </c>
+      <c r="J818" t="n">
+        <v>2359.68</v>
+      </c>
+      <c r="K818" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L818" t="n">
+        <v>12</v>
+      </c>
+      <c r="M818" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N818" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O818" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P818" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q818" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R818" t="n">
+        <v>-12.87000000000018</v>
+      </c>
+      <c r="S818" t="inlineStr">
+        <is>
+          <t>FA1B4A65BC728AD000</t>
+        </is>
+      </c>
+      <c r="T818" t="inlineStr">
+        <is>
+          <t>FA1B4A66C334CAD000</t>
+        </is>
+      </c>
+      <c r="U818" t="inlineStr"/>
+      <c r="V818" t="inlineStr"/>
+      <c r="W818" t="inlineStr">
+        <is>
+          <t>FA1B4A66C54B57C000</t>
+        </is>
+      </c>
+      <c r="X818" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y818" t="inlineStr">
+        <is>
+          <t>mv :-1.24, mv_2m:-0.24,mv_5m : -0.04, mv_30m : -0.04, mv_60m: 2.18, md_60m: 3c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z818" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA818" t="inlineStr">
+        <is>
+          <t>FA1B4A66C3EE97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>817</v>
+      </c>
+      <c r="B819" t="n">
+        <v>4630</v>
+      </c>
+      <c r="C819" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="D819" s="2" t="n">
+        <v>45912.98427469908</v>
+      </c>
+      <c r="E819" t="n">
+        <v>65.5985</v>
+      </c>
+      <c r="F819" t="n">
+        <v>2492.743</v>
+      </c>
+      <c r="G819" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H819" s="2" t="n">
+        <v>45913.04304596065</v>
+      </c>
+      <c r="I819" t="n">
+        <v>64.7501</v>
+      </c>
+      <c r="J819" t="n">
+        <v>2460.5038</v>
+      </c>
+      <c r="K819" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L819" t="n">
+        <v>38</v>
+      </c>
+      <c r="M819" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N819" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O819" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P819" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q819" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R819" t="n">
+        <v>-34.44919999999998</v>
+      </c>
+      <c r="S819" t="inlineStr">
+        <is>
+          <t>FA1B4A66043017C000</t>
+        </is>
+      </c>
+      <c r="T819" t="inlineStr">
+        <is>
+          <t>FA1B4A66BF614AD000</t>
+        </is>
+      </c>
+      <c r="U819" t="inlineStr"/>
+      <c r="V819" t="inlineStr"/>
+      <c r="W819" t="inlineStr">
+        <is>
+          <t>FA1B4A66C1A2CAD000</t>
+        </is>
+      </c>
+      <c r="X819" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y819" t="inlineStr">
+        <is>
+          <t>mv :-0.90, mv_2m:0.29,mv_5m : -3.75, mv_30m : -3.07, mv_60m: 2.50, md_60m: -16c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z819" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA819" t="inlineStr">
+        <is>
+          <t>FA1B4A66C01497C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>818</v>
+      </c>
+      <c r="B820" t="n">
+        <v>4631</v>
+      </c>
+      <c r="C820" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="D820" s="2" t="n">
+        <v>45912.99292143519</v>
+      </c>
+      <c r="E820" t="n">
+        <v>33.96</v>
+      </c>
+      <c r="F820" t="n">
+        <v>2479.08</v>
+      </c>
+      <c r="G820" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H820" s="2" t="n">
+        <v>45913.10215321759</v>
+      </c>
+      <c r="I820" t="n">
+        <v>33.855</v>
+      </c>
+      <c r="J820" t="n">
+        <v>2471.415</v>
+      </c>
+      <c r="K820" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="L820" t="n">
+        <v>73</v>
+      </c>
+      <c r="M820" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N820" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O820" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P820" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q820" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R820" t="n">
+        <v>-10.09499999999997</v>
+      </c>
+      <c r="S820" t="inlineStr">
+        <is>
+          <t>FA1B4A68DDB74AD000</t>
+        </is>
+      </c>
+      <c r="T820" t="inlineStr">
+        <is>
+          <t>FA1B4A69480E4AD000</t>
+        </is>
+      </c>
+      <c r="U820" t="inlineStr"/>
+      <c r="V820" t="inlineStr"/>
+      <c r="W820" t="inlineStr">
+        <is>
+          <t>FA1B4A694A3097C000</t>
+        </is>
+      </c>
+      <c r="X820" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y820" t="inlineStr">
+        <is>
+          <t>mv :0.32, mv_2m:1.32,mv_5m : 1.10, mv_30m : -0.09, mv_60m: 1.23, md_60m: -3c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z820" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA820" t="inlineStr">
+        <is>
+          <t>FA1B4A6948CD17C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>819</v>
+      </c>
+      <c r="B821" t="n">
+        <v>4632</v>
+      </c>
+      <c r="C821" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="D821" s="2" t="n">
+        <v>45913.00606181713</v>
+      </c>
+      <c r="E821" t="n">
+        <v>32.8697</v>
+      </c>
+      <c r="F821" t="n">
+        <v>2498.0972</v>
+      </c>
+      <c r="G821" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H821" s="2" t="n">
+        <v>45913.0524018287</v>
+      </c>
+      <c r="I821" t="n">
+        <v>32.683699</v>
+      </c>
+      <c r="J821" t="n">
+        <v>2483.961124</v>
+      </c>
+      <c r="K821" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="L821" t="n">
+        <v>76</v>
+      </c>
+      <c r="M821" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N821" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O821" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P821" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q821" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R821" t="n">
+        <v>-16.58607600000023</v>
+      </c>
+      <c r="S821" t="inlineStr">
+        <is>
+          <t>FA1B4A6D326F0AD000</t>
+        </is>
+      </c>
+      <c r="T821" t="inlineStr">
+        <is>
+          <t>FA1B4A6D967297C000</t>
+        </is>
+      </c>
+      <c r="U821" t="inlineStr"/>
+      <c r="V821" t="inlineStr"/>
+      <c r="W821" t="inlineStr">
+        <is>
+          <t>FA1B4A6D988D57C000</t>
+        </is>
+      </c>
+      <c r="X821" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y821" t="inlineStr">
+        <is>
+          <t>mv :0.00, mv_2m:1.00,mv_5m : 1.26, mv_30m : 1.66, mv_60m: 0.82, md_60m: -1c1: 0, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z821" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA821" t="inlineStr">
+        <is>
+          <t>FA1B4A6D972B97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="B822" t="n">
+        <v>4633</v>
+      </c>
+      <c r="C822" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D822" s="2" t="n">
+        <v>45913.01713954861</v>
+      </c>
+      <c r="E822" t="n">
+        <v>29.4793</v>
+      </c>
+      <c r="F822" t="n">
+        <v>2476.2612</v>
+      </c>
+      <c r="G822" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="H822" s="2" t="n">
+        <v>45913.15764487268</v>
+      </c>
+      <c r="I822" t="n">
+        <v>29.4207</v>
+      </c>
+      <c r="J822" t="n">
+        <v>2471.3388</v>
+      </c>
+      <c r="K822" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L822" t="n">
+        <v>84</v>
+      </c>
+      <c r="M822" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N822" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O822" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P822" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q822" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R822" t="n">
+        <v>-7.412399999999925</v>
+      </c>
+      <c r="S822" t="inlineStr">
+        <is>
+          <t>FA1B4A70D92257C000</t>
+        </is>
+      </c>
+      <c r="T822" t="inlineStr">
+        <is>
+          <t>FA1B4A7123AE57C000</t>
+        </is>
+      </c>
+      <c r="U822" t="inlineStr"/>
+      <c r="V822" t="inlineStr"/>
+      <c r="W822" t="inlineStr">
+        <is>
+          <t>FA1B4A7125D5D7C000</t>
+        </is>
+      </c>
+      <c r="X822" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y822" t="inlineStr">
+        <is>
+          <t>mv :-0.96, mv_2m:0.61,mv_5m : -0.44, mv_30m : -8.02, mv_60m: -8.83, md_60m: -25c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z822" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA822" t="inlineStr">
+        <is>
+          <t>FA1B4A71246C4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>821</v>
+      </c>
+      <c r="B823" t="n">
+        <v>4634</v>
+      </c>
+      <c r="C823" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
+      </c>
+      <c r="D823" s="2" t="n">
+        <v>45913.08418040509</v>
+      </c>
+      <c r="E823" t="n">
+        <v>274.505</v>
+      </c>
+      <c r="F823" t="n">
+        <v>2470.545</v>
+      </c>
+      <c r="G823" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H823" s="2" t="n">
+        <v>45913.2887802662</v>
+      </c>
+      <c r="I823" t="n">
+        <v>274.885</v>
+      </c>
+      <c r="J823" t="n">
+        <v>2473.965</v>
+      </c>
+      <c r="K823" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L823" t="n">
+        <v>9</v>
+      </c>
+      <c r="M823" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N823" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O823" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P823" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q823" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R823" t="n">
+        <v>1.370000000000073</v>
+      </c>
+      <c r="S823" t="inlineStr">
+        <is>
+          <t>FA1B4A86F1AB57C000</t>
+        </is>
+      </c>
+      <c r="T823" t="inlineStr">
+        <is>
+          <t>FA1B4A877E914AD000</t>
+        </is>
+      </c>
+      <c r="U823" t="inlineStr"/>
+      <c r="V823" t="inlineStr"/>
+      <c r="W823" t="inlineStr">
+        <is>
+          <t>FA1B4A8780B4D7C000</t>
+        </is>
+      </c>
+      <c r="X823" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y823" t="inlineStr">
+        <is>
+          <t>mv :-0.77, mv_2m:0.23,mv_5m : 0.25, mv_30m : -0.03, mv_60m: 0.07, md_60m: -11c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z823" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA823" t="inlineStr">
+        <is>
+          <t>FA1B4A877F4D17C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>822</v>
+      </c>
+      <c r="B824" t="n">
+        <v>4635</v>
+      </c>
+      <c r="C824" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="D824" s="2" t="n">
+        <v>45913.08493246528</v>
+      </c>
+      <c r="E824" t="n">
+        <v>135.38</v>
+      </c>
+      <c r="F824" t="n">
+        <v>2436.84</v>
+      </c>
+      <c r="G824" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H824" s="2" t="n">
+        <v>45913.14747612269</v>
+      </c>
+      <c r="I824" t="n">
+        <v>134.9919</v>
+      </c>
+      <c r="J824" t="n">
+        <v>2429.8542</v>
+      </c>
+      <c r="K824" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L824" t="n">
+        <v>18</v>
+      </c>
+      <c r="M824" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N824" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O824" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P824" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q824" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R824" t="n">
+        <v>-9.075800000000381</v>
+      </c>
+      <c r="S824" t="inlineStr">
+        <is>
+          <t>FA1B4A8731230AD000</t>
+        </is>
+      </c>
+      <c r="T824" t="inlineStr">
+        <is>
+          <t>FA1B4A877ACB8AD000</t>
+        </is>
+      </c>
+      <c r="U824" t="inlineStr"/>
+      <c r="V824" t="inlineStr"/>
+      <c r="W824" t="inlineStr">
+        <is>
+          <t>FA1B4A877CE7CAD000</t>
+        </is>
+      </c>
+      <c r="X824" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y824" t="inlineStr">
+        <is>
+          <t>mv :-0.90, mv_2m:0.10,mv_5m : 0.25, mv_30m : 0.08, mv_60m: 0.68, md_60m: -2c1: 0, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z824" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA824" t="inlineStr">
+        <is>
+          <t>FA1B4A877B840AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>4636</v>
+      </c>
+      <c r="C825" t="inlineStr">
+        <is>
+          <t>ABT</t>
+        </is>
+      </c>
+      <c r="D825" s="2" t="n">
+        <v>45913.1282208449</v>
+      </c>
+      <c r="E825" t="n">
+        <v>133.24</v>
+      </c>
+      <c r="F825" t="n">
+        <v>2398.32</v>
+      </c>
+      <c r="G825" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H825" s="2" t="n">
+        <v>45916.01975144676</v>
+      </c>
+      <c r="I825" t="n">
+        <v>133.91</v>
+      </c>
+      <c r="J825" t="n">
+        <v>2410.38</v>
+      </c>
+      <c r="K825" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L825" t="n">
+        <v>18</v>
+      </c>
+      <c r="M825" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N825" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O825" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P825" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q825" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R825" t="n">
+        <v>9.969999999999946</v>
+      </c>
+      <c r="S825" t="inlineStr">
+        <is>
+          <t>FA1B4A9575AC57C000</t>
+        </is>
+      </c>
+      <c r="T825" t="inlineStr">
+        <is>
+          <t>FA1B4A95B7CC4AD000</t>
+        </is>
+      </c>
+      <c r="U825" t="inlineStr"/>
+      <c r="V825" t="inlineStr"/>
+      <c r="W825" t="inlineStr">
+        <is>
+          <t>FA1B4A95BA2A57C000</t>
+        </is>
+      </c>
+      <c r="X825" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y825" t="inlineStr">
+        <is>
+          <t>mv :-0.99, mv_2m:0.01,mv_5m : 0.04, mv_30m : -0.93, mv_60m: -0.59, md_60m: -8c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z825" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA825" t="inlineStr">
+        <is>
+          <t>FA1B4A95B892CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>4637</v>
+      </c>
+      <c r="C826" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
+      </c>
+      <c r="D826" s="2" t="n">
+        <v>45916.00885364584</v>
+      </c>
+      <c r="E826" t="n">
+        <v>276.04</v>
+      </c>
+      <c r="F826" t="n">
+        <v>2484.36</v>
+      </c>
+      <c r="G826" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H826" s="2" t="n">
+        <v>45916.18744480324</v>
+      </c>
+      <c r="I826" t="n">
+        <v>276.3912</v>
+      </c>
+      <c r="J826" t="n">
+        <v>2487.5208</v>
+      </c>
+      <c r="K826" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L826" t="n">
+        <v>9</v>
+      </c>
+      <c r="M826" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N826" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O826" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P826" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q826" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R826" t="n">
+        <v>1.110800000000108</v>
+      </c>
+      <c r="S826" t="inlineStr">
+        <is>
+          <t>FA1B4E4AE3034AD000</t>
+        </is>
+      </c>
+      <c r="T826" t="inlineStr">
+        <is>
+          <t>FA1B4E4B22A117C000</t>
+        </is>
+      </c>
+      <c r="U826" t="inlineStr"/>
+      <c r="V826" t="inlineStr"/>
+      <c r="W826" t="inlineStr">
+        <is>
+          <t>FA1B4E4B24BCD7C000</t>
+        </is>
+      </c>
+      <c r="X826" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y826" t="inlineStr">
+        <is>
+          <t>mv :0.73, mv_2m:0.55,mv_5m : 2.20, mv_30m : 0.15, mv_60m: 5.09, md_60m: -8c1: 0, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z826" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA826" t="inlineStr">
+        <is>
+          <t>FA1B4E4B235A8AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>4639</v>
+      </c>
+      <c r="C827" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="D827" s="2" t="n">
+        <v>45916.11476416667</v>
+      </c>
+      <c r="E827" t="n">
+        <v>25.0082</v>
+      </c>
+      <c r="F827" t="n">
+        <v>2475.8118</v>
+      </c>
+      <c r="G827" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="H827" s="2" t="n">
+        <v>45916.16731244213</v>
+      </c>
+      <c r="I827" t="n">
+        <v>24.7717</v>
+      </c>
+      <c r="J827" t="n">
+        <v>2452.3983</v>
+      </c>
+      <c r="K827" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="L827" t="n">
+        <v>99</v>
+      </c>
+      <c r="M827" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N827" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O827" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P827" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q827" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R827" t="n">
+        <v>-26.01350000000011</v>
+      </c>
+      <c r="S827" t="inlineStr">
+        <is>
+          <t>FA1B4E6DCB310AD000</t>
+        </is>
+      </c>
+      <c r="T827" t="inlineStr">
+        <is>
+          <t>FA1B4E6F45C5CAD000</t>
+        </is>
+      </c>
+      <c r="U827" t="inlineStr"/>
+      <c r="V827" t="inlineStr"/>
+      <c r="W827" t="inlineStr">
+        <is>
+          <t>FA1B4E6F47E517C000</t>
+        </is>
+      </c>
+      <c r="X827" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y827" t="inlineStr">
+        <is>
+          <t>mv :-1.00, mv_2m:0.09,mv_5m : -0.38, mv_30m : 0.50, mv_60m: 1.39, md_60m: -24c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z827" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA827" t="inlineStr">
+        <is>
+          <t>FA1B4E6F467B57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>4646</v>
+      </c>
+      <c r="C828" t="inlineStr">
+        <is>
+          <t>AVY</t>
+        </is>
+      </c>
+      <c r="D828" s="2" t="n">
+        <v>45917.14859239583</v>
+      </c>
+      <c r="E828" t="n">
+        <v>166.1599</v>
+      </c>
+      <c r="F828" t="n">
+        <v>2492.3985</v>
+      </c>
+      <c r="G828" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H828" s="2" t="n">
+        <v>45918.12013261574</v>
+      </c>
+      <c r="I828" t="n">
+        <v>167.6904</v>
+      </c>
+      <c r="J828" t="n">
+        <v>2515.356</v>
+      </c>
+      <c r="K828" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L828" t="n">
+        <v>15</v>
+      </c>
+      <c r="M828" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N828" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O828" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P828" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q828" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R828" t="n">
+        <v>20.86750000000044</v>
+      </c>
+      <c r="S828" t="inlineStr">
+        <is>
+          <t>FA1B4FC28875CAD000</t>
+        </is>
+      </c>
+      <c r="T828" t="inlineStr">
+        <is>
+          <t>FA1B4FC2C51457C000</t>
+        </is>
+      </c>
+      <c r="U828" t="inlineStr"/>
+      <c r="V828" t="inlineStr"/>
+      <c r="W828" t="inlineStr">
+        <is>
+          <t>FA1B4FC2C70FCAD000</t>
+        </is>
+      </c>
+      <c r="X828" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y828" t="inlineStr">
+        <is>
+          <t>mv :-1.01, mv_2m:0.09,mv_5m : 0.91, mv_30m : 0.97, mv_60m: 2.13, md_60m: -7c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z828" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA828" t="inlineStr">
+        <is>
+          <t>FA1B4FC2C5BD97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>4647</v>
+      </c>
+      <c r="C829" t="inlineStr">
+        <is>
+          <t>MDLZ</t>
+        </is>
+      </c>
+      <c r="D829" s="2" t="n">
+        <v>45917.18863704861</v>
+      </c>
+      <c r="E829" t="n">
+        <v>62.7198</v>
+      </c>
+      <c r="F829" t="n">
+        <v>2446.0722</v>
+      </c>
+      <c r="G829" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H829" s="2" t="n">
+        <v>45918.18799101852</v>
+      </c>
+      <c r="I829" t="n">
+        <v>63.0408</v>
+      </c>
+      <c r="J829" t="n">
+        <v>2458.5912</v>
+      </c>
+      <c r="K829" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="L829" t="n">
+        <v>39</v>
+      </c>
+      <c r="M829" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N829" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O829" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P829" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q829" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R829" t="n">
+        <v>10.28899999999978</v>
+      </c>
+      <c r="S829" t="inlineStr">
+        <is>
+          <t>FA1B4FCFBB394AD000</t>
+        </is>
+      </c>
+      <c r="T829" t="inlineStr">
+        <is>
+          <t>FA1B4FD0002557C000</t>
+        </is>
+      </c>
+      <c r="U829" t="inlineStr"/>
+      <c r="V829" t="inlineStr"/>
+      <c r="W829" t="inlineStr">
+        <is>
+          <t>FA1B4FD002458AD000</t>
+        </is>
+      </c>
+      <c r="X829" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y829" t="inlineStr">
+        <is>
+          <t>mv :-0.98, mv_2m:0.08,mv_5m : 0.37, mv_30m : -0.19, mv_60m: -1.06, md_60m: -14c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z829" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA829" t="inlineStr">
+        <is>
+          <t>FA1B4FD000D017C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>4651</v>
+      </c>
+      <c r="C830" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D830" s="2" t="n">
+        <v>45917.98358064815</v>
+      </c>
+      <c r="E830" t="n">
+        <v>100.5794</v>
+      </c>
+      <c r="F830" t="n">
+        <v>2413.9056</v>
+      </c>
+      <c r="G830" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H830" s="2" t="n">
+        <v>45918.13607208333</v>
+      </c>
+      <c r="I830" t="n">
+        <v>101.16705</v>
+      </c>
+      <c r="J830" t="n">
+        <v>2428.0092</v>
+      </c>
+      <c r="K830" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L830" t="n">
+        <v>24</v>
+      </c>
+      <c r="M830" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N830" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O830" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P830" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q830" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R830" t="n">
+        <v>11.97359999999991</v>
+      </c>
+      <c r="S830" t="inlineStr">
+        <is>
+          <t>FA1B50D5BBE50AD000</t>
+        </is>
+      </c>
+      <c r="T830" t="inlineStr">
+        <is>
+          <t>FA1B50D67EE78AD000</t>
+        </is>
+      </c>
+      <c r="U830" t="inlineStr"/>
+      <c r="V830" t="inlineStr"/>
+      <c r="W830" t="inlineStr">
+        <is>
+          <t>FA1B50D6811997C000</t>
+        </is>
+      </c>
+      <c r="X830" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y830" t="inlineStr">
+        <is>
+          <t>mv :-0.05, mv_2m:1.02,mv_5m : 5.93, mv_30m : 2.17, mv_60m: -4.19, md_60m: -23c1: 0, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z830" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA830" t="inlineStr">
+        <is>
+          <t>FA1B50D67F920AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>4653</v>
+      </c>
+      <c r="C831" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="D831" s="2" t="n">
+        <v>45918.12725248843</v>
+      </c>
+      <c r="E831" t="n">
+        <v>133.5133</v>
+      </c>
+      <c r="F831" t="n">
+        <v>2403.2394</v>
+      </c>
+      <c r="G831" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H831" s="2" t="n">
+        <v>45918.19288658565</v>
+      </c>
+      <c r="I831" t="n">
+        <v>133.2101</v>
+      </c>
+      <c r="J831" t="n">
+        <v>2397.7818</v>
+      </c>
+      <c r="K831" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L831" t="n">
+        <v>18</v>
+      </c>
+      <c r="M831" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N831" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O831" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P831" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q831" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R831" t="n">
+        <v>-7.547599999999729</v>
+      </c>
+      <c r="S831" t="inlineStr">
+        <is>
+          <t>FA1B51051665D7C000</t>
+        </is>
+      </c>
+      <c r="T831" t="inlineStr">
+        <is>
+          <t>FA1B5105530C97C000</t>
+        </is>
+      </c>
+      <c r="U831" t="inlineStr"/>
+      <c r="V831" t="inlineStr"/>
+      <c r="W831" t="inlineStr">
+        <is>
+          <t>FA1B5105553097C000</t>
+        </is>
+      </c>
+      <c r="X831" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y831" t="inlineStr">
+        <is>
+          <t>mv :-2.71, mv_2m:0.41,mv_5m : -0.35, mv_30m : -9.09, mv_60m: -22.30, md_60m: -90c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z831" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA831" t="inlineStr">
+        <is>
+          <t>FA1B510553B5D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>4654</v>
+      </c>
+      <c r="C832" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="D832" s="2" t="n">
+        <v>45918.1288859838</v>
+      </c>
+      <c r="E832" t="n">
+        <v>344.0185</v>
+      </c>
+      <c r="F832" t="n">
+        <v>2408.1295</v>
+      </c>
+      <c r="G832" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H832" s="2" t="n">
+        <v>45919.02260221065</v>
+      </c>
+      <c r="I832" t="n">
+        <v>344.185</v>
+      </c>
+      <c r="J832" t="n">
+        <v>2409.295</v>
+      </c>
+      <c r="K832" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L832" t="n">
+        <v>7</v>
+      </c>
+      <c r="M832" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N832" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O832" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P832" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q832" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R832" t="n">
+        <v>-0.8644999999999345</v>
+      </c>
+      <c r="S832" t="inlineStr">
+        <is>
+          <t>FA1B5105A03F17C000</t>
+        </is>
+      </c>
+      <c r="T832" t="inlineStr">
+        <is>
+          <t>FA1B5105C60697C000</t>
+        </is>
+      </c>
+      <c r="U832" t="inlineStr"/>
+      <c r="V832" t="inlineStr"/>
+      <c r="W832" t="inlineStr">
+        <is>
+          <t>FA1B5105C82ECAD000</t>
+        </is>
+      </c>
+      <c r="X832" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y832" t="inlineStr">
+        <is>
+          <t>mv :-1.13, mv_2m:-0.23,mv_5m : 1.22, mv_30m : -2.72, mv_60m: -9.99, md_60m: -46c1: 1, c2: 0, c9: 1</t>
+        </is>
+      </c>
+      <c r="Z832" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA832" t="inlineStr">
+        <is>
+          <t>FA1B5105C6C20AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>4655</v>
+      </c>
+      <c r="C833" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="D833" s="2" t="n">
+        <v>45918.15693149305</v>
+      </c>
+      <c r="E833" t="n">
+        <v>133.6399</v>
+      </c>
+      <c r="F833" t="n">
+        <v>2405.5182</v>
+      </c>
+      <c r="G833" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H833" s="2" t="n">
+        <v>45918.23472068287</v>
+      </c>
+      <c r="I833" t="n">
+        <v>133.31</v>
+      </c>
+      <c r="J833" t="n">
+        <v>2399.58</v>
+      </c>
+      <c r="K833" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L833" t="n">
+        <v>18</v>
+      </c>
+      <c r="M833" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N833" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O833" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P833" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q833" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R833" t="n">
+        <v>-8.028200000000052</v>
+      </c>
+      <c r="S833" t="inlineStr">
+        <is>
+          <t>FA1B510EDED4D7C000</t>
+        </is>
+      </c>
+      <c r="T833" t="inlineStr">
+        <is>
+          <t>FA1B510F2EEC4AD000</t>
+        </is>
+      </c>
+      <c r="U833" t="inlineStr"/>
+      <c r="V833" t="inlineStr"/>
+      <c r="W833" t="inlineStr">
+        <is>
+          <t>FA1B510F310B8AD000</t>
+        </is>
+      </c>
+      <c r="X833" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y833" t="inlineStr">
+        <is>
+          <t>mv :-1.99, mv_2m:-0.73,mv_5m : -1.60, mv_30m : -3.35, mv_60m: -11.85, md_60m: -74c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z833" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA833" t="inlineStr">
+        <is>
+          <t>FA1B510F2F970AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>4661</v>
+      </c>
+      <c r="C834" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="D834" s="2" t="n">
+        <v>45918.19902910879</v>
+      </c>
+      <c r="E834" t="n">
+        <v>66.955</v>
+      </c>
+      <c r="F834" t="n">
+        <v>2477.335</v>
+      </c>
+      <c r="G834" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H834" s="2" t="n">
+        <v>45918.25830038195</v>
+      </c>
+      <c r="I834" t="n">
+        <v>66.9019</v>
+      </c>
+      <c r="J834" t="n">
+        <v>2475.3703</v>
+      </c>
+      <c r="K834" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L834" t="n">
+        <v>37</v>
+      </c>
+      <c r="M834" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N834" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O834" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P834" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q834" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R834" t="n">
+        <v>-4.174699999999993</v>
+      </c>
+      <c r="S834" t="inlineStr">
+        <is>
+          <t>FA1B511CBEF2CAD000</t>
+        </is>
+      </c>
+      <c r="T834" t="inlineStr">
+        <is>
+          <t>FA1B511D63CD8AD000</t>
+        </is>
+      </c>
+      <c r="U834" t="inlineStr"/>
+      <c r="V834" t="inlineStr"/>
+      <c r="W834" t="inlineStr">
+        <is>
+          <t>FA1B511D65EF57C000</t>
+        </is>
+      </c>
+      <c r="X834" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y834" t="inlineStr">
+        <is>
+          <t>mv :-4.02, mv_2m:-2.98,mv_5m : -5.49, mv_30m : -12.96, mv_60m: -9.02, md_60m: -25c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z834" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA834" t="inlineStr">
+        <is>
+          <t>FA1B511D6487CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>4662</v>
+      </c>
+      <c r="C835" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="D835" s="2" t="n">
+        <v>45919.01105071759</v>
+      </c>
+      <c r="E835" t="n">
+        <v>239.73</v>
+      </c>
+      <c r="F835" t="n">
+        <v>2397.3</v>
+      </c>
+      <c r="G835" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H835" s="2" t="n">
+        <v>45919.17206313658</v>
+      </c>
+      <c r="I835" t="n">
+        <v>240.15</v>
+      </c>
+      <c r="J835" t="n">
+        <v>2401.5</v>
+      </c>
+      <c r="K835" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L835" t="n">
+        <v>10</v>
+      </c>
+      <c r="M835" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N835" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O835" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P835" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q835" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R835" t="n">
+        <v>2.149999999999818</v>
+      </c>
+      <c r="S835" t="inlineStr">
+        <is>
+          <t>FA1B5228616917C000</t>
+        </is>
+      </c>
+      <c r="T835" t="inlineStr">
+        <is>
+          <t>FA1B5229656ACAD000</t>
+        </is>
+      </c>
+      <c r="U835" t="inlineStr"/>
+      <c r="V835" t="inlineStr"/>
+      <c r="W835" t="inlineStr">
+        <is>
+          <t>FA1B52296788CAD000</t>
+        </is>
+      </c>
+      <c r="X835" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y835" t="inlineStr">
+        <is>
+          <t>mv :1.02, mv_2m:2.02,mv_5m : 1.31, mv_30m : 30.90, mv_60m: 29.19, md_60m: 7c1: 0, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z835" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA835" t="inlineStr">
+        <is>
+          <t>FA1B52296624D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>4663</v>
+      </c>
+      <c r="C836" t="inlineStr">
+        <is>
+          <t>QCOM</t>
+        </is>
+      </c>
+      <c r="D836" s="2" t="n">
+        <v>45919.08198317129</v>
+      </c>
+      <c r="E836" t="n">
+        <v>168.0093</v>
+      </c>
+      <c r="F836" t="n">
+        <v>2352.1302</v>
+      </c>
+      <c r="G836" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H836" s="2" t="n">
+        <v>45919.1819102662</v>
+      </c>
+      <c r="I836" t="n">
+        <v>167.495405</v>
+      </c>
+      <c r="J836" t="n">
+        <v>2344.93567</v>
+      </c>
+      <c r="K836" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L836" t="n">
+        <v>14</v>
+      </c>
+      <c r="M836" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N836" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O836" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P836" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q836" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R836" t="n">
+        <v>-9.264530000000214</v>
+      </c>
+      <c r="S836" t="inlineStr">
+        <is>
+          <t>FA1B523FC250CAD000</t>
+        </is>
+      </c>
+      <c r="T836" t="inlineStr">
+        <is>
+          <t>FA1B523FEF7B4AD000</t>
+        </is>
+      </c>
+      <c r="U836" t="inlineStr"/>
+      <c r="V836" t="inlineStr"/>
+      <c r="W836" t="inlineStr">
+        <is>
+          <t>FA1B523FF1998AD000</t>
+        </is>
+      </c>
+      <c r="X836" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y836" t="inlineStr">
+        <is>
+          <t>mv :-1.15, mv_2m:-0.15,mv_5m : -0.22, mv_30m : 1.79, mv_60m: 0.88, md_60m: -5c1: 0, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z836" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA836" t="inlineStr">
+        <is>
+          <t>FA1B523FF0234AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>4664</v>
+      </c>
+      <c r="C837" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="D837" s="2" t="n">
+        <v>45919.20340663195</v>
+      </c>
+      <c r="E837" t="n">
+        <v>95.59</v>
+      </c>
+      <c r="F837" t="n">
+        <v>2485.34</v>
+      </c>
+      <c r="G837" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H837" s="2" t="n">
+        <v>45919.27144149305</v>
+      </c>
+      <c r="I837" t="n">
+        <v>95.28</v>
+      </c>
+      <c r="J837" t="n">
+        <v>2477.28</v>
+      </c>
+      <c r="K837" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L837" t="n">
+        <v>26</v>
+      </c>
+      <c r="M837" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N837" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O837" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P837" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q837" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R837" t="n">
+        <v>-10.20999999999995</v>
+      </c>
+      <c r="S837" t="inlineStr">
+        <is>
+          <t>FA1B5267C762CAD000</t>
+        </is>
+      </c>
+      <c r="T837" t="inlineStr">
+        <is>
+          <t>FA1B5267FA9C17C000</t>
+        </is>
+      </c>
+      <c r="U837" t="inlineStr"/>
+      <c r="V837" t="inlineStr"/>
+      <c r="W837" t="inlineStr">
+        <is>
+          <t>FA1B5267FCBCCAD000</t>
+        </is>
+      </c>
+      <c r="X837" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y837" t="inlineStr">
+        <is>
+          <t>mv :-0.24, mv_2m:0.86,mv_5m : 3.28, mv_30m : -1.46, mv_60m: -6.74, md_60m: -63c1: 1, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z837" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA837" t="inlineStr">
+        <is>
+          <t>FA1B5267FB470AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>4665</v>
+      </c>
+      <c r="C838" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="D838" s="2" t="n">
+        <v>45919.21494670139</v>
+      </c>
+      <c r="E838" t="n">
+        <v>141.1698</v>
+      </c>
+      <c r="F838" t="n">
+        <v>2399.8866</v>
+      </c>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" s="2" t="n">
+        <v>45919.28009519676</v>
+      </c>
+      <c r="I838" t="n">
+        <v>141.07</v>
+      </c>
+      <c r="J838" t="n">
+        <v>2398.19</v>
+      </c>
+      <c r="K838" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L838" t="n">
+        <v>17</v>
+      </c>
+      <c r="M838" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N838" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O838" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P838" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q838" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R838" t="inlineStr"/>
+      <c r="S838" t="inlineStr">
+        <is>
+          <t>FA1B526B9512D7C000</t>
+        </is>
+      </c>
+      <c r="T838" t="inlineStr">
+        <is>
+          <t>FA1B526C14D9D7C000</t>
+        </is>
+      </c>
+      <c r="U838" t="inlineStr"/>
+      <c r="V838" t="inlineStr"/>
+      <c r="W838" t="inlineStr">
+        <is>
+          <t>FA1B526C16F30AD000</t>
+        </is>
+      </c>
+      <c r="X838" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y838" t="inlineStr">
+        <is>
+          <t>mv :-0.94, mv_2m:0.06,mv_5m : 0.06, mv_30m : 5.37, mv_60m: 3.80, md_60m: 3c1: 0, c2: 0, c9: 0</t>
+        </is>
+      </c>
+      <c r="Z838" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA838" t="inlineStr">
+        <is>
+          <t>FA1B526C15814AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>4666</v>
+      </c>
+      <c r="C839" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="D839" s="2" t="n">
+        <v>45919.98415627315</v>
+      </c>
+      <c r="E839" t="n">
+        <v>59.28</v>
+      </c>
+      <c r="F839" t="n">
+        <v>2489.76</v>
+      </c>
+      <c r="G839" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="H839" s="2" t="n">
+        <v>45920.05567274305</v>
+      </c>
+      <c r="I839" t="n">
+        <v>59.1627</v>
+      </c>
+      <c r="J839" t="n">
+        <v>2484.8334</v>
+      </c>
+      <c r="K839" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="L839" t="n">
+        <v>42</v>
+      </c>
+      <c r="M839" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N839" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O839" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P839" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q839" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R839" t="n">
+        <v>-7.176600000000235</v>
+      </c>
+      <c r="S839" t="inlineStr">
+        <is>
+          <t>FA1B53691B2417C000</t>
+        </is>
+      </c>
+      <c r="T839" t="inlineStr">
+        <is>
+          <t>FA1B536A31A897C000</t>
+        </is>
+      </c>
+      <c r="U839" t="inlineStr"/>
+      <c r="V839" t="inlineStr"/>
+      <c r="W839" t="inlineStr">
+        <is>
+          <t>FA1B536A33DD57C000</t>
+        </is>
+      </c>
+      <c r="X839" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y839" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False,  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.235, df['MACD'].iloc[-2]: 0.224,  df['MACD_hist'].iloc[-1]: 0.075, df['MACD_hist'].iloc[-2]: 0.065,  delta_MA50_M120.iloc[-1]: 0.288, delta_MA50_M120.iloc[-2]: 0.257,\ 
+  df['MA30_RSI10'].iloc[-1]: 54.544, df['MA30_RSI10'].iloc[-2]: 54.377  delta_MA50_MA120_1m.iloc[-1]: -0.011, delta_MA50_MA120_1m.iloc[-2]: -0.014  df_1m['MA30_RSI10'].iloc[-1]: 54.159, df_1m['MA30_RSI10'].iloc[-2]: 53.379  df_1m['MACD'].iloc[-1]: 0.028, df_1m['MACD'].iloc[-2]: 0.025  df_1m['MACD_hist'].iloc[-1]: 0.032, df_1m['MACD_hist'].iloc[-2]: 0.031  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.160 (more than 1.07 is good),  MACD_hist_max_amp: 0.235, MACD_hist_max_amp_1m: 0.034  </t>
+        </is>
+      </c>
+      <c r="Z839" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA839" t="inlineStr">
+        <is>
+          <t>FA1B536A325B57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
+        <v>4667</v>
+      </c>
+      <c r="C840" t="inlineStr">
+        <is>
+          <t>SCHW</t>
+        </is>
+      </c>
+      <c r="D840" s="2" t="n">
+        <v>45920.08007607639</v>
+      </c>
+      <c r="E840" t="n">
+        <v>93.39</v>
+      </c>
+      <c r="F840" t="n">
+        <v>2428.14</v>
+      </c>
+      <c r="G840" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H840" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>0</v>
+      </c>
+      <c r="K840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L840" t="n">
+        <v>26</v>
+      </c>
+      <c r="M840" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N840" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O840" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P840" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q840" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R840" t="n">
+        <v>0</v>
+      </c>
+      <c r="S840" t="inlineStr">
+        <is>
+          <t>FA1B5388B86B8AD000</t>
+        </is>
+      </c>
+      <c r="T840" t="inlineStr"/>
+      <c r="U840" t="inlineStr"/>
+      <c r="V840" t="inlineStr"/>
+      <c r="W840" t="inlineStr"/>
+      <c r="X840" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y840" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:1,  df['MACD'].iloc[-1]: -0.131, df['MACD'].iloc[-2]: -0.173,  df['MACD_hist'].iloc[-1]: 0.462, df['MACD_hist'].iloc[-2]: 0.448,  delta_MA50_M120.iloc[-1]: -1.656, delta_MA50_M120.iloc[-2]: -1.706,\ 
+  df['MA30_RSI10'].iloc[-1]: 43.920, df['MA30_RSI10'].iloc[-2]: 43.363  delta_MA50_MA120_1m.iloc[-1]: 0.170, delta_MA50_MA120_1m.iloc[-2]: 0.165  df_1m['MA30_RSI10'].iloc[-1]: 61.524, df_1m['MA30_RSI10'].iloc[-2]: 61.122  df_1m['MACD'].iloc[-1]: 0.065, df_1m['MACD'].iloc[-2]: 0.063  df_1m['MACD_hist'].iloc[-1]: 0.006, df_1m['MACD_hist'].iloc[-2]: 0.001  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.029 (more than 1.07 is good),  MACD_hist_max_amp: 0.457, MACD_hist_max_amp_1m: 0.041  </t>
+        </is>
+      </c>
+      <c r="Z840" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>4668</v>
+      </c>
+      <c r="C841" t="inlineStr">
+        <is>
+          <t>ASML</t>
+        </is>
+      </c>
+      <c r="D841" s="2" t="n">
+        <v>45920.08635392361</v>
+      </c>
+      <c r="E841" t="n">
+        <v>932.39</v>
+      </c>
+      <c r="F841" t="n">
+        <v>1864.78</v>
+      </c>
+      <c r="G841" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H841" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>0</v>
+      </c>
+      <c r="K841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L841" t="n">
+        <v>2</v>
+      </c>
+      <c r="M841" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N841" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O841" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P841" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q841" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R841" t="n">
+        <v>0</v>
+      </c>
+      <c r="S841" t="inlineStr">
+        <is>
+          <t>FA1B538ACA240AD000</t>
+        </is>
+      </c>
+      <c r="T841" t="inlineStr"/>
+      <c r="U841" t="inlineStr"/>
+      <c r="V841" t="inlineStr"/>
+      <c r="W841" t="inlineStr"/>
+      <c r="X841" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y841" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:0, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:1,  df['MACD'].iloc[-1]: 30.742, df['MACD'].iloc[-2]: 30.464,  df['MACD_hist'].iloc[-1]: 6.514, df['MACD_hist'].iloc[-2]: 6.960,  delta_MA50_M120.iloc[-1]: 6.844, delta_MA50_M120.iloc[-2]: 6.697,\ 
+  df['MA30_RSI10'].iloc[-1]: 80.614, df['MA30_RSI10'].iloc[-2]: 81.261  delta_MA50_MA120_1m.iloc[-1]: -0.041, delta_MA50_MA120_1m.iloc[-2]: -0.042  df_1m['MA30_RSI10'].iloc[-1]: 62.226, df_1m['MA30_RSI10'].iloc[-2]: 60.572  df_1m['MACD'].iloc[-1]: 0.607, df_1m['MACD'].iloc[-2]: 0.543  df_1m['MACD_hist'].iloc[-1]: 0.513, df_1m['MACD_hist'].iloc[-2]: 0.465  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.936 (more than 1.07 is good),  MACD_hist_max_amp: 9.659, MACD_hist_max_amp_1m: 0.716  </t>
+        </is>
+      </c>
+      <c r="Z841" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>4669</v>
+      </c>
+      <c r="C842" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="D842" s="2" t="n">
+        <v>45920.09996373842</v>
+      </c>
+      <c r="E842" t="n">
+        <v>70.92</v>
+      </c>
+      <c r="F842" t="n">
+        <v>2482.2</v>
+      </c>
+      <c r="G842" t="inlineStr"/>
+      <c r="H842" s="2" t="n">
+        <v>45920.15402466435</v>
+      </c>
+      <c r="I842" t="n">
+        <v>70.7303</v>
+      </c>
+      <c r="J842" t="n">
+        <v>2475.5605</v>
+      </c>
+      <c r="K842" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L842" t="n">
+        <v>35</v>
+      </c>
+      <c r="M842" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N842" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O842" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P842" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q842" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R842" t="inlineStr"/>
+      <c r="S842" t="inlineStr">
+        <is>
+          <t>FA1B538F46714AD000</t>
+        </is>
+      </c>
+      <c r="T842" t="inlineStr">
+        <is>
+          <t>FA1B53909B0C4AD000</t>
+        </is>
+      </c>
+      <c r="U842" t="inlineStr"/>
+      <c r="V842" t="inlineStr"/>
+      <c r="W842" t="inlineStr">
+        <is>
+          <t>FA1B53909D23D7C000</t>
+        </is>
+      </c>
+      <c r="X842" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y842" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.137, df['MACD'].iloc[-2]: -0.152,  df['MACD_hist'].iloc[-1]: 0.048, df['MACD_hist'].iloc[-2]: 0.025,  delta_MA50_M120.iloc[-1]: -0.589, delta_MA50_M120.iloc[-2]: -0.640,\ 
+  df['MA30_RSI10'].iloc[-1]: 45.014, df['MA30_RSI10'].iloc[-2]: 44.970  delta_MA50_MA120_1m.iloc[-1]: 0.169, delta_MA50_MA120_1m.iloc[-2]: 0.163  df_1m['MA30_RSI10'].iloc[-1]: 60.226, df_1m['MA30_RSI10'].iloc[-2]: 59.701  df_1m['MACD'].iloc[-1]: 0.053, df_1m['MACD'].iloc[-2]: 0.053  df_1m['MACD_hist'].iloc[-1]: 0.006, df_1m['MACD_hist'].iloc[-2]: 0.006  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.912 (more than 1.07 is good),  MACD_hist_max_amp: 0.493, MACD_hist_max_amp_1m: 0.057  </t>
+        </is>
+      </c>
+      <c r="Z842" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA842" t="inlineStr">
+        <is>
+          <t>FA1B53909BB7D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>4670</v>
+      </c>
+      <c r="C843" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="D843" s="2" t="n">
+        <v>45920.10874604167</v>
+      </c>
+      <c r="E843" t="n">
+        <v>84.27</v>
+      </c>
+      <c r="F843" t="n">
+        <v>2443.83</v>
+      </c>
+      <c r="G843" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H843" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>0</v>
+      </c>
+      <c r="K843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L843" t="n">
+        <v>29</v>
+      </c>
+      <c r="M843" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N843" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O843" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P843" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q843" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R843" t="n">
+        <v>0</v>
+      </c>
+      <c r="S843" t="inlineStr">
+        <is>
+          <t>FA1B53922B72D7C000</t>
+        </is>
+      </c>
+      <c r="T843" t="inlineStr"/>
+      <c r="U843" t="inlineStr"/>
+      <c r="V843" t="inlineStr"/>
+      <c r="W843" t="inlineStr"/>
+      <c r="X843" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y843" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.670, df['MACD'].iloc[-2]: 0.623,  df['MACD_hist'].iloc[-1]: 0.425, df['MACD_hist'].iloc[-2]: 0.397,  delta_MA50_M120.iloc[-1]: 0.384, delta_MA50_M120.iloc[-2]: 0.325,\ 
+  df['MA30_RSI10'].iloc[-1]: 60.489, df['MA30_RSI10'].iloc[-2]: 59.761  delta_MA50_MA120_1m.iloc[-1]: 0.243, delta_MA50_MA120_1m.iloc[-2]: 0.240  df_1m['MA30_RSI10'].iloc[-1]: 60.786, df_1m['MA30_RSI10'].iloc[-2]: 60.393  df_1m['MACD'].iloc[-1]: 0.084, df_1m['MACD'].iloc[-2]: 0.083  df_1m['MACD_hist'].iloc[-1]: 0.013, df_1m['MACD_hist'].iloc[-2]: 0.013  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.072 (more than 1.07 is good),  MACD_hist_max_amp: 0.357, MACD_hist_max_amp_1m: 0.029  </t>
+        </is>
+      </c>
+      <c r="Z843" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>4671</v>
+      </c>
+      <c r="C844" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="D844" s="2" t="n">
+        <v>45920.11251706019</v>
+      </c>
+      <c r="E844" t="n">
+        <v>477.11</v>
+      </c>
+      <c r="F844" t="n">
+        <v>2385.55</v>
+      </c>
+      <c r="G844" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H844" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>0</v>
+      </c>
+      <c r="K844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L844" t="n">
+        <v>5</v>
+      </c>
+      <c r="M844" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N844" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O844" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P844" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q844" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R844" t="n">
+        <v>0</v>
+      </c>
+      <c r="S844" t="inlineStr">
+        <is>
+          <t>FA1B539369AB97C000</t>
+        </is>
+      </c>
+      <c r="T844" t="inlineStr">
+        <is>
+          <t>FA1B5393CDD217C000</t>
+        </is>
+      </c>
+      <c r="U844" t="inlineStr"/>
+      <c r="V844" t="inlineStr"/>
+      <c r="W844" t="inlineStr">
+        <is>
+          <t>FA1B5393CFDD0AD000</t>
+        </is>
+      </c>
+      <c r="X844" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y844" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.136, df['MACD'].iloc[-2]: 0.105,  df['MACD_hist'].iloc[-1]: 0.057, df['MACD_hist'].iloc[-2]: 0.004,  delta_MA50_M120.iloc[-1]: 0.191, delta_MA50_M120.iloc[-2]: 0.162,\ 
+  df['MA30_RSI10'].iloc[-1]: 44.005, df['MA30_RSI10'].iloc[-2]: 43.985  delta_MA50_MA120_1m.iloc[-1]: 0.051, delta_MA50_MA120_1m.iloc[-2]: 0.044  df_1m['MA30_RSI10'].iloc[-1]: 56.951, df_1m['MA30_RSI10'].iloc[-2]: 55.968  df_1m['MACD'].iloc[-1]: 0.199, df_1m['MACD'].iloc[-2]: 0.188  df_1m['MACD_hist'].iloc[-1]: 0.066, df_1m['MACD_hist'].iloc[-2]: 0.054  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 15.296 (more than 1.07 is good),  MACD_hist_max_amp: 2.510, MACD_hist_max_amp_1m: 0.132  </t>
+        </is>
+      </c>
+      <c r="Z844" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA844" t="inlineStr">
+        <is>
+          <t>FA1B5393CE7997C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>843</v>
+      </c>
+      <c r="B845" t="n">
+        <v>4672</v>
+      </c>
+      <c r="C845" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="D845" s="2" t="n">
+        <v>45920.12814253472</v>
+      </c>
+      <c r="E845" t="n">
+        <v>481.93</v>
+      </c>
+      <c r="F845" t="n">
+        <v>2409.65</v>
+      </c>
+      <c r="G845" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H845" s="2" t="n">
+        <v>45920.19588012731</v>
+      </c>
+      <c r="I845" t="n">
+        <v>480.435</v>
+      </c>
+      <c r="J845" t="n">
+        <v>2402.175</v>
+      </c>
+      <c r="K845" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L845" t="n">
+        <v>5</v>
+      </c>
+      <c r="M845" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N845" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O845" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P845" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q845" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R845" t="n">
+        <v>-9.504999999999908</v>
+      </c>
+      <c r="S845" t="inlineStr">
+        <is>
+          <t>FA1B5398900A57C000</t>
+        </is>
+      </c>
+      <c r="T845" t="inlineStr">
+        <is>
+          <t>FA1B5398E2050AD000</t>
+        </is>
+      </c>
+      <c r="U845" t="inlineStr"/>
+      <c r="V845" t="inlineStr"/>
+      <c r="W845" t="inlineStr">
+        <is>
+          <t>FA1B5398E41497C000</t>
+        </is>
+      </c>
+      <c r="X845" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y845" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -1.004, df['MACD'].iloc[-2]: -1.149,  df['MACD_hist'].iloc[-1]: 1.212, df['MACD_hist'].iloc[-2]: 1.110,  delta_MA50_M120.iloc[-1]: -0.749, delta_MA50_M120.iloc[-2]: -0.756,\ 
+  df['MA30_RSI10'].iloc[-1]: 46.644, df['MA30_RSI10'].iloc[-2]: 45.815  delta_MA50_MA120_1m.iloc[-1]: 0.151, delta_MA50_MA120_1m.iloc[-2]: 0.143  df_1m['MA30_RSI10'].iloc[-1]: 51.542, df_1m['MA30_RSI10'].iloc[-2]: 51.309  df_1m['MACD'].iloc[-1]: 0.169, df_1m['MACD'].iloc[-2]: 0.162  df_1m['MACD_hist'].iloc[-1]: -0.038, df_1m['MACD_hist'].iloc[-2]: -0.058  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.092 (more than 1.07 is good),  MACD_hist_max_amp: 2.151, MACD_hist_max_amp_1m: 0.486  </t>
+        </is>
+      </c>
+      <c r="Z845" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA845" t="inlineStr">
+        <is>
+          <t>FA1B5398E2B80AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>844</v>
+      </c>
+      <c r="B846" t="n">
+        <v>4673</v>
+      </c>
+      <c r="C846" t="inlineStr">
+        <is>
+          <t>MAR</t>
+        </is>
+      </c>
+      <c r="D846" s="2" t="n">
+        <v>45920.13579047454</v>
+      </c>
+      <c r="E846" t="n">
+        <v>266.19</v>
+      </c>
+      <c r="F846" t="n">
+        <v>2395.71</v>
+      </c>
+      <c r="G846" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H846" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>0</v>
+      </c>
+      <c r="K846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L846" t="n">
+        <v>9</v>
+      </c>
+      <c r="M846" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N846" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O846" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P846" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q846" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R846" t="n">
+        <v>0</v>
+      </c>
+      <c r="S846" t="inlineStr">
+        <is>
+          <t>FA1B539B154E4AD000</t>
+        </is>
+      </c>
+      <c r="T846" t="inlineStr"/>
+      <c r="U846" t="inlineStr"/>
+      <c r="V846" t="inlineStr"/>
+      <c r="W846" t="inlineStr"/>
+      <c r="X846" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y846" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.292, df['MACD'].iloc[-2]: -0.364,  df['MACD_hist'].iloc[-1]: 0.094, df['MACD_hist'].iloc[-2]: -0.036,  delta_MA50_M120.iloc[-1]: -0.286, delta_MA50_M120.iloc[-2]: -0.311,\ 
+  df['MA30_RSI10'].iloc[-1]: 47.815, df['MA30_RSI10'].iloc[-2]: 47.514  delta_MA50_MA120_1m.iloc[-1]: 0.129, delta_MA50_MA120_1m.iloc[-2]: 0.125  df_1m['MA30_RSI10'].iloc[-1]: 60.062, df_1m['MA30_RSI10'].iloc[-2]: 59.077  df_1m['MACD'].iloc[-1]: 0.168, df_1m['MACD'].iloc[-2]: 0.157  df_1m['MACD_hist'].iloc[-1]: 0.035, df_1m['MACD_hist'].iloc[-2]: 0.018  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: -2.563 (more than 1.07 is good),  MACD_hist_max_amp: 0.772, MACD_hist_max_amp_1m: 0.217  </t>
+        </is>
+      </c>
+      <c r="Z846" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA846" t="inlineStr"/>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>845</v>
+      </c>
+      <c r="B847" t="n">
+        <v>4674</v>
+      </c>
+      <c r="C847" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="D847" s="2" t="n">
+        <v>45920.14876416667</v>
+      </c>
+      <c r="E847" t="n">
+        <v>261.5</v>
+      </c>
+      <c r="F847" t="n">
+        <v>2353.5</v>
+      </c>
+      <c r="G847" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H847" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>0</v>
+      </c>
+      <c r="K847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L847" t="n">
+        <v>9</v>
+      </c>
+      <c r="M847" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N847" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O847" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P847" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q847" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R847" t="n">
+        <v>0</v>
+      </c>
+      <c r="S847" t="inlineStr">
+        <is>
+          <t>FA1B539F5BF817C000</t>
+        </is>
+      </c>
+      <c r="T847" t="inlineStr"/>
+      <c r="U847" t="inlineStr"/>
+      <c r="V847" t="inlineStr"/>
+      <c r="W847" t="inlineStr"/>
+      <c r="X847" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y847" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.288, df['MACD'].iloc[-2]: -0.324,  df['MACD_hist'].iloc[-1]: 0.243, df['MACD_hist'].iloc[-2]: 0.209,  delta_MA50_M120.iloc[-1]: -0.930, delta_MA50_M120.iloc[-2]: -0.970,\ 
+  df['MA30_RSI10'].iloc[-1]: 48.942, df['MA30_RSI10'].iloc[-2]: 48.913  delta_MA50_MA120_1m.iloc[-1]: 0.048, delta_MA50_MA120_1m.iloc[-2]: 0.044  df_1m['MA30_RSI10'].iloc[-1]: 60.375, df_1m['MA30_RSI10'].iloc[-2]: 60.070  df_1m['MACD'].iloc[-1]: 0.143, df_1m['MACD'].iloc[-2]: 0.134  df_1m['MACD_hist'].iloc[-1]: 0.061, df_1m['MACD_hist'].iloc[-2]: 0.053  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.162 (more than 1.07 is good),  MACD_hist_max_amp: 0.742, MACD_hist_max_amp_1m: 0.098  </t>
+        </is>
+      </c>
+      <c r="Z847" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA847" t="inlineStr"/>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>846</v>
+      </c>
+      <c r="B848" t="n">
+        <v>4675</v>
+      </c>
+      <c r="C848" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="D848" s="2" t="n">
+        <v>45920.16000833333</v>
+      </c>
+      <c r="E848" t="n">
+        <v>262.225</v>
+      </c>
+      <c r="F848" t="n">
+        <v>2360.025</v>
+      </c>
+      <c r="G848" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H848" s="2" t="n">
+        <v>45920.26251295139</v>
+      </c>
+      <c r="I848" t="n">
+        <v>261.6732</v>
+      </c>
+      <c r="J848" t="n">
+        <v>2355.0588</v>
+      </c>
+      <c r="K848" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L848" t="n">
+        <v>9</v>
+      </c>
+      <c r="M848" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N848" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O848" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P848" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q848" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R848" t="n">
+        <v>-7.016199999999844</v>
+      </c>
+      <c r="S848" t="inlineStr">
+        <is>
+          <t>FA1B53A310B0CAD000</t>
+        </is>
+      </c>
+      <c r="T848" t="inlineStr">
+        <is>
+          <t>FA1B53A375474AD000</t>
+        </is>
+      </c>
+      <c r="U848" t="inlineStr"/>
+      <c r="V848" t="inlineStr"/>
+      <c r="W848" t="inlineStr">
+        <is>
+          <t>FA1B53A37761D7C000</t>
+        </is>
+      </c>
+      <c r="X848" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y848" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.280, df['MACD'].iloc[-2]: -0.324,  df['MACD_hist'].iloc[-1]: 0.258, df['MACD_hist'].iloc[-2]: 0.209,  delta_MA50_M120.iloc[-1]: -0.929, delta_MA50_M120.iloc[-2]: -0.970,\ 
+  df['MA30_RSI10'].iloc[-1]: 48.994, df['MA30_RSI10'].iloc[-2]: 48.913  delta_MA50_MA120_1m.iloc[-1]: 0.095, delta_MA50_MA120_1m.iloc[-2]: 0.091  df_1m['MA30_RSI10'].iloc[-1]: 59.162, df_1m['MA30_RSI10'].iloc[-2]: 59.051  df_1m['MACD'].iloc[-1]: 0.150, df_1m['MACD'].iloc[-2]: 0.140  df_1m['MACD_hist'].iloc[-1]: 0.033, df_1m['MACD_hist'].iloc[-2]: 0.017  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.234 (more than 1.07 is good),  MACD_hist_max_amp: 0.742, MACD_hist_max_amp_1m: 0.098  </t>
+        </is>
+      </c>
+      <c r="Z848" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA848" t="inlineStr">
+        <is>
+          <t>FA1B53A376030AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>847</v>
+      </c>
+      <c r="B849" t="n">
+        <v>4676</v>
+      </c>
+      <c r="C849" t="inlineStr">
+        <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="D849" s="2" t="n">
+        <v>45920.1621208912</v>
+      </c>
+      <c r="E849" t="n">
+        <v>61.349</v>
+      </c>
+      <c r="F849" t="n">
+        <v>2453.96</v>
+      </c>
+      <c r="G849" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H849" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>0</v>
+      </c>
+      <c r="K849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L849" t="n">
+        <v>40</v>
+      </c>
+      <c r="M849" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N849" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O849" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P849" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q849" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R849" t="n">
+        <v>0</v>
+      </c>
+      <c r="S849" t="inlineStr">
+        <is>
+          <t>FA1B53A3C2EECAD000</t>
+        </is>
+      </c>
+      <c r="T849" t="inlineStr">
+        <is>
+          <t>FA1B53A500E1D7C000</t>
+        </is>
+      </c>
+      <c r="U849" t="inlineStr"/>
+      <c r="V849" t="inlineStr"/>
+      <c r="W849" t="inlineStr">
+        <is>
+          <t>FA1B53A503098AD000</t>
+        </is>
+      </c>
+      <c r="X849" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y849" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.118, df['MACD'].iloc[-2]: -0.131,  df['MACD_hist'].iloc[-1]: -0.009, df['MACD_hist'].iloc[-2]: -0.036,  delta_MA50_M120.iloc[-1]: -0.771, delta_MA50_M120.iloc[-2]: -0.814,\ 
+  df['MA30_RSI10'].iloc[-1]: 47.113, df['MA30_RSI10'].iloc[-2]: 46.524  delta_MA50_MA120_1m.iloc[-1]: 0.149, delta_MA50_MA120_1m.iloc[-2]: 0.142  df_1m['MA30_RSI10'].iloc[-1]: 63.496, df_1m['MA30_RSI10'].iloc[-2]: 62.859  df_1m['MACD'].iloc[-1]: 0.054, df_1m['MACD'].iloc[-2]: 0.053  df_1m['MACD_hist'].iloc[-1]: 0.010, df_1m['MACD_hist'].iloc[-2]: 0.010  cond_a1:0, cond_a2:1, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.242 (more than 1.07 is good),  MACD_hist_max_amp: 0.262, MACD_hist_max_amp_1m: 0.039  </t>
+        </is>
+      </c>
+      <c r="Z849" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA849" t="inlineStr">
+        <is>
+          <t>FA1B53A5019F97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>848</v>
+      </c>
+      <c r="B850" t="n">
+        <v>4677</v>
+      </c>
+      <c r="C850" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="D850" s="2" t="n">
+        <v>45920.22675645833</v>
+      </c>
+      <c r="E850" t="n">
+        <v>466.14</v>
+      </c>
+      <c r="F850" t="n">
+        <v>2330.7</v>
+      </c>
+      <c r="G850" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H850" s="2" t="n">
+        <v>45920.28659583334</v>
+      </c>
+      <c r="I850" t="n">
+        <v>466.28</v>
+      </c>
+      <c r="J850" t="n">
+        <v>2331.4</v>
+      </c>
+      <c r="K850" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L850" t="n">
+        <v>5</v>
+      </c>
+      <c r="M850" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N850" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O850" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P850" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q850" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R850" t="n">
+        <v>-1.330000000000182</v>
+      </c>
+      <c r="S850" t="inlineStr">
+        <is>
+          <t>FA1B53B9108A0AD000</t>
+        </is>
+      </c>
+      <c r="T850" t="inlineStr">
+        <is>
+          <t>FA1B53BB40D90AD000</t>
+        </is>
+      </c>
+      <c r="U850" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V850" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W850" t="inlineStr">
+        <is>
+          <t>FA1B53BB42E50AD000</t>
+        </is>
+      </c>
+      <c r="X850" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:1,  df['MACD'].iloc[-1]: 9.368, df['MACD'].iloc[-2]: 9.306,  df['MACD_hist'].iloc[-1]: 2.546, df['MACD_hist'].iloc[-2]: 2.814,  delta_MA50_M120.iloc[-1]: 2.949, delta_MA50_M120.iloc[-2]: 2.830,\ 
+  df['MA30_RSI10'].iloc[-1]: 77.810, df['MA30_RSI10'].iloc[-2]: 77.466  delta_MA50_MA120_1m.iloc[-1]: -0.016, delta_MA50_MA120_1m.iloc[-2]: -0.022  df_1m['MA30_RSI10'].iloc[-1]: 68.711, df_1m['MA30_RSI10'].iloc[-2]: 68.130  df_1m['MACD'].iloc[-1]: 0.276, df_1m['MACD'].iloc[-2]: 0.258  df_1m['MACD_hist'].iloc[-1]: 0.139, df_1m['MACD_hist'].iloc[-2]: 0.124  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.905 (more than 1.07 is good),  MACD_hist_max_amp: 4.329, MACD_hist_max_amp_1m: 0.298  </t>
+        </is>
+      </c>
+      <c r="Z850" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA850" t="inlineStr">
+        <is>
+          <t>FA1B53BB418457C000</t>
         </is>
       </c>
     </row>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA850"/>
+  <dimension ref="A1:AA866"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80765,41 +80765,41 @@
         <v>838</v>
       </c>
       <c r="B840" t="n">
-        <v>4667</v>
+        <v>4669</v>
       </c>
       <c r="C840" t="inlineStr">
         <is>
-          <t>SCHW</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="D840" s="2" t="n">
-        <v>45920.08007607639</v>
+        <v>45920.09996373842</v>
       </c>
       <c r="E840" t="n">
-        <v>93.39</v>
+        <v>70.92</v>
       </c>
       <c r="F840" t="n">
-        <v>2428.14</v>
-      </c>
-      <c r="G840" t="n">
-        <v>1.111</v>
-      </c>
+        <v>2482.2</v>
+      </c>
+      <c r="G840" t="inlineStr"/>
       <c r="H840" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
+        <v>45920.15402466435</v>
+      </c>
+      <c r="I840" t="n">
+        <v>70.7303</v>
+      </c>
       <c r="J840" t="n">
-        <v>0</v>
+        <v>2475.5605</v>
       </c>
       <c r="K840" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L840" t="n">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="M840" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N840" t="n">
@@ -80812,20 +80812,26 @@
         <v>1.006</v>
       </c>
       <c r="Q840" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R840" t="n">
-        <v>0</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="R840" t="inlineStr"/>
       <c r="S840" t="inlineStr">
         <is>
-          <t>FA1B5388B86B8AD000</t>
-        </is>
-      </c>
-      <c r="T840" t="inlineStr"/>
+          <t>FA1B538F46714AD000</t>
+        </is>
+      </c>
+      <c r="T840" t="inlineStr">
+        <is>
+          <t>FA1B53909B0C4AD000</t>
+        </is>
+      </c>
       <c r="U840" t="inlineStr"/>
       <c r="V840" t="inlineStr"/>
-      <c r="W840" t="inlineStr"/>
+      <c r="W840" t="inlineStr">
+        <is>
+          <t>FA1B53909D23D7C000</t>
+        </is>
+      </c>
       <c r="X840" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -80833,8 +80839,8 @@
       </c>
       <c r="Y840" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:1,  df['MACD'].iloc[-1]: -0.131, df['MACD'].iloc[-2]: -0.173,  df['MACD_hist'].iloc[-1]: 0.462, df['MACD_hist'].iloc[-2]: 0.448,  delta_MA50_M120.iloc[-1]: -1.656, delta_MA50_M120.iloc[-2]: -1.706,\ 
-  df['MA30_RSI10'].iloc[-1]: 43.920, df['MA30_RSI10'].iloc[-2]: 43.363  delta_MA50_MA120_1m.iloc[-1]: 0.170, delta_MA50_MA120_1m.iloc[-2]: 0.165  df_1m['MA30_RSI10'].iloc[-1]: 61.524, df_1m['MA30_RSI10'].iloc[-2]: 61.122  df_1m['MACD'].iloc[-1]: 0.065, df_1m['MACD'].iloc[-2]: 0.063  df_1m['MACD_hist'].iloc[-1]: 0.006, df_1m['MACD_hist'].iloc[-2]: 0.001  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.029 (more than 1.07 is good),  MACD_hist_max_amp: 0.457, MACD_hist_max_amp_1m: 0.041  </t>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.137, df['MACD'].iloc[-2]: -0.152,  df['MACD_hist'].iloc[-1]: 0.048, df['MACD_hist'].iloc[-2]: 0.025,  delta_MA50_M120.iloc[-1]: -0.589, delta_MA50_M120.iloc[-2]: -0.640,\ 
+  df['MA30_RSI10'].iloc[-1]: 45.014, df['MA30_RSI10'].iloc[-2]: 44.970  delta_MA50_MA120_1m.iloc[-1]: 0.169, delta_MA50_MA120_1m.iloc[-2]: 0.163  df_1m['MA30_RSI10'].iloc[-1]: 60.226, df_1m['MA30_RSI10'].iloc[-2]: 59.701  df_1m['MACD'].iloc[-1]: 0.053, df_1m['MACD'].iloc[-2]: 0.053  df_1m['MACD_hist'].iloc[-1]: 0.006, df_1m['MACD_hist'].iloc[-2]: 0.006  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.912 (more than 1.07 is good),  MACD_hist_max_amp: 0.493, MACD_hist_max_amp_1m: 0.057  </t>
         </is>
       </c>
       <c r="Z840" t="inlineStr">
@@ -80842,48 +80848,54 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA840" t="inlineStr"/>
+      <c r="AA840" t="inlineStr">
+        <is>
+          <t>FA1B53909BB7D7C000</t>
+        </is>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="1" t="n">
         <v>839</v>
       </c>
       <c r="B841" t="n">
-        <v>4668</v>
+        <v>4671</v>
       </c>
       <c r="C841" t="inlineStr">
         <is>
-          <t>ASML</t>
+          <t>LIN</t>
         </is>
       </c>
       <c r="D841" s="2" t="n">
-        <v>45920.08635392361</v>
+        <v>45920.11251706019</v>
       </c>
       <c r="E841" t="n">
-        <v>932.39</v>
+        <v>477.11</v>
       </c>
       <c r="F841" t="n">
-        <v>1864.78</v>
+        <v>2385.55</v>
       </c>
       <c r="G841" t="n">
-        <v>1.111</v>
+        <v>1.01</v>
       </c>
       <c r="H841" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
+        <v>45923.01961702546</v>
+      </c>
+      <c r="I841" t="n">
+        <v>477.7</v>
+      </c>
       <c r="J841" t="n">
-        <v>0</v>
+        <v>2388.5</v>
       </c>
       <c r="K841" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="L841" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M841" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N841" t="n">
@@ -80896,20 +80908,28 @@
         <v>1.006</v>
       </c>
       <c r="Q841" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="R841" t="n">
-        <v>0</v>
+        <v>0.9199999999998181</v>
       </c>
       <c r="S841" t="inlineStr">
         <is>
-          <t>FA1B538ACA240AD000</t>
-        </is>
-      </c>
-      <c r="T841" t="inlineStr"/>
+          <t>FA1B539369AB97C000</t>
+        </is>
+      </c>
+      <c r="T841" t="inlineStr">
+        <is>
+          <t>FA1B5393CDD217C000</t>
+        </is>
+      </c>
       <c r="U841" t="inlineStr"/>
       <c r="V841" t="inlineStr"/>
-      <c r="W841" t="inlineStr"/>
+      <c r="W841" t="inlineStr">
+        <is>
+          <t>FA1B5393CFDD0AD000</t>
+        </is>
+      </c>
       <c r="X841" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -80917,8 +80937,8 @@
       </c>
       <c r="Y841" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:0, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:1,  df['MACD'].iloc[-1]: 30.742, df['MACD'].iloc[-2]: 30.464,  df['MACD_hist'].iloc[-1]: 6.514, df['MACD_hist'].iloc[-2]: 6.960,  delta_MA50_M120.iloc[-1]: 6.844, delta_MA50_M120.iloc[-2]: 6.697,\ 
-  df['MA30_RSI10'].iloc[-1]: 80.614, df['MA30_RSI10'].iloc[-2]: 81.261  delta_MA50_MA120_1m.iloc[-1]: -0.041, delta_MA50_MA120_1m.iloc[-2]: -0.042  df_1m['MA30_RSI10'].iloc[-1]: 62.226, df_1m['MA30_RSI10'].iloc[-2]: 60.572  df_1m['MACD'].iloc[-1]: 0.607, df_1m['MACD'].iloc[-2]: 0.543  df_1m['MACD_hist'].iloc[-1]: 0.513, df_1m['MACD_hist'].iloc[-2]: 0.465  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.936 (more than 1.07 is good),  MACD_hist_max_amp: 9.659, MACD_hist_max_amp_1m: 0.716  </t>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.136, df['MACD'].iloc[-2]: 0.105,  df['MACD_hist'].iloc[-1]: 0.057, df['MACD_hist'].iloc[-2]: 0.004,  delta_MA50_M120.iloc[-1]: 0.191, delta_MA50_M120.iloc[-2]: 0.162,\ 
+  df['MA30_RSI10'].iloc[-1]: 44.005, df['MA30_RSI10'].iloc[-2]: 43.985  delta_MA50_MA120_1m.iloc[-1]: 0.051, delta_MA50_MA120_1m.iloc[-2]: 0.044  df_1m['MA30_RSI10'].iloc[-1]: 56.951, df_1m['MA30_RSI10'].iloc[-2]: 55.968  df_1m['MACD'].iloc[-1]: 0.199, df_1m['MACD'].iloc[-2]: 0.188  df_1m['MACD_hist'].iloc[-1]: 0.066, df_1m['MACD_hist'].iloc[-2]: 0.054  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 15.296 (more than 1.07 is good),  MACD_hist_max_amp: 2.510, MACD_hist_max_amp_1m: 0.132  </t>
         </is>
       </c>
       <c r="Z841" t="inlineStr">
@@ -80926,44 +80946,50 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA841" t="inlineStr"/>
+      <c r="AA841" t="inlineStr">
+        <is>
+          <t>FA1B5393CE7997C000</t>
+        </is>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="1" t="n">
         <v>840</v>
       </c>
       <c r="B842" t="n">
-        <v>4669</v>
+        <v>4672</v>
       </c>
       <c r="C842" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="D842" s="2" t="n">
-        <v>45920.09996373842</v>
+        <v>45920.12814253472</v>
       </c>
       <c r="E842" t="n">
-        <v>70.92</v>
+        <v>481.93</v>
       </c>
       <c r="F842" t="n">
-        <v>2482.2</v>
-      </c>
-      <c r="G842" t="inlineStr"/>
+        <v>2409.65</v>
+      </c>
+      <c r="G842" t="n">
+        <v>1.01</v>
+      </c>
       <c r="H842" s="2" t="n">
-        <v>45920.15402466435</v>
+        <v>45920.19588012731</v>
       </c>
       <c r="I842" t="n">
-        <v>70.7303</v>
+        <v>480.435</v>
       </c>
       <c r="J842" t="n">
-        <v>2475.5605</v>
+        <v>2402.175</v>
       </c>
       <c r="K842" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="L842" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="M842" t="inlineStr">
         <is>
@@ -80982,22 +81008,24 @@
       <c r="Q842" t="n">
         <v>0.05</v>
       </c>
-      <c r="R842" t="inlineStr"/>
+      <c r="R842" t="n">
+        <v>-9.504999999999908</v>
+      </c>
       <c r="S842" t="inlineStr">
         <is>
-          <t>FA1B538F46714AD000</t>
+          <t>FA1B5398900A57C000</t>
         </is>
       </c>
       <c r="T842" t="inlineStr">
         <is>
-          <t>FA1B53909B0C4AD000</t>
+          <t>FA1B5398E2050AD000</t>
         </is>
       </c>
       <c r="U842" t="inlineStr"/>
       <c r="V842" t="inlineStr"/>
       <c r="W842" t="inlineStr">
         <is>
-          <t>FA1B53909D23D7C000</t>
+          <t>FA1B5398E41497C000</t>
         </is>
       </c>
       <c r="X842" t="inlineStr">
@@ -81007,8 +81035,8 @@
       </c>
       <c r="Y842" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.137, df['MACD'].iloc[-2]: -0.152,  df['MACD_hist'].iloc[-1]: 0.048, df['MACD_hist'].iloc[-2]: 0.025,  delta_MA50_M120.iloc[-1]: -0.589, delta_MA50_M120.iloc[-2]: -0.640,\ 
-  df['MA30_RSI10'].iloc[-1]: 45.014, df['MA30_RSI10'].iloc[-2]: 44.970  delta_MA50_MA120_1m.iloc[-1]: 0.169, delta_MA50_MA120_1m.iloc[-2]: 0.163  df_1m['MA30_RSI10'].iloc[-1]: 60.226, df_1m['MA30_RSI10'].iloc[-2]: 59.701  df_1m['MACD'].iloc[-1]: 0.053, df_1m['MACD'].iloc[-2]: 0.053  df_1m['MACD_hist'].iloc[-1]: 0.006, df_1m['MACD_hist'].iloc[-2]: 0.006  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.912 (more than 1.07 is good),  MACD_hist_max_amp: 0.493, MACD_hist_max_amp_1m: 0.057  </t>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -1.004, df['MACD'].iloc[-2]: -1.149,  df['MACD_hist'].iloc[-1]: 1.212, df['MACD_hist'].iloc[-2]: 1.110,  delta_MA50_M120.iloc[-1]: -0.749, delta_MA50_M120.iloc[-2]: -0.756,\ 
+  df['MA30_RSI10'].iloc[-1]: 46.644, df['MA30_RSI10'].iloc[-2]: 45.815  delta_MA50_MA120_1m.iloc[-1]: 0.151, delta_MA50_MA120_1m.iloc[-2]: 0.143  df_1m['MA30_RSI10'].iloc[-1]: 51.542, df_1m['MA30_RSI10'].iloc[-2]: 51.309  df_1m['MACD'].iloc[-1]: 0.169, df_1m['MACD'].iloc[-2]: 0.162  df_1m['MACD_hist'].iloc[-1]: -0.038, df_1m['MACD_hist'].iloc[-2]: -0.058  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.092 (more than 1.07 is good),  MACD_hist_max_amp: 2.151, MACD_hist_max_amp_1m: 0.486  </t>
         </is>
       </c>
       <c r="Z842" t="inlineStr">
@@ -81018,7 +81046,7 @@
       </c>
       <c r="AA842" t="inlineStr">
         <is>
-          <t>FA1B53909BB7D7C000</t>
+          <t>FA1B5398E2B80AD000</t>
         </is>
       </c>
     </row>
@@ -81027,41 +81055,43 @@
         <v>841</v>
       </c>
       <c r="B843" t="n">
-        <v>4670</v>
+        <v>4675</v>
       </c>
       <c r="C843" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="D843" s="2" t="n">
-        <v>45920.10874604167</v>
+        <v>45920.16000833333</v>
       </c>
       <c r="E843" t="n">
-        <v>84.27</v>
+        <v>262.225</v>
       </c>
       <c r="F843" t="n">
-        <v>2443.83</v>
+        <v>2360.025</v>
       </c>
       <c r="G843" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H843" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
+        <v>45920.26251295139</v>
+      </c>
+      <c r="I843" t="n">
+        <v>261.6732</v>
+      </c>
       <c r="J843" t="n">
-        <v>0</v>
+        <v>2355.0588</v>
       </c>
       <c r="K843" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L843" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="M843" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N843" t="n">
@@ -81074,20 +81104,28 @@
         <v>1.006</v>
       </c>
       <c r="Q843" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="R843" t="n">
-        <v>0</v>
+        <v>-7.016199999999844</v>
       </c>
       <c r="S843" t="inlineStr">
         <is>
-          <t>FA1B53922B72D7C000</t>
-        </is>
-      </c>
-      <c r="T843" t="inlineStr"/>
+          <t>FA1B53A310B0CAD000</t>
+        </is>
+      </c>
+      <c r="T843" t="inlineStr">
+        <is>
+          <t>FA1B53A375474AD000</t>
+        </is>
+      </c>
       <c r="U843" t="inlineStr"/>
       <c r="V843" t="inlineStr"/>
-      <c r="W843" t="inlineStr"/>
+      <c r="W843" t="inlineStr">
+        <is>
+          <t>FA1B53A37761D7C000</t>
+        </is>
+      </c>
       <c r="X843" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -81095,8 +81133,8 @@
       </c>
       <c r="Y843" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.670, df['MACD'].iloc[-2]: 0.623,  df['MACD_hist'].iloc[-1]: 0.425, df['MACD_hist'].iloc[-2]: 0.397,  delta_MA50_M120.iloc[-1]: 0.384, delta_MA50_M120.iloc[-2]: 0.325,\ 
-  df['MA30_RSI10'].iloc[-1]: 60.489, df['MA30_RSI10'].iloc[-2]: 59.761  delta_MA50_MA120_1m.iloc[-1]: 0.243, delta_MA50_MA120_1m.iloc[-2]: 0.240  df_1m['MA30_RSI10'].iloc[-1]: 60.786, df_1m['MA30_RSI10'].iloc[-2]: 60.393  df_1m['MACD'].iloc[-1]: 0.084, df_1m['MACD'].iloc[-2]: 0.083  df_1m['MACD_hist'].iloc[-1]: 0.013, df_1m['MACD_hist'].iloc[-2]: 0.013  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.072 (more than 1.07 is good),  MACD_hist_max_amp: 0.357, MACD_hist_max_amp_1m: 0.029  </t>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.280, df['MACD'].iloc[-2]: -0.324,  df['MACD_hist'].iloc[-1]: 0.258, df['MACD_hist'].iloc[-2]: 0.209,  delta_MA50_M120.iloc[-1]: -0.929, delta_MA50_M120.iloc[-2]: -0.970,\ 
+  df['MA30_RSI10'].iloc[-1]: 48.994, df['MA30_RSI10'].iloc[-2]: 48.913  delta_MA50_MA120_1m.iloc[-1]: 0.095, delta_MA50_MA120_1m.iloc[-2]: 0.091  df_1m['MA30_RSI10'].iloc[-1]: 59.162, df_1m['MA30_RSI10'].iloc[-2]: 59.051  df_1m['MACD'].iloc[-1]: 0.150, df_1m['MACD'].iloc[-2]: 0.140  df_1m['MACD_hist'].iloc[-1]: 0.033, df_1m['MACD_hist'].iloc[-2]: 0.017  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.234 (more than 1.07 is good),  MACD_hist_max_amp: 0.742, MACD_hist_max_amp_1m: 0.098  </t>
         </is>
       </c>
       <c r="Z843" t="inlineStr">
@@ -81104,48 +81142,54 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA843" t="inlineStr"/>
+      <c r="AA843" t="inlineStr">
+        <is>
+          <t>FA1B53A376030AD000</t>
+        </is>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="1" t="n">
         <v>842</v>
       </c>
       <c r="B844" t="n">
-        <v>4671</v>
+        <v>4676</v>
       </c>
       <c r="C844" t="inlineStr">
         <is>
-          <t>LIN</t>
+          <t>ADM</t>
         </is>
       </c>
       <c r="D844" s="2" t="n">
-        <v>45920.11251706019</v>
+        <v>45920.1621208912</v>
       </c>
       <c r="E844" t="n">
-        <v>477.11</v>
+        <v>61.349</v>
       </c>
       <c r="F844" t="n">
-        <v>2385.55</v>
+        <v>2453.96</v>
       </c>
       <c r="G844" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="H844" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
+        <v>45923.01881101852</v>
+      </c>
+      <c r="I844" t="n">
+        <v>61.11</v>
+      </c>
       <c r="J844" t="n">
-        <v>0</v>
+        <v>2444.4</v>
       </c>
       <c r="K844" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L844" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="M844" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N844" t="n">
@@ -81161,23 +81205,23 @@
         <v>1.25</v>
       </c>
       <c r="R844" t="n">
-        <v>0</v>
+        <v>-11.78999999999994</v>
       </c>
       <c r="S844" t="inlineStr">
         <is>
-          <t>FA1B539369AB97C000</t>
+          <t>FA1B53A3C2EECAD000</t>
         </is>
       </c>
       <c r="T844" t="inlineStr">
         <is>
-          <t>FA1B5393CDD217C000</t>
+          <t>FA1B53A500E1D7C000</t>
         </is>
       </c>
       <c r="U844" t="inlineStr"/>
       <c r="V844" t="inlineStr"/>
       <c r="W844" t="inlineStr">
         <is>
-          <t>FA1B5393CFDD0AD000</t>
+          <t>FA1B53A503098AD000</t>
         </is>
       </c>
       <c r="X844" t="inlineStr">
@@ -81187,8 +81231,8 @@
       </c>
       <c r="Y844" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.136, df['MACD'].iloc[-2]: 0.105,  df['MACD_hist'].iloc[-1]: 0.057, df['MACD_hist'].iloc[-2]: 0.004,  delta_MA50_M120.iloc[-1]: 0.191, delta_MA50_M120.iloc[-2]: 0.162,\ 
-  df['MA30_RSI10'].iloc[-1]: 44.005, df['MA30_RSI10'].iloc[-2]: 43.985  delta_MA50_MA120_1m.iloc[-1]: 0.051, delta_MA50_MA120_1m.iloc[-2]: 0.044  df_1m['MA30_RSI10'].iloc[-1]: 56.951, df_1m['MA30_RSI10'].iloc[-2]: 55.968  df_1m['MACD'].iloc[-1]: 0.199, df_1m['MACD'].iloc[-2]: 0.188  df_1m['MACD_hist'].iloc[-1]: 0.066, df_1m['MACD_hist'].iloc[-2]: 0.054  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 15.296 (more than 1.07 is good),  MACD_hist_max_amp: 2.510, MACD_hist_max_amp_1m: 0.132  </t>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.118, df['MACD'].iloc[-2]: -0.131,  df['MACD_hist'].iloc[-1]: -0.009, df['MACD_hist'].iloc[-2]: -0.036,  delta_MA50_M120.iloc[-1]: -0.771, delta_MA50_M120.iloc[-2]: -0.814,\ 
+  df['MA30_RSI10'].iloc[-1]: 47.113, df['MA30_RSI10'].iloc[-2]: 46.524  delta_MA50_MA120_1m.iloc[-1]: 0.149, delta_MA50_MA120_1m.iloc[-2]: 0.142  df_1m['MA30_RSI10'].iloc[-1]: 63.496, df_1m['MA30_RSI10'].iloc[-2]: 62.859  df_1m['MACD'].iloc[-1]: 0.054, df_1m['MACD'].iloc[-2]: 0.053  df_1m['MACD_hist'].iloc[-1]: 0.010, df_1m['MACD_hist'].iloc[-2]: 0.010  cond_a1:0, cond_a2:1, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.242 (more than 1.07 is good),  MACD_hist_max_amp: 0.262, MACD_hist_max_amp_1m: 0.039  </t>
         </is>
       </c>
       <c r="Z844" t="inlineStr">
@@ -81198,7 +81242,7 @@
       </c>
       <c r="AA844" t="inlineStr">
         <is>
-          <t>FA1B5393CE7997C000</t>
+          <t>FA1B53A5019F97C000</t>
         </is>
       </c>
     </row>
@@ -81207,33 +81251,33 @@
         <v>843</v>
       </c>
       <c r="B845" t="n">
-        <v>4672</v>
+        <v>4677</v>
       </c>
       <c r="C845" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>CAT</t>
         </is>
       </c>
       <c r="D845" s="2" t="n">
-        <v>45920.12814253472</v>
+        <v>45920.22675645833</v>
       </c>
       <c r="E845" t="n">
-        <v>481.93</v>
+        <v>466.14</v>
       </c>
       <c r="F845" t="n">
-        <v>2409.65</v>
+        <v>2330.7</v>
       </c>
       <c r="G845" t="n">
         <v>1.01</v>
       </c>
       <c r="H845" s="2" t="n">
-        <v>45920.19588012731</v>
+        <v>45920.28659583334</v>
       </c>
       <c r="I845" t="n">
-        <v>480.435</v>
+        <v>466.28</v>
       </c>
       <c r="J845" t="n">
-        <v>2402.175</v>
+        <v>2331.4</v>
       </c>
       <c r="K845" t="n">
         <v>1.02</v>
@@ -81256,26 +81300,26 @@
         <v>1.006</v>
       </c>
       <c r="Q845" t="n">
-        <v>0.05</v>
+        <v>1.25</v>
       </c>
       <c r="R845" t="n">
-        <v>-9.504999999999908</v>
+        <v>-1.330000000000182</v>
       </c>
       <c r="S845" t="inlineStr">
         <is>
-          <t>FA1B5398900A57C000</t>
+          <t>FA1B53B9108A0AD000</t>
         </is>
       </c>
       <c r="T845" t="inlineStr">
         <is>
-          <t>FA1B5398E2050AD000</t>
+          <t>FA1B53BB40D90AD000</t>
         </is>
       </c>
       <c r="U845" t="inlineStr"/>
       <c r="V845" t="inlineStr"/>
       <c r="W845" t="inlineStr">
         <is>
-          <t>FA1B5398E41497C000</t>
+          <t>FA1B53BB42E50AD000</t>
         </is>
       </c>
       <c r="X845" t="inlineStr">
@@ -81285,8 +81329,8 @@
       </c>
       <c r="Y845" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -1.004, df['MACD'].iloc[-2]: -1.149,  df['MACD_hist'].iloc[-1]: 1.212, df['MACD_hist'].iloc[-2]: 1.110,  delta_MA50_M120.iloc[-1]: -0.749, delta_MA50_M120.iloc[-2]: -0.756,\ 
-  df['MA30_RSI10'].iloc[-1]: 46.644, df['MA30_RSI10'].iloc[-2]: 45.815  delta_MA50_MA120_1m.iloc[-1]: 0.151, delta_MA50_MA120_1m.iloc[-2]: 0.143  df_1m['MA30_RSI10'].iloc[-1]: 51.542, df_1m['MA30_RSI10'].iloc[-2]: 51.309  df_1m['MACD'].iloc[-1]: 0.169, df_1m['MACD'].iloc[-2]: 0.162  df_1m['MACD_hist'].iloc[-1]: -0.038, df_1m['MACD_hist'].iloc[-2]: -0.058  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.092 (more than 1.07 is good),  MACD_hist_max_amp: 2.151, MACD_hist_max_amp_1m: 0.486  </t>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:1,  df['MACD'].iloc[-1]: 9.368, df['MACD'].iloc[-2]: 9.306,  df['MACD_hist'].iloc[-1]: 2.546, df['MACD_hist'].iloc[-2]: 2.814,  delta_MA50_M120.iloc[-1]: 2.949, delta_MA50_M120.iloc[-2]: 2.830,\ 
+  df['MA30_RSI10'].iloc[-1]: 77.810, df['MA30_RSI10'].iloc[-2]: 77.466  delta_MA50_MA120_1m.iloc[-1]: -0.016, delta_MA50_MA120_1m.iloc[-2]: -0.022  df_1m['MA30_RSI10'].iloc[-1]: 68.711, df_1m['MA30_RSI10'].iloc[-2]: 68.130  df_1m['MACD'].iloc[-1]: 0.276, df_1m['MACD'].iloc[-2]: 0.258  df_1m['MACD_hist'].iloc[-1]: 0.139, df_1m['MACD_hist'].iloc[-2]: 0.124  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.905 (more than 1.07 is good),  MACD_hist_max_amp: 4.329, MACD_hist_max_amp_1m: 0.298  </t>
         </is>
       </c>
       <c r="Z845" t="inlineStr">
@@ -81296,7 +81340,7 @@
       </c>
       <c r="AA845" t="inlineStr">
         <is>
-          <t>FA1B5398E2B80AD000</t>
+          <t>FA1B53BB418457C000</t>
         </is>
       </c>
     </row>
@@ -81305,41 +81349,41 @@
         <v>844</v>
       </c>
       <c r="B846" t="n">
-        <v>4673</v>
+        <v>4681</v>
       </c>
       <c r="C846" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>HIG</t>
         </is>
       </c>
       <c r="D846" s="2" t="n">
-        <v>45920.13579047454</v>
+        <v>45923.05715646991</v>
       </c>
       <c r="E846" t="n">
-        <v>266.19</v>
+        <v>130.9714</v>
       </c>
       <c r="F846" t="n">
-        <v>2395.71</v>
-      </c>
-      <c r="G846" t="n">
-        <v>1.111</v>
-      </c>
+        <v>2488.4566</v>
+      </c>
+      <c r="G846" t="inlineStr"/>
       <c r="H846" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>45923.10328150463</v>
+      </c>
+      <c r="I846" t="n">
+        <v>130.65</v>
+      </c>
       <c r="J846" t="n">
-        <v>0</v>
+        <v>2482.35</v>
       </c>
       <c r="K846" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="L846" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="M846" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N846" t="n">
@@ -81352,20 +81396,26 @@
         <v>1.006</v>
       </c>
       <c r="Q846" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="R846" t="n">
-        <v>0</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="R846" t="inlineStr"/>
       <c r="S846" t="inlineStr">
         <is>
-          <t>FA1B539B154E4AD000</t>
-        </is>
-      </c>
-      <c r="T846" t="inlineStr"/>
+          <t>FA1B575DEF9117C000</t>
+        </is>
+      </c>
+      <c r="T846" t="inlineStr">
+        <is>
+          <t>FA1B575E36E357C000</t>
+        </is>
+      </c>
       <c r="U846" t="inlineStr"/>
       <c r="V846" t="inlineStr"/>
-      <c r="W846" t="inlineStr"/>
+      <c r="W846" t="inlineStr">
+        <is>
+          <t>FA1B575E390B0AD000</t>
+        </is>
+      </c>
       <c r="X846" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -81373,8 +81423,8 @@
       </c>
       <c r="Y846" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.292, df['MACD'].iloc[-2]: -0.364,  df['MACD_hist'].iloc[-1]: 0.094, df['MACD_hist'].iloc[-2]: -0.036,  delta_MA50_M120.iloc[-1]: -0.286, delta_MA50_M120.iloc[-2]: -0.311,\ 
-  df['MA30_RSI10'].iloc[-1]: 47.815, df['MA30_RSI10'].iloc[-2]: 47.514  delta_MA50_MA120_1m.iloc[-1]: 0.129, delta_MA50_MA120_1m.iloc[-2]: 0.125  df_1m['MA30_RSI10'].iloc[-1]: 60.062, df_1m['MA30_RSI10'].iloc[-2]: 59.077  df_1m['MACD'].iloc[-1]: 0.168, df_1m['MACD'].iloc[-2]: 0.157  df_1m['MACD_hist'].iloc[-1]: 0.035, df_1m['MACD_hist'].iloc[-2]: 0.018  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: -2.563 (more than 1.07 is good),  MACD_hist_max_amp: 0.772, MACD_hist_max_amp_1m: 0.217  </t>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:True, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.229, df['MACD'].iloc[-2]: -0.237,  df['MACD_hist'].iloc[-1]: 0.034, df['MACD_hist'].iloc[-2]: 0.023,  delta_MA50_M120.iloc[-1]: -0.304, delta_MA50_M120.iloc[-2]: -0.304,\ 
+  df['MA30_RSI10'].iloc[-1]: 43.132, df['MA30_RSI10'].iloc[-2]: 42.602  delta_MA50_MA120_1m.iloc[-1]: 0.019, delta_MA50_MA120_1m.iloc[-2]: 0.018  df_1m['MA30_RSI10'].iloc[-1]: 45.150, df_1m['MA30_RSI10'].iloc[-2]: 44.605  df_1m['MACD'].iloc[-1]: -0.020, df_1m['MACD'].iloc[-2]: -0.025  df_1m['MACD_hist'].iloc[-1]: 0.008, df_1m['MACD_hist'].iloc[-2]: -0.002  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.464 (more than 1.07 is good),  MACD_hist_max_amp: 0.515, MACD_hist_max_amp_1m: 0.047  </t>
         </is>
       </c>
       <c r="Z846" t="inlineStr">
@@ -81382,48 +81432,54 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA846" t="inlineStr"/>
+      <c r="AA846" t="inlineStr">
+        <is>
+          <t>FA1B575E37A0CAD000</t>
+        </is>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="1" t="n">
         <v>845</v>
       </c>
       <c r="B847" t="n">
-        <v>4674</v>
+        <v>4682</v>
       </c>
       <c r="C847" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="D847" s="2" t="n">
-        <v>45920.14876416667</v>
+        <v>45923.07307094907</v>
       </c>
       <c r="E847" t="n">
-        <v>261.5</v>
+        <v>65.94</v>
       </c>
       <c r="F847" t="n">
-        <v>2353.5</v>
+        <v>2439.78</v>
       </c>
       <c r="G847" t="n">
-        <v>1.111</v>
+        <v>1.1</v>
       </c>
       <c r="H847" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>45923.15305194444</v>
+      </c>
+      <c r="I847" t="n">
+        <v>65.5615</v>
+      </c>
       <c r="J847" t="n">
-        <v>0</v>
+        <v>2425.7755</v>
       </c>
       <c r="K847" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="L847" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="M847" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N847" t="n">
@@ -81436,20 +81492,28 @@
         <v>1.006</v>
       </c>
       <c r="Q847" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="R847" t="n">
-        <v>0</v>
+        <v>-16.21450000000046</v>
       </c>
       <c r="S847" t="inlineStr">
         <is>
-          <t>FA1B539F5BF817C000</t>
-        </is>
-      </c>
-      <c r="T847" t="inlineStr"/>
+          <t>FA1B57632E610AD000</t>
+        </is>
+      </c>
+      <c r="T847" t="inlineStr">
+        <is>
+          <t>FA1B5763642CCAD000</t>
+        </is>
+      </c>
       <c r="U847" t="inlineStr"/>
       <c r="V847" t="inlineStr"/>
-      <c r="W847" t="inlineStr"/>
+      <c r="W847" t="inlineStr">
+        <is>
+          <t>FA1B5763664CCAD000</t>
+        </is>
+      </c>
       <c r="X847" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -81457,8 +81521,8 @@
       </c>
       <c r="Y847" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.288, df['MACD'].iloc[-2]: -0.324,  df['MACD_hist'].iloc[-1]: 0.243, df['MACD_hist'].iloc[-2]: 0.209,  delta_MA50_M120.iloc[-1]: -0.930, delta_MA50_M120.iloc[-2]: -0.970,\ 
-  df['MA30_RSI10'].iloc[-1]: 48.942, df['MA30_RSI10'].iloc[-2]: 48.913  delta_MA50_MA120_1m.iloc[-1]: 0.048, delta_MA50_MA120_1m.iloc[-2]: 0.044  df_1m['MA30_RSI10'].iloc[-1]: 60.375, df_1m['MA30_RSI10'].iloc[-2]: 60.070  df_1m['MACD'].iloc[-1]: 0.143, df_1m['MACD'].iloc[-2]: 0.134  df_1m['MACD_hist'].iloc[-1]: 0.061, df_1m['MACD_hist'].iloc[-2]: 0.053  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.162 (more than 1.07 is good),  MACD_hist_max_amp: 0.742, MACD_hist_max_amp_1m: 0.098  </t>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.168, df['MACD'].iloc[-2]: 0.149,  df['MACD_hist'].iloc[-1]: -0.027, df['MACD_hist'].iloc[-2]: -0.068,  delta_MA50_M120.iloc[-1]: 0.161, delta_MA50_M120.iloc[-2]: 0.109,\ 
+  df['MA30_RSI10'].iloc[-1]: 55.611, df['MA30_RSI10'].iloc[-2]: 55.277  delta_MA50_MA120_1m.iloc[-1]: 0.164, delta_MA50_MA120_1m.iloc[-2]: 0.157  df_1m['MA30_RSI10'].iloc[-1]: 53.842, df_1m['MA30_RSI10'].iloc[-2]: 53.593  df_1m['MACD'].iloc[-1]: 0.052, df_1m['MACD'].iloc[-2]: 0.051  df_1m['MACD_hist'].iloc[-1]: -0.007, df_1m['MACD_hist'].iloc[-2]: -0.010  cond_a1:0, cond_a2:1, cond_a3:1, cond_a4:0  MACD_hist_speed: 0.402 (more than 1.07 is good),  MACD_hist_max_amp: 0.642, MACD_hist_max_amp_1m: 0.075  </t>
         </is>
       </c>
       <c r="Z847" t="inlineStr">
@@ -81466,46 +81530,50 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA847" t="inlineStr"/>
+      <c r="AA847" t="inlineStr">
+        <is>
+          <t>FA1B576364D757C000</t>
+        </is>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="1" t="n">
         <v>846</v>
       </c>
       <c r="B848" t="n">
-        <v>4675</v>
+        <v>4683</v>
       </c>
       <c r="C848" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="D848" s="2" t="n">
-        <v>45920.16000833333</v>
+        <v>45923.12699020834</v>
       </c>
       <c r="E848" t="n">
-        <v>262.225</v>
+        <v>247.6393</v>
       </c>
       <c r="F848" t="n">
-        <v>2360.025</v>
+        <v>2476.393</v>
       </c>
       <c r="G848" t="n">
         <v>1.02</v>
       </c>
       <c r="H848" s="2" t="n">
-        <v>45920.26251295139</v>
+        <v>45923.25844611111</v>
       </c>
       <c r="I848" t="n">
-        <v>261.6732</v>
+        <v>246.986</v>
       </c>
       <c r="J848" t="n">
-        <v>2355.0588</v>
+        <v>2469.86</v>
       </c>
       <c r="K848" t="n">
         <v>1.03</v>
       </c>
       <c r="L848" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M848" t="inlineStr">
         <is>
@@ -81525,23 +81593,23 @@
         <v>0.05</v>
       </c>
       <c r="R848" t="n">
-        <v>-7.016199999999844</v>
+        <v>-8.583000000000355</v>
       </c>
       <c r="S848" t="inlineStr">
         <is>
-          <t>FA1B53A310B0CAD000</t>
+          <t>FA1B5774F3CC57C000</t>
         </is>
       </c>
       <c r="T848" t="inlineStr">
         <is>
-          <t>FA1B53A375474AD000</t>
+          <t>FA1B5775307BD7C000</t>
         </is>
       </c>
       <c r="U848" t="inlineStr"/>
       <c r="V848" t="inlineStr"/>
       <c r="W848" t="inlineStr">
         <is>
-          <t>FA1B53A37761D7C000</t>
+          <t>FA1B5775328F4AD000</t>
         </is>
       </c>
       <c r="X848" t="inlineStr">
@@ -81551,8 +81619,8 @@
       </c>
       <c r="Y848" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.280, df['MACD'].iloc[-2]: -0.324,  df['MACD_hist'].iloc[-1]: 0.258, df['MACD_hist'].iloc[-2]: 0.209,  delta_MA50_M120.iloc[-1]: -0.929, delta_MA50_M120.iloc[-2]: -0.970,\ 
-  df['MA30_RSI10'].iloc[-1]: 48.994, df['MA30_RSI10'].iloc[-2]: 48.913  delta_MA50_MA120_1m.iloc[-1]: 0.095, delta_MA50_MA120_1m.iloc[-2]: 0.091  df_1m['MA30_RSI10'].iloc[-1]: 59.162, df_1m['MA30_RSI10'].iloc[-2]: 59.051  df_1m['MACD'].iloc[-1]: 0.150, df_1m['MACD'].iloc[-2]: 0.140  df_1m['MACD_hist'].iloc[-1]: 0.033, df_1m['MACD_hist'].iloc[-2]: 0.017  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.234 (more than 1.07 is good),  MACD_hist_max_amp: 0.742, MACD_hist_max_amp_1m: 0.098  </t>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.090, df['MACD'].iloc[-2]: 0.060,  df['MACD_hist'].iloc[-1]: 0.116, df['MACD_hist'].iloc[-2]: 0.074,  delta_MA50_M120.iloc[-1]: -0.482, delta_MA50_M120.iloc[-2]: -0.507,\ 
+  df['MA30_RSI10'].iloc[-1]: 51.533, df['MA30_RSI10'].iloc[-2]: 50.622  delta_MA50_MA120_1m.iloc[-1]: -0.165, delta_MA50_MA120_1m.iloc[-2]: -0.167  df_1m['MA30_RSI10'].iloc[-1]: 48.445, df_1m['MA30_RSI10'].iloc[-2]: 47.887  df_1m['MACD'].iloc[-1]: -0.070, df_1m['MACD'].iloc[-2]: -0.079  df_1m['MACD_hist'].iloc[-1]: 0.053, df_1m['MACD_hist'].iloc[-2]: 0.043  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.578 (more than 1.07 is good),  MACD_hist_max_amp: 1.033, MACD_hist_max_amp_1m: 0.196  </t>
         </is>
       </c>
       <c r="Z848" t="inlineStr">
@@ -81562,7 +81630,7 @@
       </c>
       <c r="AA848" t="inlineStr">
         <is>
-          <t>FA1B53A376030AD000</t>
+          <t>FA1B5775312657C000</t>
         </is>
       </c>
     </row>
@@ -81571,41 +81639,43 @@
         <v>847</v>
       </c>
       <c r="B849" t="n">
-        <v>4676</v>
+        <v>4685</v>
       </c>
       <c r="C849" t="inlineStr">
         <is>
-          <t>ADM</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="D849" s="2" t="n">
-        <v>45920.1621208912</v>
+        <v>45923.15721479167</v>
       </c>
       <c r="E849" t="n">
-        <v>61.349</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="F849" t="n">
-        <v>2453.96</v>
+        <v>2491.66</v>
       </c>
       <c r="G849" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="H849" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>45923.22298072917</v>
+      </c>
+      <c r="I849" t="n">
+        <v>65.4619</v>
+      </c>
       <c r="J849" t="n">
-        <v>0</v>
+        <v>2487.5522</v>
       </c>
       <c r="K849" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L849" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M849" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N849" t="n">
@@ -81618,26 +81688,26 @@
         <v>1.006</v>
       </c>
       <c r="Q849" t="n">
-        <v>1.25</v>
+        <v>0.05</v>
       </c>
       <c r="R849" t="n">
-        <v>0</v>
+        <v>-6.30879999999977</v>
       </c>
       <c r="S849" t="inlineStr">
         <is>
-          <t>FA1B53A3C2EECAD000</t>
+          <t>FA1B577EE9FD8AD000</t>
         </is>
       </c>
       <c r="T849" t="inlineStr">
         <is>
-          <t>FA1B53A500E1D7C000</t>
+          <t>FA1B577F304B0AD000</t>
         </is>
       </c>
       <c r="U849" t="inlineStr"/>
       <c r="V849" t="inlineStr"/>
       <c r="W849" t="inlineStr">
         <is>
-          <t>FA1B53A503098AD000</t>
+          <t>FA1B577F32644AD000</t>
         </is>
       </c>
       <c r="X849" t="inlineStr">
@@ -81647,8 +81717,8 @@
       </c>
       <c r="Y849" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.118, df['MACD'].iloc[-2]: -0.131,  df['MACD_hist'].iloc[-1]: -0.009, df['MACD_hist'].iloc[-2]: -0.036,  delta_MA50_M120.iloc[-1]: -0.771, delta_MA50_M120.iloc[-2]: -0.814,\ 
-  df['MA30_RSI10'].iloc[-1]: 47.113, df['MA30_RSI10'].iloc[-2]: 46.524  delta_MA50_MA120_1m.iloc[-1]: 0.149, delta_MA50_MA120_1m.iloc[-2]: 0.142  df_1m['MA30_RSI10'].iloc[-1]: 63.496, df_1m['MA30_RSI10'].iloc[-2]: 62.859  df_1m['MACD'].iloc[-1]: 0.054, df_1m['MACD'].iloc[-2]: 0.053  df_1m['MACD_hist'].iloc[-1]: 0.010, df_1m['MACD_hist'].iloc[-2]: 0.010  cond_a1:0, cond_a2:1, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.242 (more than 1.07 is good),  MACD_hist_max_amp: 0.262, MACD_hist_max_amp_1m: 0.039  </t>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:True, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.161, df['MACD'].iloc[-2]: 0.159,  df['MACD_hist'].iloc[-1]: -0.029, df['MACD_hist'].iloc[-2]: -0.036,  delta_MA50_M120.iloc[-1]: 0.260, delta_MA50_M120.iloc[-2]: 0.215,\ 
+  df['MA30_RSI10'].iloc[-1]: 56.334, df['MA30_RSI10'].iloc[-2]: 56.021  delta_MA50_MA120_1m.iloc[-1]: -0.196, delta_MA50_MA120_1m.iloc[-2]: -0.200  df_1m['MA30_RSI10'].iloc[-1]: 53.379, df_1m['MA30_RSI10'].iloc[-2]: 52.835  df_1m['MACD'].iloc[-1]: -0.008, df_1m['MACD'].iloc[-2]: -0.010  df_1m['MACD_hist'].iloc[-1]: 0.019, df_1m['MACD_hist'].iloc[-2]: 0.018  cond_a1:0, cond_a2:1, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.791 (more than 1.07 is good),  MACD_hist_max_amp: 0.642, MACD_hist_max_amp_1m: 0.048  </t>
         </is>
       </c>
       <c r="Z849" t="inlineStr">
@@ -81658,7 +81728,7 @@
       </c>
       <c r="AA849" t="inlineStr">
         <is>
-          <t>FA1B53A5019F97C000</t>
+          <t>FA1B577F30F8D7C000</t>
         </is>
       </c>
     </row>
@@ -81667,39 +81737,39 @@
         <v>848</v>
       </c>
       <c r="B850" t="n">
-        <v>4677</v>
+        <v>4686</v>
       </c>
       <c r="C850" t="inlineStr">
         <is>
-          <t>CAT</t>
+          <t>RMD</t>
         </is>
       </c>
       <c r="D850" s="2" t="n">
-        <v>45920.22675645833</v>
+        <v>45923.18131232639</v>
       </c>
       <c r="E850" t="n">
-        <v>466.14</v>
+        <v>274.31</v>
       </c>
       <c r="F850" t="n">
-        <v>2330.7</v>
+        <v>2468.79</v>
       </c>
       <c r="G850" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="H850" s="2" t="n">
-        <v>45920.28659583334</v>
+        <v>45924.02071753472</v>
       </c>
       <c r="I850" t="n">
-        <v>466.28</v>
+        <v>274.73</v>
       </c>
       <c r="J850" t="n">
-        <v>2331.4</v>
+        <v>2472.57</v>
       </c>
       <c r="K850" t="n">
-        <v>1.02</v>
+        <v>1.101</v>
       </c>
       <c r="L850" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="M850" t="inlineStr">
         <is>
@@ -81716,57 +81786,1550 @@
         <v>1.006</v>
       </c>
       <c r="Q850" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R850" t="n">
+        <v>1.6590000000002</v>
+      </c>
+      <c r="S850" t="inlineStr">
+        <is>
+          <t>FA1B5786DB3757C000</t>
+        </is>
+      </c>
+      <c r="T850" t="inlineStr">
+        <is>
+          <t>FA1B57870A35CAD000</t>
+        </is>
+      </c>
+      <c r="U850" t="inlineStr"/>
+      <c r="V850" t="inlineStr"/>
+      <c r="W850" t="inlineStr">
+        <is>
+          <t>FA1B57870C350AD000</t>
+        </is>
+      </c>
+      <c r="X850" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y850" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.046, df['MACD'].iloc[-2]: -0.101,  df['MACD_hist'].iloc[-1]: 0.367, df['MACD_hist'].iloc[-2]: 0.314,  delta_MA50_M120.iloc[-1]: -0.378, delta_MA50_M120.iloc[-2]: -0.401,\ 
+  df['MA30_RSI10'].iloc[-1]: 52.732, df['MA30_RSI10'].iloc[-2]: 52.142  delta_MA50_MA120_1m.iloc[-1]: 0.145, delta_MA50_MA120_1m.iloc[-2]: 0.142  df_1m['MA30_RSI10'].iloc[-1]: 52.340, df_1m['MA30_RSI10'].iloc[-2]: 52.018  df_1m['MACD'].iloc[-1]: 0.091, df_1m['MACD'].iloc[-2]: 0.078  df_1m['MACD_hist'].iloc[-1]: -0.017, df_1m['MACD_hist'].iloc[-2]: -0.045  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:1  MACD_hist_speed: 1.170 (more than 1.07 is good),  MACD_hist_max_amp: 0.603, MACD_hist_max_amp_1m: 0.118  </t>
+        </is>
+      </c>
+      <c r="Z850" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA850" t="inlineStr">
+        <is>
+          <t>FA1B57870AE017C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>849</v>
+      </c>
+      <c r="B851" t="n">
+        <v>4711</v>
+      </c>
+      <c r="C851" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="D851" s="2" t="n">
+        <v>45926.98900717593</v>
+      </c>
+      <c r="E851" t="n">
+        <v>92.4288</v>
+      </c>
+      <c r="F851" t="n">
+        <v>2495.5776</v>
+      </c>
+      <c r="G851" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H851" s="2" t="n">
+        <v>45927.14355092592</v>
+      </c>
+      <c r="I851" t="n">
+        <v>94.38</v>
+      </c>
+      <c r="J851" t="n">
+        <v>2548.26</v>
+      </c>
+      <c r="K851" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L851" t="n">
+        <v>27</v>
+      </c>
+      <c r="M851" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N851" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O851" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P851" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q851" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R851" t="n">
+        <v>50.51139999999969</v>
+      </c>
+      <c r="S851" t="inlineStr">
+        <is>
+          <t>FA1B578DC7478AD000</t>
+        </is>
+      </c>
+      <c r="T851" t="inlineStr">
+        <is>
+          <t>FA1B5C6E53648AD000</t>
+        </is>
+      </c>
+      <c r="U851" t="inlineStr"/>
+      <c r="V851" t="inlineStr"/>
+      <c r="W851" t="inlineStr">
+        <is>
+          <t>FA1B5C6E559A8AD000</t>
+        </is>
+      </c>
+      <c r="X851" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y851" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z851" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA851" t="inlineStr">
+        <is>
+          <t>FA1B5C6E541FCAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>850</v>
+      </c>
+      <c r="B852" t="n">
+        <v>4688</v>
+      </c>
+      <c r="C852" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="D852" s="2" t="n">
+        <v>45923.24157341435</v>
+      </c>
+      <c r="E852" t="n">
+        <v>218.4626</v>
+      </c>
+      <c r="F852" t="n">
+        <v>2403.0886</v>
+      </c>
+      <c r="G852" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H852" s="2" t="n">
+        <v>45924.186171875</v>
+      </c>
+      <c r="I852" t="n">
+        <v>218.7201</v>
+      </c>
+      <c r="J852" t="n">
+        <v>2405.9211</v>
+      </c>
+      <c r="K852" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="L852" t="n">
+        <v>11</v>
+      </c>
+      <c r="M852" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N852" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O852" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P852" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q852" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R852" t="n">
+        <v>0.7824999999999818</v>
+      </c>
+      <c r="S852" t="inlineStr">
+        <is>
+          <t>FA1B579AB7BB4AD000</t>
+        </is>
+      </c>
+      <c r="T852" t="inlineStr">
+        <is>
+          <t>FA1B579AE0954AD000</t>
+        </is>
+      </c>
+      <c r="U852" t="inlineStr"/>
+      <c r="V852" t="inlineStr"/>
+      <c r="W852" t="inlineStr">
+        <is>
+          <t>FA1B579AE2B34AD000</t>
+        </is>
+      </c>
+      <c r="X852" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y852" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 1.711, df['MACD'].iloc[-2]: 1.685,  df['MACD_hist'].iloc[-1]: 0.142, df['MACD_hist'].iloc[-2]: 0.113,  delta_MA50_M120.iloc[-1]: 1.728, delta_MA50_M120.iloc[-2]: 1.726,\ 
+  df['MA30_RSI10'].iloc[-1]: 63.862, df['MA30_RSI10'].iloc[-2]: 63.668  delta_MA50_MA120_1m.iloc[-1]: 0.073, delta_MA50_MA120_1m.iloc[-2]: 0.068  df_1m['MA30_RSI10'].iloc[-1]: 62.761, df_1m['MA30_RSI10'].iloc[-2]: 62.300  df_1m['MACD'].iloc[-1]: 0.124, df_1m['MACD'].iloc[-2]: 0.119  df_1m['MACD_hist'].iloc[-1]: 0.029, df_1m['MACD_hist'].iloc[-2]: 0.024  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:1  MACD_hist_speed: 1.251 (more than 1.07 is good),  MACD_hist_max_amp: 0.892, MACD_hist_max_amp_1m: 0.064  </t>
+        </is>
+      </c>
+      <c r="Z852" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA852" t="inlineStr">
+        <is>
+          <t>FA1B579AE152CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>851</v>
+      </c>
+      <c r="B853" t="n">
+        <v>4689</v>
+      </c>
+      <c r="C853" t="inlineStr">
+        <is>
+          <t>MMC</t>
+        </is>
+      </c>
+      <c r="D853" s="2" t="n">
+        <v>45923.9824696875</v>
+      </c>
+      <c r="E853" t="n">
+        <v>197.39</v>
+      </c>
+      <c r="F853" t="n">
+        <v>2368.68</v>
+      </c>
+      <c r="G853" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H853" s="2" t="n">
+        <v>45924.06039420139</v>
+      </c>
+      <c r="I853" t="n">
+        <v>196.49</v>
+      </c>
+      <c r="J853" t="n">
+        <v>2357.88</v>
+      </c>
+      <c r="K853" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L853" t="n">
+        <v>12</v>
+      </c>
+      <c r="M853" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N853" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O853" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P853" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q853" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R853" t="n">
+        <v>-12.86999999999973</v>
+      </c>
+      <c r="S853" t="inlineStr">
+        <is>
+          <t>FA1B588EE8DA4AD000</t>
+        </is>
+      </c>
+      <c r="T853" t="inlineStr">
+        <is>
+          <t>FA1B588F22388AD000</t>
+        </is>
+      </c>
+      <c r="U853" t="inlineStr"/>
+      <c r="V853" t="inlineStr"/>
+      <c r="W853" t="inlineStr">
+        <is>
+          <t>FA1B588F2462CAD000</t>
+        </is>
+      </c>
+      <c r="X853" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y853" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:False, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.928, df['MACD'].iloc[-2]: -0.967,  df['MACD_hist'].iloc[-1]: 0.349, df['MACD_hist'].iloc[-2]: 0.325,  delta_MA50_M120.iloc[-1]: -1.599, delta_MA50_M120.iloc[-2]: -1.576,\ 
+  df['MA30_RSI10'].iloc[-1]: 44.688, df['MA30_RSI10'].iloc[-2]: 43.917  delta_MA50_MA120_1m.iloc[-1]: 0.100, delta_MA50_MA120_1m.iloc[-2]: 0.096  df_1m['MA30_RSI10'].iloc[-1]: 51.085, df_1m['MA30_RSI10'].iloc[-2]: 51.019  df_1m['MACD'].iloc[-1]: 0.038, df_1m['MACD'].iloc[-2]: 0.035  df_1m['MACD_hist'].iloc[-1]: -0.035, df_1m['MACD_hist'].iloc[-2]: -0.046  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:1  MACD_hist_speed: 1.076 (more than 1.07 is good),  MACD_hist_max_amp: 0.874, MACD_hist_max_amp_1m: 0.100  
+  </t>
+        </is>
+      </c>
+      <c r="Z853" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA853" t="inlineStr">
+        <is>
+          <t>FA1B588F22E5D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>852</v>
+      </c>
+      <c r="B854" t="n">
+        <v>4693</v>
+      </c>
+      <c r="C854" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="D854" s="2" t="n">
+        <v>45924.06971196759</v>
+      </c>
+      <c r="E854" t="n">
+        <v>107.246547</v>
+      </c>
+      <c r="F854" t="n">
+        <v>2466.670581</v>
+      </c>
+      <c r="G854" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="H854" s="2" t="n">
+        <v>45925.27009060185</v>
+      </c>
+      <c r="I854" t="n">
+        <v>108.9301</v>
+      </c>
+      <c r="J854" t="n">
+        <v>2505.3923</v>
+      </c>
+      <c r="K854" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L854" t="n">
+        <v>23</v>
+      </c>
+      <c r="M854" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N854" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O854" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P854" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q854" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R854" t="n">
+        <v>36.59171900000012</v>
+      </c>
+      <c r="S854" t="inlineStr">
+        <is>
+          <t>FA1B58ABA9E60AD000</t>
+        </is>
+      </c>
+      <c r="T854" t="inlineStr">
+        <is>
+          <t>FA1B58ABDCA117C000</t>
+        </is>
+      </c>
+      <c r="U854" t="inlineStr"/>
+      <c r="V854" t="inlineStr"/>
+      <c r="W854" t="inlineStr">
+        <is>
+          <t>FA1B58ABDEC98AD000</t>
+        </is>
+      </c>
+      <c r="X854" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y854" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:True, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.378, df['MACD'].iloc[-2]: -0.402,  df['MACD_hist'].iloc[-1]: 0.123, df['MACD_hist'].iloc[-2]: 0.094,  delta_MA50_M120.iloc[-1]: -0.808, delta_MA50_M120.iloc[-2]: -0.814,\ 
+  df['MA30_RSI10'].iloc[-1]: 41.990, df['MA30_RSI10'].iloc[-2]: 41.184  delta_MA50_MA120_1m.iloc[-1]: 0.045, delta_MA50_MA120_1m.iloc[-2]: 0.040  df_1m['MA30_RSI10'].iloc[-1]: 48.698, df_1m['MA30_RSI10'].iloc[-2]: 48.434  df_1m['MACD'].iloc[-1]: 0.022, df_1m['MACD'].iloc[-2]: 0.017  df_1m['MACD_hist'].iloc[-1]: 0.023, df_1m['MACD_hist'].iloc[-2]: 0.018  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.302 (more than 1.07 is good),  MACD_hist_max_amp: 0.444, MACD_hist_max_amp_1m: 0.058  
+  </t>
+        </is>
+      </c>
+      <c r="Z854" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA854" t="inlineStr">
+        <is>
+          <t>FA1B58ABDD624AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>853</v>
+      </c>
+      <c r="B855" t="n">
+        <v>4702</v>
+      </c>
+      <c r="C855" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="D855" s="2" t="n">
+        <v>45925.04084181713</v>
+      </c>
+      <c r="E855" t="n">
+        <v>280.18</v>
+      </c>
+      <c r="F855" t="n">
+        <v>2241.44</v>
+      </c>
+      <c r="G855" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H855" s="2" t="n">
+        <v>45925.11625666667</v>
+      </c>
+      <c r="I855" t="n">
+        <v>277.55</v>
+      </c>
+      <c r="J855" t="n">
+        <v>2220.4</v>
+      </c>
+      <c r="K855" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L855" t="n">
+        <v>8</v>
+      </c>
+      <c r="M855" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N855" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O855" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P855" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q855" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R855" t="n">
+        <v>-23.06999999999996</v>
+      </c>
+      <c r="S855" t="inlineStr">
+        <is>
+          <t>FA1B59EBBD048AD000</t>
+        </is>
+      </c>
+      <c r="T855" t="inlineStr">
+        <is>
+          <t>FA1B59EC3EB297C000</t>
+        </is>
+      </c>
+      <c r="U855" t="inlineStr"/>
+      <c r="V855" t="inlineStr"/>
+      <c r="W855" t="inlineStr">
+        <is>
+          <t>FA1B59EC4093D7C000</t>
+        </is>
+      </c>
+      <c r="X855" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y855" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:False, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 1.199, df['MACD'].iloc[-2]: 1.063,  df['MACD_hist'].iloc[-1]: 0.587, df['MACD_hist'].iloc[-2]: 0.406,  delta_MA50_M120.iloc[-1]: 0.892, delta_MA50_M120.iloc[-2]: 0.887,\ 
+  df['MA30_RSI10'].iloc[-1]: 55.132, df['MA30_RSI10'].iloc[-2]: 54.273  delta_MA50_MA120_1m.iloc[-1]: 0.357, delta_MA50_MA120_1m.iloc[-2]: 0.343  df_1m['MA30_RSI10'].iloc[-1]: 65.255, df_1m['MA30_RSI10'].iloc[-2]: 64.901  df_1m['MACD'].iloc[-1]: 0.964, df_1m['MACD'].iloc[-2]: 0.960  df_1m['MACD_hist'].iloc[-1]: 0.286, df_1m['MACD_hist'].iloc[-2]: 0.323  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.448 (more than 1.07 is good),  MACD_hist_max_amp: 0.745, MACD_hist_max_amp_1m: 0.460  
+  </t>
+        </is>
+      </c>
+      <c r="Z855" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA855" t="inlineStr">
+        <is>
+          <t>FA1B59EC3F5E57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
+        <v>854</v>
+      </c>
+      <c r="B856" t="n">
+        <v>4703</v>
+      </c>
+      <c r="C856" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="D856" s="2" t="n">
+        <v>45925.07772570602</v>
+      </c>
+      <c r="E856" t="n">
+        <v>26.7797</v>
+      </c>
+      <c r="F856" t="n">
+        <v>2490.5121</v>
+      </c>
+      <c r="G856" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H856" s="2" t="n">
+        <v>45925.22933460648</v>
+      </c>
+      <c r="I856" t="n">
+        <v>26.7118</v>
+      </c>
+      <c r="J856" t="n">
+        <v>2484.1974</v>
+      </c>
+      <c r="K856" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L856" t="n">
+        <v>93</v>
+      </c>
+      <c r="M856" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N856" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O856" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P856" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q856" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R856" t="n">
+        <v>-8.685699999999901</v>
+      </c>
+      <c r="S856" t="inlineStr">
+        <is>
+          <t>FA1B59F7E5174AD000</t>
+        </is>
+      </c>
+      <c r="T856" t="inlineStr">
+        <is>
+          <t>FA1B59F88A31CAD000</t>
+        </is>
+      </c>
+      <c r="U856" t="inlineStr"/>
+      <c r="V856" t="inlineStr"/>
+      <c r="W856" t="inlineStr">
+        <is>
+          <t>FA1B59F88C49D7C000</t>
+        </is>
+      </c>
+      <c r="X856" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y856" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False, cond_b6: False  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.075, df['MACD'].iloc[-2]: 0.064,  df['MACD_hist'].iloc[-1]: 0.097, df['MACD_hist'].iloc[-2]: 0.089,  delta_MA50_M120.iloc[-1]: -1.120, delta_MA50_M120.iloc[-2]: -1.206,\ 
+  df['MA30_RSI10'].iloc[-1]: 60.902, df['MA30_RSI10'].iloc[-2]: 60.432  delta_MA50_MA120_1m.iloc[-1]: -0.004, delta_MA50_MA120_1m.iloc[-2]: -0.011  df_1m['MA30_RSI10'].iloc[-1]: 74.106, df_1m['MA30_RSI10'].iloc[-2]: 73.430  df_1m['MACD'].iloc[-1]: 0.037, df_1m['MACD'].iloc[-2]: 0.036  df_1m['MACD_hist'].iloc[-1]: 0.024, df_1m['MACD_hist'].iloc[-2]: 0.026  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:1  MACD_hist_speed: 1.081 (more than 1.07 is good),  MACD_hist_max_amp: 0.145, MACD_hist_max_amp_1m: 0.029  
+  </t>
+        </is>
+      </c>
+      <c r="Z856" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA856" t="inlineStr">
+        <is>
+          <t>FA1B59F88AE097C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>855</v>
+      </c>
+      <c r="B857" t="n">
+        <v>4708</v>
+      </c>
+      <c r="C857" t="inlineStr">
+        <is>
+          <t>AJG</t>
+        </is>
+      </c>
+      <c r="D857" s="2" t="n">
+        <v>45925.98572012731</v>
+      </c>
+      <c r="E857" t="n">
+        <v>305.81</v>
+      </c>
+      <c r="F857" t="n">
+        <v>2446.48</v>
+      </c>
+      <c r="G857" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H857" s="2" t="n">
+        <v>45926.04974020833</v>
+      </c>
+      <c r="I857" t="n">
+        <v>304.54</v>
+      </c>
+      <c r="J857" t="n">
+        <v>2436.32</v>
+      </c>
+      <c r="K857" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L857" t="n">
+        <v>8</v>
+      </c>
+      <c r="M857" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N857" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O857" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P857" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q857" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R857" t="n">
+        <v>-12.18999999999985</v>
+      </c>
+      <c r="S857" t="inlineStr">
+        <is>
+          <t>FA1B5B232916D7C000</t>
+        </is>
+      </c>
+      <c r="T857" t="inlineStr">
+        <is>
+          <t>FA1B5B24543E97C000</t>
+        </is>
+      </c>
+      <c r="U857" t="inlineStr"/>
+      <c r="V857" t="inlineStr"/>
+      <c r="W857" t="inlineStr">
+        <is>
+          <t>FA1B5B24566F0AD001</t>
+        </is>
+      </c>
+      <c r="X857" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y857" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 2.186, df['MACD'].iloc[-2]: 2.092,  df['MACD_hist'].iloc[-1]: 1.049, df['MACD_hist'].iloc[-2]: 1.022,  delta_MA50_M120.iloc[-1]: -0.134, delta_MA50_M120.iloc[-2]: -0.238,\ 
+  df['MA30_RSI10'].iloc[-1]: 66.715, df['MA30_RSI10'].iloc[-2]: 66.071  delta_MA50_MA120_1m.iloc[-1]: 0.048, delta_MA50_MA120_1m.iloc[-2]: 0.038  df_1m['MA30_RSI10'].iloc[-1]: 55.752, df_1m['MA30_RSI10'].iloc[-2]: 55.174  df_1m['MACD'].iloc[-1]: 0.355, df_1m['MACD'].iloc[-2]: 0.314  df_1m['MACD_hist'].iloc[-1]: 0.353, df_1m['MACD_hist'].iloc[-2]: 0.326  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.027 (more than 1.07 is good),  MACD_hist_max_amp: 1.584, MACD_hist_max_amp_1m: 0.282  
+  </t>
+        </is>
+      </c>
+      <c r="Z857" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA857" t="inlineStr">
+        <is>
+          <t>FA1B5B2454EA57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>856</v>
+      </c>
+      <c r="B858" t="n">
+        <v>4709</v>
+      </c>
+      <c r="C858" t="inlineStr">
+        <is>
+          <t>STZ</t>
+        </is>
+      </c>
+      <c r="D858" s="2" t="n">
+        <v>45926.11206836806</v>
+      </c>
+      <c r="E858" t="n">
+        <v>133.22</v>
+      </c>
+      <c r="F858" t="n">
+        <v>2397.96</v>
+      </c>
+      <c r="G858" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H858" s="2" t="n">
+        <v>45926.15684761574</v>
+      </c>
+      <c r="I858" t="n">
+        <v>133.05</v>
+      </c>
+      <c r="J858" t="n">
+        <v>2394.9</v>
+      </c>
+      <c r="K858" t="n">
+        <v>1.101</v>
+      </c>
+      <c r="L858" t="n">
+        <v>18</v>
+      </c>
+      <c r="M858" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N858" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O858" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P858" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q858" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R858" t="n">
+        <v>-5.200999999999945</v>
+      </c>
+      <c r="S858" t="inlineStr">
+        <is>
+          <t>FA1B5B4CCDBC17C000</t>
+        </is>
+      </c>
+      <c r="T858" t="inlineStr">
+        <is>
+          <t>FA1B5B4E360257C000</t>
+        </is>
+      </c>
+      <c r="U858" t="inlineStr"/>
+      <c r="V858" t="inlineStr"/>
+      <c r="W858" t="inlineStr">
+        <is>
+          <t>FA1B5B4E3812D7C000</t>
+        </is>
+      </c>
+      <c r="X858" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y858" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -1.194, df['MACD'].iloc[-2]: -1.262,  df['MACD_hist'].iloc[-1]: 0.729, df['MACD_hist'].iloc[-2]: 0.705,  delta_MA50_M120.iloc[-1]: -4.479, delta_MA50_M120.iloc[-2]: -4.571,\ 
+  df['MA30_RSI10'].iloc[-1]: 47.273, df['MA30_RSI10'].iloc[-2]: 46.281  delta_MA50_MA120_1m.iloc[-1]: 0.020, delta_MA50_MA120_1m.iloc[-2]: 0.014  df_1m['MA30_RSI10'].iloc[-1]: 59.422, df_1m['MA30_RSI10'].iloc[-2]: 59.143  df_1m['MACD'].iloc[-1]: 0.111, df_1m['MACD'].iloc[-2]: 0.101  df_1m['MACD_hist'].iloc[-1]: 0.117, df_1m['MACD_hist'].iloc[-2]: 0.115  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.035 (more than 1.07 is good),  MACD_hist_max_amp: 1.023, MACD_hist_max_amp_1m: 0.123  
+  </t>
+        </is>
+      </c>
+      <c r="Z858" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA858" t="inlineStr">
+        <is>
+          <t>FA1B5B4E36AE8AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" s="1" t="n">
+        <v>857</v>
+      </c>
+      <c r="B859" t="n">
+        <v>4715</v>
+      </c>
+      <c r="C859" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="D859" s="2" t="n">
+        <v>45927.02695020833</v>
+      </c>
+      <c r="E859" t="n">
+        <v>160.9791</v>
+      </c>
+      <c r="F859" t="n">
+        <v>2414.6865</v>
+      </c>
+      <c r="G859" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H859" s="2" t="n">
+        <v>45927.06464710648</v>
+      </c>
+      <c r="I859" t="n">
+        <v>160.4392</v>
+      </c>
+      <c r="J859" t="n">
+        <v>2406.588</v>
+      </c>
+      <c r="K859" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="L859" t="n">
+        <v>15</v>
+      </c>
+      <c r="M859" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N859" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O859" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P859" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q859" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R859" t="n">
+        <v>-10.1884999999996</v>
+      </c>
+      <c r="S859" t="inlineStr">
+        <is>
+          <t>FA1B5C768B830AD000</t>
+        </is>
+      </c>
+      <c r="T859" t="inlineStr"/>
+      <c r="U859" t="inlineStr"/>
+      <c r="V859" t="inlineStr"/>
+      <c r="W859" t="inlineStr"/>
+      <c r="X859" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y859" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z859" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA859" t="inlineStr"/>
+    </row>
+    <row r="860">
+      <c r="A860" s="1" t="n">
+        <v>858</v>
+      </c>
+      <c r="B860" t="n">
+        <v>4717</v>
+      </c>
+      <c r="C860" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D860" s="2" t="n">
+        <v>45927.07422052083</v>
+      </c>
+      <c r="E860" t="n">
+        <v>409.51</v>
+      </c>
+      <c r="F860" t="n">
+        <v>2457.06</v>
+      </c>
+      <c r="G860" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H860" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>0</v>
+      </c>
+      <c r="K860" t="n">
+        <v>0</v>
+      </c>
+      <c r="L860" t="n">
+        <v>6</v>
+      </c>
+      <c r="M860" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N860" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O860" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P860" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q860" t="n">
         <v>1.25</v>
       </c>
-      <c r="R850" t="n">
-        <v>-1.330000000000182</v>
-      </c>
-      <c r="S850" t="inlineStr">
-        <is>
-          <t>FA1B53B9108A0AD000</t>
-        </is>
-      </c>
-      <c r="T850" t="inlineStr">
-        <is>
-          <t>FA1B53BB40D90AD000</t>
-        </is>
-      </c>
-      <c r="U850" t="inlineStr">
+      <c r="R860" t="n">
+        <v>0</v>
+      </c>
+      <c r="S860" t="inlineStr">
+        <is>
+          <t>FA1B5C898C300AD000</t>
+        </is>
+      </c>
+      <c r="T860" t="inlineStr">
+        <is>
+          <t>FA1B5C8AECCC57C000</t>
+        </is>
+      </c>
+      <c r="U860" t="inlineStr"/>
+      <c r="V860" t="inlineStr"/>
+      <c r="W860" t="inlineStr">
+        <is>
+          <t>FA1B5C8AEEFF57C000</t>
+        </is>
+      </c>
+      <c r="X860" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y860" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z860" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA860" t="inlineStr">
+        <is>
+          <t>FA1B5C8AED7B17C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" s="1" t="n">
+        <v>859</v>
+      </c>
+      <c r="B861" t="n">
+        <v>4718</v>
+      </c>
+      <c r="C861" t="inlineStr">
+        <is>
+          <t>SPG</t>
+        </is>
+      </c>
+      <c r="D861" s="2" t="n">
+        <v>45927.09922373843</v>
+      </c>
+      <c r="E861" t="n">
+        <v>184.5</v>
+      </c>
+      <c r="F861" t="n">
+        <v>2398.5</v>
+      </c>
+      <c r="G861" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="H861" s="2" t="n">
+        <v>45927.26870071759</v>
+      </c>
+      <c r="I861" t="n">
+        <v>184.5585</v>
+      </c>
+      <c r="J861" t="n">
+        <v>2399.2605</v>
+      </c>
+      <c r="K861" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L861" t="n">
+        <v>13</v>
+      </c>
+      <c r="M861" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N861" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O861" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P861" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q861" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R861" t="n">
+        <v>-1.30949999999968</v>
+      </c>
+      <c r="S861" t="inlineStr">
+        <is>
+          <t>FA1B5C9228F40AD000</t>
+        </is>
+      </c>
+      <c r="T861" t="inlineStr">
+        <is>
+          <t>FA1B5C928A0C8AD000</t>
+        </is>
+      </c>
+      <c r="U861" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="V850" t="inlineStr">
+      <c r="V861" t="inlineStr">
         <is>
           <t>nan</t>
         </is>
       </c>
-      <c r="W850" t="inlineStr">
-        <is>
-          <t>FA1B53BB42E50AD000</t>
-        </is>
-      </c>
-      <c r="X850" t="inlineStr">
+      <c r="W861" t="inlineStr">
+        <is>
+          <t>FA1B5C928C2A8AD000</t>
+        </is>
+      </c>
+      <c r="X861" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
         </is>
       </c>
-      <c r="Y850" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False  cond_RSI:1, cond_grad_MACD:1,  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:1,  df['MACD'].iloc[-1]: 9.368, df['MACD'].iloc[-2]: 9.306,  df['MACD_hist'].iloc[-1]: 2.546, df['MACD_hist'].iloc[-2]: 2.814,  delta_MA50_M120.iloc[-1]: 2.949, delta_MA50_M120.iloc[-2]: 2.830,\ 
-  df['MA30_RSI10'].iloc[-1]: 77.810, df['MA30_RSI10'].iloc[-2]: 77.466  delta_MA50_MA120_1m.iloc[-1]: -0.016, delta_MA50_MA120_1m.iloc[-2]: -0.022  df_1m['MA30_RSI10'].iloc[-1]: 68.711, df_1m['MA30_RSI10'].iloc[-2]: 68.130  df_1m['MACD'].iloc[-1]: 0.276, df_1m['MACD'].iloc[-2]: 0.258  df_1m['MACD_hist'].iloc[-1]: 0.139, df_1m['MACD_hist'].iloc[-2]: 0.124  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.905 (more than 1.07 is good),  MACD_hist_max_amp: 4.329, MACD_hist_max_amp_1m: 0.298  </t>
-        </is>
-      </c>
-      <c r="Z850" t="inlineStr">
+      <c r="Y861" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:True, cond_b3:False, cond_b4:True, cond_b5:True, cond_b6: False  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.535, df['MACD'].iloc[-2]: 0.499,  df['MACD_hist'].iloc[-1]: 0.198, df['MACD_hist'].iloc[-2]: 0.157,  delta_MA50_M120.iloc[-1]: 0.262, delta_MA50_M120.iloc[-2]: 0.259,\ 
+  df['MA30_RSI10'].iloc[-1]: 56.296, df['MA30_RSI10'].iloc[-2]: 55.398  delta_MA50_MA120_1m.iloc[-1]: 0.001, delta_MA50_MA120_1m.iloc[-2]: -0.005  df_1m['MA30_RSI10'].iloc[-1]: 48.385, df_1m['MA30_RSI10'].iloc[-2]: 47.836  df_1m['MACD'].iloc[-1]: 0.015, df_1m['MACD'].iloc[-2]: 0.007  df_1m['MACD_hist'].iloc[-1]: 0.023, df_1m['MACD_hist'].iloc[-2]: 0.010  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:1  MACD_hist_speed: 1.263 (more than 1.07 is good),  MACD_hist_max_amp: 0.711, MACD_hist_max_amp_1m: 0.120  
+  </t>
+        </is>
+      </c>
+      <c r="Z861" t="inlineStr">
         <is>
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA850" t="inlineStr">
-        <is>
-          <t>FA1B53BB418457C000</t>
-        </is>
-      </c>
+      <c r="AA861" t="inlineStr">
+        <is>
+          <t>FA1B5C928ACB97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" s="1" t="n">
+        <v>860</v>
+      </c>
+      <c r="B862" t="n">
+        <v>4719</v>
+      </c>
+      <c r="C862" t="inlineStr">
+        <is>
+          <t>CAG</t>
+        </is>
+      </c>
+      <c r="D862" s="2" t="n">
+        <v>45927.10685473379</v>
+      </c>
+      <c r="E862" t="n">
+        <v>18.22</v>
+      </c>
+      <c r="F862" t="n">
+        <v>2496.14</v>
+      </c>
+      <c r="G862" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H862" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>0</v>
+      </c>
+      <c r="K862" t="n">
+        <v>0</v>
+      </c>
+      <c r="L862" t="n">
+        <v>137</v>
+      </c>
+      <c r="M862" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N862" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O862" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P862" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q862" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R862" t="n">
+        <v>0</v>
+      </c>
+      <c r="S862" t="inlineStr">
+        <is>
+          <t>FA1B5C94ACDCD7C000</t>
+        </is>
+      </c>
+      <c r="T862" t="inlineStr"/>
+      <c r="U862" t="inlineStr"/>
+      <c r="V862" t="inlineStr"/>
+      <c r="W862" t="inlineStr"/>
+      <c r="X862" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y862" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.150, df['MACD'].iloc[-2]: -0.154,  df['MACD_hist'].iloc[-1]: 0.018, df['MACD_hist'].iloc[-2]: 0.013,  delta_MA50_M120.iloc[-1]: -2.294, delta_MA50_M120.iloc[-2]: -2.229,\ 
+  df['MA30_RSI10'].iloc[-1]: 38.240, df['MA30_RSI10'].iloc[-2]: 37.385  delta_MA50_MA120_1m.iloc[-1]: -0.064, delta_MA50_MA120_1m.iloc[-2]: -0.071  df_1m['MA30_RSI10'].iloc[-1]: 57.370, df_1m['MA30_RSI10'].iloc[-2]: 56.745  df_1m['MACD'].iloc[-1]: 0.005, df_1m['MACD'].iloc[-2]: 0.004  df_1m['MACD_hist'].iloc[-1]: 0.003, df_1m['MACD_hist'].iloc[-2]: 0.002  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.359 (more than 1.07 is good),  MACD_hist_max_amp: 0.075, MACD_hist_max_amp_1m: 0.010  
+  </t>
+        </is>
+      </c>
+      <c r="Z862" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA862" t="inlineStr"/>
+    </row>
+    <row r="863">
+      <c r="A863" s="1" t="n">
+        <v>861</v>
+      </c>
+      <c r="B863" t="n">
+        <v>4720</v>
+      </c>
+      <c r="C863" t="inlineStr">
+        <is>
+          <t>PNC</t>
+        </is>
+      </c>
+      <c r="D863" s="2" t="n">
+        <v>45927.10707041666</v>
+      </c>
+      <c r="E863" t="n">
+        <v>203.13</v>
+      </c>
+      <c r="F863" t="n">
+        <v>2437.56</v>
+      </c>
+      <c r="G863" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H863" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>0</v>
+      </c>
+      <c r="K863" t="n">
+        <v>0</v>
+      </c>
+      <c r="L863" t="n">
+        <v>12</v>
+      </c>
+      <c r="M863" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N863" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O863" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P863" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q863" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R863" t="n">
+        <v>0</v>
+      </c>
+      <c r="S863" t="inlineStr">
+        <is>
+          <t>FA1B5C94BF088AD000</t>
+        </is>
+      </c>
+      <c r="T863" t="inlineStr"/>
+      <c r="U863" t="inlineStr"/>
+      <c r="V863" t="inlineStr"/>
+      <c r="W863" t="inlineStr"/>
+      <c r="X863" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y863" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:True, cond_b2:True, cond_b3:False, cond_b4:True, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.091, df['MACD'].iloc[-2]: -0.105,  df['MACD_hist'].iloc[-1]: -0.199, df['MACD_hist'].iloc[-2]: -0.257,  delta_MA50_M120.iloc[-1]: 0.366, delta_MA50_M120.iloc[-2]: 0.363,\ 
+  df['MA30_RSI10'].iloc[-1]: 46.340, df['MA30_RSI10'].iloc[-2]: 46.139  delta_MA50_MA120_1m.iloc[-1]: 0.059, delta_MA50_MA120_1m.iloc[-2]: 0.053  df_1m['MA30_RSI10'].iloc[-1]: 44.932, df_1m['MA30_RSI10'].iloc[-2]: 44.165  df_1m['MACD'].iloc[-1]: 0.041, df_1m['MACD'].iloc[-2]: 0.028  df_1m['MACD_hist'].iloc[-1]: 0.095, df_1m['MACD_hist'].iloc[-2]: 0.084  cond_a1:0, cond_a2:1, cond_a3:1, cond_a4:0  MACD_hist_speed: 0.775 (more than 1.07 is good),  MACD_hist_max_amp: 0.765, MACD_hist_max_amp_1m: 0.211  
+  </t>
+        </is>
+      </c>
+      <c r="Z863" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA863" t="inlineStr"/>
+    </row>
+    <row r="864">
+      <c r="A864" s="1" t="n">
+        <v>862</v>
+      </c>
+      <c r="B864" t="n">
+        <v>4721</v>
+      </c>
+      <c r="C864" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="D864" s="2" t="n">
+        <v>45927.1139700463</v>
+      </c>
+      <c r="E864" t="n">
+        <v>113.64</v>
+      </c>
+      <c r="F864" t="n">
+        <v>2500.08</v>
+      </c>
+      <c r="G864" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H864" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>0</v>
+      </c>
+      <c r="K864" t="n">
+        <v>0</v>
+      </c>
+      <c r="L864" t="n">
+        <v>22</v>
+      </c>
+      <c r="M864" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N864" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O864" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P864" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q864" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R864" t="n">
+        <v>0</v>
+      </c>
+      <c r="S864" t="inlineStr">
+        <is>
+          <t>FA1B5C97052B97C000</t>
+        </is>
+      </c>
+      <c r="T864" t="inlineStr"/>
+      <c r="U864" t="inlineStr"/>
+      <c r="V864" t="inlineStr"/>
+      <c r="W864" t="inlineStr"/>
+      <c r="X864" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y864" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: False  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.124, df['MACD'].iloc[-2]: -0.150,  df['MACD_hist'].iloc[-1]: 0.029, df['MACD_hist'].iloc[-2]: -0.017,  delta_MA50_M120.iloc[-1]: 0.367, delta_MA50_M120.iloc[-2]: 0.404,\ 
+  df['MA30_RSI10'].iloc[-1]: 47.035, df['MA30_RSI10'].iloc[-2]: 46.496  delta_MA50_MA120_1m.iloc[-1]: 0.156, delta_MA50_MA120_1m.iloc[-2]: 0.155  df_1m['MA30_RSI10'].iloc[-1]: 60.995, df_1m['MA30_RSI10'].iloc[-2]: 59.902  df_1m['MACD'].iloc[-1]: 0.107, df_1m['MACD'].iloc[-2]: 0.103  df_1m['MACD_hist'].iloc[-1]: 0.063, df_1m['MACD_hist'].iloc[-2]: 0.064  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: -1.696 (more than 1.07 is good),  MACD_hist_max_amp: 0.413, MACD_hist_max_amp_1m: 0.075  
+  </t>
+        </is>
+      </c>
+      <c r="Z864" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA864" t="inlineStr"/>
+    </row>
+    <row r="865">
+      <c r="A865" s="1" t="n">
+        <v>863</v>
+      </c>
+      <c r="B865" t="n">
+        <v>4722</v>
+      </c>
+      <c r="C865" t="inlineStr">
+        <is>
+          <t>MASI</t>
+        </is>
+      </c>
+      <c r="D865" s="2" t="n">
+        <v>45927.21069133102</v>
+      </c>
+      <c r="E865" t="n">
+        <v>141.68</v>
+      </c>
+      <c r="F865" t="n">
+        <v>2408.56</v>
+      </c>
+      <c r="G865" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H865" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>0</v>
+      </c>
+      <c r="K865" t="n">
+        <v>0</v>
+      </c>
+      <c r="L865" t="n">
+        <v>17</v>
+      </c>
+      <c r="M865" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N865" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O865" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P865" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q865" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R865" t="n">
+        <v>0</v>
+      </c>
+      <c r="S865" t="inlineStr">
+        <is>
+          <t>FA1B5CB6E6038AD000</t>
+        </is>
+      </c>
+      <c r="T865" t="inlineStr"/>
+      <c r="U865" t="inlineStr"/>
+      <c r="V865" t="inlineStr"/>
+      <c r="W865" t="inlineStr"/>
+      <c r="X865" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y865" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.587, df['MACD'].iloc[-2]: -0.670,  df['MACD_hist'].iloc[-1]: 0.477, df['MACD_hist'].iloc[-2]: 0.384,  delta_MA50_M120.iloc[-1]: -1.769, delta_MA50_M120.iloc[-2]: -1.724,\ 
+  df['MA30_RSI10'].iloc[-1]: 47.501, df['MA30_RSI10'].iloc[-2]: 47.182  delta_MA50_MA120_1m.iloc[-1]: -0.148, delta_MA50_MA120_1m.iloc[-2]: -0.154  df_1m['MA30_RSI10'].iloc[-1]: 62.047, df_1m['MA30_RSI10'].iloc[-2]: 60.936  df_1m['MACD'].iloc[-1]: 0.089, df_1m['MACD'].iloc[-2]: 0.078  df_1m['MACD_hist'].iloc[-1]: 0.099, df_1m['MACD_hist'].iloc[-2]: 0.092  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.241 (more than 1.07 is good),  MACD_hist_max_amp: 0.882, MACD_hist_max_amp_1m: 0.117  
+  </t>
+        </is>
+      </c>
+      <c r="Z865" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA865" t="inlineStr"/>
+    </row>
+    <row r="866">
+      <c r="A866" s="1" t="n">
+        <v>864</v>
+      </c>
+      <c r="B866" t="n">
+        <v>4723</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>MASI</t>
+        </is>
+      </c>
+      <c r="D866" s="2" t="n">
+        <v>45927.21739049769</v>
+      </c>
+      <c r="E866" t="n">
+        <v>141.76</v>
+      </c>
+      <c r="F866" t="n">
+        <v>2409.92</v>
+      </c>
+      <c r="G866" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="H866" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>0</v>
+      </c>
+      <c r="K866" t="n">
+        <v>0</v>
+      </c>
+      <c r="L866" t="n">
+        <v>17</v>
+      </c>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>cancelled</t>
+        </is>
+      </c>
+      <c r="N866" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O866" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P866" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q866" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R866" t="n">
+        <v>0</v>
+      </c>
+      <c r="S866" t="inlineStr">
+        <is>
+          <t>FA1B5CB91B4357C000</t>
+        </is>
+      </c>
+      <c r="T866" t="inlineStr"/>
+      <c r="U866" t="inlineStr"/>
+      <c r="V866" t="inlineStr"/>
+      <c r="W866" t="inlineStr"/>
+      <c r="X866" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y866" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.575, df['MACD'].iloc[-2]: -0.670,  df['MACD_hist'].iloc[-1]: 0.498, df['MACD_hist'].iloc[-2]: 0.384,  delta_MA50_M120.iloc[-1]: -1.767, delta_MA50_M120.iloc[-2]: -1.724,\ 
+  df['MA30_RSI10'].iloc[-1]: 47.561, df['MA30_RSI10'].iloc[-2]: 47.182  delta_MA50_MA120_1m.iloc[-1]: -0.098, delta_MA50_MA120_1m.iloc[-2]: -0.108  df_1m['MA30_RSI10'].iloc[-1]: 65.985, df_1m['MA30_RSI10'].iloc[-2]: 65.716  df_1m['MACD'].iloc[-1]: 0.160, df_1m['MACD'].iloc[-2]: 0.147  df_1m['MACD_hist'].iloc[-1]: 0.131, df_1m['MACD_hist'].iloc[-2]: 0.125  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.295 (more than 1.07 is good),  MACD_hist_max_amp: 0.882, MACD_hist_max_amp_1m: 0.126  
+  </t>
+        </is>
+      </c>
+      <c r="Z866" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA866" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA866"/>
+  <dimension ref="A1:AA881"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82729,21 +82729,23 @@
         <v>1.01</v>
       </c>
       <c r="H860" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>45930.02419341435</v>
+      </c>
+      <c r="I860" t="n">
+        <v>408.665</v>
+      </c>
       <c r="J860" t="n">
-        <v>0</v>
+        <v>2451.99</v>
       </c>
       <c r="K860" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="L860" t="n">
         <v>6</v>
       </c>
       <c r="M860" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N860" t="n">
@@ -82756,10 +82758,10 @@
         <v>1.006</v>
       </c>
       <c r="Q860" t="n">
-        <v>1.25</v>
+        <v>0.05</v>
       </c>
       <c r="R860" t="n">
-        <v>0</v>
+        <v>-7.099999999999708</v>
       </c>
       <c r="S860" t="inlineStr">
         <is>
@@ -82868,16 +82870,8 @@
           <t>FA1B5C928A0C8AD000</t>
         </is>
       </c>
-      <c r="U861" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V861" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="U861" t="inlineStr"/>
+      <c r="V861" t="inlineStr"/>
       <c r="W861" t="inlineStr">
         <is>
           <t>FA1B5C928C2A8AD000</t>
@@ -82911,41 +82905,43 @@
         <v>860</v>
       </c>
       <c r="B862" t="n">
-        <v>4719</v>
+        <v>4765</v>
       </c>
       <c r="C862" t="inlineStr">
         <is>
-          <t>CAG</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="D862" s="2" t="n">
-        <v>45927.10685473379</v>
+        <v>45929.63889190972</v>
       </c>
       <c r="E862" t="n">
-        <v>18.22</v>
+        <v>164.315</v>
       </c>
       <c r="F862" t="n">
-        <v>2496.14</v>
+        <v>2464.725</v>
       </c>
       <c r="G862" t="n">
-        <v>1.111</v>
+        <v>1.04</v>
       </c>
       <c r="H862" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>45930.02262574074</v>
+      </c>
+      <c r="I862" t="n">
+        <v>163.95</v>
+      </c>
       <c r="J862" t="n">
-        <v>0</v>
+        <v>2459.25</v>
       </c>
       <c r="K862" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L862" t="n">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="M862" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N862" t="n">
@@ -82961,76 +82957,84 @@
         <v>0.45</v>
       </c>
       <c r="R862" t="n">
-        <v>0</v>
+        <v>-7.564999999999909</v>
       </c>
       <c r="S862" t="inlineStr">
         <is>
-          <t>FA1B5C94ACDCD7C000</t>
-        </is>
-      </c>
-      <c r="T862" t="inlineStr"/>
+          <t>FA1B5FD7357A8AD000</t>
+        </is>
+      </c>
+      <c r="T862" t="inlineStr">
+        <is>
+          <t>FA1B6048090757C000</t>
+        </is>
+      </c>
       <c r="U862" t="inlineStr"/>
       <c r="V862" t="inlineStr"/>
-      <c r="W862" t="inlineStr"/>
+      <c r="W862" t="inlineStr">
+        <is>
+          <t>FA1B60480B2D4AD000</t>
+        </is>
+      </c>
       <c r="X862" t="inlineStr">
         <is>
-          <t>MA50_MA5</t>
-        </is>
-      </c>
-      <c r="Y862" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.150, df['MACD'].iloc[-2]: -0.154,  df['MACD_hist'].iloc[-1]: 0.018, df['MACD_hist'].iloc[-2]: 0.013,  delta_MA50_M120.iloc[-1]: -2.294, delta_MA50_M120.iloc[-2]: -2.229,\ 
-  df['MA30_RSI10'].iloc[-1]: 38.240, df['MA30_RSI10'].iloc[-2]: 37.385  delta_MA50_MA120_1m.iloc[-1]: -0.064, delta_MA50_MA120_1m.iloc[-2]: -0.071  df_1m['MA30_RSI10'].iloc[-1]: 57.370, df_1m['MA30_RSI10'].iloc[-2]: 56.745  df_1m['MACD'].iloc[-1]: 0.005, df_1m['MACD'].iloc[-2]: 0.004  df_1m['MACD_hist'].iloc[-1]: 0.003, df_1m['MACD_hist'].iloc[-2]: 0.002  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.359 (more than 1.07 is good),  MACD_hist_max_amp: 0.075, MACD_hist_max_amp_1m: 0.010  
-  </t>
-        </is>
-      </c>
+          <t>before_market_open_1</t>
+        </is>
+      </c>
+      <c r="Y862" t="inlineStr"/>
       <c r="Z862" t="inlineStr">
         <is>
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA862" t="inlineStr"/>
+      <c r="AA862" t="inlineStr">
+        <is>
+          <t>FA1B604809C957C000</t>
+        </is>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="1" t="n">
         <v>861</v>
       </c>
       <c r="B863" t="n">
-        <v>4720</v>
+        <v>4778</v>
       </c>
       <c r="C863" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="D863" s="2" t="n">
-        <v>45927.10707041666</v>
+        <v>45929.98490122685</v>
       </c>
       <c r="E863" t="n">
-        <v>203.13</v>
+        <v>184.83</v>
       </c>
       <c r="F863" t="n">
-        <v>2437.56</v>
+        <v>2402.79</v>
       </c>
       <c r="G863" t="n">
-        <v>1.111</v>
+        <v>0</v>
       </c>
       <c r="H863" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>45930.18602527778</v>
+      </c>
+      <c r="I863" t="n">
+        <v>185.58</v>
+      </c>
       <c r="J863" t="n">
-        <v>0</v>
+        <v>2412.54</v>
       </c>
       <c r="K863" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L863" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M863" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N863" t="n">
@@ -83043,20 +83047,28 @@
         <v>1.006</v>
       </c>
       <c r="Q863" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="R863" t="n">
-        <v>0</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="S863" t="inlineStr">
         <is>
-          <t>FA1B5C94BF088AD000</t>
-        </is>
-      </c>
-      <c r="T863" t="inlineStr"/>
+          <t>FA1B5FD7421597C000</t>
+        </is>
+      </c>
+      <c r="T863" t="inlineStr">
+        <is>
+          <t>FA1B60495B34CAD000</t>
+        </is>
+      </c>
       <c r="U863" t="inlineStr"/>
       <c r="V863" t="inlineStr"/>
-      <c r="W863" t="inlineStr"/>
+      <c r="W863" t="inlineStr">
+        <is>
+          <t>FA1B60495D5097C000</t>
+        </is>
+      </c>
       <c r="X863" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -83064,9 +83076,7 @@
       </c>
       <c r="Y863" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:True, cond_b2:True, cond_b3:False, cond_b4:True, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.091, df['MACD'].iloc[-2]: -0.105,  df['MACD_hist'].iloc[-1]: -0.199, df['MACD_hist'].iloc[-2]: -0.257,  delta_MA50_M120.iloc[-1]: 0.366, delta_MA50_M120.iloc[-2]: 0.363,\ 
-  df['MA30_RSI10'].iloc[-1]: 46.340, df['MA30_RSI10'].iloc[-2]: 46.139  delta_MA50_MA120_1m.iloc[-1]: 0.059, delta_MA50_MA120_1m.iloc[-2]: 0.053  df_1m['MA30_RSI10'].iloc[-1]: 44.932, df_1m['MA30_RSI10'].iloc[-2]: 44.165  df_1m['MACD'].iloc[-1]: 0.041, df_1m['MACD'].iloc[-2]: 0.028  df_1m['MACD_hist'].iloc[-1]: 0.095, df_1m['MACD_hist'].iloc[-2]: 0.084  cond_a1:0, cond_a2:1, cond_a3:1, cond_a4:0  MACD_hist_speed: 0.775 (more than 1.07 is good),  MACD_hist_max_amp: 0.765, MACD_hist_max_amp_1m: 0.211  
-  </t>
+          <t>{}</t>
         </is>
       </c>
       <c r="Z863" t="inlineStr">
@@ -83074,48 +83084,54 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA863" t="inlineStr"/>
+      <c r="AA863" t="inlineStr">
+        <is>
+          <t>FA1B60495BEB8AD000</t>
+        </is>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="1" t="n">
         <v>862</v>
       </c>
       <c r="B864" t="n">
-        <v>4721</v>
+        <v>4781</v>
       </c>
       <c r="C864" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>O</t>
         </is>
       </c>
       <c r="D864" s="2" t="n">
-        <v>45927.1139700463</v>
+        <v>45930.02352335648</v>
       </c>
       <c r="E864" t="n">
-        <v>113.64</v>
+        <v>60.3886</v>
       </c>
       <c r="F864" t="n">
-        <v>2500.08</v>
+        <v>2475.9326</v>
       </c>
       <c r="G864" t="n">
-        <v>1.111</v>
+        <v>1.11</v>
       </c>
       <c r="H864" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>45930.10488774306</v>
+      </c>
+      <c r="I864" t="n">
+        <v>60.265</v>
+      </c>
       <c r="J864" t="n">
-        <v>0</v>
+        <v>2470.865</v>
       </c>
       <c r="K864" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="L864" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="M864" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N864" t="n">
@@ -83128,20 +83144,28 @@
         <v>1.006</v>
       </c>
       <c r="Q864" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="R864" t="n">
-        <v>0</v>
+        <v>-7.297599999999857</v>
       </c>
       <c r="S864" t="inlineStr">
         <is>
-          <t>FA1B5C97052B97C000</t>
-        </is>
-      </c>
-      <c r="T864" t="inlineStr"/>
+          <t>FA1B6055FAF457C000</t>
+        </is>
+      </c>
+      <c r="T864" t="inlineStr">
+        <is>
+          <t>FA1B6056DE1C0AD000</t>
+        </is>
+      </c>
       <c r="U864" t="inlineStr"/>
       <c r="V864" t="inlineStr"/>
-      <c r="W864" t="inlineStr"/>
+      <c r="W864" t="inlineStr">
+        <is>
+          <t>FA1B6056E05157C000</t>
+        </is>
+      </c>
       <c r="X864" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -83149,8 +83173,8 @@
       </c>
       <c r="Y864" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: False  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.124, df['MACD'].iloc[-2]: -0.150,  df['MACD_hist'].iloc[-1]: 0.029, df['MACD_hist'].iloc[-2]: -0.017,  delta_MA50_M120.iloc[-1]: 0.367, delta_MA50_M120.iloc[-2]: 0.404,\ 
-  df['MA30_RSI10'].iloc[-1]: 47.035, df['MA30_RSI10'].iloc[-2]: 46.496  delta_MA50_MA120_1m.iloc[-1]: 0.156, delta_MA50_MA120_1m.iloc[-2]: 0.155  df_1m['MA30_RSI10'].iloc[-1]: 60.995, df_1m['MA30_RSI10'].iloc[-2]: 59.902  df_1m['MACD'].iloc[-1]: 0.107, df_1m['MACD'].iloc[-2]: 0.103  df_1m['MACD_hist'].iloc[-1]: 0.063, df_1m['MACD_hist'].iloc[-2]: 0.064  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: -1.696 (more than 1.07 is good),  MACD_hist_max_amp: 0.413, MACD_hist_max_amp_1m: 0.075  
+          <t xml:space="preserve">cond_b1:True, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.172, df['MACD'].iloc[-2]: 0.161,  df['MACD_hist'].iloc[-1]: 0.141, df['MACD_hist'].iloc[-2]: 0.141,  delta_MA50_M120.iloc[-1]: 0.003, delta_MA50_M120.iloc[-2]: -0.004,\ 
+  df['MA30_RSI10'].iloc[-1]: 61.989, df['MA30_RSI10'].iloc[-2]: 61.123  delta_MA50_MA120_1m.iloc[-1]: 0.003, delta_MA50_MA120_1m.iloc[-2]: -0.004  df_1m['MA30_RSI10'].iloc[-1]: 55.835, df_1m['MA30_RSI10'].iloc[-2]: 54.977  df_1m['MACD'].iloc[-1]: 0.020, df_1m['MACD'].iloc[-2]: 0.019  df_1m['MACD_hist'].iloc[-1]: 0.011, df_1m['MACD_hist'].iloc[-2]: 0.010  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.000 (more than 1.07 is good),  MACD_hist_max_amp: 0.296, MACD_hist_max_amp_1m: 0.026  
   </t>
         </is>
       </c>
@@ -83159,48 +83183,54 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA864" t="inlineStr"/>
+      <c r="AA864" t="inlineStr">
+        <is>
+          <t>FA1B6056DED7CAD000</t>
+        </is>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="1" t="n">
         <v>863</v>
       </c>
       <c r="B865" t="n">
-        <v>4722</v>
+        <v>4785</v>
       </c>
       <c r="C865" t="inlineStr">
         <is>
-          <t>MASI</t>
+          <t>HLT</t>
         </is>
       </c>
       <c r="D865" s="2" t="n">
-        <v>45927.21069133102</v>
+        <v>45930.161261875</v>
       </c>
       <c r="E865" t="n">
-        <v>141.68</v>
+        <v>262.89</v>
       </c>
       <c r="F865" t="n">
-        <v>2408.56</v>
+        <v>2366.01</v>
       </c>
       <c r="G865" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H865" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>45931.01947015047</v>
+      </c>
+      <c r="I865" t="n">
+        <v>260.3</v>
+      </c>
       <c r="J865" t="n">
-        <v>0</v>
+        <v>2342.7</v>
       </c>
       <c r="K865" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L865" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M865" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N865" t="n">
@@ -83213,20 +83243,28 @@
         <v>1.006</v>
       </c>
       <c r="Q865" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="R865" t="n">
-        <v>0</v>
+        <v>-25.35999999999995</v>
       </c>
       <c r="S865" t="inlineStr">
         <is>
-          <t>FA1B5CB6E6038AD000</t>
-        </is>
-      </c>
-      <c r="T865" t="inlineStr"/>
+          <t>FA1B6083607DD7C000</t>
+        </is>
+      </c>
+      <c r="T865" t="inlineStr">
+        <is>
+          <t>FA1B6083A922CAD000</t>
+        </is>
+      </c>
       <c r="U865" t="inlineStr"/>
       <c r="V865" t="inlineStr"/>
-      <c r="W865" t="inlineStr"/>
+      <c r="W865" t="inlineStr">
+        <is>
+          <t>FA1B6083AB238AD000</t>
+        </is>
+      </c>
       <c r="X865" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -83234,8 +83272,8 @@
       </c>
       <c r="Y865" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.587, df['MACD'].iloc[-2]: -0.670,  df['MACD_hist'].iloc[-1]: 0.477, df['MACD_hist'].iloc[-2]: 0.384,  delta_MA50_M120.iloc[-1]: -1.769, delta_MA50_M120.iloc[-2]: -1.724,\ 
-  df['MA30_RSI10'].iloc[-1]: 47.501, df['MA30_RSI10'].iloc[-2]: 47.182  delta_MA50_MA120_1m.iloc[-1]: -0.148, delta_MA50_MA120_1m.iloc[-2]: -0.154  df_1m['MA30_RSI10'].iloc[-1]: 62.047, df_1m['MA30_RSI10'].iloc[-2]: 60.936  df_1m['MACD'].iloc[-1]: 0.089, df_1m['MACD'].iloc[-2]: 0.078  df_1m['MACD_hist'].iloc[-1]: 0.099, df_1m['MACD_hist'].iloc[-2]: 0.092  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.241 (more than 1.07 is good),  MACD_hist_max_amp: 0.882, MACD_hist_max_amp_1m: 0.117  
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -1.555, df['MACD'].iloc[-2]: -1.617,  df['MACD_hist'].iloc[-1]: 0.621, df['MACD_hist'].iloc[-2]: 0.593,  delta_MA50_M120.iloc[-1]: -2.062, delta_MA50_M120.iloc[-2]: -2.075,\ 
+  df['MA30_RSI10'].iloc[-1]: 39.310, df['MA30_RSI10'].iloc[-2]: 38.762  delta_MA50_MA120_1m.iloc[-1]: -0.164, delta_MA50_MA120_1m.iloc[-2]: -0.173  df_1m['MA30_RSI10'].iloc[-1]: 58.785, df_1m['MA30_RSI10'].iloc[-2]: 58.094  df_1m['MACD'].iloc[-1]: 0.070, df_1m['MACD'].iloc[-2]: 0.066  df_1m['MACD_hist'].iloc[-1]: 0.076, df_1m['MACD_hist'].iloc[-2]: 0.080  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.048 (more than 1.07 is good),  MACD_hist_max_amp: 1.143, MACD_hist_max_amp_1m: 0.180  
   </t>
         </is>
       </c>
@@ -83244,48 +83282,54 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA865" t="inlineStr"/>
+      <c r="AA865" t="inlineStr">
+        <is>
+          <t>FA1B6083A9DD0AD000</t>
+        </is>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="1" t="n">
         <v>864</v>
       </c>
       <c r="B866" t="n">
-        <v>4723</v>
+        <v>4786</v>
       </c>
       <c r="C866" t="inlineStr">
         <is>
-          <t>MASI</t>
+          <t>ITW</t>
         </is>
       </c>
       <c r="D866" s="2" t="n">
-        <v>45927.21739049769</v>
+        <v>45930.165284375</v>
       </c>
       <c r="E866" t="n">
-        <v>141.76</v>
+        <v>261.89</v>
       </c>
       <c r="F866" t="n">
-        <v>2409.92</v>
+        <v>2357.01</v>
       </c>
       <c r="G866" t="n">
-        <v>1.111</v>
+        <v>1.02</v>
       </c>
       <c r="H866" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>45930.2712137963</v>
+      </c>
+      <c r="I866" t="n">
+        <v>261.26</v>
+      </c>
       <c r="J866" t="n">
-        <v>0</v>
+        <v>2351.34</v>
       </c>
       <c r="K866" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L866" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="M866" t="inlineStr">
         <is>
-          <t>cancelled</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N866" t="n">
@@ -83298,20 +83342,28 @@
         <v>1.006</v>
       </c>
       <c r="Q866" t="n">
-        <v>0.45</v>
+        <v>0.05</v>
       </c>
       <c r="R866" t="n">
-        <v>0</v>
+        <v>-7.720000000000073</v>
       </c>
       <c r="S866" t="inlineStr">
         <is>
-          <t>FA1B5CB91B4357C000</t>
-        </is>
-      </c>
-      <c r="T866" t="inlineStr"/>
+          <t>FA1B6084B3E217C000</t>
+        </is>
+      </c>
+      <c r="T866" t="inlineStr">
+        <is>
+          <t>FA1B60857F90D7C000</t>
+        </is>
+      </c>
       <c r="U866" t="inlineStr"/>
       <c r="V866" t="inlineStr"/>
-      <c r="W866" t="inlineStr"/>
+      <c r="W866" t="inlineStr">
+        <is>
+          <t>FA1B60858180CAD000</t>
+        </is>
+      </c>
       <c r="X866" t="inlineStr">
         <is>
           <t>MA50_MA5</t>
@@ -83319,8 +83371,8 @@
       </c>
       <c r="Y866" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:False, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.575, df['MACD'].iloc[-2]: -0.670,  df['MACD_hist'].iloc[-1]: 0.498, df['MACD_hist'].iloc[-2]: 0.384,  delta_MA50_M120.iloc[-1]: -1.767, delta_MA50_M120.iloc[-2]: -1.724,\ 
-  df['MA30_RSI10'].iloc[-1]: 47.561, df['MA30_RSI10'].iloc[-2]: 47.182  delta_MA50_MA120_1m.iloc[-1]: -0.098, delta_MA50_MA120_1m.iloc[-2]: -0.108  df_1m['MA30_RSI10'].iloc[-1]: 65.985, df_1m['MA30_RSI10'].iloc[-2]: 65.716  df_1m['MACD'].iloc[-1]: 0.160, df_1m['MACD'].iloc[-2]: 0.147  df_1m['MACD_hist'].iloc[-1]: 0.131, df_1m['MACD_hist'].iloc[-2]: 0.125  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.295 (more than 1.07 is good),  MACD_hist_max_amp: 0.882, MACD_hist_max_amp_1m: 0.126  
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:True, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.334, df['MACD'].iloc[-2]: -0.399,  df['MACD_hist'].iloc[-1]: 0.672, df['MACD_hist'].iloc[-2]: 0.645,  delta_MA50_M120.iloc[-1]: -0.715, delta_MA50_M120.iloc[-2]: -0.708,\ 
+  df['MA30_RSI10'].iloc[-1]: 46.937, df['MA30_RSI10'].iloc[-2]: 46.590  delta_MA50_MA120_1m.iloc[-1]: -0.017, delta_MA50_MA120_1m.iloc[-2]: -0.019  df_1m['MA30_RSI10'].iloc[-1]: 49.061, df_1m['MA30_RSI10'].iloc[-2]: 48.626  df_1m['MACD'].iloc[-1]: -0.000, df_1m['MACD'].iloc[-2]: -0.015  df_1m['MACD_hist'].iloc[-1]: 0.067, df_1m['MACD_hist'].iloc[-2]: 0.048  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.042 (more than 1.07 is good),  MACD_hist_max_amp: 0.646, MACD_hist_max_amp_1m: 0.160  
   </t>
         </is>
       </c>
@@ -83329,7 +83381,1462 @@
           <t>Сиднейское время (зима)</t>
         </is>
       </c>
-      <c r="AA866" t="inlineStr"/>
+      <c r="AA866" t="inlineStr">
+        <is>
+          <t>FA1B6085803E57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" s="1" t="n">
+        <v>865</v>
+      </c>
+      <c r="B867" t="n">
+        <v>4789</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="D867" s="2" t="n">
+        <v>45930.17633694445</v>
+      </c>
+      <c r="E867" t="n">
+        <v>67.6794</v>
+      </c>
+      <c r="F867" t="n">
+        <v>2436.4584</v>
+      </c>
+      <c r="G867" t="n">
+        <v>0</v>
+      </c>
+      <c r="H867" s="2" t="n">
+        <v>45931.09470480324</v>
+      </c>
+      <c r="I867" t="n">
+        <v>68.26009999999999</v>
+      </c>
+      <c r="J867" t="n">
+        <v>2457.3636</v>
+      </c>
+      <c r="K867" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L867" t="n">
+        <v>36</v>
+      </c>
+      <c r="M867" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N867" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O867" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P867" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q867" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R867" t="n">
+        <v>19.7951999999997</v>
+      </c>
+      <c r="S867" t="inlineStr">
+        <is>
+          <t>FA1B60882ED397C000</t>
+        </is>
+      </c>
+      <c r="T867" t="inlineStr">
+        <is>
+          <t>FA1B608873F1D7C000</t>
+        </is>
+      </c>
+      <c r="U867" t="inlineStr"/>
+      <c r="V867" t="inlineStr"/>
+      <c r="W867" t="inlineStr">
+        <is>
+          <t>FA1B6088761A0AD000</t>
+        </is>
+      </c>
+      <c r="X867" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y867" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z867" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA867" t="inlineStr">
+        <is>
+          <t>FA1B6088749F4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" s="1" t="n">
+        <v>866</v>
+      </c>
+      <c r="B868" t="n">
+        <v>4791</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>WAT</t>
+        </is>
+      </c>
+      <c r="D868" s="2" t="n">
+        <v>45930.24298709491</v>
+      </c>
+      <c r="E868" t="n">
+        <v>289.2</v>
+      </c>
+      <c r="F868" t="n">
+        <v>2313.6</v>
+      </c>
+      <c r="G868" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="H868" s="2" t="n">
+        <v>45931.02050689814</v>
+      </c>
+      <c r="I868" t="n">
+        <v>287.77</v>
+      </c>
+      <c r="J868" t="n">
+        <v>2302.16</v>
+      </c>
+      <c r="K868" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L868" t="n">
+        <v>8</v>
+      </c>
+      <c r="M868" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N868" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O868" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P868" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q868" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R868" t="n">
+        <v>-13.47000000000005</v>
+      </c>
+      <c r="S868" t="inlineStr">
+        <is>
+          <t>FA1B609E4FFA0AD000</t>
+        </is>
+      </c>
+      <c r="T868" t="inlineStr">
+        <is>
+          <t>FA1B609FA70917C000</t>
+        </is>
+      </c>
+      <c r="U868" t="inlineStr"/>
+      <c r="V868" t="inlineStr"/>
+      <c r="W868" t="inlineStr">
+        <is>
+          <t>FA1B609FA8F997C000</t>
+        </is>
+      </c>
+      <c r="X868" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y868" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: False  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -2.743, df['MACD'].iloc[-2]: -2.801,  df['MACD_hist'].iloc[-1]: -0.024, df['MACD_hist'].iloc[-2]: -0.143,  delta_MA50_M120.iloc[-1]: -1.263, delta_MA50_M120.iloc[-2]: -1.173,\ 
+  df['MA30_RSI10'].iloc[-1]: 35.009, df['MA30_RSI10'].iloc[-2]: 34.917  delta_MA50_MA120_1m.iloc[-1]: -0.057, delta_MA50_MA120_1m.iloc[-2]: -0.057  df_1m['MA30_RSI10'].iloc[-1]: 55.765, df_1m['MA30_RSI10'].iloc[-2]: 55.061  df_1m['MACD'].iloc[-1]: 0.098, df_1m['MACD'].iloc[-2]: 0.087  df_1m['MACD_hist'].iloc[-1]: 0.181, df_1m['MACD_hist'].iloc[-2]: 0.188  cond_a1:0, cond_a2:1, cond_a3:0, cond_a4:0  MACD_hist_speed: 0.167 (more than 1.07 is good),  MACD_hist_max_amp: 2.577, MACD_hist_max_amp_1m: 0.229  
+  </t>
+        </is>
+      </c>
+      <c r="Z868" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA868" t="inlineStr">
+        <is>
+          <t>FA1B609FA7BA4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" s="1" t="n">
+        <v>867</v>
+      </c>
+      <c r="B869" t="n">
+        <v>4802</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="D869" s="2" t="n">
+        <v>45931.16686791667</v>
+      </c>
+      <c r="E869" t="n">
+        <v>476.81</v>
+      </c>
+      <c r="F869" t="n">
+        <v>2384.05</v>
+      </c>
+      <c r="G869" t="n">
+        <v>0</v>
+      </c>
+      <c r="H869" s="2" t="n">
+        <v>45931.20534307871</v>
+      </c>
+      <c r="I869" t="n">
+        <v>475.26</v>
+      </c>
+      <c r="J869" t="n">
+        <v>2376.3</v>
+      </c>
+      <c r="K869" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L869" t="n">
+        <v>5</v>
+      </c>
+      <c r="M869" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N869" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O869" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P869" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q869" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R869" t="n">
+        <v>-8.77</v>
+      </c>
+      <c r="S869" t="inlineStr">
+        <is>
+          <t>FA1B61BBB9014AD000</t>
+        </is>
+      </c>
+      <c r="T869" t="inlineStr">
+        <is>
+          <t>FA1B61CEE9C5CAD000</t>
+        </is>
+      </c>
+      <c r="U869" t="inlineStr"/>
+      <c r="V869" t="inlineStr"/>
+      <c r="W869" t="inlineStr">
+        <is>
+          <t>FA1B61CEEBDACAD000</t>
+        </is>
+      </c>
+      <c r="X869" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y869" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z869" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA869" t="inlineStr">
+        <is>
+          <t>FA1B61CEEA754AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" s="1" t="n">
+        <v>868</v>
+      </c>
+      <c r="B870" t="n">
+        <v>4804</v>
+      </c>
+      <c r="C870" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="D870" s="2" t="n">
+        <v>45931.21633150463</v>
+      </c>
+      <c r="E870" t="n">
+        <v>130.45</v>
+      </c>
+      <c r="F870" t="n">
+        <v>2478.55</v>
+      </c>
+      <c r="G870" t="n">
+        <v>0</v>
+      </c>
+      <c r="H870" s="2" t="n">
+        <v>45932.01812513889</v>
+      </c>
+      <c r="I870" t="n">
+        <v>129.7019</v>
+      </c>
+      <c r="J870" t="n">
+        <v>2464.3361</v>
+      </c>
+      <c r="K870" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L870" t="n">
+        <v>19</v>
+      </c>
+      <c r="M870" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N870" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O870" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P870" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q870" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R870" t="n">
+        <v>-15.27390000000019</v>
+      </c>
+      <c r="S870" t="inlineStr">
+        <is>
+          <t>FA1B61DEFE914AD000</t>
+        </is>
+      </c>
+      <c r="T870" t="inlineStr">
+        <is>
+          <t>FA1B61DF366817C000</t>
+        </is>
+      </c>
+      <c r="U870" t="inlineStr"/>
+      <c r="V870" t="inlineStr"/>
+      <c r="W870" t="inlineStr">
+        <is>
+          <t>FA1B61DF389217C000</t>
+        </is>
+      </c>
+      <c r="X870" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y870" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z870" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA870" t="inlineStr">
+        <is>
+          <t>FA1B61DF37170AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" s="1" t="n">
+        <v>869</v>
+      </c>
+      <c r="B871" t="n">
+        <v>4867</v>
+      </c>
+      <c r="C871" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="D871" s="2" t="n">
+        <v>45931.94101333334</v>
+      </c>
+      <c r="E871" t="n">
+        <v>474.97</v>
+      </c>
+      <c r="F871" t="n">
+        <v>2374.85</v>
+      </c>
+      <c r="G871" t="n">
+        <v>0</v>
+      </c>
+      <c r="H871" s="2" t="n">
+        <v>45932.03274325231</v>
+      </c>
+      <c r="I871" t="n">
+        <v>472.555</v>
+      </c>
+      <c r="J871" t="n">
+        <v>2362.775</v>
+      </c>
+      <c r="K871" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L871" t="n">
+        <v>5</v>
+      </c>
+      <c r="M871" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N871" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O871" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P871" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q871" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R871" t="n">
+        <v>-13.09499999999982</v>
+      </c>
+      <c r="S871" t="inlineStr">
+        <is>
+          <t>FA1B627990DC57C000</t>
+        </is>
+      </c>
+      <c r="T871" t="inlineStr">
+        <is>
+          <t>FA1B62CE601DCAD000</t>
+        </is>
+      </c>
+      <c r="U871" t="inlineStr"/>
+      <c r="V871" t="inlineStr"/>
+      <c r="W871" t="inlineStr">
+        <is>
+          <t>FA1B62CE6241CAD000</t>
+        </is>
+      </c>
+      <c r="X871" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y871" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z871" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA871" t="inlineStr">
+        <is>
+          <t>FA1B62CE60DB4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" s="1" t="n">
+        <v>870</v>
+      </c>
+      <c r="B872" t="n">
+        <v>4868</v>
+      </c>
+      <c r="C872" t="inlineStr">
+        <is>
+          <t>CCI</t>
+        </is>
+      </c>
+      <c r="D872" s="2" t="n">
+        <v>45931.98346862268</v>
+      </c>
+      <c r="E872" t="n">
+        <v>96.86</v>
+      </c>
+      <c r="F872" t="n">
+        <v>2518.36</v>
+      </c>
+      <c r="G872" t="n">
+        <v>0</v>
+      </c>
+      <c r="H872" s="2" t="n">
+        <v>45932.0215125</v>
+      </c>
+      <c r="I872" t="n">
+        <v>96.7</v>
+      </c>
+      <c r="J872" t="n">
+        <v>2514.2</v>
+      </c>
+      <c r="K872" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L872" t="n">
+        <v>26</v>
+      </c>
+      <c r="M872" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N872" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O872" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P872" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q872" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R872" t="n">
+        <v>-5.239999999999855</v>
+      </c>
+      <c r="S872" t="inlineStr">
+        <is>
+          <t>FA1B627C234717C000</t>
+        </is>
+      </c>
+      <c r="T872" t="inlineStr">
+        <is>
+          <t>FA1B62DC17BC0AD000</t>
+        </is>
+      </c>
+      <c r="U872" t="inlineStr"/>
+      <c r="V872" t="inlineStr"/>
+      <c r="W872" t="inlineStr">
+        <is>
+          <t>FA1B62DC19DAD7C000</t>
+        </is>
+      </c>
+      <c r="X872" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y872" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z872" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA872" t="inlineStr">
+        <is>
+          <t>FA1B62DC186F4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" s="1" t="n">
+        <v>871</v>
+      </c>
+      <c r="B873" t="n">
+        <v>4866</v>
+      </c>
+      <c r="C873" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="D873" s="2" t="n">
+        <v>45931.90979177083</v>
+      </c>
+      <c r="E873" t="n">
+        <v>27.96</v>
+      </c>
+      <c r="F873" t="n">
+        <v>2516.4</v>
+      </c>
+      <c r="G873" t="n">
+        <v>0</v>
+      </c>
+      <c r="H873" s="2" t="n">
+        <v>45932.06126458333</v>
+      </c>
+      <c r="I873" t="n">
+        <v>28.0301</v>
+      </c>
+      <c r="J873" t="n">
+        <v>2522.709</v>
+      </c>
+      <c r="K873" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="L873" t="n">
+        <v>90</v>
+      </c>
+      <c r="M873" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N873" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O873" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P873" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q873" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R873" t="n">
+        <v>5.039000000000197</v>
+      </c>
+      <c r="S873" t="inlineStr">
+        <is>
+          <t>FA1B627C546617C000</t>
+        </is>
+      </c>
+      <c r="T873" t="inlineStr">
+        <is>
+          <t>FA1B62C4245117C000</t>
+        </is>
+      </c>
+      <c r="U873" t="inlineStr"/>
+      <c r="V873" t="inlineStr"/>
+      <c r="W873" t="inlineStr">
+        <is>
+          <t>FA1B62C426864AD000</t>
+        </is>
+      </c>
+      <c r="X873" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y873" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z873" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA873" t="inlineStr">
+        <is>
+          <t>FA1B62C425094AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" s="1" t="n">
+        <v>872</v>
+      </c>
+      <c r="B874" t="n">
+        <v>4873</v>
+      </c>
+      <c r="C874" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="D874" s="2" t="n">
+        <v>45932.03519949074</v>
+      </c>
+      <c r="E874" t="n">
+        <v>130.87</v>
+      </c>
+      <c r="F874" t="n">
+        <v>2486.53</v>
+      </c>
+      <c r="G874" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H874" s="2" t="n">
+        <v>45933.05182778935</v>
+      </c>
+      <c r="I874" t="n">
+        <v>131.6426315789474</v>
+      </c>
+      <c r="J874" t="n">
+        <v>2501.21</v>
+      </c>
+      <c r="K874" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="L874" t="n">
+        <v>19</v>
+      </c>
+      <c r="M874" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N874" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O874" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P874" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q874" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R874" t="n">
+        <v>12.54999999999984</v>
+      </c>
+      <c r="S874" t="inlineStr">
+        <is>
+          <t>FA1B62ED01E997C000</t>
+        </is>
+      </c>
+      <c r="T874" t="inlineStr">
+        <is>
+          <t>FA1B62ED30CFCAD000</t>
+        </is>
+      </c>
+      <c r="U874" t="inlineStr"/>
+      <c r="V874" t="inlineStr"/>
+      <c r="W874" t="inlineStr">
+        <is>
+          <t>FA1B62ED32FD8AD000</t>
+        </is>
+      </c>
+      <c r="X874" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y874" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.392, df['MACD'].iloc[-2]: -0.439,  df['MACD_hist'].iloc[-1]: 0.395, df['MACD_hist'].iloc[-2]: 0.361,  delta_MA50_M120.iloc[-1]: -1.061, delta_MA50_M120.iloc[-2]: -1.053,\ 
+  delta_MA5_M20.iloc[-1]: 0.922, delta_MA5_M20.iloc[-2]: 0.809,  delta_MA5_M10.iloc[-1]: 0.317, delta_MA5_M10.iloc[-2]: 0.291,  df['MA30_RSI10'].iloc[-1]: 44.848, df['MA30_RSI10'].iloc[-2]: 44.574  delta_MA50_MA120_1m.iloc[-1]: -0.019, delta_MA50_MA120_1m.iloc[-2]: -0.031  df_1m['MA30_RSI10'].iloc[-1]: 59.787, df_1m['MA30_RSI10'].iloc[-2]: 59.751  df_1m['MACD'].iloc[-1]: 0.088, df_1m['MACD'].iloc[-2]: 0.085  df_1m['MACD_hist'].iloc[-1]: 0.034, df_1m['MACD_hist'].iloc[-2]: 0.033  cond_a1:1, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.093 (more than 1.07 is good),  MACD_hist_max_amp: 0.505, MACD_hist_max_amp_1m: 0.117  </t>
+        </is>
+      </c>
+      <c r="Z874" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA874" t="inlineStr">
+        <is>
+          <t>FA1B62ED3193D7C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" s="1" t="n">
+        <v>873</v>
+      </c>
+      <c r="B875" t="n">
+        <v>4884</v>
+      </c>
+      <c r="C875" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="D875" s="2" t="n">
+        <v>45932.11125381944</v>
+      </c>
+      <c r="E875" t="n">
+        <v>170.39</v>
+      </c>
+      <c r="F875" t="n">
+        <v>2385.46</v>
+      </c>
+      <c r="G875" t="n">
+        <v>0</v>
+      </c>
+      <c r="H875" s="2" t="n">
+        <v>45932.14924921296</v>
+      </c>
+      <c r="I875" t="n">
+        <v>169.86</v>
+      </c>
+      <c r="J875" t="n">
+        <v>2378.04</v>
+      </c>
+      <c r="K875" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="L875" t="n">
+        <v>14</v>
+      </c>
+      <c r="M875" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N875" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O875" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P875" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q875" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R875" t="n">
+        <v>-8.460000000000072</v>
+      </c>
+      <c r="S875" t="inlineStr">
+        <is>
+          <t>FA1B62F65E2AD7C000</t>
+        </is>
+      </c>
+      <c r="T875" t="inlineStr">
+        <is>
+          <t>FA1B630630EBCAD000</t>
+        </is>
+      </c>
+      <c r="U875" t="inlineStr"/>
+      <c r="V875" t="inlineStr"/>
+      <c r="W875" t="inlineStr">
+        <is>
+          <t>FA1B63063314CAD000</t>
+        </is>
+      </c>
+      <c r="X875" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y875" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z875" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA875" t="inlineStr">
+        <is>
+          <t>FA1B630631A0CAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" s="1" t="n">
+        <v>874</v>
+      </c>
+      <c r="B876" t="n">
+        <v>4883</v>
+      </c>
+      <c r="C876" t="inlineStr">
+        <is>
+          <t>AON</t>
+        </is>
+      </c>
+      <c r="D876" s="2" t="n">
+        <v>45932.09008663194</v>
+      </c>
+      <c r="E876" t="n">
+        <v>357.19</v>
+      </c>
+      <c r="F876" t="n">
+        <v>2143.14</v>
+      </c>
+      <c r="G876" t="inlineStr"/>
+      <c r="H876" s="2" t="n">
+        <v>45933.01998378472</v>
+      </c>
+      <c r="I876" t="n">
+        <v>355.39</v>
+      </c>
+      <c r="J876" t="n">
+        <v>2132.34</v>
+      </c>
+      <c r="K876" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L876" t="n">
+        <v>6</v>
+      </c>
+      <c r="M876" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N876" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O876" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P876" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q876" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R876" t="inlineStr"/>
+      <c r="S876" t="inlineStr">
+        <is>
+          <t>FA1B62FF18FF97C000</t>
+        </is>
+      </c>
+      <c r="T876" t="inlineStr">
+        <is>
+          <t>FA1B62FF42A817C000</t>
+        </is>
+      </c>
+      <c r="U876" t="inlineStr"/>
+      <c r="V876" t="inlineStr"/>
+      <c r="W876" t="inlineStr">
+        <is>
+          <t>FA1B62FF44C197C000</t>
+        </is>
+      </c>
+      <c r="X876" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y876" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -0.071, df['MACD'].iloc[-2]: -0.157,  df['MACD_hist'].iloc[-1]: 0.788, df['MACD_hist'].iloc[-2]: 0.737,  delta_MA50_M120.iloc[-1]: -1.456, delta_MA50_M120.iloc[-2]: -1.510,\ 
+  delta_MA5_M20.iloc[-1]: 0.226, delta_MA5_M20.iloc[-2]: 0.149,  delta_MA5_M10.iloc[-1]: 0.109, delta_MA5_M10.iloc[-2]: 0.090,  df['MA30_RSI10'].iloc[-1]: 52.685, df['MA30_RSI10'].iloc[-2]: 52.249  delta_MA50_MA120_1m.iloc[-1]: 0.294, delta_MA50_MA120_1m.iloc[-2]: 0.281  df_1m['MA30_RSI10'].iloc[-1]: 59.019, df_1m['MA30_RSI10'].iloc[-2]: 58.871  df_1m['MACD'].iloc[-1]: 0.349, df_1m['MACD'].iloc[-2]: 0.340  df_1m['MACD_hist'].iloc[-1]: -0.020, df_1m['MACD_hist'].iloc[-2]: -0.040  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.070 (more than 1.07 is good),  MACD_hist_max_amp: 1.447, MACD_hist_max_amp_1m: 0.398  </t>
+        </is>
+      </c>
+      <c r="Z876" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA876" t="inlineStr">
+        <is>
+          <t>FA1B62FF436B97C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" s="1" t="n">
+        <v>875</v>
+      </c>
+      <c r="B877" t="n">
+        <v>4887</v>
+      </c>
+      <c r="C877" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="D877" s="2" t="n">
+        <v>45932.15200112268</v>
+      </c>
+      <c r="E877" t="n">
+        <v>83.84</v>
+      </c>
+      <c r="F877" t="n">
+        <v>2431.36</v>
+      </c>
+      <c r="G877" t="n">
+        <v>0</v>
+      </c>
+      <c r="H877" s="2" t="n">
+        <v>45933.04545796297</v>
+      </c>
+      <c r="I877" t="n">
+        <v>86.02200000000001</v>
+      </c>
+      <c r="J877" t="n">
+        <v>2494.638</v>
+      </c>
+      <c r="K877" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L877" t="n">
+        <v>29</v>
+      </c>
+      <c r="M877" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N877" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O877" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P877" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q877" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R877" t="n">
+        <v>62.18800000000024</v>
+      </c>
+      <c r="S877" t="inlineStr">
+        <is>
+          <t>FA1B631339E88AD000</t>
+        </is>
+      </c>
+      <c r="T877" t="inlineStr">
+        <is>
+          <t>FA1B63139D1D17C000</t>
+        </is>
+      </c>
+      <c r="U877" t="inlineStr"/>
+      <c r="V877" t="inlineStr"/>
+      <c r="W877" t="inlineStr">
+        <is>
+          <t>FA1B63139F4D0AD000</t>
+        </is>
+      </c>
+      <c r="X877" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y877" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z877" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA877" t="inlineStr">
+        <is>
+          <t>FA1B63139DDCCAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" s="1" t="n">
+        <v>876</v>
+      </c>
+      <c r="B878" t="n">
+        <v>4898</v>
+      </c>
+      <c r="C878" t="inlineStr">
+        <is>
+          <t>ROP</t>
+        </is>
+      </c>
+      <c r="D878" s="2" t="n">
+        <v>45933.0217878125</v>
+      </c>
+      <c r="E878" t="n">
+        <v>498.59</v>
+      </c>
+      <c r="F878" t="n">
+        <v>2492.95</v>
+      </c>
+      <c r="G878" t="n">
+        <v>0</v>
+      </c>
+      <c r="H878" s="2" t="n">
+        <v>45933.06020748842</v>
+      </c>
+      <c r="I878" t="n">
+        <v>496.65</v>
+      </c>
+      <c r="J878" t="n">
+        <v>2483.25</v>
+      </c>
+      <c r="K878" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="L878" t="n">
+        <v>5</v>
+      </c>
+      <c r="M878" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N878" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O878" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P878" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q878" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R878" t="n">
+        <v>-10.71999999999982</v>
+      </c>
+      <c r="S878" t="inlineStr">
+        <is>
+          <t>FA1B642A757957C000</t>
+        </is>
+      </c>
+      <c r="T878" t="inlineStr">
+        <is>
+          <t>FA1B643246C94AD000</t>
+        </is>
+      </c>
+      <c r="U878" t="inlineStr"/>
+      <c r="V878" t="inlineStr"/>
+      <c r="W878" t="inlineStr">
+        <is>
+          <t>FA1B643248ECD7C000</t>
+        </is>
+      </c>
+      <c r="X878" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y878" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z878" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA878" t="inlineStr">
+        <is>
+          <t>FA1B643247834AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" s="1" t="n">
+        <v>877</v>
+      </c>
+      <c r="B879" t="n">
+        <v>4900</v>
+      </c>
+      <c r="C879" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="D879" s="2" t="n">
+        <v>45933.07370545139</v>
+      </c>
+      <c r="E879" t="n">
+        <v>132.32</v>
+      </c>
+      <c r="F879" t="n">
+        <v>2381.76</v>
+      </c>
+      <c r="G879" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H879" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>0</v>
+      </c>
+      <c r="K879" t="n">
+        <v>0</v>
+      </c>
+      <c r="L879" t="n">
+        <v>18</v>
+      </c>
+      <c r="M879" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N879" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O879" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P879" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q879" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R879" t="n">
+        <v>0</v>
+      </c>
+      <c r="S879" t="inlineStr">
+        <is>
+          <t>FA1B644349DF4AD000</t>
+        </is>
+      </c>
+      <c r="T879" t="inlineStr">
+        <is>
+          <t>FA1B64437E37D7C000</t>
+        </is>
+      </c>
+      <c r="U879" t="inlineStr"/>
+      <c r="V879" t="inlineStr"/>
+      <c r="W879" t="inlineStr">
+        <is>
+          <t>FA1B644380A8D7C000</t>
+        </is>
+      </c>
+      <c r="X879" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y879" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:True, cond_b5:True, cond_b6: False  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.019, df['MACD'].iloc[-2]: -0.043,  df['MACD_hist'].iloc[-1]: 0.591, df['MACD_hist'].iloc[-2]: 0.557,  delta_MA50_M120.iloc[-1]: -1.160, delta_MA50_M120.iloc[-2]: -1.169,\ 
+  delta_MA5_M20.iloc[-1]: 0.789, delta_MA5_M20.iloc[-2]: 0.787,  delta_MA5_M10.iloc[-1]: 0.270, delta_MA5_M10.iloc[-2]: 0.221,  df['MA30_RSI10'].iloc[-1]: 52.014, df['MA30_RSI10'].iloc[-2]: 51.239  delta_MA50_MA120_1m.iloc[-1]: -0.051, delta_MA50_MA120_1m.iloc[-2]: -0.058  df_1m['MA30_RSI10'].iloc[-1]: 46.602, df_1m['MA30_RSI10'].iloc[-2]: 45.813  df_1m['MACD'].iloc[-1]: 0.014, df_1m['MACD'].iloc[-2]: 0.007  df_1m['MACD_hist'].iloc[-1]: 0.047, df_1m['MACD_hist'].iloc[-2]: 0.041  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.061 (more than 1.07 is good),  MACD_hist_max_amp: 0.527, MACD_hist_max_amp_1m: 0.092  </t>
+        </is>
+      </c>
+      <c r="Z879" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA879" t="inlineStr">
+        <is>
+          <t>FA1B64437F0B4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B880" t="n">
+        <v>4904</v>
+      </c>
+      <c r="C880" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+      <c r="D880" s="2" t="n">
+        <v>45933.14281229167</v>
+      </c>
+      <c r="E880" t="n">
+        <v>258.23</v>
+      </c>
+      <c r="F880" t="n">
+        <v>2324.07</v>
+      </c>
+      <c r="G880" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="H880" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>0</v>
+      </c>
+      <c r="K880" t="n">
+        <v>0</v>
+      </c>
+      <c r="L880" t="n">
+        <v>9</v>
+      </c>
+      <c r="M880" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N880" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O880" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P880" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q880" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R880" t="n">
+        <v>0</v>
+      </c>
+      <c r="S880" t="inlineStr">
+        <is>
+          <t>FA1B645A10BE97C000</t>
+        </is>
+      </c>
+      <c r="T880" t="inlineStr">
+        <is>
+          <t>FA1B645BB3DE4AD000</t>
+        </is>
+      </c>
+      <c r="U880" t="inlineStr"/>
+      <c r="V880" t="inlineStr"/>
+      <c r="W880" t="inlineStr">
+        <is>
+          <t>FA1B645BB61BD7C000</t>
+        </is>
+      </c>
+      <c r="X880" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y880" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:False, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: -2.158, df['MACD'].iloc[-2]: -2.237,  df['MACD_hist'].iloc[-1]: -0.248, df['MACD_hist'].iloc[-2]: -0.444,  delta_MA50_M120.iloc[-1]: -2.268, delta_MA50_M120.iloc[-2]: -2.272,\ 
+  delta_MA5_M20.iloc[-1]: -0.640, delta_MA5_M20.iloc[-2]: -0.822,  delta_MA5_M10.iloc[-1]: 0.035, delta_MA5_M10.iloc[-2]: 0.012,  df['MA30_RSI10'].iloc[-1]: 40.822, df['MA30_RSI10'].iloc[-2]: 40.540  delta_MA50_MA120_1m.iloc[-1]: 0.317, delta_MA50_MA120_1m.iloc[-2]: 0.317  df_1m['MA30_RSI10'].iloc[-1]: 68.972, df_1m['MA30_RSI10'].iloc[-2]: 68.574  df_1m['MACD'].iloc[-1]: 0.346, df_1m['MACD'].iloc[-2]: 0.344  df_1m['MACD_hist'].iloc[-1]: 0.021, df_1m['MACD_hist'].iloc[-2]: 0.022  cond_a1:0, cond_a2:1, cond_a3:1, cond_a4:0  MACD_hist_speed: 0.559 (more than 1.07 is good),  MACD_hist_max_amp: 0.646, MACD_hist_max_amp_1m: 0.205  </t>
+        </is>
+      </c>
+      <c r="Z880" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA880" t="inlineStr">
+        <is>
+          <t>FA1B645BB49E4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B881" t="n">
+        <v>4906</v>
+      </c>
+      <c r="C881" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="D881" s="2" t="n">
+        <v>45933.14629321759</v>
+      </c>
+      <c r="E881" t="n">
+        <v>576.12</v>
+      </c>
+      <c r="F881" t="n">
+        <v>2304.48</v>
+      </c>
+      <c r="G881" t="n">
+        <v>0</v>
+      </c>
+      <c r="H881" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>0</v>
+      </c>
+      <c r="K881" t="n">
+        <v>0</v>
+      </c>
+      <c r="L881" t="n">
+        <v>4</v>
+      </c>
+      <c r="M881" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N881" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O881" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P881" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q881" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R881" t="n">
+        <v>0</v>
+      </c>
+      <c r="S881" t="inlineStr">
+        <is>
+          <t>FA1B645B053E0AD000</t>
+        </is>
+      </c>
+      <c r="T881" t="inlineStr">
+        <is>
+          <t>FA1B645B51714AD000</t>
+        </is>
+      </c>
+      <c r="U881" t="inlineStr"/>
+      <c r="V881" t="inlineStr"/>
+      <c r="W881" t="inlineStr">
+        <is>
+          <t>FA1B645B53A697C000</t>
+        </is>
+      </c>
+      <c r="X881" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y881" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z881" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA881" t="inlineStr">
+        <is>
+          <t>FA1B645B523A57C000</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/db/real_trade_db.xlsx
+++ b/db/real_trade_db.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA881"/>
+  <dimension ref="A1:AA887"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84556,7 +84556,7 @@
         <v>877</v>
       </c>
       <c r="B879" t="n">
-        <v>4900</v>
+        <v>4936</v>
       </c>
       <c r="C879" t="inlineStr">
         <is>
@@ -84564,7 +84564,7 @@
         </is>
       </c>
       <c r="D879" s="2" t="n">
-        <v>45933.07370545139</v>
+        <v>45934.05161071759</v>
       </c>
       <c r="E879" t="n">
         <v>132.32</v>
@@ -84573,24 +84573,26 @@
         <v>2381.76</v>
       </c>
       <c r="G879" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="H879" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I879" t="inlineStr"/>
+        <v>45934.08968305556</v>
+      </c>
+      <c r="I879" t="n">
+        <v>135.31</v>
+      </c>
       <c r="J879" t="n">
-        <v>0</v>
+        <v>2435.58</v>
       </c>
       <c r="K879" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="L879" t="n">
         <v>18</v>
       </c>
       <c r="M879" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N879" t="n">
@@ -84603,10 +84605,10 @@
         <v>1.006</v>
       </c>
       <c r="Q879" t="n">
-        <v>1.25</v>
+        <v>0.31</v>
       </c>
       <c r="R879" t="n">
-        <v>0</v>
+        <v>52.76999999999971</v>
       </c>
       <c r="S879" t="inlineStr">
         <is>
@@ -84615,14 +84617,14 @@
       </c>
       <c r="T879" t="inlineStr">
         <is>
-          <t>FA1B64437E37D7C000</t>
+          <t>FA1B6585B6F14AD000</t>
         </is>
       </c>
       <c r="U879" t="inlineStr"/>
       <c r="V879" t="inlineStr"/>
       <c r="W879" t="inlineStr">
         <is>
-          <t>FA1B644380A8D7C000</t>
+          <t>FA1B6585B9310AD000</t>
         </is>
       </c>
       <c r="X879" t="inlineStr">
@@ -84632,8 +84634,7 @@
       </c>
       <c r="Y879" t="inlineStr">
         <is>
-          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:True, cond_b5:True, cond_b6: False  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.019, df['MACD'].iloc[-2]: -0.043,  df['MACD_hist'].iloc[-1]: 0.591, df['MACD_hist'].iloc[-2]: 0.557,  delta_MA50_M120.iloc[-1]: -1.160, delta_MA50_M120.iloc[-2]: -1.169,\ 
-  delta_MA5_M20.iloc[-1]: 0.789, delta_MA5_M20.iloc[-2]: 0.787,  delta_MA5_M10.iloc[-1]: 0.270, delta_MA5_M10.iloc[-2]: 0.221,  df['MA30_RSI10'].iloc[-1]: 52.014, df['MA30_RSI10'].iloc[-2]: 51.239  delta_MA50_MA120_1m.iloc[-1]: -0.051, delta_MA50_MA120_1m.iloc[-2]: -0.058  df_1m['MA30_RSI10'].iloc[-1]: 46.602, df_1m['MA30_RSI10'].iloc[-2]: 45.813  df_1m['MACD'].iloc[-1]: 0.014, df_1m['MACD'].iloc[-2]: 0.007  df_1m['MACD_hist'].iloc[-1]: 0.047, df_1m['MACD_hist'].iloc[-2]: 0.041  cond_a1:0, cond_a2:0, cond_a3:0, cond_a4:0  MACD_hist_speed: 1.061 (more than 1.07 is good),  MACD_hist_max_amp: 0.527, MACD_hist_max_amp_1m: 0.092  </t>
+          <t>{}</t>
         </is>
       </c>
       <c r="Z879" t="inlineStr">
@@ -84643,13 +84644,13 @@
       </c>
       <c r="AA879" t="inlineStr">
         <is>
-          <t>FA1B64437F0B4AD000</t>
+          <t>FA1B6585B7A697C000</t>
         </is>
       </c>
     </row>
     <row r="880">
       <c r="A880" s="1" t="n">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="B880" t="n">
         <v>4904</v>
@@ -84672,21 +84673,23 @@
         <v>1.02</v>
       </c>
       <c r="H880" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
+        <v>45934.05504837963</v>
+      </c>
+      <c r="I880" t="n">
+        <v>257.24</v>
+      </c>
       <c r="J880" t="n">
-        <v>0</v>
+        <v>2315.16</v>
       </c>
       <c r="K880" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="L880" t="n">
         <v>9</v>
       </c>
       <c r="M880" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N880" t="n">
@@ -84699,10 +84702,10 @@
         <v>1.006</v>
       </c>
       <c r="Q880" t="n">
-        <v>1.25</v>
+        <v>0.05</v>
       </c>
       <c r="R880" t="n">
-        <v>0</v>
+        <v>-10.96000000000031</v>
       </c>
       <c r="S880" t="inlineStr">
         <is>
@@ -84745,7 +84748,7 @@
     </row>
     <row r="881">
       <c r="A881" s="1" t="n">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="B881" t="n">
         <v>4906</v>
@@ -84768,21 +84771,23 @@
         <v>0</v>
       </c>
       <c r="H881" s="2" t="n">
-        <v>25934</v>
-      </c>
-      <c r="I881" t="inlineStr"/>
+        <v>45934.02064480324</v>
+      </c>
+      <c r="I881" t="n">
+        <v>577.1</v>
+      </c>
       <c r="J881" t="n">
-        <v>0</v>
+        <v>2308.4</v>
       </c>
       <c r="K881" t="n">
-        <v>0</v>
+        <v>1.101</v>
       </c>
       <c r="L881" t="n">
         <v>4</v>
       </c>
       <c r="M881" t="inlineStr">
         <is>
-          <t>bought</t>
+          <t>completed</t>
         </is>
       </c>
       <c r="N881" t="n">
@@ -84795,10 +84800,10 @@
         <v>1.006</v>
       </c>
       <c r="Q881" t="n">
-        <v>1.25</v>
+        <v>0.05</v>
       </c>
       <c r="R881" t="n">
-        <v>0</v>
+        <v>2.819000000000073</v>
       </c>
       <c r="S881" t="inlineStr">
         <is>
@@ -84835,6 +84840,576 @@
       <c r="AA881" t="inlineStr">
         <is>
           <t>FA1B645B523A57C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" s="1" t="n">
+        <v>880</v>
+      </c>
+      <c r="B882" t="n">
+        <v>4933</v>
+      </c>
+      <c r="C882" t="inlineStr">
+        <is>
+          <t>GIS</t>
+        </is>
+      </c>
+      <c r="D882" s="2" t="n">
+        <v>45934.03420574074</v>
+      </c>
+      <c r="E882" t="n">
+        <v>50.6091</v>
+      </c>
+      <c r="F882" t="n">
+        <v>2479.8459</v>
+      </c>
+      <c r="G882" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="H882" s="2" t="n">
+        <v>45934.09922538194</v>
+      </c>
+      <c r="I882" t="n">
+        <v>50.2902</v>
+      </c>
+      <c r="J882" t="n">
+        <v>2464.2198</v>
+      </c>
+      <c r="K882" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L882" t="n">
+        <v>49</v>
+      </c>
+      <c r="M882" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N882" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O882" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P882" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q882" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="R882" t="n">
+        <v>-17.91609999999995</v>
+      </c>
+      <c r="S882" t="inlineStr">
+        <is>
+          <t>FA1B657FDC1017C000</t>
+        </is>
+      </c>
+      <c r="T882" t="inlineStr">
+        <is>
+          <t>FA1B65808F2057C000</t>
+        </is>
+      </c>
+      <c r="U882" t="inlineStr"/>
+      <c r="V882" t="inlineStr"/>
+      <c r="W882" t="inlineStr">
+        <is>
+          <t>FA1B6580914C8AD000</t>
+        </is>
+      </c>
+      <c r="X882" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y882" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True  cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1  cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,  no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,  cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:1,  permit_1h_cond:0,  df['MACD'].iloc[-1]: 0.117, df['MACD'].iloc[-2]: 0.110,  df['MACD_hist'].iloc[-1]: 0.058, df['MACD_hist'].iloc[-2]: 0.052,  delta_MA50_M120.iloc[-1]: 0.247, delta_MA50_M120.iloc[-2]: 0.269,\ 
+  delta_MA5_M20.iloc[-1]: -0.006, delta_MA5_M20.iloc[-2]: -0.074,  delta_MA5_M10.iloc[-1]: -0.016, delta_MA5_M10.iloc[-2]: -0.184,  df['MA30_RSI10'].iloc[-1]: 55.199, df['MA30_RSI10'].iloc[-2]: 55.008  delta_MA50_MA120_1m.iloc[-1]: 0.239, delta_MA50_MA120_1m.iloc[-2]: 0.237  df_1m['MA30_RSI10'].iloc[-1]: 58.664, df_1m['MA30_RSI10'].iloc[-2]: 58.306  df_1m['MACD'].iloc[-1]: 0.038, df_1m['MACD'].iloc[-2]: 0.037  df_1m['MACD_hist'].iloc[-1]: -0.004, df_1m['MACD_hist'].iloc[-2]: -0.005  MACD_hist_speed: 1.108 (more than 1.07 is good)
+  </t>
+        </is>
+      </c>
+      <c r="Z882" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA882" t="inlineStr">
+        <is>
+          <t>FA1B65808FD257C000</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" s="1" t="n">
+        <v>881</v>
+      </c>
+      <c r="B883" t="n">
+        <v>4935</v>
+      </c>
+      <c r="C883" t="inlineStr">
+        <is>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D883" s="2" t="n">
+        <v>45934.04008702546</v>
+      </c>
+      <c r="E883" t="n">
+        <v>913.38</v>
+      </c>
+      <c r="F883" t="n">
+        <v>1826.76</v>
+      </c>
+      <c r="G883" t="n">
+        <v>0</v>
+      </c>
+      <c r="H883" s="2" t="n">
+        <v>45934.07801328703</v>
+      </c>
+      <c r="I883" t="n">
+        <v>912.64</v>
+      </c>
+      <c r="J883" t="n">
+        <v>1825.28</v>
+      </c>
+      <c r="K883" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="L883" t="n">
+        <v>2</v>
+      </c>
+      <c r="M883" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N883" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O883" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P883" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q883" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="R883" t="n">
+        <v>-2.490000000000018</v>
+      </c>
+      <c r="S883" t="inlineStr">
+        <is>
+          <t>FA1B658062224AD000</t>
+        </is>
+      </c>
+      <c r="T883" t="inlineStr"/>
+      <c r="U883" t="inlineStr"/>
+      <c r="V883" t="inlineStr"/>
+      <c r="W883" t="inlineStr"/>
+      <c r="X883" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y883" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z883" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B884" t="n">
+        <v>4941</v>
+      </c>
+      <c r="C884" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="D884" s="2" t="n">
+        <v>45934.16504248843</v>
+      </c>
+      <c r="E884" t="n">
+        <v>81.1788</v>
+      </c>
+      <c r="F884" t="n">
+        <v>2435.364</v>
+      </c>
+      <c r="G884" t="n">
+        <v>0</v>
+      </c>
+      <c r="H884" s="2" t="n">
+        <v>45934.20309125</v>
+      </c>
+      <c r="I884" t="n">
+        <v>80.782</v>
+      </c>
+      <c r="J884" t="n">
+        <v>2423.46</v>
+      </c>
+      <c r="K884" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="L884" t="n">
+        <v>30</v>
+      </c>
+      <c r="M884" t="inlineStr">
+        <is>
+          <t>completed</t>
+        </is>
+      </c>
+      <c r="N884" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O884" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P884" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q884" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R884" t="n">
+        <v>-12.994</v>
+      </c>
+      <c r="S884" t="inlineStr">
+        <is>
+          <t>FA1B65993B2FCAD000</t>
+        </is>
+      </c>
+      <c r="T884" t="inlineStr">
+        <is>
+          <t>FA1B65AB18F70AD000</t>
+        </is>
+      </c>
+      <c r="U884" t="inlineStr"/>
+      <c r="V884" t="inlineStr"/>
+      <c r="W884" t="inlineStr">
+        <is>
+          <t>FA1B65AB1B2057C000</t>
+        </is>
+      </c>
+      <c r="X884" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y884" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z884" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA884" t="inlineStr">
+        <is>
+          <t>FA1B65AB19B60AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B885" t="n">
+        <v>4939</v>
+      </c>
+      <c r="C885" t="inlineStr">
+        <is>
+          <t>COST</t>
+        </is>
+      </c>
+      <c r="D885" s="2" t="n">
+        <v>45934.15648304398</v>
+      </c>
+      <c r="E885" t="n">
+        <v>916.85</v>
+      </c>
+      <c r="F885" t="n">
+        <v>1833.7</v>
+      </c>
+      <c r="G885" t="n">
+        <v>1</v>
+      </c>
+      <c r="H885" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>0</v>
+      </c>
+      <c r="K885" t="n">
+        <v>0</v>
+      </c>
+      <c r="L885" t="n">
+        <v>2</v>
+      </c>
+      <c r="M885" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N885" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O885" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P885" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q885" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R885" t="n">
+        <v>0</v>
+      </c>
+      <c r="S885" t="inlineStr">
+        <is>
+          <t>FA1B65A82941CAD000</t>
+        </is>
+      </c>
+      <c r="T885" t="inlineStr">
+        <is>
+          <t>FA1B65A90BCF97C000</t>
+        </is>
+      </c>
+      <c r="U885" t="inlineStr"/>
+      <c r="V885" t="inlineStr"/>
+      <c r="W885" t="inlineStr">
+        <is>
+          <t>FA1B65A90DF617C000</t>
+        </is>
+      </c>
+      <c r="X885" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y885" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:True, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: False    cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:0    cond_delta_MA50_M120:0, cond_grad_MACD_1m:1,    no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,    cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,    permit_1h_cond:0,    df['MACD'].iloc[-1]: -5.566, df['MACD'].iloc[-2]: -5.782,    df['MACD_hist'].iloc[-1]: 1.458, df['MACD_hist'].iloc[-2]: 1.249,    delta_MA50_M120.iloc[-1]: -2.033, delta_MA50_M120.iloc[-2]: -2.004,\ 
+    delta_MA5_M20.iloc[-1]: -0.156, delta_MA5_M20.iloc[-2]: -0.224,    delta_MA5_M10.iloc[-1]: -0.107, delta_MA5_M10.iloc[-2]: -0.082,    df['MA30_RSI10'].iloc[-1]: 45.879, df['MA30_RSI10'].iloc[-2]: 44.928    delta_MA50_MA120_1m.iloc[-1]: 0.018, delta_MA50_MA120_1m.iloc[-2]: 0.017    df_1m['MA30_RSI10'].iloc[-1]: 53.836, df_1m['MA30_RSI10'].iloc[-2]: 53.179    df_1m['MACD'].iloc[-1]: 0.276, df_1m['MACD'].iloc[-2]: 0.238    df_1m['MACD_hist'].iloc[-1]: 0.371, df_1m['MACD_hist'].iloc[-2]: 0.352    MACD_hist_speed: 1.167 (more than 1.07 is good)
+    </t>
+        </is>
+      </c>
+      <c r="Z885" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA885" t="inlineStr">
+        <is>
+          <t>FA1B65A90C7CCAD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B886" t="n">
+        <v>4940</v>
+      </c>
+      <c r="C886" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="D886" s="2" t="n">
+        <v>45934.16406825231</v>
+      </c>
+      <c r="E886" t="n">
+        <v>122.8175</v>
+      </c>
+      <c r="F886" t="n">
+        <v>2456.35</v>
+      </c>
+      <c r="G886" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="H886" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>0</v>
+      </c>
+      <c r="K886" t="n">
+        <v>0</v>
+      </c>
+      <c r="L886" t="n">
+        <v>20</v>
+      </c>
+      <c r="M886" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N886" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O886" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P886" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q886" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R886" t="n">
+        <v>0</v>
+      </c>
+      <c r="S886" t="inlineStr">
+        <is>
+          <t>FA1B65AAA9434AD000</t>
+        </is>
+      </c>
+      <c r="T886" t="inlineStr">
+        <is>
+          <t>FA1B65ABA90817C000</t>
+        </is>
+      </c>
+      <c r="U886" t="inlineStr"/>
+      <c r="V886" t="inlineStr"/>
+      <c r="W886" t="inlineStr">
+        <is>
+          <t>FA1B65ABAB2C17C000</t>
+        </is>
+      </c>
+      <c r="X886" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y886" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cond_b1:False, cond_b2:False, cond_b3:False, cond_b4:False, cond_b5:True, cond_b6: True    cond_RSI:1, cond_grad_MACD:1, cond_grad_MA5:1    cond_delta_MA50_M120:1, cond_grad_MACD_1m:1,    no_big_spikes_1h:1, cond_grad_MA50_M120_1m_120:1,    cond_grad_MA5_1m:1, cond_RSI_1m:1, cond_VR:1, ha_cond:0,    permit_1h_cond:0,    df['MACD'].iloc[-1]: -0.300, df['MACD'].iloc[-2]: -0.312,    df['MACD_hist'].iloc[-1]: 0.017, df['MACD_hist'].iloc[-2]: -0.004,    delta_MA50_M120.iloc[-1]: -1.540, delta_MA50_M120.iloc[-2]: -1.547,\ 
+    delta_MA5_M20.iloc[-1]: -0.425, delta_MA5_M20.iloc[-2]: -0.513,    delta_MA5_M10.iloc[-1]: -0.036, delta_MA5_M10.iloc[-2]: -0.076,    df['MA30_RSI10'].iloc[-1]: 52.236, df['MA30_RSI10'].iloc[-2]: 51.905    delta_MA50_MA120_1m.iloc[-1]: 0.119, delta_MA50_MA120_1m.iloc[-2]: 0.118    df_1m['MA30_RSI10'].iloc[-1]: 53.599, df_1m['MA30_RSI10'].iloc[-2]: 53.430    df_1m['MACD'].iloc[-1]: 0.039, df_1m['MACD'].iloc[-2]: 0.038    df_1m['MACD_hist'].iloc[-1]: 0.006, df_1m['MACD_hist'].iloc[-2]: 0.004    MACD_hist_speed: -4.045 (more than 1.07 is good)
+    </t>
+        </is>
+      </c>
+      <c r="Z886" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA886" t="inlineStr">
+        <is>
+          <t>FA1B65ABA9CC4AD000</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B887" t="n">
+        <v>4943</v>
+      </c>
+      <c r="C887" t="inlineStr">
+        <is>
+          <t>BAC</t>
+        </is>
+      </c>
+      <c r="D887" s="2" t="n">
+        <v>45934.19037908564</v>
+      </c>
+      <c r="E887" t="n">
+        <v>50.745</v>
+      </c>
+      <c r="F887" t="n">
+        <v>2486.505</v>
+      </c>
+      <c r="G887" t="n">
+        <v>0</v>
+      </c>
+      <c r="H887" s="2" t="n">
+        <v>25934</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>0</v>
+      </c>
+      <c r="K887" t="n">
+        <v>0</v>
+      </c>
+      <c r="L887" t="n">
+        <v>49</v>
+      </c>
+      <c r="M887" t="inlineStr">
+        <is>
+          <t>bought</t>
+        </is>
+      </c>
+      <c r="N887" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="O887" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="P887" t="n">
+        <v>1.006</v>
+      </c>
+      <c r="Q887" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R887" t="n">
+        <v>0</v>
+      </c>
+      <c r="S887" t="inlineStr">
+        <is>
+          <t>FA1B65B1AFB357C000</t>
+        </is>
+      </c>
+      <c r="T887" t="inlineStr">
+        <is>
+          <t>FA1B65B370D20AD000</t>
+        </is>
+      </c>
+      <c r="U887" t="inlineStr"/>
+      <c r="V887" t="inlineStr"/>
+      <c r="W887" t="inlineStr">
+        <is>
+          <t>FA1B65B372D54AD000</t>
+        </is>
+      </c>
+      <c r="X887" t="inlineStr">
+        <is>
+          <t>MA50_MA5</t>
+        </is>
+      </c>
+      <c r="Y887" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="Z887" t="inlineStr">
+        <is>
+          <t>Сиднейское время (зима)</t>
+        </is>
+      </c>
+      <c r="AA887" t="inlineStr">
+        <is>
+          <t>FA1B65B37181CAD000</t>
         </is>
       </c>
     </row>
